--- a/Outputs/1. Budget/Grid Search/Output Files/750000/Output_17_29.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/750000/Output_17_29.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1702237.631228116</v>
+        <v>1669956.227697233</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>6486630.972584556</v>
+        <v>6486630.972584561</v>
       </c>
     </row>
     <row r="9">
@@ -1369,16 +1369,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>187.2551225452971</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
         <v>406.8760457417114</v>
@@ -1423,22 +1423,22 @@
         <v>124.7874829717001</v>
       </c>
       <c r="T11" t="n">
-        <v>206.9146911261644</v>
+        <v>162.6558958697678</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>251.0499378478622</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1466,10 +1466,10 @@
         <v>135.3657483393379</v>
       </c>
       <c r="H12" t="n">
-        <v>93.13436112172583</v>
+        <v>93.13436112172582</v>
       </c>
       <c r="I12" t="n">
-        <v>21.30239922246436</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1505,7 +1505,7 @@
         <v>192.192932426668</v>
       </c>
       <c r="U12" t="n">
-        <v>154.368165235535</v>
+        <v>225.8112657109832</v>
       </c>
       <c r="V12" t="n">
         <v>232.8005871494253</v>
@@ -1514,7 +1514,7 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X12" t="n">
-        <v>205.7729852034775</v>
+        <v>155.6322839504945</v>
       </c>
       <c r="Y12" t="n">
         <v>205.6826957773044</v>
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
@@ -1539,16 +1539,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>166.3328844140846</v>
+        <v>129.8339481036472</v>
       </c>
       <c r="H13" t="n">
-        <v>147.485201092913</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>105.5870378728063</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1578,10 +1578,10 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>118.2694521832859</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>220.8610019386828</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -1590,10 +1590,10 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -1615,7 +1615,7 @@
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
         <v>406.8760457417114</v>
@@ -1624,10 +1624,10 @@
         <v>411.6062992654567</v>
       </c>
       <c r="H14" t="n">
-        <v>301.6186538912489</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>67.96895394968163</v>
+        <v>67.96895394968161</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1663,16 +1663,16 @@
         <v>206.9146911261644</v>
       </c>
       <c r="U14" t="n">
-        <v>128.7224456570551</v>
+        <v>251.0499378478622</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>191.4904310942347</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
         <v>386.2379386560536</v>
@@ -1700,13 +1700,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G15" t="n">
-        <v>135.3657483393379</v>
+        <v>63.92264786388973</v>
       </c>
       <c r="H15" t="n">
-        <v>93.13436112172583</v>
+        <v>93.13436112172582</v>
       </c>
       <c r="I15" t="n">
-        <v>21.30239922246436</v>
+        <v>21.30239922246435</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1742,7 +1742,7 @@
         <v>192.192932426668</v>
       </c>
       <c r="U15" t="n">
-        <v>154.368165235535</v>
+        <v>225.8112657109832</v>
       </c>
       <c r="V15" t="n">
         <v>232.8005871494253</v>
@@ -1764,7 +1764,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
@@ -1782,10 +1782,10 @@
         <v>166.3328844140846</v>
       </c>
       <c r="H16" t="n">
-        <v>147.485201092913</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>105.5870378728063</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,13 +1812,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>102.739413241946</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>195.1205252336517</v>
       </c>
       <c r="T16" t="n">
-        <v>188.2370170863346</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -1830,10 +1830,10 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>176.2211659153538</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1843,13 +1843,13 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
         <v>381.9303700722618</v>
@@ -1864,7 +1864,7 @@
         <v>301.6186538912489</v>
       </c>
       <c r="I17" t="n">
-        <v>67.96895394968163</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1897,7 +1897,7 @@
         <v>124.7874829717001</v>
       </c>
       <c r="T17" t="n">
-        <v>206.9146911261644</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
@@ -1906,13 +1906,13 @@
         <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>20.87224906942121</v>
       </c>
       <c r="X17" t="n">
         <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>160.2773426924266</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="18">
@@ -1934,13 +1934,13 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F18" t="n">
-        <v>73.6261119179365</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G18" t="n">
         <v>135.3657483393379</v>
       </c>
       <c r="H18" t="n">
-        <v>93.13436112172582</v>
+        <v>21.69126064627849</v>
       </c>
       <c r="I18" t="n">
         <v>21.30239922246435</v>
@@ -2004,22 +2004,22 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>166.3328844140846</v>
       </c>
       <c r="H19" t="n">
-        <v>147.485201092913</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2052,25 +2052,25 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>195.1205252336517</v>
       </c>
       <c r="T19" t="n">
-        <v>220.8610019386828</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2285878140705</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>157.5012761168599</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>16.99337586466497</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2080,16 +2080,16 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634806</v>
+        <v>101.1011843990729</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
         <v>406.8760457417114</v>
@@ -2131,13 +2131,13 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>109.1021822892708</v>
+        <v>124.7874829717001</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>251.0499378478622</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -2149,7 +2149,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="21">
@@ -2168,7 +2168,7 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E21" t="n">
-        <v>157.6450804554009</v>
+        <v>86.20197997995274</v>
       </c>
       <c r="F21" t="n">
         <v>145.0692123933839</v>
@@ -2210,7 +2210,7 @@
         <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>63.50388216742073</v>
+        <v>134.9469826428689</v>
       </c>
       <c r="T21" t="n">
         <v>192.192932426668</v>
@@ -2238,25 +2238,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>139.6741761672658</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>166.3328844140846</v>
       </c>
       <c r="H22" t="n">
-        <v>147.485201092913</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>85.50162400254538</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -2320,19 +2320,19 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>119.9841683304792</v>
       </c>
       <c r="E23" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>353.6819938686414</v>
+        <v>411.6062992654567</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -2368,16 +2368,16 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>124.7874829717001</v>
       </c>
       <c r="T23" t="n">
-        <v>206.9146911261644</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
         <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
         <v>0</v>
@@ -2411,7 +2411,7 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G24" t="n">
-        <v>135.3657483393379</v>
+        <v>135.3657483393378</v>
       </c>
       <c r="H24" t="n">
         <v>93.13436112172582</v>
@@ -2475,16 +2475,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -2526,22 +2526,22 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>172.745740444601</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>220.8610019386828</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2285878140705</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>144.729392448123</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -2554,7 +2554,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
         <v>365.2728917710076</v>
@@ -2563,16 +2563,16 @@
         <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>195.3237932237982</v>
+        <v>411.6062992654567</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>301.6186538912489</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2608,19 +2608,19 @@
         <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>206.9146911261644</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>251.0499378478622</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>158.529523507277</v>
       </c>
       <c r="X26" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
         <v>386.2379386560536</v>
@@ -2712,7 +2712,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -2730,10 +2730,10 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>94.7929954859042</v>
+        <v>147.485201092913</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>105.5870378728063</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2766,13 +2766,13 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>220.8610019386828</v>
       </c>
       <c r="U28" t="n">
         <v>286.2285878140705</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>52.82937808726729</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
@@ -2797,16 +2797,16 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
-        <v>406.8760457417114</v>
+        <v>239.4688027523047</v>
       </c>
       <c r="G29" t="n">
-        <v>277.5527048687221</v>
+        <v>411.6062992654567</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -2842,13 +2842,13 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>124.7874829717001</v>
       </c>
       <c r="T29" t="n">
         <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>251.0499378478622</v>
       </c>
       <c r="V29" t="n">
         <v>327.7522584701349</v>
@@ -2857,7 +2857,7 @@
         <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
         <v>386.2379386560536</v>
@@ -2885,7 +2885,7 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G30" t="n">
-        <v>135.3657483393379</v>
+        <v>135.3657483393378</v>
       </c>
       <c r="H30" t="n">
         <v>93.13436112172582</v>
@@ -2949,19 +2949,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -3003,7 +3003,7 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>220.8610019386828</v>
+        <v>107.3781545692132</v>
       </c>
       <c r="U31" t="n">
         <v>286.2285878140705</v>
@@ -3012,13 +3012,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>164.278816937231</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -3028,25 +3028,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>406.8760457417114</v>
+        <v>274.0545368010793</v>
       </c>
       <c r="G32" t="n">
-        <v>411.6062992654567</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>301.6186538912489</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>124.7874829717001</v>
       </c>
       <c r="T32" t="n">
         <v>0</v>
@@ -3088,16 +3088,16 @@
         <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
-        <v>169.9554326143945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="33">
@@ -3186,28 +3186,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>75.06173240118501</v>
       </c>
       <c r="C34" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>166.3328844140846</v>
       </c>
       <c r="H34" t="n">
-        <v>147.485201092913</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>105.5870378728063</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3237,25 +3237,25 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>195.1205252336517</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>220.8610019386828</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>286.2285878140705</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>84.71646221155248</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3268,13 +3268,13 @@
         <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>123.1675086773168</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
-        <v>381.9303700722618</v>
+        <v>14.76398879744122</v>
       </c>
       <c r="F35" t="n">
         <v>406.8760457417114</v>
@@ -3283,7 +3283,7 @@
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>301.6186538912489</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>124.7874829717001</v>
       </c>
       <c r="T35" t="n">
         <v>206.9146911261644</v>
@@ -3325,16 +3325,16 @@
         <v>251.0499378478622</v>
       </c>
       <c r="V35" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="36">
@@ -3429,7 +3429,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
@@ -3438,10 +3438,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>166.3328844140846</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>147.485201092913</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>105.5870378728063</v>
@@ -3474,19 +3474,19 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>195.1205252336517</v>
       </c>
       <c r="T37" t="n">
-        <v>220.8610019386828</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>286.2285878140705</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>77.24043042654034</v>
+        <v>27.04823451888337</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -3505,19 +3505,19 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>411.6062992654567</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>124.7874829717001</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
         <v>0</v>
@@ -3562,16 +3562,16 @@
         <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>83.97561525252785</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>386.2379386560536</v>
+        <v>129.5923142503269</v>
       </c>
     </row>
     <row r="39">
@@ -3599,7 +3599,7 @@
         <v>135.3657483393379</v>
       </c>
       <c r="H39" t="n">
-        <v>93.13436112172582</v>
+        <v>21.69126064627761</v>
       </c>
       <c r="I39" t="n">
         <v>21.30239922246435</v>
@@ -3635,7 +3635,7 @@
         <v>134.9469826428689</v>
       </c>
       <c r="T39" t="n">
-        <v>120.7498319512208</v>
+        <v>192.192932426668</v>
       </c>
       <c r="U39" t="n">
         <v>225.8112657109832</v>
@@ -3660,28 +3660,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>133.9846926361023</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>166.3328844140846</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>105.5870378728063</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,16 +3708,16 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>102.739413241946</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>220.8610019386828</v>
       </c>
       <c r="U40" t="n">
-        <v>286.2285878140705</v>
+        <v>113.0363777788947</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
@@ -3729,7 +3729,7 @@
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -3745,7 +3745,7 @@
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>18.21466120005543</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
@@ -3799,13 +3799,13 @@
         <v>251.0499378478622</v>
       </c>
       <c r="V41" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
-        <v>369.731100678469</v>
+        <v>361.014978727977</v>
       </c>
       <c r="Y41" t="n">
         <v>386.2379386560536</v>
@@ -3827,7 +3827,7 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E42" t="n">
-        <v>157.6450804554009</v>
+        <v>107.504379202417</v>
       </c>
       <c r="F42" t="n">
         <v>145.0692123933839</v>
@@ -3836,10 +3836,10 @@
         <v>135.3657483393379</v>
       </c>
       <c r="H42" t="n">
-        <v>21.69126064627715</v>
+        <v>93.13436112172582</v>
       </c>
       <c r="I42" t="n">
-        <v>21.30239922246436</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3897,28 +3897,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>171.8855624258952</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>147.485201092913</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>105.5870378728063</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>102.739413241946</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -3954,7 +3954,7 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>286.2285878140705</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -3963,10 +3963,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>110.9603109356156</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -3976,10 +3976,10 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>171.052944214553</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
         <v>354.683041620683</v>
@@ -3994,7 +3994,7 @@
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>301.6186538912489</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4030,7 +4030,7 @@
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>206.9146911261644</v>
+        <v>84.31128734950357</v>
       </c>
       <c r="U44" t="n">
         <v>251.0499378478622</v>
@@ -4042,10 +4042,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -4061,7 +4061,7 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D45" t="n">
-        <v>147.4450655646388</v>
+        <v>97.30436431165478</v>
       </c>
       <c r="E45" t="n">
         <v>157.6450804554009</v>
@@ -4073,10 +4073,10 @@
         <v>135.3657483393379</v>
       </c>
       <c r="H45" t="n">
-        <v>93.13436112172583</v>
+        <v>93.13436112172582</v>
       </c>
       <c r="I45" t="n">
-        <v>21.30239922246436</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4106,7 +4106,7 @@
         <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>63.50388216742027</v>
+        <v>134.9469826428689</v>
       </c>
       <c r="T45" t="n">
         <v>192.192932426668</v>
@@ -4152,7 +4152,7 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>42.42703359015189</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4182,13 +4182,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>79.50445043418918</v>
+        <v>102.739413241946</v>
       </c>
       <c r="S46" t="n">
         <v>195.1205252336517</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>220.8610019386828</v>
       </c>
       <c r="U46" t="n">
         <v>286.2285878140705</v>
@@ -4197,7 +4197,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
@@ -5017,13 +5017,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1392.233655089254</v>
+        <v>834.1245497192494</v>
       </c>
       <c r="C11" t="n">
-        <v>1023.271138148843</v>
+        <v>834.1245497192494</v>
       </c>
       <c r="D11" t="n">
-        <v>1023.271138148843</v>
+        <v>834.1245497192494</v>
       </c>
       <c r="E11" t="n">
         <v>834.1245497192494</v>
@@ -5035,58 +5035,58 @@
         <v>423.1386449296419</v>
       </c>
       <c r="H11" t="n">
-        <v>118.4733379687844</v>
+        <v>118.4733379687845</v>
       </c>
       <c r="I11" t="n">
-        <v>49.81782892870199</v>
+        <v>49.81782892870201</v>
       </c>
       <c r="J11" t="n">
-        <v>181.1756535819834</v>
+        <v>181.1756535819845</v>
       </c>
       <c r="K11" t="n">
-        <v>428.7854999799487</v>
+        <v>428.7854999799501</v>
       </c>
       <c r="L11" t="n">
-        <v>772.8691714549145</v>
+        <v>772.8691714549166</v>
       </c>
       <c r="M11" t="n">
-        <v>1187.397991240658</v>
+        <v>1187.39799124066</v>
       </c>
       <c r="N11" t="n">
-        <v>1613.248129085906</v>
+        <v>1613.248129085909</v>
       </c>
       <c r="O11" t="n">
-        <v>2002.031077317523</v>
+        <v>2002.031077317525</v>
       </c>
       <c r="P11" t="n">
-        <v>2299.34732796285</v>
+        <v>2299.347327962851</v>
       </c>
       <c r="Q11" t="n">
-        <v>2474.446703561747</v>
+        <v>2474.446703561748</v>
       </c>
       <c r="R11" t="n">
-        <v>2490.8914464351</v>
+        <v>2490.891446435101</v>
       </c>
       <c r="S11" t="n">
-        <v>2364.843483837423</v>
+        <v>2364.843483837424</v>
       </c>
       <c r="T11" t="n">
-        <v>2155.838745326146</v>
+        <v>2200.544599120487</v>
       </c>
       <c r="U11" t="n">
-        <v>2155.838745326146</v>
+        <v>1946.958803314565</v>
       </c>
       <c r="V11" t="n">
-        <v>2155.838745326146</v>
+        <v>1946.958803314565</v>
       </c>
       <c r="W11" t="n">
-        <v>2155.838745326146</v>
+        <v>1594.190148044451</v>
       </c>
       <c r="X11" t="n">
-        <v>1782.372987065066</v>
+        <v>1220.724389783371</v>
       </c>
       <c r="Y11" t="n">
-        <v>1392.233655089254</v>
+        <v>1220.724389783371</v>
       </c>
     </row>
     <row r="12">
@@ -5096,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>931.3030471966489</v>
+        <v>909.7854722244628</v>
       </c>
       <c r="C12" t="n">
-        <v>756.8500179155219</v>
+        <v>735.3324429433358</v>
       </c>
       <c r="D12" t="n">
-        <v>607.9156082542706</v>
+        <v>586.3980332820845</v>
       </c>
       <c r="E12" t="n">
-        <v>448.6781532488152</v>
+        <v>427.1605782766289</v>
       </c>
       <c r="F12" t="n">
-        <v>302.1435952757001</v>
+        <v>280.6260203035139</v>
       </c>
       <c r="G12" t="n">
-        <v>165.4105161450557</v>
+        <v>143.8929411728695</v>
       </c>
       <c r="H12" t="n">
-        <v>71.33540390088822</v>
+        <v>49.81782892870201</v>
       </c>
       <c r="I12" t="n">
-        <v>49.81782892870199</v>
+        <v>49.81782892870201</v>
       </c>
       <c r="J12" t="n">
         <v>234.0659274310208</v>
       </c>
       <c r="K12" t="n">
-        <v>583.0451988570713</v>
+        <v>413.7755328491962</v>
       </c>
       <c r="L12" t="n">
-        <v>871.0094820397339</v>
+        <v>819.2919819292634</v>
       </c>
       <c r="M12" t="n">
-        <v>1226.407086288405</v>
+        <v>1174.689586177935</v>
       </c>
       <c r="N12" t="n">
-        <v>1605.61965251871</v>
+        <v>1791.185219170623</v>
       </c>
       <c r="O12" t="n">
-        <v>1930.305270232467</v>
+        <v>2115.87083688438</v>
       </c>
       <c r="P12" t="n">
-        <v>2171.561036994176</v>
+        <v>2357.126603646089</v>
       </c>
       <c r="Q12" t="n">
-        <v>2490.8914464351</v>
+        <v>2468.480498228521</v>
       </c>
       <c r="R12" t="n">
-        <v>2490.8914464351</v>
+        <v>2490.891446435101</v>
       </c>
       <c r="S12" t="n">
-        <v>2354.581362957454</v>
+        <v>2354.581362957455</v>
       </c>
       <c r="T12" t="n">
-        <v>2160.447087779001</v>
+        <v>2160.447087779002</v>
       </c>
       <c r="U12" t="n">
-        <v>2004.519648147148</v>
+        <v>1932.354900192151</v>
       </c>
       <c r="V12" t="n">
-        <v>1769.367539915405</v>
+        <v>1697.202791960408</v>
       </c>
       <c r="W12" t="n">
-        <v>1515.130183187204</v>
+        <v>1442.965435232206</v>
       </c>
       <c r="X12" t="n">
-        <v>1307.278682981671</v>
+        <v>1285.761108009485</v>
       </c>
       <c r="Y12" t="n">
-        <v>1099.518384216717</v>
+        <v>1078.000809244531</v>
       </c>
     </row>
     <row r="13">
@@ -5175,34 +5175,34 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1087.315231116727</v>
+        <v>647.9291469762339</v>
       </c>
       <c r="C13" t="n">
-        <v>918.37904818882</v>
+        <v>478.9929640483271</v>
       </c>
       <c r="D13" t="n">
-        <v>768.2624087764842</v>
+        <v>328.8763246359913</v>
       </c>
       <c r="E13" t="n">
-        <v>620.3493151940911</v>
+        <v>180.9632310535982</v>
       </c>
       <c r="F13" t="n">
-        <v>473.4593676961807</v>
+        <v>180.9632310535982</v>
       </c>
       <c r="G13" t="n">
-        <v>305.4463531364993</v>
+        <v>49.81782892870201</v>
       </c>
       <c r="H13" t="n">
-        <v>156.4714025375973</v>
+        <v>49.81782892870201</v>
       </c>
       <c r="I13" t="n">
-        <v>49.81782892870199</v>
+        <v>49.81782892870201</v>
       </c>
       <c r="J13" t="n">
-        <v>73.44728005477633</v>
+        <v>73.44728005477636</v>
       </c>
       <c r="K13" t="n">
-        <v>242.1145636490678</v>
+        <v>242.1145636490679</v>
       </c>
       <c r="L13" t="n">
         <v>513.4770511394356</v>
@@ -5226,25 +5226,25 @@
         <v>1609.220368204927</v>
       </c>
       <c r="S13" t="n">
-        <v>1489.756275090497</v>
+        <v>1609.220368204927</v>
       </c>
       <c r="T13" t="n">
-        <v>1489.756275090497</v>
+        <v>1386.128447054742</v>
       </c>
       <c r="U13" t="n">
-        <v>1489.756275090497</v>
+        <v>1386.128447054742</v>
       </c>
       <c r="V13" t="n">
-        <v>1489.756275090497</v>
+        <v>1386.128447054742</v>
       </c>
       <c r="W13" t="n">
-        <v>1489.756275090497</v>
+        <v>1096.711277017781</v>
       </c>
       <c r="X13" t="n">
-        <v>1489.756275090497</v>
+        <v>868.7217261197641</v>
       </c>
       <c r="Y13" t="n">
-        <v>1268.963695946966</v>
+        <v>647.9291469762339</v>
       </c>
     </row>
     <row r="14">
@@ -5254,22 +5254,22 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1635.67674096947</v>
+        <v>945.2231814103684</v>
       </c>
       <c r="C14" t="n">
-        <v>1635.67674096947</v>
+        <v>945.2231814103684</v>
       </c>
       <c r="D14" t="n">
-        <v>1635.67674096947</v>
+        <v>945.2231814103684</v>
       </c>
       <c r="E14" t="n">
-        <v>1249.888488371226</v>
+        <v>945.2231814103684</v>
       </c>
       <c r="F14" t="n">
-        <v>838.9025835816184</v>
+        <v>534.2372766207609</v>
       </c>
       <c r="G14" t="n">
-        <v>423.1386449296419</v>
+        <v>118.4733379687844</v>
       </c>
       <c r="H14" t="n">
         <v>118.4733379687844</v>
@@ -5278,16 +5278,16 @@
         <v>49.81782892870199</v>
       </c>
       <c r="J14" t="n">
-        <v>181.1756535819836</v>
+        <v>181.1756535819834</v>
       </c>
       <c r="K14" t="n">
         <v>428.7854999799488</v>
       </c>
       <c r="L14" t="n">
-        <v>772.869171454915</v>
+        <v>772.8691714549152</v>
       </c>
       <c r="M14" t="n">
-        <v>1187.397991240658</v>
+        <v>1187.397991240659</v>
       </c>
       <c r="N14" t="n">
         <v>1613.248129085907</v>
@@ -5311,19 +5311,19 @@
         <v>2155.838745326146</v>
       </c>
       <c r="U14" t="n">
-        <v>2025.816072945282</v>
+        <v>1902.252949520224</v>
       </c>
       <c r="V14" t="n">
-        <v>2025.816072945282</v>
+        <v>1708.82827164726</v>
       </c>
       <c r="W14" t="n">
-        <v>2025.816072945282</v>
+        <v>1708.82827164726</v>
       </c>
       <c r="X14" t="n">
-        <v>2025.816072945282</v>
+        <v>1335.36251338618</v>
       </c>
       <c r="Y14" t="n">
-        <v>1635.67674096947</v>
+        <v>945.2231814103684</v>
       </c>
     </row>
     <row r="15">
@@ -5333,46 +5333,46 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>931.3030471966489</v>
+        <v>859.1382992416507</v>
       </c>
       <c r="C15" t="n">
-        <v>756.8500179155219</v>
+        <v>684.6852699605237</v>
       </c>
       <c r="D15" t="n">
-        <v>607.9156082542706</v>
+        <v>535.7508602992724</v>
       </c>
       <c r="E15" t="n">
-        <v>448.6781532488152</v>
+        <v>376.5134052938169</v>
       </c>
       <c r="F15" t="n">
-        <v>302.1435952757001</v>
+        <v>229.9788473207019</v>
       </c>
       <c r="G15" t="n">
         <v>165.4105161450557</v>
       </c>
       <c r="H15" t="n">
-        <v>71.33540390088822</v>
+        <v>71.3354039008882</v>
       </c>
       <c r="I15" t="n">
         <v>49.81782892870199</v>
       </c>
       <c r="J15" t="n">
-        <v>109.235802444016</v>
+        <v>109.2358024440161</v>
       </c>
       <c r="K15" t="n">
-        <v>550.7659925046443</v>
+        <v>288.9454078621915</v>
       </c>
       <c r="L15" t="n">
-        <v>1078.985996898225</v>
+        <v>576.9096910448542</v>
       </c>
       <c r="M15" t="n">
-        <v>1434.383601146896</v>
+        <v>932.3072952935258</v>
       </c>
       <c r="N15" t="n">
-        <v>1813.596167377201</v>
+        <v>1311.519861523831</v>
       </c>
       <c r="O15" t="n">
-        <v>2138.281785090958</v>
+        <v>1928.015494516518</v>
       </c>
       <c r="P15" t="n">
         <v>2379.537551852667</v>
@@ -5390,19 +5390,19 @@
         <v>2160.447087779001</v>
       </c>
       <c r="U15" t="n">
-        <v>2004.519648147148</v>
+        <v>1932.35490019215</v>
       </c>
       <c r="V15" t="n">
-        <v>1769.367539915405</v>
+        <v>1697.202791960407</v>
       </c>
       <c r="W15" t="n">
-        <v>1515.130183187204</v>
+        <v>1442.965435232205</v>
       </c>
       <c r="X15" t="n">
-        <v>1307.278682981671</v>
+        <v>1235.113935026673</v>
       </c>
       <c r="Y15" t="n">
-        <v>1099.518384216717</v>
+        <v>1027.353636261719</v>
       </c>
     </row>
     <row r="16">
@@ -5412,46 +5412,46 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1087.315231116727</v>
+        <v>831.6867069089295</v>
       </c>
       <c r="C16" t="n">
-        <v>918.37904818882</v>
+        <v>662.7505239810226</v>
       </c>
       <c r="D16" t="n">
-        <v>768.2624087764842</v>
+        <v>512.6338845686869</v>
       </c>
       <c r="E16" t="n">
-        <v>620.3493151940911</v>
+        <v>364.7207909862938</v>
       </c>
       <c r="F16" t="n">
-        <v>473.4593676961807</v>
+        <v>217.8308434883834</v>
       </c>
       <c r="G16" t="n">
-        <v>305.4463531364993</v>
+        <v>49.81782892870199</v>
       </c>
       <c r="H16" t="n">
-        <v>156.4714025375973</v>
+        <v>49.81782892870199</v>
       </c>
       <c r="I16" t="n">
         <v>49.81782892870199</v>
       </c>
       <c r="J16" t="n">
-        <v>73.44728005477633</v>
+        <v>73.44728005477636</v>
       </c>
       <c r="K16" t="n">
-        <v>242.1145636490678</v>
+        <v>242.1145636490679</v>
       </c>
       <c r="L16" t="n">
-        <v>513.4770511394356</v>
+        <v>513.4770511394357</v>
       </c>
       <c r="M16" t="n">
-        <v>809.9798694642501</v>
+        <v>809.9798694642502</v>
       </c>
       <c r="N16" t="n">
-        <v>1104.867129907538</v>
+        <v>1104.867129907539</v>
       </c>
       <c r="O16" t="n">
-        <v>1361.226948298602</v>
+        <v>1361.226948298603</v>
       </c>
       <c r="P16" t="n">
         <v>1557.066378230431</v>
@@ -5460,28 +5460,28 @@
         <v>1609.220368204927</v>
       </c>
       <c r="R16" t="n">
-        <v>1505.443183112052</v>
+        <v>1609.220368204927</v>
       </c>
       <c r="S16" t="n">
-        <v>1505.443183112052</v>
+        <v>1412.128928574976</v>
       </c>
       <c r="T16" t="n">
-        <v>1315.304782014744</v>
+        <v>1412.128928574976</v>
       </c>
       <c r="U16" t="n">
-        <v>1315.304782014744</v>
+        <v>1412.128928574976</v>
       </c>
       <c r="V16" t="n">
-        <v>1315.304782014744</v>
+        <v>1412.128928574976</v>
       </c>
       <c r="W16" t="n">
-        <v>1315.304782014744</v>
+        <v>1412.128928574976</v>
       </c>
       <c r="X16" t="n">
-        <v>1087.315231116727</v>
+        <v>1234.127750882699</v>
       </c>
       <c r="Y16" t="n">
-        <v>1087.315231116727</v>
+        <v>1013.335171739169</v>
       </c>
     </row>
     <row r="17">
@@ -5491,37 +5491,37 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1993.942439576221</v>
+        <v>1567.021231929388</v>
       </c>
       <c r="C17" t="n">
-        <v>1993.942439576221</v>
+        <v>1567.021231929388</v>
       </c>
       <c r="D17" t="n">
-        <v>1635.67674096947</v>
+        <v>1567.021231929388</v>
       </c>
       <c r="E17" t="n">
-        <v>1249.888488371226</v>
+        <v>1181.232979331143</v>
       </c>
       <c r="F17" t="n">
-        <v>838.9025835816185</v>
+        <v>770.247074541536</v>
       </c>
       <c r="G17" t="n">
-        <v>423.1386449296419</v>
+        <v>354.4831358895594</v>
       </c>
       <c r="H17" t="n">
-        <v>118.4733379687845</v>
+        <v>49.81782892870201</v>
       </c>
       <c r="I17" t="n">
         <v>49.81782892870201</v>
       </c>
       <c r="J17" t="n">
-        <v>181.1756535819834</v>
+        <v>181.1756535819836</v>
       </c>
       <c r="K17" t="n">
-        <v>428.7854999799488</v>
+        <v>428.7854999799492</v>
       </c>
       <c r="L17" t="n">
-        <v>772.8691714549152</v>
+        <v>772.8691714549157</v>
       </c>
       <c r="M17" t="n">
         <v>1187.397991240659</v>
@@ -5545,22 +5545,22 @@
         <v>2364.843483837424</v>
       </c>
       <c r="T17" t="n">
-        <v>2155.838745326147</v>
+        <v>2364.843483837424</v>
       </c>
       <c r="U17" t="n">
-        <v>2155.838745326147</v>
+        <v>2364.843483837424</v>
       </c>
       <c r="V17" t="n">
-        <v>2155.838745326147</v>
+        <v>2364.843483837424</v>
       </c>
       <c r="W17" t="n">
-        <v>2155.838745326147</v>
+        <v>2343.760403969321</v>
       </c>
       <c r="X17" t="n">
-        <v>2155.838745326147</v>
+        <v>2343.760403969321</v>
       </c>
       <c r="Y17" t="n">
-        <v>1993.942439576221</v>
+        <v>1953.62107199351</v>
       </c>
     </row>
     <row r="18">
@@ -5582,10 +5582,10 @@
         <v>376.5134052938178</v>
       </c>
       <c r="F18" t="n">
-        <v>302.1435952757001</v>
+        <v>229.9788473207028</v>
       </c>
       <c r="G18" t="n">
-        <v>165.4105161450557</v>
+        <v>93.24576819005841</v>
       </c>
       <c r="H18" t="n">
         <v>71.33540390088822</v>
@@ -5597,10 +5597,10 @@
         <v>109.2358024440161</v>
       </c>
       <c r="K18" t="n">
-        <v>475.743572762025</v>
+        <v>475.7435727620246</v>
       </c>
       <c r="L18" t="n">
-        <v>763.7078559446876</v>
+        <v>763.7078559446873</v>
       </c>
       <c r="M18" t="n">
         <v>1119.105460193359</v>
@@ -5649,22 +5649,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>535.7419770151923</v>
+        <v>514.8374303986295</v>
       </c>
       <c r="C19" t="n">
-        <v>366.8057940872854</v>
+        <v>514.8374303986295</v>
       </c>
       <c r="D19" t="n">
-        <v>366.8057940872854</v>
+        <v>364.7207909862938</v>
       </c>
       <c r="E19" t="n">
-        <v>366.8057940872854</v>
+        <v>364.7207909862938</v>
       </c>
       <c r="F19" t="n">
-        <v>366.8057940872854</v>
+        <v>217.8308434883834</v>
       </c>
       <c r="G19" t="n">
-        <v>198.792779527604</v>
+        <v>49.81782892870201</v>
       </c>
       <c r="H19" t="n">
         <v>49.81782892870201</v>
@@ -5673,22 +5673,22 @@
         <v>49.81782892870201</v>
       </c>
       <c r="J19" t="n">
-        <v>73.44728005477636</v>
+        <v>73.44728005477637</v>
       </c>
       <c r="K19" t="n">
         <v>242.1145636490679</v>
       </c>
       <c r="L19" t="n">
-        <v>513.4770511394356</v>
+        <v>513.4770511394357</v>
       </c>
       <c r="M19" t="n">
-        <v>809.9798694642501</v>
+        <v>809.9798694642502</v>
       </c>
       <c r="N19" t="n">
-        <v>1104.867129907538</v>
+        <v>1104.867129907539</v>
       </c>
       <c r="O19" t="n">
-        <v>1361.226948298602</v>
+        <v>1361.226948298603</v>
       </c>
       <c r="P19" t="n">
         <v>1557.066378230431</v>
@@ -5700,25 +5700,25 @@
         <v>1609.220368204927</v>
       </c>
       <c r="S19" t="n">
-        <v>1609.220368204927</v>
+        <v>1412.128928574976</v>
       </c>
       <c r="T19" t="n">
-        <v>1386.128447054742</v>
+        <v>1412.128928574976</v>
       </c>
       <c r="U19" t="n">
-        <v>1097.008661383964</v>
+        <v>1412.128928574976</v>
       </c>
       <c r="V19" t="n">
-        <v>842.3241731780771</v>
+        <v>1253.036730477138</v>
       </c>
       <c r="W19" t="n">
-        <v>552.9070031411165</v>
+        <v>963.619560440177</v>
       </c>
       <c r="X19" t="n">
-        <v>535.7419770151923</v>
+        <v>735.6300095421597</v>
       </c>
       <c r="Y19" t="n">
-        <v>535.7419770151923</v>
+        <v>514.8374303986295</v>
       </c>
     </row>
     <row r="20">
@@ -5728,13 +5728,13 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1620.621623575281</v>
+        <v>1245.530189310698</v>
       </c>
       <c r="C20" t="n">
-        <v>1620.621623575281</v>
+        <v>876.5676723702861</v>
       </c>
       <c r="D20" t="n">
-        <v>1262.35592496853</v>
+        <v>876.5676723702861</v>
       </c>
       <c r="E20" t="n">
         <v>876.5676723702861</v>
@@ -5752,13 +5752,13 @@
         <v>49.81782892870199</v>
       </c>
       <c r="J20" t="n">
-        <v>181.1756535819833</v>
+        <v>181.1756535819834</v>
       </c>
       <c r="K20" t="n">
-        <v>428.7854999799487</v>
+        <v>428.7854999799488</v>
       </c>
       <c r="L20" t="n">
-        <v>772.869171454915</v>
+        <v>772.8691714549152</v>
       </c>
       <c r="M20" t="n">
         <v>1187.397991240659</v>
@@ -5779,25 +5779,25 @@
         <v>2490.8914464351</v>
       </c>
       <c r="S20" t="n">
-        <v>2380.687221900483</v>
+        <v>2364.843483837423</v>
       </c>
       <c r="T20" t="n">
-        <v>2380.687221900483</v>
+        <v>2364.843483837423</v>
       </c>
       <c r="U20" t="n">
-        <v>2380.687221900483</v>
+        <v>2111.257688031501</v>
       </c>
       <c r="V20" t="n">
-        <v>2380.687221900483</v>
+        <v>2111.257688031501</v>
       </c>
       <c r="W20" t="n">
-        <v>2380.687221900483</v>
+        <v>2111.257688031501</v>
       </c>
       <c r="X20" t="n">
-        <v>2007.221463639403</v>
+        <v>1737.791929770422</v>
       </c>
       <c r="Y20" t="n">
-        <v>2007.221463639403</v>
+        <v>1347.65259779461</v>
       </c>
     </row>
     <row r="21">
@@ -5807,13 +5807,13 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>931.3030471966489</v>
+        <v>859.1382992416507</v>
       </c>
       <c r="C21" t="n">
-        <v>756.8500179155219</v>
+        <v>684.6852699605237</v>
       </c>
       <c r="D21" t="n">
-        <v>607.9156082542706</v>
+        <v>535.7508602992724</v>
       </c>
       <c r="E21" t="n">
         <v>448.6781532488151</v>
@@ -5831,19 +5831,19 @@
         <v>49.81782892870199</v>
       </c>
       <c r="J21" t="n">
-        <v>109.235802444016</v>
+        <v>234.0659274310208</v>
       </c>
       <c r="K21" t="n">
-        <v>288.9454078621915</v>
+        <v>413.7755328491963</v>
       </c>
       <c r="L21" t="n">
-        <v>576.9096910448541</v>
+        <v>701.7398160318589</v>
       </c>
       <c r="M21" t="n">
-        <v>1193.405324037541</v>
+        <v>1318.235449024546</v>
       </c>
       <c r="N21" t="n">
-        <v>1809.900957030228</v>
+        <v>1697.448015254851</v>
       </c>
       <c r="O21" t="n">
         <v>2138.281785090958</v>
@@ -5858,25 +5858,25 @@
         <v>2490.8914464351</v>
       </c>
       <c r="S21" t="n">
-        <v>2426.746110912452</v>
+        <v>2354.581362957454</v>
       </c>
       <c r="T21" t="n">
-        <v>2232.611835734</v>
+        <v>2160.447087779001</v>
       </c>
       <c r="U21" t="n">
-        <v>2004.519648147148</v>
+        <v>1932.35490019215</v>
       </c>
       <c r="V21" t="n">
-        <v>1769.367539915405</v>
+        <v>1697.202791960407</v>
       </c>
       <c r="W21" t="n">
-        <v>1515.130183187204</v>
+        <v>1442.965435232205</v>
       </c>
       <c r="X21" t="n">
-        <v>1307.278682981671</v>
+        <v>1235.113935026673</v>
       </c>
       <c r="Y21" t="n">
-        <v>1099.518384216717</v>
+        <v>1027.353636261719</v>
       </c>
     </row>
     <row r="22">
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1684.364939829343</v>
+        <v>534.6801199986834</v>
       </c>
       <c r="C22" t="n">
-        <v>1684.364939829343</v>
+        <v>365.7439370707765</v>
       </c>
       <c r="D22" t="n">
-        <v>1543.279913397762</v>
+        <v>365.7439370707765</v>
       </c>
       <c r="E22" t="n">
-        <v>1395.366819815369</v>
+        <v>217.8308434883834</v>
       </c>
       <c r="F22" t="n">
-        <v>1248.476872317458</v>
+        <v>217.8308434883834</v>
       </c>
       <c r="G22" t="n">
-        <v>1080.463857757777</v>
+        <v>49.81782892870199</v>
       </c>
       <c r="H22" t="n">
-        <v>931.488907158875</v>
+        <v>49.81782892870199</v>
       </c>
       <c r="I22" t="n">
-        <v>931.488907158875</v>
+        <v>49.81782892870199</v>
       </c>
       <c r="J22" t="n">
-        <v>955.1183582849494</v>
+        <v>73.44728005477636</v>
       </c>
       <c r="K22" t="n">
-        <v>1123.785641879241</v>
+        <v>242.1145636490679</v>
       </c>
       <c r="L22" t="n">
-        <v>1395.148129369609</v>
+        <v>513.4770511394357</v>
       </c>
       <c r="M22" t="n">
-        <v>1691.650947694423</v>
+        <v>809.9798694642502</v>
       </c>
       <c r="N22" t="n">
-        <v>1986.538208137712</v>
+        <v>1104.867129907539</v>
       </c>
       <c r="O22" t="n">
-        <v>2242.898026528776</v>
+        <v>1361.226948298603</v>
       </c>
       <c r="P22" t="n">
-        <v>2438.737456460604</v>
+        <v>1557.066378230431</v>
       </c>
       <c r="Q22" t="n">
-        <v>2490.8914464351</v>
+        <v>1609.220368204927</v>
       </c>
       <c r="R22" t="n">
-        <v>2490.8914464351</v>
+        <v>1522.855091434679</v>
       </c>
       <c r="S22" t="n">
-        <v>2490.8914464351</v>
+        <v>1522.855091434679</v>
       </c>
       <c r="T22" t="n">
-        <v>2490.8914464351</v>
+        <v>1522.855091434679</v>
       </c>
       <c r="U22" t="n">
-        <v>2201.771660764321</v>
+        <v>1233.735305763901</v>
       </c>
       <c r="V22" t="n">
-        <v>2201.771660764321</v>
+        <v>1233.735305763901</v>
       </c>
       <c r="W22" t="n">
-        <v>1912.354490727361</v>
+        <v>944.3181357269405</v>
       </c>
       <c r="X22" t="n">
-        <v>1684.364939829343</v>
+        <v>716.3285848289231</v>
       </c>
       <c r="Y22" t="n">
-        <v>1684.364939829343</v>
+        <v>716.3285848289231</v>
       </c>
     </row>
     <row r="23">
@@ -5965,76 +5965,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1205.319275536073</v>
+        <v>957.2131641061021</v>
       </c>
       <c r="C23" t="n">
-        <v>1205.319275536073</v>
+        <v>588.2506471656905</v>
       </c>
       <c r="D23" t="n">
-        <v>1205.319275536073</v>
+        <v>467.0545175389437</v>
       </c>
       <c r="E23" t="n">
-        <v>819.5310229378288</v>
+        <v>467.0545175389437</v>
       </c>
       <c r="F23" t="n">
-        <v>408.5451181482212</v>
+        <v>467.0545175389437</v>
       </c>
       <c r="G23" t="n">
-        <v>51.29057888696727</v>
+        <v>51.29057888696726</v>
       </c>
       <c r="H23" t="n">
-        <v>51.29057888696727</v>
+        <v>51.29057888696726</v>
       </c>
       <c r="I23" t="n">
-        <v>51.29057888696727</v>
+        <v>51.29057888696726</v>
       </c>
       <c r="J23" t="n">
-        <v>189.7538958209945</v>
+        <v>182.6484035402487</v>
       </c>
       <c r="K23" t="n">
-        <v>437.3637422189599</v>
+        <v>430.2582499382141</v>
       </c>
       <c r="L23" t="n">
-        <v>781.4474136939264</v>
+        <v>774.3419214131807</v>
       </c>
       <c r="M23" t="n">
-        <v>1195.97623347967</v>
+        <v>1188.870741198924</v>
       </c>
       <c r="N23" t="n">
-        <v>1621.826371324918</v>
+        <v>1614.720879044173</v>
       </c>
       <c r="O23" t="n">
-        <v>2010.609319556535</v>
+        <v>2003.50382727579</v>
       </c>
       <c r="P23" t="n">
         <v>2307.92557020186</v>
       </c>
       <c r="Q23" t="n">
-        <v>2483.024945800758</v>
+        <v>2483.024945800757</v>
       </c>
       <c r="R23" t="n">
         <v>2564.528944348363</v>
       </c>
       <c r="S23" t="n">
-        <v>2564.528944348363</v>
+        <v>2438.480981750686</v>
       </c>
       <c r="T23" t="n">
-        <v>2355.524205837086</v>
+        <v>2438.480981750686</v>
       </c>
       <c r="U23" t="n">
-        <v>2355.524205837086</v>
+        <v>2438.480981750686</v>
       </c>
       <c r="V23" t="n">
-        <v>2355.524205837086</v>
+        <v>2107.418094407115</v>
       </c>
       <c r="W23" t="n">
-        <v>2355.524205837086</v>
+        <v>2107.418094407115</v>
       </c>
       <c r="X23" t="n">
-        <v>1982.058447576007</v>
+        <v>1733.952336146036</v>
       </c>
       <c r="Y23" t="n">
-        <v>1591.919115600195</v>
+        <v>1343.813004170224</v>
       </c>
     </row>
     <row r="24">
@@ -6050,46 +6050,46 @@
         <v>758.322767873787</v>
       </c>
       <c r="D24" t="n">
-        <v>609.3883582125359</v>
+        <v>609.3883582125358</v>
       </c>
       <c r="E24" t="n">
         <v>450.1509032070803</v>
       </c>
       <c r="F24" t="n">
-        <v>303.6163452339654</v>
+        <v>303.6163452339653</v>
       </c>
       <c r="G24" t="n">
         <v>166.883266103321</v>
       </c>
       <c r="H24" t="n">
-        <v>72.80815385915349</v>
+        <v>72.80815385915346</v>
       </c>
       <c r="I24" t="n">
-        <v>51.29057888696727</v>
+        <v>51.29057888696726</v>
       </c>
       <c r="J24" t="n">
-        <v>235.5386773892861</v>
+        <v>110.7085524022813</v>
       </c>
       <c r="K24" t="n">
-        <v>634.2717485637559</v>
+        <v>552.2387424629096</v>
       </c>
       <c r="L24" t="n">
-        <v>922.2360317464185</v>
+        <v>840.2030256455723</v>
       </c>
       <c r="M24" t="n">
-        <v>1277.63363599509</v>
+        <v>1252.512751564244</v>
       </c>
       <c r="N24" t="n">
-        <v>1656.846202225395</v>
+        <v>1887.233665290464</v>
       </c>
       <c r="O24" t="n">
-        <v>1981.531819939152</v>
+        <v>2211.919283004221</v>
       </c>
       <c r="P24" t="n">
-        <v>2222.787586700861</v>
+        <v>2453.17504976593</v>
       </c>
       <c r="Q24" t="n">
-        <v>2542.117996141784</v>
+        <v>2564.528944348363</v>
       </c>
       <c r="R24" t="n">
         <v>2564.528944348363</v>
@@ -6104,7 +6104,7 @@
         <v>2005.992398105413</v>
       </c>
       <c r="V24" t="n">
-        <v>1770.840289873671</v>
+        <v>1770.84028987367</v>
       </c>
       <c r="W24" t="n">
         <v>1516.602933145469</v>
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1472.092320994774</v>
+        <v>220.2267618148742</v>
       </c>
       <c r="C25" t="n">
-        <v>1303.156138066867</v>
+        <v>51.29057888696726</v>
       </c>
       <c r="D25" t="n">
-        <v>1153.039498654532</v>
+        <v>51.29057888696726</v>
       </c>
       <c r="E25" t="n">
-        <v>1005.126405072138</v>
+        <v>51.29057888696726</v>
       </c>
       <c r="F25" t="n">
-        <v>1005.126405072138</v>
+        <v>51.29057888696726</v>
       </c>
       <c r="G25" t="n">
-        <v>1005.126405072138</v>
+        <v>51.29057888696726</v>
       </c>
       <c r="H25" t="n">
-        <v>1005.126405072138</v>
+        <v>51.29057888696726</v>
       </c>
       <c r="I25" t="n">
-        <v>1005.126405072138</v>
+        <v>51.29057888696726</v>
       </c>
       <c r="J25" t="n">
-        <v>1028.755856198213</v>
+        <v>74.92003001304163</v>
       </c>
       <c r="K25" t="n">
-        <v>1197.423139792504</v>
+        <v>243.5873136073332</v>
       </c>
       <c r="L25" t="n">
-        <v>1468.785627282872</v>
+        <v>514.949801097701</v>
       </c>
       <c r="M25" t="n">
-        <v>1765.288445607687</v>
+        <v>811.4526194225155</v>
       </c>
       <c r="N25" t="n">
-        <v>2060.175706050975</v>
+        <v>1106.339879865804</v>
       </c>
       <c r="O25" t="n">
-        <v>2316.535524442039</v>
+        <v>1362.699698256868</v>
       </c>
       <c r="P25" t="n">
-        <v>2512.374954373868</v>
+        <v>1558.539128188696</v>
       </c>
       <c r="Q25" t="n">
-        <v>2564.528944348363</v>
+        <v>1610.693118163192</v>
       </c>
       <c r="R25" t="n">
-        <v>2564.528944348363</v>
+        <v>1610.693118163192</v>
       </c>
       <c r="S25" t="n">
-        <v>2564.528944348363</v>
+        <v>1436.202471249454</v>
       </c>
       <c r="T25" t="n">
-        <v>2564.528944348363</v>
+        <v>1213.110550099269</v>
       </c>
       <c r="U25" t="n">
-        <v>2275.409158677585</v>
+        <v>1213.110550099269</v>
       </c>
       <c r="V25" t="n">
-        <v>2020.724670471698</v>
+        <v>958.4260618933822</v>
       </c>
       <c r="W25" t="n">
-        <v>1874.533364968544</v>
+        <v>669.0088918564217</v>
       </c>
       <c r="X25" t="n">
-        <v>1874.533364968544</v>
+        <v>441.0193409584043</v>
       </c>
       <c r="Y25" t="n">
-        <v>1653.740785825014</v>
+        <v>220.2267618148742</v>
       </c>
     </row>
     <row r="26">
@@ -6202,52 +6202,52 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1414.32401404735</v>
+        <v>1551.66824622982</v>
       </c>
       <c r="C26" t="n">
-        <v>1045.361497106938</v>
+        <v>1182.705729289409</v>
       </c>
       <c r="D26" t="n">
-        <v>1045.361497106938</v>
+        <v>1182.705729289409</v>
       </c>
       <c r="E26" t="n">
-        <v>659.5732445086942</v>
+        <v>1182.705729289409</v>
       </c>
       <c r="F26" t="n">
-        <v>248.5873397190866</v>
+        <v>771.7198244998012</v>
       </c>
       <c r="G26" t="n">
-        <v>51.29057888696727</v>
+        <v>355.9558858478247</v>
       </c>
       <c r="H26" t="n">
-        <v>51.29057888696727</v>
+        <v>51.29057888696726</v>
       </c>
       <c r="I26" t="n">
-        <v>51.29057888696727</v>
+        <v>51.29057888696726</v>
       </c>
       <c r="J26" t="n">
         <v>182.6484035402487</v>
       </c>
       <c r="K26" t="n">
-        <v>437.3637422189599</v>
+        <v>430.2582499382141</v>
       </c>
       <c r="L26" t="n">
-        <v>781.4474136939264</v>
+        <v>774.3419214131807</v>
       </c>
       <c r="M26" t="n">
-        <v>1195.97623347967</v>
+        <v>1188.870741198924</v>
       </c>
       <c r="N26" t="n">
-        <v>1621.826371324918</v>
+        <v>1614.720879044173</v>
       </c>
       <c r="O26" t="n">
-        <v>2010.609319556535</v>
+        <v>2075.668575230788</v>
       </c>
       <c r="P26" t="n">
-        <v>2307.92557020186</v>
+        <v>2372.984825876113</v>
       </c>
       <c r="Q26" t="n">
-        <v>2483.024945800758</v>
+        <v>2548.08420147501</v>
       </c>
       <c r="R26" t="n">
         <v>2564.528944348363</v>
@@ -6256,22 +6256,22 @@
         <v>2564.528944348363</v>
       </c>
       <c r="T26" t="n">
-        <v>2564.528944348363</v>
+        <v>2355.524205837086</v>
       </c>
       <c r="U26" t="n">
-        <v>2564.528944348363</v>
+        <v>2101.938410031164</v>
       </c>
       <c r="V26" t="n">
-        <v>2564.528944348363</v>
+        <v>2101.938410031164</v>
       </c>
       <c r="W26" t="n">
-        <v>2564.528944348363</v>
+        <v>1941.807578205632</v>
       </c>
       <c r="X26" t="n">
-        <v>2191.063186087284</v>
+        <v>1941.807578205632</v>
       </c>
       <c r="Y26" t="n">
-        <v>1800.923854111472</v>
+        <v>1551.66824622982</v>
       </c>
     </row>
     <row r="27">
@@ -6287,43 +6287,43 @@
         <v>758.322767873787</v>
       </c>
       <c r="D27" t="n">
-        <v>609.3883582125359</v>
+        <v>609.3883582125356</v>
       </c>
       <c r="E27" t="n">
-        <v>450.1509032070803</v>
+        <v>450.1509032070801</v>
       </c>
       <c r="F27" t="n">
-        <v>303.6163452339654</v>
+        <v>303.6163452339651</v>
       </c>
       <c r="G27" t="n">
-        <v>166.883266103321</v>
+        <v>166.8832661033211</v>
       </c>
       <c r="H27" t="n">
-        <v>72.80815385915349</v>
+        <v>72.80815385915366</v>
       </c>
       <c r="I27" t="n">
-        <v>51.29057888696727</v>
+        <v>51.29057888696726</v>
       </c>
       <c r="J27" t="n">
-        <v>150.1179492371869</v>
+        <v>130.2164608086016</v>
       </c>
       <c r="K27" t="n">
-        <v>329.8275546553623</v>
+        <v>309.926066226777</v>
       </c>
       <c r="L27" t="n">
-        <v>617.7918378380249</v>
+        <v>944.6469799529968</v>
       </c>
       <c r="M27" t="n">
-        <v>1252.512751564245</v>
+        <v>1300.044584201669</v>
       </c>
       <c r="N27" t="n">
-        <v>1887.233665290465</v>
+        <v>1679.257150431974</v>
       </c>
       <c r="O27" t="n">
-        <v>2211.919283004222</v>
+        <v>2003.942768145731</v>
       </c>
       <c r="P27" t="n">
-        <v>2453.175049765931</v>
+        <v>2245.19853490744</v>
       </c>
       <c r="Q27" t="n">
         <v>2564.528944348363</v>
@@ -6332,16 +6332,16 @@
         <v>2564.528944348363</v>
       </c>
       <c r="S27" t="n">
-        <v>2428.218860870718</v>
+        <v>2428.218860870717</v>
       </c>
       <c r="T27" t="n">
-        <v>2234.084585692266</v>
+        <v>2234.084585692265</v>
       </c>
       <c r="U27" t="n">
         <v>2005.992398105413</v>
       </c>
       <c r="V27" t="n">
-        <v>1770.840289873671</v>
+        <v>1770.84028987367</v>
       </c>
       <c r="W27" t="n">
         <v>1516.602933145469</v>
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1100.876905562951</v>
+        <v>306.9191030947645</v>
       </c>
       <c r="C28" t="n">
-        <v>1100.876905562951</v>
+        <v>306.9191030947645</v>
       </c>
       <c r="D28" t="n">
-        <v>1100.876905562951</v>
+        <v>306.9191030947645</v>
       </c>
       <c r="E28" t="n">
-        <v>1100.876905562951</v>
+        <v>306.9191030947645</v>
       </c>
       <c r="F28" t="n">
-        <v>1100.876905562951</v>
+        <v>306.9191030947645</v>
       </c>
       <c r="G28" t="n">
-        <v>1100.876905562951</v>
+        <v>306.9191030947645</v>
       </c>
       <c r="H28" t="n">
-        <v>1005.126405072138</v>
+        <v>157.9441524958625</v>
       </c>
       <c r="I28" t="n">
-        <v>1005.126405072138</v>
+        <v>51.29057888696726</v>
       </c>
       <c r="J28" t="n">
-        <v>1028.755856198213</v>
+        <v>74.92003001304163</v>
       </c>
       <c r="K28" t="n">
-        <v>1197.423139792504</v>
+        <v>243.5873136073332</v>
       </c>
       <c r="L28" t="n">
-        <v>1468.785627282872</v>
+        <v>514.949801097701</v>
       </c>
       <c r="M28" t="n">
-        <v>1765.288445607687</v>
+        <v>811.4526194225155</v>
       </c>
       <c r="N28" t="n">
-        <v>2060.175706050975</v>
+        <v>1106.339879865804</v>
       </c>
       <c r="O28" t="n">
-        <v>2316.535524442039</v>
+        <v>1362.699698256868</v>
       </c>
       <c r="P28" t="n">
-        <v>2512.374954373868</v>
+        <v>1558.539128188696</v>
       </c>
       <c r="Q28" t="n">
-        <v>2564.528944348363</v>
+        <v>1610.693118163192</v>
       </c>
       <c r="R28" t="n">
-        <v>2564.528944348363</v>
+        <v>1610.693118163192</v>
       </c>
       <c r="S28" t="n">
-        <v>2564.528944348363</v>
+        <v>1610.693118163192</v>
       </c>
       <c r="T28" t="n">
-        <v>2564.528944348363</v>
+        <v>1387.601197013008</v>
       </c>
       <c r="U28" t="n">
-        <v>2275.409158677585</v>
+        <v>1098.481411342229</v>
       </c>
       <c r="V28" t="n">
-        <v>2020.724670471698</v>
+        <v>1045.118403173273</v>
       </c>
       <c r="W28" t="n">
-        <v>1731.307500434738</v>
+        <v>755.701233136312</v>
       </c>
       <c r="X28" t="n">
-        <v>1503.31794953672</v>
+        <v>527.7116822382947</v>
       </c>
       <c r="Y28" t="n">
-        <v>1282.52537039319</v>
+        <v>306.9191030947645</v>
       </c>
     </row>
     <row r="29">
@@ -6439,19 +6439,19 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1469.860966767901</v>
+        <v>1463.692966625382</v>
       </c>
       <c r="C29" t="n">
-        <v>1100.898449827489</v>
+        <v>1094.730449684971</v>
       </c>
       <c r="D29" t="n">
-        <v>742.6327512207386</v>
+        <v>1094.730449684971</v>
       </c>
       <c r="E29" t="n">
-        <v>742.6327512207386</v>
+        <v>708.9421970867263</v>
       </c>
       <c r="F29" t="n">
-        <v>331.646846431131</v>
+        <v>467.0545175389437</v>
       </c>
       <c r="G29" t="n">
         <v>51.29057888696726</v>
@@ -6463,52 +6463,52 @@
         <v>51.29057888696726</v>
       </c>
       <c r="J29" t="n">
-        <v>182.6484035402487</v>
+        <v>189.7538958209935</v>
       </c>
       <c r="K29" t="n">
-        <v>430.258249938214</v>
+        <v>437.363742218959</v>
       </c>
       <c r="L29" t="n">
-        <v>774.3419214131804</v>
+        <v>781.4474136939255</v>
       </c>
       <c r="M29" t="n">
-        <v>1188.870741198924</v>
+        <v>1195.976233479669</v>
       </c>
       <c r="N29" t="n">
-        <v>1614.720879044173</v>
+        <v>1621.826371324918</v>
       </c>
       <c r="O29" t="n">
-        <v>2003.503827275789</v>
+        <v>2010.609319556535</v>
       </c>
       <c r="P29" t="n">
-        <v>2372.984825876113</v>
+        <v>2307.92557020186</v>
       </c>
       <c r="Q29" t="n">
-        <v>2548.08420147501</v>
+        <v>2483.024945800757</v>
       </c>
       <c r="R29" t="n">
         <v>2564.528944348363</v>
       </c>
       <c r="S29" t="n">
-        <v>2564.528944348363</v>
+        <v>2438.480981750686</v>
       </c>
       <c r="T29" t="n">
-        <v>2564.528944348363</v>
+        <v>2438.480981750686</v>
       </c>
       <c r="U29" t="n">
-        <v>2564.528944348363</v>
+        <v>2184.895185944765</v>
       </c>
       <c r="V29" t="n">
-        <v>2233.466057004792</v>
+        <v>1853.832298601194</v>
       </c>
       <c r="W29" t="n">
-        <v>2233.466057004792</v>
+        <v>1853.832298601194</v>
       </c>
       <c r="X29" t="n">
-        <v>1860.000298743712</v>
+        <v>1853.832298601194</v>
       </c>
       <c r="Y29" t="n">
-        <v>1469.860966767901</v>
+        <v>1463.692966625382</v>
       </c>
     </row>
     <row r="30">
@@ -6524,19 +6524,19 @@
         <v>758.322767873787</v>
       </c>
       <c r="D30" t="n">
-        <v>609.3883582125356</v>
+        <v>609.3883582125358</v>
       </c>
       <c r="E30" t="n">
-        <v>450.1509032070801</v>
+        <v>450.1509032070803</v>
       </c>
       <c r="F30" t="n">
-        <v>303.6163452339651</v>
+        <v>303.6163452339653</v>
       </c>
       <c r="G30" t="n">
-        <v>166.8832661033211</v>
+        <v>166.883266103321</v>
       </c>
       <c r="H30" t="n">
-        <v>72.80815385915366</v>
+        <v>72.80815385915346</v>
       </c>
       <c r="I30" t="n">
         <v>51.29057888696726</v>
@@ -6545,16 +6545,16 @@
         <v>110.7085524022813</v>
       </c>
       <c r="K30" t="n">
-        <v>290.4181578204567</v>
+        <v>552.2387424629096</v>
       </c>
       <c r="L30" t="n">
-        <v>578.3824410031193</v>
+        <v>873.3001853339392</v>
       </c>
       <c r="M30" t="n">
-        <v>1213.103354729339</v>
+        <v>1508.021099060159</v>
       </c>
       <c r="N30" t="n">
-        <v>1847.824268455559</v>
+        <v>1887.233665290464</v>
       </c>
       <c r="O30" t="n">
         <v>2211.919283004221</v>
@@ -6597,16 +6597,16 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>496.2102593796064</v>
+        <v>220.2267618148742</v>
       </c>
       <c r="C31" t="n">
-        <v>496.2102593796064</v>
+        <v>51.29057888696726</v>
       </c>
       <c r="D31" t="n">
-        <v>346.0936199672707</v>
+        <v>51.29057888696726</v>
       </c>
       <c r="E31" t="n">
-        <v>198.1805263848776</v>
+        <v>51.29057888696726</v>
       </c>
       <c r="F31" t="n">
         <v>51.29057888696726</v>
@@ -6621,10 +6621,10 @@
         <v>51.29057888696726</v>
       </c>
       <c r="J31" t="n">
-        <v>74.92003001304161</v>
+        <v>74.92003001304163</v>
       </c>
       <c r="K31" t="n">
-        <v>243.5873136073331</v>
+        <v>243.5873136073332</v>
       </c>
       <c r="L31" t="n">
         <v>514.949801097701</v>
@@ -6651,22 +6651,22 @@
         <v>1610.693118163192</v>
       </c>
       <c r="T31" t="n">
-        <v>1387.601197013007</v>
+        <v>1502.230335770048</v>
       </c>
       <c r="U31" t="n">
-        <v>1098.481411342229</v>
+        <v>1213.110550099269</v>
       </c>
       <c r="V31" t="n">
-        <v>843.7969231363421</v>
+        <v>958.4260618933822</v>
       </c>
       <c r="W31" t="n">
-        <v>843.7969231363421</v>
+        <v>669.0088918564217</v>
       </c>
       <c r="X31" t="n">
-        <v>843.7969231363421</v>
+        <v>441.0193409584043</v>
       </c>
       <c r="Y31" t="n">
-        <v>677.8587242098462</v>
+        <v>220.2267618148742</v>
       </c>
     </row>
     <row r="32">
@@ -6676,22 +6676,22 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1632.791191867207</v>
+        <v>991.0443489001098</v>
       </c>
       <c r="C32" t="n">
-        <v>1263.828674926796</v>
+        <v>991.0443489001098</v>
       </c>
       <c r="D32" t="n">
-        <v>1263.828674926796</v>
+        <v>632.7786502933593</v>
       </c>
       <c r="E32" t="n">
-        <v>878.0404223285514</v>
+        <v>632.7786502933593</v>
       </c>
       <c r="F32" t="n">
-        <v>467.0545175389437</v>
+        <v>355.9558858478247</v>
       </c>
       <c r="G32" t="n">
-        <v>51.29057888696726</v>
+        <v>355.9558858478247</v>
       </c>
       <c r="H32" t="n">
         <v>51.29057888696726</v>
@@ -6700,7 +6700,7 @@
         <v>51.29057888696726</v>
       </c>
       <c r="J32" t="n">
-        <v>182.6484035402487</v>
+        <v>254.8131514952466</v>
       </c>
       <c r="K32" t="n">
         <v>502.4229978932121</v>
@@ -6727,25 +6727,25 @@
         <v>2564.528944348363</v>
       </c>
       <c r="S32" t="n">
-        <v>2564.528944348363</v>
+        <v>2438.480981750686</v>
       </c>
       <c r="T32" t="n">
-        <v>2564.528944348363</v>
+        <v>2438.480981750686</v>
       </c>
       <c r="U32" t="n">
-        <v>2564.528944348363</v>
+        <v>2438.480981750686</v>
       </c>
       <c r="V32" t="n">
-        <v>2564.528944348363</v>
+        <v>2107.418094407115</v>
       </c>
       <c r="W32" t="n">
-        <v>2564.528944348363</v>
+        <v>1754.649439137001</v>
       </c>
       <c r="X32" t="n">
-        <v>2191.063186087283</v>
+        <v>1381.183680875921</v>
       </c>
       <c r="Y32" t="n">
-        <v>2019.391031931329</v>
+        <v>991.0443489001098</v>
       </c>
     </row>
     <row r="33">
@@ -6779,28 +6779,28 @@
         <v>51.29057888696726</v>
       </c>
       <c r="J33" t="n">
-        <v>127.7070010306074</v>
+        <v>110.7085524022813</v>
       </c>
       <c r="K33" t="n">
-        <v>307.4166064487828</v>
+        <v>552.2387424629096</v>
       </c>
       <c r="L33" t="n">
-        <v>595.3808896314454</v>
+        <v>873.3001853339392</v>
       </c>
       <c r="M33" t="n">
-        <v>1230.101803357665</v>
+        <v>1508.021099060159</v>
       </c>
       <c r="N33" t="n">
-        <v>1864.822717083885</v>
+        <v>1887.233665290464</v>
       </c>
       <c r="O33" t="n">
-        <v>2189.508334797642</v>
+        <v>2211.919283004221</v>
       </c>
       <c r="P33" t="n">
-        <v>2430.764101559351</v>
+        <v>2453.17504976593</v>
       </c>
       <c r="Q33" t="n">
-        <v>2542.117996141784</v>
+        <v>2564.528944348363</v>
       </c>
       <c r="R33" t="n">
         <v>2564.528944348363</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>2042.623807260163</v>
+        <v>536.1528699569487</v>
       </c>
       <c r="C34" t="n">
-        <v>1873.687624332256</v>
+        <v>367.2166870290418</v>
       </c>
       <c r="D34" t="n">
-        <v>1723.570984919921</v>
+        <v>367.2166870290418</v>
       </c>
       <c r="E34" t="n">
-        <v>1575.657891337527</v>
+        <v>219.3035934466487</v>
       </c>
       <c r="F34" t="n">
-        <v>1428.767943839617</v>
+        <v>219.3035934466487</v>
       </c>
       <c r="G34" t="n">
-        <v>1260.754929279936</v>
+        <v>51.29057888696726</v>
       </c>
       <c r="H34" t="n">
-        <v>1111.779978681034</v>
+        <v>51.29057888696726</v>
       </c>
       <c r="I34" t="n">
-        <v>1005.126405072138</v>
+        <v>51.29057888696726</v>
       </c>
       <c r="J34" t="n">
-        <v>1028.755856198213</v>
+        <v>74.92003001304163</v>
       </c>
       <c r="K34" t="n">
-        <v>1197.423139792504</v>
+        <v>243.5873136073332</v>
       </c>
       <c r="L34" t="n">
-        <v>1468.785627282872</v>
+        <v>514.949801097701</v>
       </c>
       <c r="M34" t="n">
-        <v>1765.288445607687</v>
+        <v>811.4526194225155</v>
       </c>
       <c r="N34" t="n">
-        <v>2060.175706050975</v>
+        <v>1106.339879865804</v>
       </c>
       <c r="O34" t="n">
-        <v>2316.535524442039</v>
+        <v>1362.699698256868</v>
       </c>
       <c r="P34" t="n">
-        <v>2512.374954373867</v>
+        <v>1558.539128188696</v>
       </c>
       <c r="Q34" t="n">
-        <v>2564.528944348363</v>
+        <v>1610.693118163192</v>
       </c>
       <c r="R34" t="n">
-        <v>2564.528944348363</v>
+        <v>1610.693118163192</v>
       </c>
       <c r="S34" t="n">
-        <v>2564.528944348363</v>
+        <v>1413.601678533241</v>
       </c>
       <c r="T34" t="n">
-        <v>2564.528944348363</v>
+        <v>1190.509757383056</v>
       </c>
       <c r="U34" t="n">
-        <v>2564.528944348363</v>
+        <v>901.389971712278</v>
       </c>
       <c r="V34" t="n">
-        <v>2309.844456142476</v>
+        <v>901.389971712278</v>
       </c>
       <c r="W34" t="n">
-        <v>2309.844456142476</v>
+        <v>611.9728016753174</v>
       </c>
       <c r="X34" t="n">
-        <v>2309.844456142476</v>
+        <v>611.9728016753174</v>
       </c>
       <c r="Y34" t="n">
-        <v>2224.272272090403</v>
+        <v>611.9728016753174</v>
       </c>
     </row>
     <row r="35">
@@ -6913,22 +6913,22 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>971.0036112431364</v>
+        <v>1138.647859283333</v>
       </c>
       <c r="C35" t="n">
-        <v>846.5919863165539</v>
+        <v>1138.647859283333</v>
       </c>
       <c r="D35" t="n">
-        <v>846.5919863165539</v>
+        <v>780.3821606765823</v>
       </c>
       <c r="E35" t="n">
-        <v>460.8037337183096</v>
+        <v>765.4690406791669</v>
       </c>
       <c r="F35" t="n">
-        <v>49.81782892870199</v>
+        <v>354.4831358895594</v>
       </c>
       <c r="G35" t="n">
-        <v>49.81782892870199</v>
+        <v>354.4831358895594</v>
       </c>
       <c r="H35" t="n">
         <v>49.81782892870199</v>
@@ -6937,13 +6937,13 @@
         <v>49.81782892870199</v>
       </c>
       <c r="J35" t="n">
-        <v>181.1756535819833</v>
+        <v>181.1756535819834</v>
       </c>
       <c r="K35" t="n">
-        <v>428.7854999799487</v>
+        <v>428.7854999799488</v>
       </c>
       <c r="L35" t="n">
-        <v>772.8691714549147</v>
+        <v>772.8691714549153</v>
       </c>
       <c r="M35" t="n">
         <v>1187.397991240658</v>
@@ -6964,25 +6964,25 @@
         <v>2490.8914464351</v>
       </c>
       <c r="S35" t="n">
-        <v>2490.8914464351</v>
+        <v>2364.843483837423</v>
       </c>
       <c r="T35" t="n">
-        <v>2281.886707923823</v>
+        <v>2155.838745326146</v>
       </c>
       <c r="U35" t="n">
-        <v>2028.300912117901</v>
+        <v>1902.252949520224</v>
       </c>
       <c r="V35" t="n">
-        <v>1697.23802477433</v>
+        <v>1902.252949520224</v>
       </c>
       <c r="W35" t="n">
-        <v>1344.469369504216</v>
+        <v>1902.252949520224</v>
       </c>
       <c r="X35" t="n">
-        <v>971.0036112431364</v>
+        <v>1528.787191259144</v>
       </c>
       <c r="Y35" t="n">
-        <v>971.0036112431364</v>
+        <v>1138.647859283333</v>
       </c>
     </row>
     <row r="36">
@@ -7016,28 +7016,28 @@
         <v>49.81782892870199</v>
       </c>
       <c r="J36" t="n">
-        <v>109.235802444016</v>
+        <v>234.0659274310208</v>
       </c>
       <c r="K36" t="n">
-        <v>288.9454078621915</v>
+        <v>553.7386469531789</v>
       </c>
       <c r="L36" t="n">
-        <v>576.9096910448541</v>
+        <v>841.7029301358416</v>
       </c>
       <c r="M36" t="n">
-        <v>1193.405324037541</v>
+        <v>1197.100534384513</v>
       </c>
       <c r="N36" t="n">
-        <v>1572.617890267846</v>
+        <v>1813.596167377201</v>
       </c>
       <c r="O36" t="n">
-        <v>2115.870836884379</v>
+        <v>2138.281785090958</v>
       </c>
       <c r="P36" t="n">
-        <v>2357.126603646088</v>
+        <v>2379.537551852667</v>
       </c>
       <c r="Q36" t="n">
-        <v>2468.48049822852</v>
+        <v>2490.8914464351</v>
       </c>
       <c r="R36" t="n">
         <v>2490.8914464351</v>
@@ -7071,22 +7071,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1087.315231116727</v>
+        <v>620.2106265458076</v>
       </c>
       <c r="C37" t="n">
-        <v>918.37904818882</v>
+        <v>451.2744436179007</v>
       </c>
       <c r="D37" t="n">
-        <v>768.2624087764842</v>
+        <v>451.2744436179007</v>
       </c>
       <c r="E37" t="n">
-        <v>620.3493151940911</v>
+        <v>303.3613500355076</v>
       </c>
       <c r="F37" t="n">
-        <v>473.4593676961807</v>
+        <v>156.4714025375973</v>
       </c>
       <c r="G37" t="n">
-        <v>305.4463531364993</v>
+        <v>156.4714025375973</v>
       </c>
       <c r="H37" t="n">
         <v>156.4714025375973</v>
@@ -7095,22 +7095,22 @@
         <v>49.81782892870199</v>
       </c>
       <c r="J37" t="n">
-        <v>73.44728005477634</v>
+        <v>73.44728005477636</v>
       </c>
       <c r="K37" t="n">
         <v>242.1145636490679</v>
       </c>
       <c r="L37" t="n">
-        <v>513.4770511394356</v>
+        <v>513.4770511394357</v>
       </c>
       <c r="M37" t="n">
-        <v>809.9798694642501</v>
+        <v>809.9798694642502</v>
       </c>
       <c r="N37" t="n">
-        <v>1104.867129907538</v>
+        <v>1104.867129907539</v>
       </c>
       <c r="O37" t="n">
-        <v>1361.226948298602</v>
+        <v>1361.226948298603</v>
       </c>
       <c r="P37" t="n">
         <v>1557.066378230431</v>
@@ -7122,25 +7122,25 @@
         <v>1609.220368204927</v>
       </c>
       <c r="S37" t="n">
-        <v>1609.220368204927</v>
+        <v>1412.128928574976</v>
       </c>
       <c r="T37" t="n">
-        <v>1386.128447054742</v>
+        <v>1412.128928574976</v>
       </c>
       <c r="U37" t="n">
-        <v>1386.128447054742</v>
+        <v>1123.009142904198</v>
       </c>
       <c r="V37" t="n">
-        <v>1386.128447054742</v>
+        <v>868.3246546983108</v>
       </c>
       <c r="W37" t="n">
-        <v>1308.107810260257</v>
+        <v>841.0032056893377</v>
       </c>
       <c r="X37" t="n">
-        <v>1308.107810260257</v>
+        <v>841.0032056893377</v>
       </c>
       <c r="Y37" t="n">
-        <v>1087.315231116727</v>
+        <v>620.2106265458076</v>
       </c>
     </row>
     <row r="38">
@@ -7150,76 +7150,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>777.0460444758642</v>
+        <v>1620.621623575281</v>
       </c>
       <c r="C38" t="n">
-        <v>408.0835275354525</v>
+        <v>1620.621623575281</v>
       </c>
       <c r="D38" t="n">
-        <v>49.81782892870201</v>
+        <v>1262.35592496853</v>
       </c>
       <c r="E38" t="n">
-        <v>49.81782892870201</v>
+        <v>876.5676723702861</v>
       </c>
       <c r="F38" t="n">
-        <v>49.81782892870201</v>
+        <v>465.5817675806785</v>
       </c>
       <c r="G38" t="n">
-        <v>49.81782892870201</v>
+        <v>49.81782892870199</v>
       </c>
       <c r="H38" t="n">
-        <v>49.81782892870201</v>
+        <v>49.81782892870199</v>
       </c>
       <c r="I38" t="n">
-        <v>49.81782892870201</v>
+        <v>49.81782892870199</v>
       </c>
       <c r="J38" t="n">
-        <v>181.1756535819845</v>
+        <v>181.1756535819834</v>
       </c>
       <c r="K38" t="n">
-        <v>428.7854999799501</v>
+        <v>428.7854999799488</v>
       </c>
       <c r="L38" t="n">
-        <v>772.8691714549166</v>
+        <v>772.8691714549152</v>
       </c>
       <c r="M38" t="n">
-        <v>1187.39799124066</v>
+        <v>1187.397991240659</v>
       </c>
       <c r="N38" t="n">
-        <v>1613.248129085909</v>
+        <v>1613.248129085907</v>
       </c>
       <c r="O38" t="n">
-        <v>2002.031077317525</v>
+        <v>2002.031077317524</v>
       </c>
       <c r="P38" t="n">
-        <v>2299.347327962851</v>
+        <v>2299.347327962849</v>
       </c>
       <c r="Q38" t="n">
-        <v>2474.446703561748</v>
+        <v>2474.446703561747</v>
       </c>
       <c r="R38" t="n">
-        <v>2490.891446435101</v>
+        <v>2490.8914464351</v>
       </c>
       <c r="S38" t="n">
-        <v>2364.843483837424</v>
+        <v>2490.8914464351</v>
       </c>
       <c r="T38" t="n">
-        <v>2364.843483837424</v>
+        <v>2490.8914464351</v>
       </c>
       <c r="U38" t="n">
-        <v>2364.843483837424</v>
+        <v>2490.8914464351</v>
       </c>
       <c r="V38" t="n">
-        <v>2280.019630046992</v>
+        <v>2490.8914464351</v>
       </c>
       <c r="W38" t="n">
-        <v>1927.250974776877</v>
+        <v>2138.122791164985</v>
       </c>
       <c r="X38" t="n">
-        <v>1553.785216515798</v>
+        <v>2138.122791164985</v>
       </c>
       <c r="Y38" t="n">
-        <v>1163.645884539986</v>
+        <v>2007.221463639403</v>
       </c>
     </row>
     <row r="39">
@@ -7229,76 +7229,76 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>931.3030471966489</v>
+        <v>859.1382992416507</v>
       </c>
       <c r="C39" t="n">
-        <v>756.8500179155219</v>
+        <v>684.6852699605237</v>
       </c>
       <c r="D39" t="n">
-        <v>607.9156082542706</v>
+        <v>535.7508602992724</v>
       </c>
       <c r="E39" t="n">
-        <v>448.6781532488152</v>
+        <v>376.5134052938169</v>
       </c>
       <c r="F39" t="n">
-        <v>302.1435952757001</v>
+        <v>229.9788473207019</v>
       </c>
       <c r="G39" t="n">
-        <v>165.4105161450557</v>
+        <v>93.2457681900575</v>
       </c>
       <c r="H39" t="n">
-        <v>71.33540390088822</v>
+        <v>71.3354039008882</v>
       </c>
       <c r="I39" t="n">
-        <v>49.81782892870201</v>
+        <v>49.81782892870199</v>
       </c>
       <c r="J39" t="n">
-        <v>234.0659274310208</v>
+        <v>109.2358024440161</v>
       </c>
       <c r="K39" t="n">
-        <v>553.73864695318</v>
+        <v>288.9454078621915</v>
       </c>
       <c r="L39" t="n">
-        <v>841.7029301358426</v>
+        <v>576.9096910448542</v>
       </c>
       <c r="M39" t="n">
-        <v>1197.100534384514</v>
+        <v>1193.405324037542</v>
       </c>
       <c r="N39" t="n">
-        <v>1813.596167377202</v>
+        <v>1809.900957030229</v>
       </c>
       <c r="O39" t="n">
-        <v>2138.281785090959</v>
+        <v>2138.281785090958</v>
       </c>
       <c r="P39" t="n">
-        <v>2379.537551852668</v>
+        <v>2379.537551852667</v>
       </c>
       <c r="Q39" t="n">
-        <v>2490.891446435101</v>
+        <v>2490.8914464351</v>
       </c>
       <c r="R39" t="n">
-        <v>2490.891446435101</v>
+        <v>2490.8914464351</v>
       </c>
       <c r="S39" t="n">
-        <v>2354.581362957455</v>
+        <v>2354.581362957454</v>
       </c>
       <c r="T39" t="n">
-        <v>2232.611835734</v>
+        <v>2160.447087779001</v>
       </c>
       <c r="U39" t="n">
-        <v>2004.519648147148</v>
+        <v>1932.35490019215</v>
       </c>
       <c r="V39" t="n">
-        <v>1769.367539915405</v>
+        <v>1697.202791960407</v>
       </c>
       <c r="W39" t="n">
-        <v>1515.130183187204</v>
+        <v>1442.965435232205</v>
       </c>
       <c r="X39" t="n">
-        <v>1307.278682981671</v>
+        <v>1235.113935026673</v>
       </c>
       <c r="Y39" t="n">
-        <v>1099.518384216717</v>
+        <v>1027.353636261719</v>
       </c>
     </row>
     <row r="40">
@@ -7308,28 +7308,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>672.2217391984263</v>
+        <v>325.4075854655042</v>
       </c>
       <c r="C40" t="n">
-        <v>503.2855562705195</v>
+        <v>156.4714025375973</v>
       </c>
       <c r="D40" t="n">
-        <v>353.1689168581837</v>
+        <v>156.4714025375973</v>
       </c>
       <c r="E40" t="n">
-        <v>353.1689168581837</v>
+        <v>156.4714025375973</v>
       </c>
       <c r="F40" t="n">
-        <v>217.8308434883834</v>
+        <v>156.4714025375973</v>
       </c>
       <c r="G40" t="n">
-        <v>49.81782892870201</v>
+        <v>156.4714025375973</v>
       </c>
       <c r="H40" t="n">
-        <v>49.81782892870201</v>
+        <v>156.4714025375973</v>
       </c>
       <c r="I40" t="n">
-        <v>49.81782892870201</v>
+        <v>49.81782892870199</v>
       </c>
       <c r="J40" t="n">
         <v>73.44728005477636</v>
@@ -7338,16 +7338,16 @@
         <v>242.1145636490679</v>
       </c>
       <c r="L40" t="n">
-        <v>513.4770511394356</v>
+        <v>513.4770511394357</v>
       </c>
       <c r="M40" t="n">
-        <v>809.9798694642501</v>
+        <v>809.9798694642502</v>
       </c>
       <c r="N40" t="n">
-        <v>1104.867129907538</v>
+        <v>1104.867129907539</v>
       </c>
       <c r="O40" t="n">
-        <v>1361.226948298602</v>
+        <v>1361.226948298603</v>
       </c>
       <c r="P40" t="n">
         <v>1557.066378230431</v>
@@ -7356,28 +7356,28 @@
         <v>1609.220368204927</v>
       </c>
       <c r="R40" t="n">
-        <v>1505.443183112052</v>
+        <v>1609.220368204927</v>
       </c>
       <c r="S40" t="n">
-        <v>1505.443183112052</v>
+        <v>1609.220368204927</v>
       </c>
       <c r="T40" t="n">
-        <v>1505.443183112052</v>
+        <v>1386.128447054743</v>
       </c>
       <c r="U40" t="n">
-        <v>1216.323397441274</v>
+        <v>1271.950287682122</v>
       </c>
       <c r="V40" t="n">
-        <v>961.6389092353869</v>
+        <v>1017.265799476235</v>
       </c>
       <c r="W40" t="n">
-        <v>672.2217391984263</v>
+        <v>727.8486294392741</v>
       </c>
       <c r="X40" t="n">
-        <v>672.2217391984263</v>
+        <v>727.8486294392741</v>
       </c>
       <c r="Y40" t="n">
-        <v>672.2217391984263</v>
+        <v>507.0560502957439</v>
       </c>
     </row>
     <row r="41">
@@ -7387,10 +7387,10 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>68.21647660552566</v>
+        <v>408.0835275354525</v>
       </c>
       <c r="C41" t="n">
-        <v>68.21647660552566</v>
+        <v>408.0835275354525</v>
       </c>
       <c r="D41" t="n">
         <v>49.81782892870199</v>
@@ -7414,49 +7414,49 @@
         <v>181.1756535819834</v>
       </c>
       <c r="K41" t="n">
-        <v>428.7854999799487</v>
+        <v>428.7854999799488</v>
       </c>
       <c r="L41" t="n">
-        <v>772.8691714549145</v>
+        <v>772.8691714549153</v>
       </c>
       <c r="M41" t="n">
-        <v>1187.397991240658</v>
+        <v>1187.397991240659</v>
       </c>
       <c r="N41" t="n">
-        <v>1613.248129085906</v>
+        <v>1613.248129085908</v>
       </c>
       <c r="O41" t="n">
-        <v>2002.031077317524</v>
+        <v>2002.031077317525</v>
       </c>
       <c r="P41" t="n">
-        <v>2299.347327962849</v>
+        <v>2299.34732796285</v>
       </c>
       <c r="Q41" t="n">
-        <v>2474.446703561746</v>
+        <v>2474.446703561747</v>
       </c>
       <c r="R41" t="n">
-        <v>2490.891446435099</v>
+        <v>2490.8914464351</v>
       </c>
       <c r="S41" t="n">
-        <v>2364.843483837422</v>
+        <v>2364.843483837423</v>
       </c>
       <c r="T41" t="n">
-        <v>2155.838745326145</v>
+        <v>2155.838745326146</v>
       </c>
       <c r="U41" t="n">
         <v>1902.252949520224</v>
       </c>
       <c r="V41" t="n">
-        <v>1571.190062176653</v>
+        <v>1902.252949520224</v>
       </c>
       <c r="W41" t="n">
-        <v>1218.421406906539</v>
+        <v>1549.48429425011</v>
       </c>
       <c r="X41" t="n">
-        <v>844.9556486454592</v>
+        <v>1184.822699575386</v>
       </c>
       <c r="Y41" t="n">
-        <v>454.8163166696474</v>
+        <v>794.6833675995742</v>
       </c>
     </row>
     <row r="42">
@@ -7466,55 +7466,55 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>859.1382992416502</v>
+        <v>859.1382992416507</v>
       </c>
       <c r="C42" t="n">
-        <v>684.6852699605232</v>
+        <v>684.6852699605237</v>
       </c>
       <c r="D42" t="n">
-        <v>535.7508602992719</v>
+        <v>535.7508602992724</v>
       </c>
       <c r="E42" t="n">
-        <v>376.5134052938164</v>
+        <v>427.1605782766289</v>
       </c>
       <c r="F42" t="n">
-        <v>229.9788473207014</v>
+        <v>280.6260203035139</v>
       </c>
       <c r="G42" t="n">
-        <v>93.24576819005705</v>
+        <v>143.8929411728695</v>
       </c>
       <c r="H42" t="n">
-        <v>71.33540390088821</v>
+        <v>49.81782892870199</v>
       </c>
       <c r="I42" t="n">
         <v>49.81782892870199</v>
       </c>
       <c r="J42" t="n">
-        <v>109.235802444016</v>
+        <v>109.2358024440161</v>
       </c>
       <c r="K42" t="n">
-        <v>288.9454078621914</v>
+        <v>288.9454078621915</v>
       </c>
       <c r="L42" t="n">
-        <v>576.9096910448541</v>
+        <v>576.9096910448542</v>
       </c>
       <c r="M42" t="n">
-        <v>1193.405324037541</v>
+        <v>932.3072952935258</v>
       </c>
       <c r="N42" t="n">
-        <v>1572.617890267846</v>
+        <v>1521.786152098271</v>
       </c>
       <c r="O42" t="n">
-        <v>2138.281785090957</v>
+        <v>2138.281785090958</v>
       </c>
       <c r="P42" t="n">
         <v>2379.537551852667</v>
       </c>
       <c r="Q42" t="n">
-        <v>2490.891446435099</v>
+        <v>2490.8914464351</v>
       </c>
       <c r="R42" t="n">
-        <v>2490.891446435099</v>
+        <v>2490.8914464351</v>
       </c>
       <c r="S42" t="n">
         <v>2354.581362957454</v>
@@ -7523,7 +7523,7 @@
         <v>2160.447087779001</v>
       </c>
       <c r="U42" t="n">
-        <v>1932.354900192149</v>
+        <v>1932.35490019215</v>
       </c>
       <c r="V42" t="n">
         <v>1697.202791960407</v>
@@ -7532,10 +7532,10 @@
         <v>1442.965435232205</v>
       </c>
       <c r="X42" t="n">
-        <v>1235.113935026672</v>
+        <v>1235.113935026673</v>
       </c>
       <c r="Y42" t="n">
-        <v>1027.353636261718</v>
+        <v>1027.353636261719</v>
       </c>
     </row>
     <row r="43">
@@ -7545,46 +7545,46 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>49.81782892870199</v>
+        <v>771.3891229746523</v>
       </c>
       <c r="C43" t="n">
-        <v>49.81782892870199</v>
+        <v>602.4529400467454</v>
       </c>
       <c r="D43" t="n">
-        <v>49.81782892870199</v>
+        <v>452.3363006344097</v>
       </c>
       <c r="E43" t="n">
-        <v>49.81782892870199</v>
+        <v>452.3363006344097</v>
       </c>
       <c r="F43" t="n">
-        <v>49.81782892870199</v>
+        <v>305.4463531364993</v>
       </c>
       <c r="G43" t="n">
-        <v>49.81782892870199</v>
+        <v>305.4463531364993</v>
       </c>
       <c r="H43" t="n">
-        <v>49.81782892870199</v>
+        <v>156.4714025375973</v>
       </c>
       <c r="I43" t="n">
         <v>49.81782892870199</v>
       </c>
       <c r="J43" t="n">
-        <v>73.44728005477631</v>
+        <v>73.44728005477636</v>
       </c>
       <c r="K43" t="n">
-        <v>242.1145636490678</v>
+        <v>242.1145636490679</v>
       </c>
       <c r="L43" t="n">
-        <v>513.4770511394356</v>
+        <v>513.4770511394357</v>
       </c>
       <c r="M43" t="n">
-        <v>809.9798694642501</v>
+        <v>809.9798694642502</v>
       </c>
       <c r="N43" t="n">
-        <v>1104.867129907538</v>
+        <v>1104.867129907539</v>
       </c>
       <c r="O43" t="n">
-        <v>1361.226948298602</v>
+        <v>1361.226948298603</v>
       </c>
       <c r="P43" t="n">
         <v>1557.066378230431</v>
@@ -7593,28 +7593,28 @@
         <v>1609.220368204927</v>
       </c>
       <c r="R43" t="n">
-        <v>1505.443183112052</v>
+        <v>1609.220368204927</v>
       </c>
       <c r="S43" t="n">
-        <v>1505.443183112052</v>
+        <v>1609.220368204927</v>
       </c>
       <c r="T43" t="n">
-        <v>1505.443183112052</v>
+        <v>1609.220368204927</v>
       </c>
       <c r="U43" t="n">
-        <v>1216.323397441274</v>
+        <v>1609.220368204927</v>
       </c>
       <c r="V43" t="n">
-        <v>961.6389092353869</v>
+        <v>1354.53587999904</v>
       </c>
       <c r="W43" t="n">
-        <v>672.2217391984263</v>
+        <v>1065.118709962079</v>
       </c>
       <c r="X43" t="n">
-        <v>444.232188300409</v>
+        <v>953.037587804892</v>
       </c>
       <c r="Y43" t="n">
-        <v>223.4396091568789</v>
+        <v>953.037587804892</v>
       </c>
     </row>
     <row r="44">
@@ -7624,22 +7624,22 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>408.0835275354525</v>
+        <v>1081.711351436722</v>
       </c>
       <c r="C44" t="n">
-        <v>408.0835275354525</v>
+        <v>712.7488344963099</v>
       </c>
       <c r="D44" t="n">
-        <v>49.81782892870199</v>
+        <v>354.4831358895594</v>
       </c>
       <c r="E44" t="n">
-        <v>49.81782892870199</v>
+        <v>354.4831358895594</v>
       </c>
       <c r="F44" t="n">
-        <v>49.81782892870199</v>
+        <v>354.4831358895594</v>
       </c>
       <c r="G44" t="n">
-        <v>49.81782892870199</v>
+        <v>354.4831358895594</v>
       </c>
       <c r="H44" t="n">
         <v>49.81782892870199</v>
@@ -7648,19 +7648,19 @@
         <v>49.81782892870199</v>
       </c>
       <c r="J44" t="n">
-        <v>181.1756535819833</v>
+        <v>181.1756535819834</v>
       </c>
       <c r="K44" t="n">
-        <v>428.7854999799487</v>
+        <v>428.7854999799488</v>
       </c>
       <c r="L44" t="n">
-        <v>772.869171454915</v>
+        <v>772.8691714549153</v>
       </c>
       <c r="M44" t="n">
         <v>1187.397991240659</v>
       </c>
       <c r="N44" t="n">
-        <v>1613.248129085907</v>
+        <v>1613.248129085908</v>
       </c>
       <c r="O44" t="n">
         <v>2002.031077317524</v>
@@ -7669,31 +7669,31 @@
         <v>2299.347327962849</v>
       </c>
       <c r="Q44" t="n">
-        <v>2474.446703561746</v>
+        <v>2474.446703561747</v>
       </c>
       <c r="R44" t="n">
-        <v>2490.891446435099</v>
+        <v>2490.8914464351</v>
       </c>
       <c r="S44" t="n">
-        <v>2490.891446435099</v>
+        <v>2490.8914464351</v>
       </c>
       <c r="T44" t="n">
-        <v>2281.886707923822</v>
+        <v>2405.72852992045</v>
       </c>
       <c r="U44" t="n">
-        <v>2028.300912117901</v>
+        <v>2152.142734114528</v>
       </c>
       <c r="V44" t="n">
-        <v>1697.23802477433</v>
+        <v>1821.079846770957</v>
       </c>
       <c r="W44" t="n">
-        <v>1344.469369504216</v>
+        <v>1468.311191500843</v>
       </c>
       <c r="X44" t="n">
-        <v>971.003611243136</v>
+        <v>1468.311191500843</v>
       </c>
       <c r="Y44" t="n">
-        <v>580.8642792673243</v>
+        <v>1468.311191500843</v>
       </c>
     </row>
     <row r="45">
@@ -7703,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>931.3030471966489</v>
+        <v>859.1382992416507</v>
       </c>
       <c r="C45" t="n">
-        <v>756.8500179155219</v>
+        <v>684.6852699605237</v>
       </c>
       <c r="D45" t="n">
-        <v>607.9156082542706</v>
+        <v>586.3980332820845</v>
       </c>
       <c r="E45" t="n">
-        <v>448.6781532488152</v>
+        <v>427.1605782766289</v>
       </c>
       <c r="F45" t="n">
-        <v>302.1435952757001</v>
+        <v>280.6260203035139</v>
       </c>
       <c r="G45" t="n">
-        <v>165.4105161450557</v>
+        <v>143.8929411728695</v>
       </c>
       <c r="H45" t="n">
-        <v>71.33540390088821</v>
+        <v>49.81782892870199</v>
       </c>
       <c r="I45" t="n">
         <v>49.81782892870199</v>
       </c>
       <c r="J45" t="n">
-        <v>234.0659274310207</v>
+        <v>234.0659274310208</v>
       </c>
       <c r="K45" t="n">
-        <v>413.7755328491961</v>
+        <v>413.7755328491963</v>
       </c>
       <c r="L45" t="n">
-        <v>701.7398160318587</v>
+        <v>701.7398160318589</v>
       </c>
       <c r="M45" t="n">
-        <v>1318.235449024546</v>
+        <v>1197.100534384513</v>
       </c>
       <c r="N45" t="n">
-        <v>1697.44801525485</v>
+        <v>1813.596167377201</v>
       </c>
       <c r="O45" t="n">
-        <v>2022.133632968607</v>
+        <v>2138.281785090958</v>
       </c>
       <c r="P45" t="n">
-        <v>2357.126603646087</v>
+        <v>2379.537551852667</v>
       </c>
       <c r="Q45" t="n">
-        <v>2468.48049822852</v>
+        <v>2490.8914464351</v>
       </c>
       <c r="R45" t="n">
-        <v>2490.891446435099</v>
+        <v>2490.8914464351</v>
       </c>
       <c r="S45" t="n">
-        <v>2426.746110912452</v>
+        <v>2354.581362957454</v>
       </c>
       <c r="T45" t="n">
-        <v>2232.611835734</v>
+        <v>2160.447087779001</v>
       </c>
       <c r="U45" t="n">
-        <v>2004.519648147148</v>
+        <v>1932.35490019215</v>
       </c>
       <c r="V45" t="n">
-        <v>1769.367539915405</v>
+        <v>1697.202791960407</v>
       </c>
       <c r="W45" t="n">
-        <v>1515.130183187204</v>
+        <v>1442.965435232205</v>
       </c>
       <c r="X45" t="n">
-        <v>1307.278682981671</v>
+        <v>1235.113935026673</v>
       </c>
       <c r="Y45" t="n">
-        <v>1099.518384216717</v>
+        <v>1027.353636261719</v>
       </c>
     </row>
     <row r="46">
@@ -7782,22 +7782,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>49.81782892870199</v>
+        <v>92.6734184137039</v>
       </c>
       <c r="C46" t="n">
-        <v>49.81782892870199</v>
+        <v>92.6734184137039</v>
       </c>
       <c r="D46" t="n">
-        <v>49.81782892870199</v>
+        <v>92.6734184137039</v>
       </c>
       <c r="E46" t="n">
-        <v>49.81782892870199</v>
+        <v>92.6734184137039</v>
       </c>
       <c r="F46" t="n">
-        <v>49.81782892870199</v>
+        <v>92.6734184137039</v>
       </c>
       <c r="G46" t="n">
-        <v>49.81782892870199</v>
+        <v>92.6734184137039</v>
       </c>
       <c r="H46" t="n">
         <v>49.81782892870199</v>
@@ -7806,22 +7806,22 @@
         <v>49.81782892870199</v>
       </c>
       <c r="J46" t="n">
-        <v>73.44728005477631</v>
+        <v>73.44728005477636</v>
       </c>
       <c r="K46" t="n">
-        <v>242.1145636490678</v>
+        <v>242.1145636490679</v>
       </c>
       <c r="L46" t="n">
-        <v>513.4770511394356</v>
+        <v>513.4770511394357</v>
       </c>
       <c r="M46" t="n">
-        <v>809.9798694642501</v>
+        <v>809.9798694642502</v>
       </c>
       <c r="N46" t="n">
-        <v>1104.867129907538</v>
+        <v>1104.867129907539</v>
       </c>
       <c r="O46" t="n">
-        <v>1361.226948298602</v>
+        <v>1361.226948298603</v>
       </c>
       <c r="P46" t="n">
         <v>1557.066378230431</v>
@@ -7830,28 +7830,28 @@
         <v>1609.220368204927</v>
       </c>
       <c r="R46" t="n">
-        <v>1528.912842513826</v>
+        <v>1505.443183112052</v>
       </c>
       <c r="S46" t="n">
-        <v>1331.821402883875</v>
+        <v>1308.351743482101</v>
       </c>
       <c r="T46" t="n">
-        <v>1331.821402883875</v>
+        <v>1085.259822331916</v>
       </c>
       <c r="U46" t="n">
-        <v>1042.701617213097</v>
+        <v>796.1400366611382</v>
       </c>
       <c r="V46" t="n">
-        <v>788.0171290072101</v>
+        <v>541.4555484552513</v>
       </c>
       <c r="W46" t="n">
-        <v>498.5999589702494</v>
+        <v>541.4555484552513</v>
       </c>
       <c r="X46" t="n">
-        <v>270.6104080722321</v>
+        <v>313.465997557234</v>
       </c>
       <c r="Y46" t="n">
-        <v>49.81782892870199</v>
+        <v>92.6734184137039</v>
       </c>
     </row>
   </sheetData>
@@ -8771,16 +8771,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
-        <v>170.9794606140153</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>118.7395615125299</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>239.6798654165481</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
@@ -8789,10 +8789,10 @@
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>22.8843483905338</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -9008,10 +9008,10 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>242.6825466776946</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
@@ -9020,16 +9020,16 @@
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>294.7575911908384</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>212.3901924994343</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>22.8843483905338</v>
+        <v>22.88434839053377</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9245,7 +9245,7 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>188.6850150503369</v>
+        <v>188.6850150503364</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -9266,7 +9266,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>22.88434839053379</v>
+        <v>22.88434839053377</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9479,7 +9479,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -9491,10 +9491,10 @@
         <v>263.7353825697126</v>
       </c>
       <c r="N21" t="n">
-        <v>239.6798654165478</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>3.732535704012378</v>
+        <v>117.3213657801511</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
@@ -9503,7 +9503,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>22.88434839053379</v>
+        <v>22.88434839053377</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9637,7 +9637,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>7.177264930046306</v>
+        <v>0</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
@@ -9655,7 +9655,7 @@
         <v>0</v>
       </c>
       <c r="P23" t="n">
-        <v>0</v>
+        <v>7.177264930045453</v>
       </c>
       <c r="Q23" t="n">
         <v>0</v>
@@ -9716,19 +9716,19 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>221.235823996257</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>57.48699158585868</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>258.0892398948636</v>
       </c>
       <c r="O24" t="n">
         <v>0</v>
@@ -9737,10 +9737,10 @@
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>45.52166981132082</v>
+        <v>22.88434839053377</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9877,7 +9877,7 @@
         <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>7.177264930046306</v>
+        <v>0</v>
       </c>
       <c r="L26" t="n">
         <v>0</v>
@@ -9889,7 +9889,7 @@
         <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>0</v>
+        <v>72.89368480302824</v>
       </c>
       <c r="P26" t="n">
         <v>0</v>
@@ -9898,7 +9898,7 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9953,19 +9953,19 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>39.80747155040966</v>
+        <v>19.70495798618204</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>350.2592227712699</v>
       </c>
       <c r="M27" t="n">
-        <v>282.1447570480285</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>258.0892398948638</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
         <v>0</v>
@@ -9974,10 +9974,10 @@
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
-        <v>22.88434839053379</v>
+        <v>22.88434839053377</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10111,7 +10111,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>7.177264930045311</v>
       </c>
       <c r="K29" t="n">
         <v>0</v>
@@ -10129,13 +10129,13 @@
         <v>0</v>
       </c>
       <c r="P29" t="n">
-        <v>72.89368480302829</v>
+        <v>0</v>
       </c>
       <c r="Q29" t="n">
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10193,19 +10193,19 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>33.4314744326939</v>
       </c>
       <c r="M30" t="n">
         <v>282.1447570480285</v>
       </c>
       <c r="N30" t="n">
-        <v>258.0892398948637</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>39.80747155040922</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
@@ -10214,7 +10214,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>22.88434839053379</v>
+        <v>22.88434839053377</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10348,10 +10348,10 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>72.89368480302826</v>
       </c>
       <c r="K32" t="n">
-        <v>72.89368480302829</v>
+        <v>0</v>
       </c>
       <c r="L32" t="n">
         <v>0</v>
@@ -10427,19 +10427,19 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>17.17015012962227</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>33.4314744326939</v>
       </c>
       <c r="M33" t="n">
         <v>282.1447570480285</v>
       </c>
       <c r="N33" t="n">
-        <v>258.0892398948637</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
         <v>0</v>
@@ -10451,7 +10451,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>45.52166981132082</v>
+        <v>22.88434839053377</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10664,22 +10664,22 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>141.3768829333158</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>263.7353825697126</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>239.6798654165477</v>
       </c>
       <c r="O36" t="n">
-        <v>220.7750796997731</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
@@ -10688,7 +10688,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>45.52166981132082</v>
+        <v>22.88434839053377</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10901,22 +10901,22 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>141.376882933317</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>263.7353825697126</v>
       </c>
       <c r="N39" t="n">
-        <v>239.6798654165481</v>
+        <v>239.6798654165477</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>3.732535704012093</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
@@ -10925,7 +10925,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>22.88434839053379</v>
+        <v>22.88434839053377</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11147,13 +11147,13 @@
         <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>263.7353825697126</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>212.3901924994342</v>
       </c>
       <c r="O42" t="n">
-        <v>243.4124011205602</v>
+        <v>294.7575911908384</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
@@ -11162,7 +11162,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>22.8843483905338</v>
+        <v>22.88434839053377</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11384,22 +11384,22 @@
         <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>263.7353825697126</v>
+        <v>141.3768829333159</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>239.6798654165477</v>
       </c>
       <c r="O45" t="n">
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>94.68404435936463</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>45.52166981132082</v>
+        <v>22.88434839053377</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23257,16 +23257,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>194.6752475269647</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
@@ -23311,22 +23311,22 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>44.25879525639661</v>
       </c>
       <c r="U11" t="n">
-        <v>251.0499378478622</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="12">
@@ -23357,7 +23357,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>21.30239922246435</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -23393,7 +23393,7 @@
         <v>0</v>
       </c>
       <c r="U12" t="n">
-        <v>71.44310047544823</v>
+        <v>0</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -23402,7 +23402,7 @@
         <v>0</v>
       </c>
       <c r="X12" t="n">
-        <v>0</v>
+        <v>50.14070125298295</v>
       </c>
       <c r="Y12" t="n">
         <v>0</v>
@@ -23415,7 +23415,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -23427,16 +23427,16 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>36.49893631043739</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>147.485201092913</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>105.5870378728063</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23466,10 +23466,10 @@
         <v>102.739413241946</v>
       </c>
       <c r="S13" t="n">
-        <v>76.85107305036587</v>
+        <v>195.1205252336517</v>
       </c>
       <c r="T13" t="n">
-        <v>220.8610019386828</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>286.2285878140705</v>
@@ -23478,10 +23478,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23503,7 +23503,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
@@ -23512,7 +23512,7 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>301.6186538912489</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -23551,16 +23551,16 @@
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>122.3274921908072</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701349</v>
+        <v>136.2618273759002</v>
       </c>
       <c r="W14" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -23588,7 +23588,7 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>71.4431004754482</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -23630,7 +23630,7 @@
         <v>0</v>
       </c>
       <c r="U15" t="n">
-        <v>71.44310047544823</v>
+        <v>0</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -23652,7 +23652,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -23670,10 +23670,10 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>147.485201092913</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>105.5870378728063</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,13 +23700,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>102.739413241946</v>
       </c>
       <c r="S16" t="n">
-        <v>195.1205252336517</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>32.62398485234823</v>
+        <v>220.8610019386828</v>
       </c>
       <c r="U16" t="n">
         <v>286.2285878140705</v>
@@ -23718,10 +23718,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>49.48848947368339</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23731,13 +23731,13 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
@@ -23752,7 +23752,7 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>67.96895394968161</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23785,7 +23785,7 @@
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>206.9146911261644</v>
       </c>
       <c r="U17" t="n">
         <v>251.0499378478622</v>
@@ -23794,13 +23794,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
-        <v>349.240968717413</v>
+        <v>328.3687196479918</v>
       </c>
       <c r="X17" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>225.960595963627</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -23822,13 +23822,13 @@
         <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>71.44310047544738</v>
+        <v>0</v>
       </c>
       <c r="G18" t="n">
         <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>71.44310047544732</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -23892,22 +23892,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>147.485201092913</v>
       </c>
       <c r="I19" t="n">
         <v>105.5870378728063</v>
@@ -23940,25 +23940,25 @@
         <v>102.739413241946</v>
       </c>
       <c r="S19" t="n">
-        <v>195.1205252336517</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>220.8610019386828</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.2285878140705</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>94.63636720696812</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>208.7162795243722</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -23968,16 +23968,16 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>281.6326572644076</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
         <v>0</v>
@@ -23989,7 +23989,7 @@
         <v>301.6186538912489</v>
       </c>
       <c r="I20" t="n">
-        <v>67.96895394968163</v>
+        <v>67.96895394968161</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24019,13 +24019,13 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>15.68530068242933</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
         <v>206.9146911261644</v>
       </c>
       <c r="U20" t="n">
-        <v>251.0499378478622</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
@@ -24037,7 +24037,7 @@
         <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -24056,7 +24056,7 @@
         <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>0</v>
+        <v>71.4431004754482</v>
       </c>
       <c r="F21" t="n">
         <v>0</v>
@@ -24098,7 +24098,7 @@
         <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>71.44310047544815</v>
+        <v>0</v>
       </c>
       <c r="T21" t="n">
         <v>0</v>
@@ -24126,25 +24126,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>8.9412968509466</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>147.485201092913</v>
       </c>
       <c r="I22" t="n">
         <v>105.5870378728063</v>
@@ -24174,7 +24174,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>102.739413241946</v>
+        <v>17.23778923940063</v>
       </c>
       <c r="S22" t="n">
         <v>195.1205252336517</v>
@@ -24208,25 +24208,25 @@
         <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>354.683041620683</v>
+        <v>234.6988732902037</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>57.92430539681527</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
         <v>301.6186538912489</v>
       </c>
       <c r="I23" t="n">
-        <v>67.96895394968163</v>
+        <v>67.96895394968161</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24256,16 +24256,16 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>124.7874829717001</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>206.9146911261644</v>
       </c>
       <c r="U23" t="n">
         <v>251.0499378478622</v>
       </c>
       <c r="V23" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
         <v>349.240968717413</v>
@@ -24363,16 +24363,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
@@ -24414,22 +24414,22 @@
         <v>102.739413241946</v>
       </c>
       <c r="S25" t="n">
-        <v>195.1205252336517</v>
+        <v>22.37478478905072</v>
       </c>
       <c r="T25" t="n">
-        <v>220.8610019386828</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.2285878140705</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>141.793605888468</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -24442,7 +24442,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
@@ -24451,19 +24451,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>216.2825060416585</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>301.6186538912489</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>67.96895394968163</v>
+        <v>67.96895394968161</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24496,19 +24496,19 @@
         <v>124.7874829717001</v>
       </c>
       <c r="T26" t="n">
-        <v>206.9146911261644</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>251.0499378478622</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
-        <v>349.240968717413</v>
+        <v>190.711445210136</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
         <v>0</v>
@@ -24600,7 +24600,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
@@ -24618,10 +24618,10 @@
         <v>166.3328844140846</v>
       </c>
       <c r="H28" t="n">
-        <v>52.69220560700877</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>105.5870378728063</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24654,13 +24654,13 @@
         <v>195.1205252336517</v>
       </c>
       <c r="T28" t="n">
-        <v>220.8610019386828</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>199.3082652365607</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -24685,22 +24685,22 @@
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>167.4072429894067</v>
       </c>
       <c r="G29" t="n">
-        <v>134.0535943967346</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
         <v>301.6186538912489</v>
       </c>
       <c r="I29" t="n">
-        <v>67.96895394968163</v>
+        <v>67.96895394968161</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24730,13 +24730,13 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>124.7874829717001</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
         <v>206.9146911261644</v>
       </c>
       <c r="U29" t="n">
-        <v>251.0499378478622</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -24745,7 +24745,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
         <v>0</v>
@@ -24837,19 +24837,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>166.3328844140846</v>
@@ -24891,7 +24891,7 @@
         <v>195.1205252336517</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>113.4828473694697</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -24900,13 +24900,13 @@
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>54.30583641486382</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -24916,28 +24916,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>132.8215089406322</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>411.6062992654567</v>
       </c>
       <c r="H32" t="n">
-        <v>301.6186538912489</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>67.96895394968163</v>
+        <v>67.96895394968161</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -24967,7 +24967,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>124.7874829717001</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
         <v>206.9146911261644</v>
@@ -24976,16 +24976,16 @@
         <v>251.0499378478622</v>
       </c>
       <c r="V32" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
         <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>216.282506041659</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -25074,28 +25074,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>104.7702477807523</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>147.485201092913</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>105.5870378728063</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25125,25 +25125,25 @@
         <v>102.739413241946</v>
       </c>
       <c r="S34" t="n">
-        <v>195.1205252336517</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>220.8610019386828</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>286.2285878140705</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>133.8681911405423</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -25156,13 +25156,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
-        <v>242.1053830936908</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>367.1663812748205</v>
       </c>
       <c r="F35" t="n">
         <v>0</v>
@@ -25171,10 +25171,10 @@
         <v>411.6062992654567</v>
       </c>
       <c r="H35" t="n">
-        <v>301.6186538912489</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>67.96895394968163</v>
+        <v>67.96895394968161</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25204,7 +25204,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>124.7874829717001</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
         <v>0</v>
@@ -25213,16 +25213,16 @@
         <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
         <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -25317,7 +25317,7 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
@@ -25326,10 +25326,10 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>166.3328844140846</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>147.485201092913</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -25362,19 +25362,19 @@
         <v>102.739413241946</v>
       </c>
       <c r="S37" t="n">
-        <v>195.1205252336517</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>220.8610019386828</v>
       </c>
       <c r="U37" t="n">
-        <v>286.2285878140705</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>209.2825679100507</v>
+        <v>259.4747638177076</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
@@ -25393,25 +25393,25 @@
         <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
         <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>411.6062992654567</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
         <v>301.6186538912489</v>
       </c>
       <c r="I38" t="n">
-        <v>67.96895394968163</v>
+        <v>67.96895394968161</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25441,7 +25441,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>124.7874829717001</v>
       </c>
       <c r="T38" t="n">
         <v>206.9146911261644</v>
@@ -25450,16 +25450,16 @@
         <v>251.0499378478622</v>
       </c>
       <c r="V38" t="n">
-        <v>243.776643217607</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
         <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>256.6456244057267</v>
       </c>
     </row>
     <row r="39">
@@ -25487,7 +25487,7 @@
         <v>0</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>71.4431004754482</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
@@ -25523,7 +25523,7 @@
         <v>0</v>
       </c>
       <c r="T39" t="n">
-        <v>71.44310047544727</v>
+        <v>0</v>
       </c>
       <c r="U39" t="n">
         <v>0</v>
@@ -25548,28 +25548,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>11.43635538682898</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>166.3328844140846</v>
       </c>
       <c r="H40" t="n">
         <v>147.485201092913</v>
       </c>
       <c r="I40" t="n">
-        <v>105.5870378728063</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,16 +25596,16 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>102.739413241946</v>
       </c>
       <c r="S40" t="n">
         <v>195.1205252336517</v>
       </c>
       <c r="T40" t="n">
-        <v>220.8610019386828</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>173.1922100351757</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25617,7 +25617,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25633,7 +25633,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
-        <v>336.4683804206275</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
         <v>381.9303700722618</v>
@@ -25648,7 +25648,7 @@
         <v>301.6186538912489</v>
       </c>
       <c r="I41" t="n">
-        <v>67.96895394968163</v>
+        <v>67.96895394968161</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25687,13 +25687,13 @@
         <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
         <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>8.716121950492038</v>
       </c>
       <c r="Y41" t="n">
         <v>0</v>
@@ -25715,7 +25715,7 @@
         <v>0</v>
       </c>
       <c r="E42" t="n">
-        <v>0</v>
+        <v>50.14070125298392</v>
       </c>
       <c r="F42" t="n">
         <v>0</v>
@@ -25724,10 +25724,10 @@
         <v>0</v>
       </c>
       <c r="H42" t="n">
-        <v>71.44310047544869</v>
+        <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>21.30239922246435</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -25785,28 +25785,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>7.946417756042138</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>166.3328844140846</v>
       </c>
       <c r="H43" t="n">
-        <v>147.485201092913</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>105.5870378728063</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,7 +25833,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>102.739413241946</v>
       </c>
       <c r="S43" t="n">
         <v>195.1205252336517</v>
@@ -25842,7 +25842,7 @@
         <v>220.8610019386828</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>286.2285878140705</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -25851,10 +25851,10 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>114.7493444534216</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -25864,10 +25864,10 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>211.6808974489275</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
         <v>0</v>
@@ -25882,10 +25882,10 @@
         <v>411.6062992654567</v>
       </c>
       <c r="H44" t="n">
-        <v>301.6186538912489</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>67.96895394968163</v>
+        <v>67.96895394968161</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25918,7 +25918,7 @@
         <v>124.7874829717001</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>122.6034037766609</v>
       </c>
       <c r="U44" t="n">
         <v>0</v>
@@ -25930,10 +25930,10 @@
         <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="45">
@@ -25949,7 +25949,7 @@
         <v>0</v>
       </c>
       <c r="D45" t="n">
-        <v>0</v>
+        <v>50.14070125298397</v>
       </c>
       <c r="E45" t="n">
         <v>0</v>
@@ -25964,7 +25964,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>21.30239922246435</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -25994,7 +25994,7 @@
         <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>71.44310047544863</v>
+        <v>0</v>
       </c>
       <c r="T45" t="n">
         <v>0</v>
@@ -26040,7 +26040,7 @@
         <v>166.3328844140846</v>
       </c>
       <c r="H46" t="n">
-        <v>147.485201092913</v>
+        <v>105.0581675027611</v>
       </c>
       <c r="I46" t="n">
         <v>105.5870378728063</v>
@@ -26070,13 +26070,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>23.23496280775684</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>220.8610019386828</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -26085,7 +26085,7 @@
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>637518.3534298377</v>
+        <v>637518.3534298379</v>
       </c>
     </row>
     <row r="6">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>637518.3534298377</v>
+        <v>637518.353429838</v>
       </c>
     </row>
     <row r="8">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>650231.8507013295</v>
+        <v>650231.8507013294</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>650231.8507013294</v>
+        <v>650231.8507013295</v>
       </c>
     </row>
     <row r="11">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>650231.8507013294</v>
+        <v>650231.8507013293</v>
       </c>
     </row>
     <row r="13">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>637518.3534298379</v>
+        <v>637518.3534298376</v>
       </c>
     </row>
     <row r="15">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>637518.3534298377</v>
+        <v>637518.3534298379</v>
       </c>
     </row>
   </sheetData>
@@ -26313,34 +26313,34 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>593975.3455698527</v>
+      </c>
+      <c r="C2" t="n">
         <v>593975.3455698526</v>
       </c>
-      <c r="C2" t="n">
-        <v>593975.3455698525</v>
-      </c>
       <c r="D2" t="n">
-        <v>593975.3455698526</v>
+        <v>593975.3455698524</v>
       </c>
       <c r="E2" t="n">
-        <v>436708.6382972322</v>
+        <v>436708.638297232</v>
       </c>
       <c r="F2" t="n">
         <v>436708.638297232</v>
       </c>
       <c r="G2" t="n">
-        <v>436708.6382972322</v>
+        <v>436708.6382972321</v>
       </c>
       <c r="H2" t="n">
         <v>436708.638297232</v>
       </c>
       <c r="I2" t="n">
+        <v>443027.7805342854</v>
+      </c>
+      <c r="J2" t="n">
         <v>443027.7805342856</v>
       </c>
-      <c r="J2" t="n">
-        <v>443027.7805342858</v>
-      </c>
       <c r="K2" t="n">
-        <v>443027.7805342856</v>
+        <v>443027.7805342853</v>
       </c>
       <c r="L2" t="n">
         <v>443027.7805342856</v>
@@ -26349,10 +26349,10 @@
         <v>436708.638297232</v>
       </c>
       <c r="N2" t="n">
-        <v>436708.6382972321</v>
+        <v>436708.638297232</v>
       </c>
       <c r="O2" t="n">
-        <v>436708.6382972319</v>
+        <v>436708.6382972322</v>
       </c>
       <c r="P2" t="n">
         <v>436708.6382972321</v>
@@ -26374,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>924651.579376124</v>
+        <v>924651.5793761241</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26386,7 +26386,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>4895.439270648257</v>
+        <v>4895.439270648227</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -26426,40 +26426,40 @@
         <v>436273.8797192482</v>
       </c>
       <c r="E4" t="n">
-        <v>20610.62669540531</v>
+        <v>20610.62669540532</v>
       </c>
       <c r="F4" t="n">
-        <v>20610.62669540531</v>
+        <v>20610.6266954053</v>
       </c>
       <c r="G4" t="n">
-        <v>20610.62669540533</v>
+        <v>20610.62669540532</v>
       </c>
       <c r="H4" t="n">
-        <v>20610.62669540531</v>
+        <v>20610.6266954053</v>
       </c>
       <c r="I4" t="n">
-        <v>24403.50379676131</v>
+        <v>24403.50379676126</v>
       </c>
       <c r="J4" t="n">
-        <v>24403.50379676131</v>
+        <v>24403.50379676127</v>
       </c>
       <c r="K4" t="n">
-        <v>24403.50379676128</v>
+        <v>24403.50379676126</v>
       </c>
       <c r="L4" t="n">
-        <v>24403.50379676128</v>
+        <v>24403.50379676127</v>
       </c>
       <c r="M4" t="n">
-        <v>20610.62669540531</v>
+        <v>20610.6266954053</v>
       </c>
       <c r="N4" t="n">
-        <v>20610.62669540532</v>
+        <v>20610.6266954053</v>
       </c>
       <c r="O4" t="n">
-        <v>20610.62669540531</v>
+        <v>20610.6266954053</v>
       </c>
       <c r="P4" t="n">
-        <v>20610.62669540531</v>
+        <v>20610.6266954053</v>
       </c>
     </row>
     <row r="5">
@@ -26478,16 +26478,16 @@
         <v>33627.6</v>
       </c>
       <c r="E5" t="n">
-        <v>57906.41050425674</v>
+        <v>57906.41050425675</v>
       </c>
       <c r="F5" t="n">
-        <v>57906.41050425674</v>
+        <v>57906.41050425675</v>
       </c>
       <c r="G5" t="n">
+        <v>57906.41050425676</v>
+      </c>
+      <c r="H5" t="n">
         <v>57906.41050425675</v>
-      </c>
-      <c r="H5" t="n">
-        <v>57906.41050425674</v>
       </c>
       <c r="I5" t="n">
         <v>59025.70047253834</v>
@@ -26502,16 +26502,16 @@
         <v>59025.70047253834</v>
       </c>
       <c r="M5" t="n">
-        <v>57906.41050425674</v>
+        <v>57906.41050425675</v>
       </c>
       <c r="N5" t="n">
         <v>57906.41050425675</v>
       </c>
       <c r="O5" t="n">
-        <v>57906.41050425673</v>
+        <v>57906.41050425675</v>
       </c>
       <c r="P5" t="n">
-        <v>57906.41050425673</v>
+        <v>57906.41050425675</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>124073.8658506045</v>
+        <v>124029.7300719234</v>
       </c>
       <c r="C6" t="n">
-        <v>124073.8658506043</v>
+        <v>124029.7300719233</v>
       </c>
       <c r="D6" t="n">
-        <v>124073.8658506045</v>
+        <v>124029.7300719231</v>
       </c>
       <c r="E6" t="n">
-        <v>-566459.9782785538</v>
+        <v>-571927.1039631877</v>
       </c>
       <c r="F6" t="n">
-        <v>358191.60109757</v>
+        <v>352724.4754129365</v>
       </c>
       <c r="G6" t="n">
-        <v>358191.60109757</v>
+        <v>352724.4754129364</v>
       </c>
       <c r="H6" t="n">
-        <v>358191.60109757</v>
+        <v>352724.4754129365</v>
       </c>
       <c r="I6" t="n">
-        <v>354703.1369943377</v>
+        <v>349453.9127661541</v>
       </c>
       <c r="J6" t="n">
-        <v>359598.5762649861</v>
+        <v>354349.3520368026</v>
       </c>
       <c r="K6" t="n">
-        <v>359598.576264986</v>
+        <v>354349.3520368022</v>
       </c>
       <c r="L6" t="n">
-        <v>359598.576264986</v>
+        <v>354349.3520368026</v>
       </c>
       <c r="M6" t="n">
-        <v>207594.2628507111</v>
+        <v>202127.1371660775</v>
       </c>
       <c r="N6" t="n">
-        <v>358191.60109757</v>
+        <v>352724.4754129364</v>
       </c>
       <c r="O6" t="n">
-        <v>358191.6010975699</v>
+        <v>352724.4754129366</v>
       </c>
       <c r="P6" t="n">
-        <v>358191.60109757</v>
+        <v>352724.4754129365</v>
       </c>
     </row>
   </sheetData>
@@ -26746,40 +26746,40 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>919.4890146074873</v>
+        <v>919.4890146074874</v>
       </c>
       <c r="F3" t="n">
-        <v>919.4890146074873</v>
+        <v>919.4890146074875</v>
       </c>
       <c r="G3" t="n">
-        <v>919.4890146074874</v>
+        <v>919.4890146074875</v>
       </c>
       <c r="H3" t="n">
-        <v>919.4890146074874</v>
+        <v>919.4890146074875</v>
       </c>
       <c r="I3" t="n">
-        <v>919.4890146074874</v>
+        <v>919.4890146074875</v>
       </c>
       <c r="J3" t="n">
-        <v>919.4890146074874</v>
+        <v>919.4890146074875</v>
       </c>
       <c r="K3" t="n">
-        <v>919.4890146074874</v>
+        <v>919.4890146074875</v>
       </c>
       <c r="L3" t="n">
-        <v>919.4890146074874</v>
+        <v>919.4890146074875</v>
       </c>
       <c r="M3" t="n">
-        <v>919.4890146074874</v>
+        <v>919.4890146074875</v>
       </c>
       <c r="N3" t="n">
-        <v>919.4890146074874</v>
+        <v>919.4890146074875</v>
       </c>
       <c r="O3" t="n">
-        <v>919.4890146074873</v>
+        <v>919.4890146074875</v>
       </c>
       <c r="P3" t="n">
-        <v>919.4890146074873</v>
+        <v>919.4890146074875</v>
       </c>
     </row>
     <row r="4">
@@ -26798,7 +26798,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>622.7228616087749</v>
+        <v>622.7228616087751</v>
       </c>
       <c r="F4" t="n">
         <v>622.7228616087749</v>
@@ -26810,10 +26810,10 @@
         <v>622.7228616087749</v>
       </c>
       <c r="I4" t="n">
-        <v>641.1322360870909</v>
+        <v>641.1322360870907</v>
       </c>
       <c r="J4" t="n">
-        <v>641.1322360870909</v>
+        <v>641.1322360870907</v>
       </c>
       <c r="K4" t="n">
         <v>641.1322360870907</v>
@@ -26825,13 +26825,13 @@
         <v>622.7228616087749</v>
       </c>
       <c r="N4" t="n">
-        <v>622.7228616087751</v>
+        <v>622.7228616087749</v>
       </c>
       <c r="O4" t="n">
-        <v>622.7228616087748</v>
+        <v>622.7228616087749</v>
       </c>
       <c r="P4" t="n">
-        <v>622.7228616087748</v>
+        <v>622.7228616087749</v>
       </c>
     </row>
   </sheetData>
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>919.4890146074873</v>
+        <v>919.4890146074874</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>622.7228616087748</v>
+        <v>622.722861608775</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27032,7 +27032,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>18.40937447831595</v>
+        <v>18.40937447831584</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>604.313487130459</v>
+        <v>604.3134871304591</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>622.7228616087748</v>
+        <v>622.722861608775</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -31752,7 +31752,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>3.696438249678338</v>
+        <v>3.696438249678339</v>
       </c>
       <c r="H11" t="n">
         <v>37.85614822451829</v>
@@ -31761,40 +31761,40 @@
         <v>142.5069356207243</v>
       </c>
       <c r="J11" t="n">
-        <v>313.7305758936371</v>
+        <v>313.7305758936372</v>
       </c>
       <c r="K11" t="n">
         <v>470.2008070025213</v>
       </c>
       <c r="L11" t="n">
-        <v>583.3256790861149</v>
+        <v>583.325679086115</v>
       </c>
       <c r="M11" t="n">
-        <v>649.062212808832</v>
+        <v>649.0622128088321</v>
       </c>
       <c r="N11" t="n">
-        <v>659.5647179857306</v>
+        <v>659.5647179857307</v>
       </c>
       <c r="O11" t="n">
-        <v>622.8082601404916</v>
+        <v>622.8082601404917</v>
       </c>
       <c r="P11" t="n">
         <v>531.5524408515575</v>
       </c>
       <c r="Q11" t="n">
-        <v>399.1737460349519</v>
+        <v>399.173746034952</v>
       </c>
       <c r="R11" t="n">
         <v>232.1963892013571</v>
       </c>
       <c r="S11" t="n">
-        <v>84.23258661454521</v>
+        <v>84.23258661454523</v>
       </c>
       <c r="T11" t="n">
-        <v>16.18115843796693</v>
+        <v>16.18115843796694</v>
       </c>
       <c r="U11" t="n">
-        <v>0.295715059974267</v>
+        <v>0.2957150599742671</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31834,10 +31834,10 @@
         <v>1.977768823872709</v>
       </c>
       <c r="H12" t="n">
-        <v>19.10108311477063</v>
+        <v>19.10108311477064</v>
       </c>
       <c r="I12" t="n">
-        <v>68.09423362895072</v>
+        <v>68.09423362895073</v>
       </c>
       <c r="J12" t="n">
         <v>186.8557817326405</v>
@@ -31849,13 +31849,13 @@
         <v>429.427393095695</v>
       </c>
       <c r="M12" t="n">
-        <v>501.1215129610805</v>
+        <v>501.1215129610806</v>
       </c>
       <c r="N12" t="n">
         <v>514.3847082755603</v>
       </c>
       <c r="O12" t="n">
-        <v>470.5615148623808</v>
+        <v>470.5615148623809</v>
       </c>
       <c r="P12" t="n">
         <v>377.6671011130263</v>
@@ -31870,7 +31870,7 @@
         <v>36.73618846096893</v>
       </c>
       <c r="T12" t="n">
-        <v>7.97179626815359</v>
+        <v>7.971796268153591</v>
       </c>
       <c r="U12" t="n">
         <v>0.1301163699916256</v>
@@ -31916,7 +31916,7 @@
         <v>14.74197141452661</v>
       </c>
       <c r="I13" t="n">
-        <v>49.86343705445194</v>
+        <v>49.86343705445195</v>
       </c>
       <c r="J13" t="n">
         <v>117.2273125672529</v>
@@ -31925,7 +31925,7 @@
         <v>192.6404853554702</v>
       </c>
       <c r="L13" t="n">
-        <v>246.513497457227</v>
+        <v>246.5134974572271</v>
       </c>
       <c r="M13" t="n">
         <v>259.9139193258508</v>
@@ -31937,7 +31937,7 @@
         <v>234.3641835920855</v>
       </c>
       <c r="P13" t="n">
-        <v>200.5390467268525</v>
+        <v>200.5390467268526</v>
       </c>
       <c r="Q13" t="n">
         <v>138.8428412057306</v>
@@ -31946,13 +31946,13 @@
         <v>74.55397813522346</v>
       </c>
       <c r="S13" t="n">
-        <v>28.89607280332053</v>
+        <v>28.89607280332054</v>
       </c>
       <c r="T13" t="n">
-        <v>7.08458748959867</v>
+        <v>7.084587489598671</v>
       </c>
       <c r="U13" t="n">
-        <v>0.09044154242040868</v>
+        <v>0.09044154242040869</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>3.696438249678338</v>
+        <v>3.696438249678339</v>
       </c>
       <c r="H14" t="n">
-        <v>37.85614822451829</v>
+        <v>37.8561482245183</v>
       </c>
       <c r="I14" t="n">
         <v>142.5069356207243</v>
       </c>
       <c r="J14" t="n">
-        <v>313.7305758936371</v>
+        <v>313.7305758936372</v>
       </c>
       <c r="K14" t="n">
-        <v>470.2008070025213</v>
+        <v>470.2008070025214</v>
       </c>
       <c r="L14" t="n">
-        <v>583.3256790861149</v>
+        <v>583.325679086115</v>
       </c>
       <c r="M14" t="n">
-        <v>649.062212808832</v>
+        <v>649.0622128088321</v>
       </c>
       <c r="N14" t="n">
-        <v>659.5647179857306</v>
+        <v>659.5647179857308</v>
       </c>
       <c r="O14" t="n">
-        <v>622.8082601404916</v>
+        <v>622.8082601404917</v>
       </c>
       <c r="P14" t="n">
-        <v>531.5524408515575</v>
+        <v>531.5524408515577</v>
       </c>
       <c r="Q14" t="n">
-        <v>399.1737460349519</v>
+        <v>399.173746034952</v>
       </c>
       <c r="R14" t="n">
-        <v>232.1963892013571</v>
+        <v>232.1963892013572</v>
       </c>
       <c r="S14" t="n">
-        <v>84.23258661454521</v>
+        <v>84.23258661454524</v>
       </c>
       <c r="T14" t="n">
-        <v>16.18115843796693</v>
+        <v>16.18115843796694</v>
       </c>
       <c r="U14" t="n">
-        <v>0.295715059974267</v>
+        <v>0.2957150599742671</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32071,31 +32071,31 @@
         <v>1.977768823872709</v>
       </c>
       <c r="H15" t="n">
-        <v>19.10108311477063</v>
+        <v>19.10108311477064</v>
       </c>
       <c r="I15" t="n">
-        <v>68.09423362895072</v>
+        <v>68.09423362895073</v>
       </c>
       <c r="J15" t="n">
         <v>186.8557817326405</v>
       </c>
       <c r="K15" t="n">
-        <v>319.3662929321119</v>
+        <v>319.366292932112</v>
       </c>
       <c r="L15" t="n">
         <v>429.427393095695</v>
       </c>
       <c r="M15" t="n">
-        <v>501.1215129610805</v>
+        <v>501.1215129610807</v>
       </c>
       <c r="N15" t="n">
-        <v>514.3847082755603</v>
+        <v>514.3847082755605</v>
       </c>
       <c r="O15" t="n">
-        <v>470.5615148623808</v>
+        <v>470.5615148623809</v>
       </c>
       <c r="P15" t="n">
-        <v>377.6671011130263</v>
+        <v>377.6671011130264</v>
       </c>
       <c r="Q15" t="n">
         <v>252.4604554824181</v>
@@ -32104,13 +32104,13 @@
         <v>122.7951555734302</v>
       </c>
       <c r="S15" t="n">
-        <v>36.73618846096893</v>
+        <v>36.73618846096894</v>
       </c>
       <c r="T15" t="n">
-        <v>7.97179626815359</v>
+        <v>7.971796268153592</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1301163699916256</v>
+        <v>0.1301163699916257</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>1.658094944374157</v>
+        <v>1.658094944374158</v>
       </c>
       <c r="H16" t="n">
         <v>14.74197141452661</v>
       </c>
       <c r="I16" t="n">
-        <v>49.86343705445194</v>
+        <v>49.86343705445196</v>
       </c>
       <c r="J16" t="n">
         <v>117.2273125672529</v>
       </c>
       <c r="K16" t="n">
-        <v>192.6404853554702</v>
+        <v>192.6404853554703</v>
       </c>
       <c r="L16" t="n">
-        <v>246.513497457227</v>
+        <v>246.5134974572271</v>
       </c>
       <c r="M16" t="n">
-        <v>259.9139193258508</v>
+        <v>259.9139193258509</v>
       </c>
       <c r="N16" t="n">
         <v>253.7337472604565</v>
       </c>
       <c r="O16" t="n">
-        <v>234.3641835920855</v>
+        <v>234.3641835920856</v>
       </c>
       <c r="P16" t="n">
-        <v>200.5390467268525</v>
+        <v>200.5390467268526</v>
       </c>
       <c r="Q16" t="n">
         <v>138.8428412057306</v>
       </c>
       <c r="R16" t="n">
-        <v>74.55397813522346</v>
+        <v>74.55397813522347</v>
       </c>
       <c r="S16" t="n">
-        <v>28.89607280332053</v>
+        <v>28.89607280332054</v>
       </c>
       <c r="T16" t="n">
-        <v>7.08458748959867</v>
+        <v>7.084587489598672</v>
       </c>
       <c r="U16" t="n">
-        <v>0.09044154242040868</v>
+        <v>0.09044154242040871</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32229,7 +32229,7 @@
         <v>3.696438249678339</v>
       </c>
       <c r="H17" t="n">
-        <v>37.85614822451829</v>
+        <v>37.8561482245183</v>
       </c>
       <c r="I17" t="n">
         <v>142.5069356207243</v>
@@ -32238,7 +32238,7 @@
         <v>313.7305758936372</v>
       </c>
       <c r="K17" t="n">
-        <v>470.2008070025213</v>
+        <v>470.2008070025214</v>
       </c>
       <c r="L17" t="n">
         <v>583.325679086115</v>
@@ -32247,22 +32247,22 @@
         <v>649.0622128088321</v>
       </c>
       <c r="N17" t="n">
-        <v>659.5647179857307</v>
+        <v>659.5647179857308</v>
       </c>
       <c r="O17" t="n">
         <v>622.8082601404917</v>
       </c>
       <c r="P17" t="n">
-        <v>531.5524408515575</v>
+        <v>531.5524408515577</v>
       </c>
       <c r="Q17" t="n">
         <v>399.173746034952</v>
       </c>
       <c r="R17" t="n">
-        <v>232.1963892013571</v>
+        <v>232.1963892013572</v>
       </c>
       <c r="S17" t="n">
-        <v>84.23258661454523</v>
+        <v>84.23258661454524</v>
       </c>
       <c r="T17" t="n">
         <v>16.18115843796694</v>
@@ -32317,22 +32317,22 @@
         <v>186.8557817326405</v>
       </c>
       <c r="K18" t="n">
-        <v>319.3662929321119</v>
+        <v>319.366292932112</v>
       </c>
       <c r="L18" t="n">
         <v>429.427393095695</v>
       </c>
       <c r="M18" t="n">
-        <v>501.1215129610806</v>
+        <v>501.1215129610807</v>
       </c>
       <c r="N18" t="n">
-        <v>514.3847082755603</v>
+        <v>514.3847082755605</v>
       </c>
       <c r="O18" t="n">
         <v>470.5615148623809</v>
       </c>
       <c r="P18" t="n">
-        <v>377.6671011130263</v>
+        <v>377.6671011130264</v>
       </c>
       <c r="Q18" t="n">
         <v>252.4604554824181</v>
@@ -32341,13 +32341,13 @@
         <v>122.7951555734302</v>
       </c>
       <c r="S18" t="n">
-        <v>36.73618846096893</v>
+        <v>36.73618846096894</v>
       </c>
       <c r="T18" t="n">
-        <v>7.971796268153591</v>
+        <v>7.971796268153592</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1301163699916256</v>
+        <v>0.1301163699916257</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32384,31 +32384,31 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>1.658094944374157</v>
+        <v>1.658094944374158</v>
       </c>
       <c r="H19" t="n">
         <v>14.74197141452661</v>
       </c>
       <c r="I19" t="n">
-        <v>49.86343705445195</v>
+        <v>49.86343705445196</v>
       </c>
       <c r="J19" t="n">
         <v>117.2273125672529</v>
       </c>
       <c r="K19" t="n">
-        <v>192.6404853554702</v>
+        <v>192.6404853554703</v>
       </c>
       <c r="L19" t="n">
         <v>246.5134974572271</v>
       </c>
       <c r="M19" t="n">
-        <v>259.9139193258508</v>
+        <v>259.9139193258509</v>
       </c>
       <c r="N19" t="n">
         <v>253.7337472604565</v>
       </c>
       <c r="O19" t="n">
-        <v>234.3641835920855</v>
+        <v>234.3641835920856</v>
       </c>
       <c r="P19" t="n">
         <v>200.5390467268526</v>
@@ -32417,16 +32417,16 @@
         <v>138.8428412057306</v>
       </c>
       <c r="R19" t="n">
-        <v>74.55397813522346</v>
+        <v>74.55397813522347</v>
       </c>
       <c r="S19" t="n">
         <v>28.89607280332054</v>
       </c>
       <c r="T19" t="n">
-        <v>7.084587489598671</v>
+        <v>7.084587489598672</v>
       </c>
       <c r="U19" t="n">
-        <v>0.09044154242040869</v>
+        <v>0.09044154242040871</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32466,7 +32466,7 @@
         <v>3.696438249678339</v>
       </c>
       <c r="H20" t="n">
-        <v>37.85614822451829</v>
+        <v>37.8561482245183</v>
       </c>
       <c r="I20" t="n">
         <v>142.5069356207243</v>
@@ -32475,7 +32475,7 @@
         <v>313.7305758936372</v>
       </c>
       <c r="K20" t="n">
-        <v>470.2008070025213</v>
+        <v>470.2008070025214</v>
       </c>
       <c r="L20" t="n">
         <v>583.325679086115</v>
@@ -32484,22 +32484,22 @@
         <v>649.0622128088321</v>
       </c>
       <c r="N20" t="n">
-        <v>659.5647179857307</v>
+        <v>659.5647179857308</v>
       </c>
       <c r="O20" t="n">
         <v>622.8082601404917</v>
       </c>
       <c r="P20" t="n">
-        <v>531.5524408515575</v>
+        <v>531.5524408515577</v>
       </c>
       <c r="Q20" t="n">
         <v>399.173746034952</v>
       </c>
       <c r="R20" t="n">
-        <v>232.1963892013571</v>
+        <v>232.1963892013572</v>
       </c>
       <c r="S20" t="n">
-        <v>84.23258661454523</v>
+        <v>84.23258661454524</v>
       </c>
       <c r="T20" t="n">
         <v>16.18115843796694</v>
@@ -32554,22 +32554,22 @@
         <v>186.8557817326405</v>
       </c>
       <c r="K21" t="n">
-        <v>319.3662929321119</v>
+        <v>319.366292932112</v>
       </c>
       <c r="L21" t="n">
         <v>429.427393095695</v>
       </c>
       <c r="M21" t="n">
-        <v>501.1215129610806</v>
+        <v>501.1215129610807</v>
       </c>
       <c r="N21" t="n">
-        <v>514.3847082755603</v>
+        <v>514.3847082755605</v>
       </c>
       <c r="O21" t="n">
         <v>470.5615148623809</v>
       </c>
       <c r="P21" t="n">
-        <v>377.6671011130263</v>
+        <v>377.6671011130264</v>
       </c>
       <c r="Q21" t="n">
         <v>252.4604554824181</v>
@@ -32578,13 +32578,13 @@
         <v>122.7951555734302</v>
       </c>
       <c r="S21" t="n">
-        <v>36.73618846096893</v>
+        <v>36.73618846096894</v>
       </c>
       <c r="T21" t="n">
-        <v>7.971796268153591</v>
+        <v>7.971796268153592</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1301163699916256</v>
+        <v>0.1301163699916257</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32621,31 +32621,31 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>1.658094944374157</v>
+        <v>1.658094944374158</v>
       </c>
       <c r="H22" t="n">
         <v>14.74197141452661</v>
       </c>
       <c r="I22" t="n">
-        <v>49.86343705445195</v>
+        <v>49.86343705445196</v>
       </c>
       <c r="J22" t="n">
         <v>117.2273125672529</v>
       </c>
       <c r="K22" t="n">
-        <v>192.6404853554702</v>
+        <v>192.6404853554703</v>
       </c>
       <c r="L22" t="n">
         <v>246.5134974572271</v>
       </c>
       <c r="M22" t="n">
-        <v>259.9139193258508</v>
+        <v>259.9139193258509</v>
       </c>
       <c r="N22" t="n">
         <v>253.7337472604565</v>
       </c>
       <c r="O22" t="n">
-        <v>234.3641835920855</v>
+        <v>234.3641835920856</v>
       </c>
       <c r="P22" t="n">
         <v>200.5390467268526</v>
@@ -32654,16 +32654,16 @@
         <v>138.8428412057306</v>
       </c>
       <c r="R22" t="n">
-        <v>74.55397813522346</v>
+        <v>74.55397813522347</v>
       </c>
       <c r="S22" t="n">
         <v>28.89607280332054</v>
       </c>
       <c r="T22" t="n">
-        <v>7.084587489598671</v>
+        <v>7.084587489598672</v>
       </c>
       <c r="U22" t="n">
-        <v>0.09044154242040869</v>
+        <v>0.09044154242040871</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32703,7 +32703,7 @@
         <v>3.696438249678339</v>
       </c>
       <c r="H23" t="n">
-        <v>37.85614822451829</v>
+        <v>37.8561482245183</v>
       </c>
       <c r="I23" t="n">
         <v>142.5069356207243</v>
@@ -32712,7 +32712,7 @@
         <v>313.7305758936372</v>
       </c>
       <c r="K23" t="n">
-        <v>470.2008070025213</v>
+        <v>470.2008070025214</v>
       </c>
       <c r="L23" t="n">
         <v>583.325679086115</v>
@@ -32721,22 +32721,22 @@
         <v>649.0622128088321</v>
       </c>
       <c r="N23" t="n">
-        <v>659.5647179857307</v>
+        <v>659.5647179857308</v>
       </c>
       <c r="O23" t="n">
         <v>622.8082601404917</v>
       </c>
       <c r="P23" t="n">
-        <v>531.5524408515575</v>
+        <v>531.5524408515577</v>
       </c>
       <c r="Q23" t="n">
         <v>399.173746034952</v>
       </c>
       <c r="R23" t="n">
-        <v>232.1963892013571</v>
+        <v>232.1963892013572</v>
       </c>
       <c r="S23" t="n">
-        <v>84.23258661454523</v>
+        <v>84.23258661454524</v>
       </c>
       <c r="T23" t="n">
         <v>16.18115843796694</v>
@@ -32791,22 +32791,22 @@
         <v>186.8557817326405</v>
       </c>
       <c r="K24" t="n">
-        <v>319.3662929321119</v>
+        <v>319.366292932112</v>
       </c>
       <c r="L24" t="n">
         <v>429.427393095695</v>
       </c>
       <c r="M24" t="n">
-        <v>501.1215129610806</v>
+        <v>501.1215129610807</v>
       </c>
       <c r="N24" t="n">
-        <v>514.3847082755603</v>
+        <v>514.3847082755605</v>
       </c>
       <c r="O24" t="n">
         <v>470.5615148623809</v>
       </c>
       <c r="P24" t="n">
-        <v>377.6671011130263</v>
+        <v>377.6671011130264</v>
       </c>
       <c r="Q24" t="n">
         <v>252.4604554824181</v>
@@ -32815,13 +32815,13 @@
         <v>122.7951555734302</v>
       </c>
       <c r="S24" t="n">
-        <v>36.73618846096893</v>
+        <v>36.73618846096894</v>
       </c>
       <c r="T24" t="n">
-        <v>7.971796268153591</v>
+        <v>7.971796268153592</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1301163699916256</v>
+        <v>0.1301163699916257</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32858,31 +32858,31 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>1.658094944374157</v>
+        <v>1.658094944374158</v>
       </c>
       <c r="H25" t="n">
         <v>14.74197141452661</v>
       </c>
       <c r="I25" t="n">
-        <v>49.86343705445195</v>
+        <v>49.86343705445196</v>
       </c>
       <c r="J25" t="n">
         <v>117.2273125672529</v>
       </c>
       <c r="K25" t="n">
-        <v>192.6404853554702</v>
+        <v>192.6404853554703</v>
       </c>
       <c r="L25" t="n">
         <v>246.5134974572271</v>
       </c>
       <c r="M25" t="n">
-        <v>259.9139193258508</v>
+        <v>259.9139193258509</v>
       </c>
       <c r="N25" t="n">
         <v>253.7337472604565</v>
       </c>
       <c r="O25" t="n">
-        <v>234.3641835920855</v>
+        <v>234.3641835920856</v>
       </c>
       <c r="P25" t="n">
         <v>200.5390467268526</v>
@@ -32891,16 +32891,16 @@
         <v>138.8428412057306</v>
       </c>
       <c r="R25" t="n">
-        <v>74.55397813522346</v>
+        <v>74.55397813522347</v>
       </c>
       <c r="S25" t="n">
         <v>28.89607280332054</v>
       </c>
       <c r="T25" t="n">
-        <v>7.084587489598671</v>
+        <v>7.084587489598672</v>
       </c>
       <c r="U25" t="n">
-        <v>0.09044154242040869</v>
+        <v>0.09044154242040871</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32940,7 +32940,7 @@
         <v>3.696438249678339</v>
       </c>
       <c r="H26" t="n">
-        <v>37.85614822451829</v>
+        <v>37.8561482245183</v>
       </c>
       <c r="I26" t="n">
         <v>142.5069356207243</v>
@@ -32949,7 +32949,7 @@
         <v>313.7305758936372</v>
       </c>
       <c r="K26" t="n">
-        <v>470.2008070025213</v>
+        <v>470.2008070025214</v>
       </c>
       <c r="L26" t="n">
         <v>583.325679086115</v>
@@ -32958,22 +32958,22 @@
         <v>649.0622128088321</v>
       </c>
       <c r="N26" t="n">
-        <v>659.5647179857307</v>
+        <v>659.5647179857308</v>
       </c>
       <c r="O26" t="n">
         <v>622.8082601404917</v>
       </c>
       <c r="P26" t="n">
-        <v>531.5524408515575</v>
+        <v>531.5524408515577</v>
       </c>
       <c r="Q26" t="n">
         <v>399.173746034952</v>
       </c>
       <c r="R26" t="n">
-        <v>232.1963892013571</v>
+        <v>232.1963892013572</v>
       </c>
       <c r="S26" t="n">
-        <v>84.23258661454523</v>
+        <v>84.23258661454524</v>
       </c>
       <c r="T26" t="n">
         <v>16.18115843796694</v>
@@ -33028,22 +33028,22 @@
         <v>186.8557817326405</v>
       </c>
       <c r="K27" t="n">
-        <v>319.3662929321119</v>
+        <v>319.366292932112</v>
       </c>
       <c r="L27" t="n">
         <v>429.427393095695</v>
       </c>
       <c r="M27" t="n">
-        <v>501.1215129610806</v>
+        <v>501.1215129610807</v>
       </c>
       <c r="N27" t="n">
-        <v>514.3847082755603</v>
+        <v>514.3847082755605</v>
       </c>
       <c r="O27" t="n">
         <v>470.5615148623809</v>
       </c>
       <c r="P27" t="n">
-        <v>377.6671011130263</v>
+        <v>377.6671011130264</v>
       </c>
       <c r="Q27" t="n">
         <v>252.4604554824181</v>
@@ -33052,13 +33052,13 @@
         <v>122.7951555734302</v>
       </c>
       <c r="S27" t="n">
-        <v>36.73618846096893</v>
+        <v>36.73618846096894</v>
       </c>
       <c r="T27" t="n">
-        <v>7.971796268153591</v>
+        <v>7.971796268153592</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1301163699916256</v>
+        <v>0.1301163699916257</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33095,31 +33095,31 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>1.658094944374157</v>
+        <v>1.658094944374158</v>
       </c>
       <c r="H28" t="n">
         <v>14.74197141452661</v>
       </c>
       <c r="I28" t="n">
-        <v>49.86343705445195</v>
+        <v>49.86343705445196</v>
       </c>
       <c r="J28" t="n">
         <v>117.2273125672529</v>
       </c>
       <c r="K28" t="n">
-        <v>192.6404853554702</v>
+        <v>192.6404853554703</v>
       </c>
       <c r="L28" t="n">
         <v>246.5134974572271</v>
       </c>
       <c r="M28" t="n">
-        <v>259.9139193258508</v>
+        <v>259.9139193258509</v>
       </c>
       <c r="N28" t="n">
         <v>253.7337472604565</v>
       </c>
       <c r="O28" t="n">
-        <v>234.3641835920855</v>
+        <v>234.3641835920856</v>
       </c>
       <c r="P28" t="n">
         <v>200.5390467268526</v>
@@ -33128,16 +33128,16 @@
         <v>138.8428412057306</v>
       </c>
       <c r="R28" t="n">
-        <v>74.55397813522346</v>
+        <v>74.55397813522347</v>
       </c>
       <c r="S28" t="n">
         <v>28.89607280332054</v>
       </c>
       <c r="T28" t="n">
-        <v>7.084587489598671</v>
+        <v>7.084587489598672</v>
       </c>
       <c r="U28" t="n">
-        <v>0.09044154242040869</v>
+        <v>0.09044154242040871</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33177,7 +33177,7 @@
         <v>3.696438249678339</v>
       </c>
       <c r="H29" t="n">
-        <v>37.85614822451829</v>
+        <v>37.8561482245183</v>
       </c>
       <c r="I29" t="n">
         <v>142.5069356207243</v>
@@ -33186,7 +33186,7 @@
         <v>313.7305758936372</v>
       </c>
       <c r="K29" t="n">
-        <v>470.2008070025213</v>
+        <v>470.2008070025214</v>
       </c>
       <c r="L29" t="n">
         <v>583.325679086115</v>
@@ -33195,22 +33195,22 @@
         <v>649.0622128088321</v>
       </c>
       <c r="N29" t="n">
-        <v>659.5647179857307</v>
+        <v>659.5647179857308</v>
       </c>
       <c r="O29" t="n">
         <v>622.8082601404917</v>
       </c>
       <c r="P29" t="n">
-        <v>531.5524408515575</v>
+        <v>531.5524408515577</v>
       </c>
       <c r="Q29" t="n">
         <v>399.173746034952</v>
       </c>
       <c r="R29" t="n">
-        <v>232.1963892013571</v>
+        <v>232.1963892013572</v>
       </c>
       <c r="S29" t="n">
-        <v>84.23258661454523</v>
+        <v>84.23258661454524</v>
       </c>
       <c r="T29" t="n">
         <v>16.18115843796694</v>
@@ -33265,22 +33265,22 @@
         <v>186.8557817326405</v>
       </c>
       <c r="K30" t="n">
-        <v>319.3662929321119</v>
+        <v>319.366292932112</v>
       </c>
       <c r="L30" t="n">
         <v>429.427393095695</v>
       </c>
       <c r="M30" t="n">
-        <v>501.1215129610806</v>
+        <v>501.1215129610807</v>
       </c>
       <c r="N30" t="n">
-        <v>514.3847082755603</v>
+        <v>514.3847082755605</v>
       </c>
       <c r="O30" t="n">
         <v>470.5615148623809</v>
       </c>
       <c r="P30" t="n">
-        <v>377.6671011130263</v>
+        <v>377.6671011130264</v>
       </c>
       <c r="Q30" t="n">
         <v>252.4604554824181</v>
@@ -33289,13 +33289,13 @@
         <v>122.7951555734302</v>
       </c>
       <c r="S30" t="n">
-        <v>36.73618846096893</v>
+        <v>36.73618846096894</v>
       </c>
       <c r="T30" t="n">
-        <v>7.971796268153591</v>
+        <v>7.971796268153592</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1301163699916256</v>
+        <v>0.1301163699916257</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33332,31 +33332,31 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>1.658094944374157</v>
+        <v>1.658094944374158</v>
       </c>
       <c r="H31" t="n">
         <v>14.74197141452661</v>
       </c>
       <c r="I31" t="n">
-        <v>49.86343705445195</v>
+        <v>49.86343705445196</v>
       </c>
       <c r="J31" t="n">
         <v>117.2273125672529</v>
       </c>
       <c r="K31" t="n">
-        <v>192.6404853554702</v>
+        <v>192.6404853554703</v>
       </c>
       <c r="L31" t="n">
         <v>246.5134974572271</v>
       </c>
       <c r="M31" t="n">
-        <v>259.9139193258508</v>
+        <v>259.9139193258509</v>
       </c>
       <c r="N31" t="n">
         <v>253.7337472604565</v>
       </c>
       <c r="O31" t="n">
-        <v>234.3641835920855</v>
+        <v>234.3641835920856</v>
       </c>
       <c r="P31" t="n">
         <v>200.5390467268526</v>
@@ -33365,16 +33365,16 @@
         <v>138.8428412057306</v>
       </c>
       <c r="R31" t="n">
-        <v>74.55397813522346</v>
+        <v>74.55397813522347</v>
       </c>
       <c r="S31" t="n">
         <v>28.89607280332054</v>
       </c>
       <c r="T31" t="n">
-        <v>7.084587489598671</v>
+        <v>7.084587489598672</v>
       </c>
       <c r="U31" t="n">
-        <v>0.09044154242040869</v>
+        <v>0.09044154242040871</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33414,7 +33414,7 @@
         <v>3.696438249678339</v>
       </c>
       <c r="H32" t="n">
-        <v>37.85614822451829</v>
+        <v>37.8561482245183</v>
       </c>
       <c r="I32" t="n">
         <v>142.5069356207243</v>
@@ -33423,7 +33423,7 @@
         <v>313.7305758936372</v>
       </c>
       <c r="K32" t="n">
-        <v>470.2008070025213</v>
+        <v>470.2008070025214</v>
       </c>
       <c r="L32" t="n">
         <v>583.325679086115</v>
@@ -33432,22 +33432,22 @@
         <v>649.0622128088321</v>
       </c>
       <c r="N32" t="n">
-        <v>659.5647179857307</v>
+        <v>659.5647179857308</v>
       </c>
       <c r="O32" t="n">
         <v>622.8082601404917</v>
       </c>
       <c r="P32" t="n">
-        <v>531.5524408515575</v>
+        <v>531.5524408515577</v>
       </c>
       <c r="Q32" t="n">
         <v>399.173746034952</v>
       </c>
       <c r="R32" t="n">
-        <v>232.1963892013571</v>
+        <v>232.1963892013572</v>
       </c>
       <c r="S32" t="n">
-        <v>84.23258661454523</v>
+        <v>84.23258661454524</v>
       </c>
       <c r="T32" t="n">
         <v>16.18115843796694</v>
@@ -33502,22 +33502,22 @@
         <v>186.8557817326405</v>
       </c>
       <c r="K33" t="n">
-        <v>319.3662929321119</v>
+        <v>319.366292932112</v>
       </c>
       <c r="L33" t="n">
         <v>429.427393095695</v>
       </c>
       <c r="M33" t="n">
-        <v>501.1215129610806</v>
+        <v>501.1215129610807</v>
       </c>
       <c r="N33" t="n">
-        <v>514.3847082755603</v>
+        <v>514.3847082755605</v>
       </c>
       <c r="O33" t="n">
         <v>470.5615148623809</v>
       </c>
       <c r="P33" t="n">
-        <v>377.6671011130263</v>
+        <v>377.6671011130264</v>
       </c>
       <c r="Q33" t="n">
         <v>252.4604554824181</v>
@@ -33526,13 +33526,13 @@
         <v>122.7951555734302</v>
       </c>
       <c r="S33" t="n">
-        <v>36.73618846096893</v>
+        <v>36.73618846096894</v>
       </c>
       <c r="T33" t="n">
-        <v>7.971796268153591</v>
+        <v>7.971796268153592</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1301163699916256</v>
+        <v>0.1301163699916257</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33569,31 +33569,31 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>1.658094944374157</v>
+        <v>1.658094944374158</v>
       </c>
       <c r="H34" t="n">
         <v>14.74197141452661</v>
       </c>
       <c r="I34" t="n">
-        <v>49.86343705445195</v>
+        <v>49.86343705445196</v>
       </c>
       <c r="J34" t="n">
         <v>117.2273125672529</v>
       </c>
       <c r="K34" t="n">
-        <v>192.6404853554702</v>
+        <v>192.6404853554703</v>
       </c>
       <c r="L34" t="n">
         <v>246.5134974572271</v>
       </c>
       <c r="M34" t="n">
-        <v>259.9139193258508</v>
+        <v>259.9139193258509</v>
       </c>
       <c r="N34" t="n">
         <v>253.7337472604565</v>
       </c>
       <c r="O34" t="n">
-        <v>234.3641835920855</v>
+        <v>234.3641835920856</v>
       </c>
       <c r="P34" t="n">
         <v>200.5390467268526</v>
@@ -33602,16 +33602,16 @@
         <v>138.8428412057306</v>
       </c>
       <c r="R34" t="n">
-        <v>74.55397813522346</v>
+        <v>74.55397813522347</v>
       </c>
       <c r="S34" t="n">
         <v>28.89607280332054</v>
       </c>
       <c r="T34" t="n">
-        <v>7.084587489598671</v>
+        <v>7.084587489598672</v>
       </c>
       <c r="U34" t="n">
-        <v>0.09044154242040869</v>
+        <v>0.09044154242040871</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33651,7 +33651,7 @@
         <v>3.696438249678339</v>
       </c>
       <c r="H35" t="n">
-        <v>37.85614822451829</v>
+        <v>37.8561482245183</v>
       </c>
       <c r="I35" t="n">
         <v>142.5069356207243</v>
@@ -33660,7 +33660,7 @@
         <v>313.7305758936372</v>
       </c>
       <c r="K35" t="n">
-        <v>470.2008070025213</v>
+        <v>470.2008070025214</v>
       </c>
       <c r="L35" t="n">
         <v>583.325679086115</v>
@@ -33669,22 +33669,22 @@
         <v>649.0622128088321</v>
       </c>
       <c r="N35" t="n">
-        <v>659.5647179857307</v>
+        <v>659.5647179857308</v>
       </c>
       <c r="O35" t="n">
         <v>622.8082601404917</v>
       </c>
       <c r="P35" t="n">
-        <v>531.5524408515575</v>
+        <v>531.5524408515577</v>
       </c>
       <c r="Q35" t="n">
         <v>399.173746034952</v>
       </c>
       <c r="R35" t="n">
-        <v>232.1963892013571</v>
+        <v>232.1963892013572</v>
       </c>
       <c r="S35" t="n">
-        <v>84.23258661454523</v>
+        <v>84.23258661454524</v>
       </c>
       <c r="T35" t="n">
         <v>16.18115843796694</v>
@@ -33739,22 +33739,22 @@
         <v>186.8557817326405</v>
       </c>
       <c r="K36" t="n">
-        <v>319.3662929321119</v>
+        <v>319.366292932112</v>
       </c>
       <c r="L36" t="n">
         <v>429.427393095695</v>
       </c>
       <c r="M36" t="n">
-        <v>501.1215129610806</v>
+        <v>501.1215129610807</v>
       </c>
       <c r="N36" t="n">
-        <v>514.3847082755603</v>
+        <v>514.3847082755605</v>
       </c>
       <c r="O36" t="n">
         <v>470.5615148623809</v>
       </c>
       <c r="P36" t="n">
-        <v>377.6671011130263</v>
+        <v>377.6671011130264</v>
       </c>
       <c r="Q36" t="n">
         <v>252.4604554824181</v>
@@ -33763,13 +33763,13 @@
         <v>122.7951555734302</v>
       </c>
       <c r="S36" t="n">
-        <v>36.73618846096893</v>
+        <v>36.73618846096894</v>
       </c>
       <c r="T36" t="n">
-        <v>7.971796268153591</v>
+        <v>7.971796268153592</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1301163699916256</v>
+        <v>0.1301163699916257</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33806,31 +33806,31 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>1.658094944374157</v>
+        <v>1.658094944374158</v>
       </c>
       <c r="H37" t="n">
         <v>14.74197141452661</v>
       </c>
       <c r="I37" t="n">
-        <v>49.86343705445195</v>
+        <v>49.86343705445196</v>
       </c>
       <c r="J37" t="n">
         <v>117.2273125672529</v>
       </c>
       <c r="K37" t="n">
-        <v>192.6404853554702</v>
+        <v>192.6404853554703</v>
       </c>
       <c r="L37" t="n">
         <v>246.5134974572271</v>
       </c>
       <c r="M37" t="n">
-        <v>259.9139193258508</v>
+        <v>259.9139193258509</v>
       </c>
       <c r="N37" t="n">
         <v>253.7337472604565</v>
       </c>
       <c r="O37" t="n">
-        <v>234.3641835920855</v>
+        <v>234.3641835920856</v>
       </c>
       <c r="P37" t="n">
         <v>200.5390467268526</v>
@@ -33839,16 +33839,16 @@
         <v>138.8428412057306</v>
       </c>
       <c r="R37" t="n">
-        <v>74.55397813522346</v>
+        <v>74.55397813522347</v>
       </c>
       <c r="S37" t="n">
         <v>28.89607280332054</v>
       </c>
       <c r="T37" t="n">
-        <v>7.084587489598671</v>
+        <v>7.084587489598672</v>
       </c>
       <c r="U37" t="n">
-        <v>0.09044154242040869</v>
+        <v>0.09044154242040871</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33888,7 +33888,7 @@
         <v>3.696438249678339</v>
       </c>
       <c r="H38" t="n">
-        <v>37.85614822451829</v>
+        <v>37.8561482245183</v>
       </c>
       <c r="I38" t="n">
         <v>142.5069356207243</v>
@@ -33897,7 +33897,7 @@
         <v>313.7305758936372</v>
       </c>
       <c r="K38" t="n">
-        <v>470.2008070025213</v>
+        <v>470.2008070025214</v>
       </c>
       <c r="L38" t="n">
         <v>583.325679086115</v>
@@ -33906,22 +33906,22 @@
         <v>649.0622128088321</v>
       </c>
       <c r="N38" t="n">
-        <v>659.5647179857307</v>
+        <v>659.5647179857308</v>
       </c>
       <c r="O38" t="n">
         <v>622.8082601404917</v>
       </c>
       <c r="P38" t="n">
-        <v>531.5524408515575</v>
+        <v>531.5524408515577</v>
       </c>
       <c r="Q38" t="n">
         <v>399.173746034952</v>
       </c>
       <c r="R38" t="n">
-        <v>232.1963892013571</v>
+        <v>232.1963892013572</v>
       </c>
       <c r="S38" t="n">
-        <v>84.23258661454523</v>
+        <v>84.23258661454524</v>
       </c>
       <c r="T38" t="n">
         <v>16.18115843796694</v>
@@ -33976,22 +33976,22 @@
         <v>186.8557817326405</v>
       </c>
       <c r="K39" t="n">
-        <v>319.3662929321119</v>
+        <v>319.366292932112</v>
       </c>
       <c r="L39" t="n">
         <v>429.427393095695</v>
       </c>
       <c r="M39" t="n">
-        <v>501.1215129610806</v>
+        <v>501.1215129610807</v>
       </c>
       <c r="N39" t="n">
-        <v>514.3847082755603</v>
+        <v>514.3847082755605</v>
       </c>
       <c r="O39" t="n">
         <v>470.5615148623809</v>
       </c>
       <c r="P39" t="n">
-        <v>377.6671011130263</v>
+        <v>377.6671011130264</v>
       </c>
       <c r="Q39" t="n">
         <v>252.4604554824181</v>
@@ -34000,13 +34000,13 @@
         <v>122.7951555734302</v>
       </c>
       <c r="S39" t="n">
-        <v>36.73618846096893</v>
+        <v>36.73618846096894</v>
       </c>
       <c r="T39" t="n">
-        <v>7.971796268153591</v>
+        <v>7.971796268153592</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1301163699916256</v>
+        <v>0.1301163699916257</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34043,31 +34043,31 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>1.658094944374157</v>
+        <v>1.658094944374158</v>
       </c>
       <c r="H40" t="n">
         <v>14.74197141452661</v>
       </c>
       <c r="I40" t="n">
-        <v>49.86343705445195</v>
+        <v>49.86343705445196</v>
       </c>
       <c r="J40" t="n">
         <v>117.2273125672529</v>
       </c>
       <c r="K40" t="n">
-        <v>192.6404853554702</v>
+        <v>192.6404853554703</v>
       </c>
       <c r="L40" t="n">
         <v>246.5134974572271</v>
       </c>
       <c r="M40" t="n">
-        <v>259.9139193258508</v>
+        <v>259.9139193258509</v>
       </c>
       <c r="N40" t="n">
         <v>253.7337472604565</v>
       </c>
       <c r="O40" t="n">
-        <v>234.3641835920855</v>
+        <v>234.3641835920856</v>
       </c>
       <c r="P40" t="n">
         <v>200.5390467268526</v>
@@ -34076,16 +34076,16 @@
         <v>138.8428412057306</v>
       </c>
       <c r="R40" t="n">
-        <v>74.55397813522346</v>
+        <v>74.55397813522347</v>
       </c>
       <c r="S40" t="n">
         <v>28.89607280332054</v>
       </c>
       <c r="T40" t="n">
-        <v>7.084587489598671</v>
+        <v>7.084587489598672</v>
       </c>
       <c r="U40" t="n">
-        <v>0.09044154242040869</v>
+        <v>0.09044154242040871</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,49 +34122,49 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>3.696438249678338</v>
+        <v>3.696438249678339</v>
       </c>
       <c r="H41" t="n">
-        <v>37.85614822451829</v>
+        <v>37.8561482245183</v>
       </c>
       <c r="I41" t="n">
         <v>142.5069356207243</v>
       </c>
       <c r="J41" t="n">
-        <v>313.7305758936371</v>
+        <v>313.7305758936372</v>
       </c>
       <c r="K41" t="n">
-        <v>470.2008070025213</v>
+        <v>470.2008070025214</v>
       </c>
       <c r="L41" t="n">
-        <v>583.3256790861149</v>
+        <v>583.325679086115</v>
       </c>
       <c r="M41" t="n">
-        <v>649.062212808832</v>
+        <v>649.0622128088321</v>
       </c>
       <c r="N41" t="n">
-        <v>659.5647179857306</v>
+        <v>659.5647179857308</v>
       </c>
       <c r="O41" t="n">
-        <v>622.8082601404916</v>
+        <v>622.8082601404917</v>
       </c>
       <c r="P41" t="n">
-        <v>531.5524408515575</v>
+        <v>531.5524408515577</v>
       </c>
       <c r="Q41" t="n">
-        <v>399.1737460349519</v>
+        <v>399.173746034952</v>
       </c>
       <c r="R41" t="n">
-        <v>232.1963892013571</v>
+        <v>232.1963892013572</v>
       </c>
       <c r="S41" t="n">
-        <v>84.23258661454521</v>
+        <v>84.23258661454524</v>
       </c>
       <c r="T41" t="n">
-        <v>16.18115843796693</v>
+        <v>16.18115843796694</v>
       </c>
       <c r="U41" t="n">
-        <v>0.295715059974267</v>
+        <v>0.2957150599742671</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34204,31 +34204,31 @@
         <v>1.977768823872709</v>
       </c>
       <c r="H42" t="n">
-        <v>19.10108311477063</v>
+        <v>19.10108311477064</v>
       </c>
       <c r="I42" t="n">
-        <v>68.09423362895072</v>
+        <v>68.09423362895073</v>
       </c>
       <c r="J42" t="n">
         <v>186.8557817326405</v>
       </c>
       <c r="K42" t="n">
-        <v>319.3662929321119</v>
+        <v>319.366292932112</v>
       </c>
       <c r="L42" t="n">
         <v>429.427393095695</v>
       </c>
       <c r="M42" t="n">
-        <v>501.1215129610805</v>
+        <v>501.1215129610807</v>
       </c>
       <c r="N42" t="n">
-        <v>514.3847082755603</v>
+        <v>514.3847082755605</v>
       </c>
       <c r="O42" t="n">
-        <v>470.5615148623808</v>
+        <v>470.5615148623809</v>
       </c>
       <c r="P42" t="n">
-        <v>377.6671011130263</v>
+        <v>377.6671011130264</v>
       </c>
       <c r="Q42" t="n">
         <v>252.4604554824181</v>
@@ -34237,13 +34237,13 @@
         <v>122.7951555734302</v>
       </c>
       <c r="S42" t="n">
-        <v>36.73618846096893</v>
+        <v>36.73618846096894</v>
       </c>
       <c r="T42" t="n">
-        <v>7.97179626815359</v>
+        <v>7.971796268153592</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1301163699916256</v>
+        <v>0.1301163699916257</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34280,49 +34280,49 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>1.658094944374157</v>
+        <v>1.658094944374158</v>
       </c>
       <c r="H43" t="n">
         <v>14.74197141452661</v>
       </c>
       <c r="I43" t="n">
-        <v>49.86343705445194</v>
+        <v>49.86343705445196</v>
       </c>
       <c r="J43" t="n">
         <v>117.2273125672529</v>
       </c>
       <c r="K43" t="n">
-        <v>192.6404853554702</v>
+        <v>192.6404853554703</v>
       </c>
       <c r="L43" t="n">
-        <v>246.513497457227</v>
+        <v>246.5134974572271</v>
       </c>
       <c r="M43" t="n">
-        <v>259.9139193258508</v>
+        <v>259.9139193258509</v>
       </c>
       <c r="N43" t="n">
         <v>253.7337472604565</v>
       </c>
       <c r="O43" t="n">
-        <v>234.3641835920855</v>
+        <v>234.3641835920856</v>
       </c>
       <c r="P43" t="n">
-        <v>200.5390467268525</v>
+        <v>200.5390467268526</v>
       </c>
       <c r="Q43" t="n">
         <v>138.8428412057306</v>
       </c>
       <c r="R43" t="n">
-        <v>74.55397813522346</v>
+        <v>74.55397813522347</v>
       </c>
       <c r="S43" t="n">
-        <v>28.89607280332053</v>
+        <v>28.89607280332054</v>
       </c>
       <c r="T43" t="n">
-        <v>7.08458748959867</v>
+        <v>7.084587489598672</v>
       </c>
       <c r="U43" t="n">
-        <v>0.09044154242040868</v>
+        <v>0.09044154242040871</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,49 +34359,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>3.696438249678338</v>
+        <v>3.696438249678339</v>
       </c>
       <c r="H44" t="n">
-        <v>37.85614822451829</v>
+        <v>37.8561482245183</v>
       </c>
       <c r="I44" t="n">
         <v>142.5069356207243</v>
       </c>
       <c r="J44" t="n">
-        <v>313.7305758936371</v>
+        <v>313.7305758936372</v>
       </c>
       <c r="K44" t="n">
-        <v>470.2008070025213</v>
+        <v>470.2008070025214</v>
       </c>
       <c r="L44" t="n">
-        <v>583.3256790861149</v>
+        <v>583.325679086115</v>
       </c>
       <c r="M44" t="n">
-        <v>649.062212808832</v>
+        <v>649.0622128088321</v>
       </c>
       <c r="N44" t="n">
-        <v>659.5647179857306</v>
+        <v>659.5647179857308</v>
       </c>
       <c r="O44" t="n">
-        <v>622.8082601404917</v>
+        <v>622.808260140491</v>
       </c>
       <c r="P44" t="n">
-        <v>531.5524408515575</v>
+        <v>531.5524408515577</v>
       </c>
       <c r="Q44" t="n">
-        <v>399.1737460349519</v>
+        <v>399.173746034952</v>
       </c>
       <c r="R44" t="n">
-        <v>232.1963892013571</v>
+        <v>232.1963892013572</v>
       </c>
       <c r="S44" t="n">
-        <v>84.23258661454521</v>
+        <v>84.23258661454524</v>
       </c>
       <c r="T44" t="n">
-        <v>16.18115843796693</v>
+        <v>16.18115843796694</v>
       </c>
       <c r="U44" t="n">
-        <v>0.295715059974267</v>
+        <v>0.2957150599742671</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34441,31 +34441,31 @@
         <v>1.977768823872709</v>
       </c>
       <c r="H45" t="n">
-        <v>19.10108311477063</v>
+        <v>19.10108311477064</v>
       </c>
       <c r="I45" t="n">
-        <v>68.09423362895072</v>
+        <v>68.09423362895073</v>
       </c>
       <c r="J45" t="n">
         <v>186.8557817326405</v>
       </c>
       <c r="K45" t="n">
-        <v>319.3662929321119</v>
+        <v>319.366292932112</v>
       </c>
       <c r="L45" t="n">
         <v>429.427393095695</v>
       </c>
       <c r="M45" t="n">
-        <v>501.1215129610805</v>
+        <v>501.1215129610807</v>
       </c>
       <c r="N45" t="n">
-        <v>514.3847082755603</v>
+        <v>514.3847082755605</v>
       </c>
       <c r="O45" t="n">
-        <v>470.5615148623808</v>
+        <v>470.5615148623809</v>
       </c>
       <c r="P45" t="n">
-        <v>377.6671011130263</v>
+        <v>377.6671011130264</v>
       </c>
       <c r="Q45" t="n">
         <v>252.4604554824181</v>
@@ -34474,13 +34474,13 @@
         <v>122.7951555734302</v>
       </c>
       <c r="S45" t="n">
-        <v>36.73618846096893</v>
+        <v>36.73618846096894</v>
       </c>
       <c r="T45" t="n">
-        <v>7.97179626815359</v>
+        <v>7.971796268153592</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1301163699916256</v>
+        <v>0.1301163699916257</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34517,49 +34517,49 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>1.658094944374157</v>
+        <v>1.658094944374158</v>
       </c>
       <c r="H46" t="n">
         <v>14.74197141452661</v>
       </c>
       <c r="I46" t="n">
-        <v>49.86343705445194</v>
+        <v>49.86343705445196</v>
       </c>
       <c r="J46" t="n">
         <v>117.2273125672529</v>
       </c>
       <c r="K46" t="n">
-        <v>192.6404853554702</v>
+        <v>192.6404853554703</v>
       </c>
       <c r="L46" t="n">
-        <v>246.513497457227</v>
+        <v>246.5134974572271</v>
       </c>
       <c r="M46" t="n">
-        <v>259.9139193258508</v>
+        <v>259.9139193258509</v>
       </c>
       <c r="N46" t="n">
         <v>253.7337472604565</v>
       </c>
       <c r="O46" t="n">
-        <v>234.3641835920855</v>
+        <v>234.3641835920856</v>
       </c>
       <c r="P46" t="n">
-        <v>200.5390467268525</v>
+        <v>200.5390467268526</v>
       </c>
       <c r="Q46" t="n">
         <v>138.8428412057306</v>
       </c>
       <c r="R46" t="n">
-        <v>74.55397813522346</v>
+        <v>74.55397813522347</v>
       </c>
       <c r="S46" t="n">
-        <v>28.89607280332053</v>
+        <v>28.89607280332054</v>
       </c>
       <c r="T46" t="n">
-        <v>7.08458748959867</v>
+        <v>7.084587489598672</v>
       </c>
       <c r="U46" t="n">
-        <v>0.09044154242040868</v>
+        <v>0.09044154242040871</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -35412,28 +35412,28 @@
         <v>132.6846713669509</v>
       </c>
       <c r="K11" t="n">
-        <v>250.1109559575407</v>
+        <v>250.1109559575408</v>
       </c>
       <c r="L11" t="n">
-        <v>347.5592641161276</v>
+        <v>347.5592641161277</v>
       </c>
       <c r="M11" t="n">
-        <v>418.7159795815593</v>
+        <v>418.7159795815594</v>
       </c>
       <c r="N11" t="n">
-        <v>430.1516543891397</v>
+        <v>430.1516543891398</v>
       </c>
       <c r="O11" t="n">
-        <v>392.7100487188048</v>
+        <v>392.710048718805</v>
       </c>
       <c r="P11" t="n">
         <v>300.319445096288</v>
       </c>
       <c r="Q11" t="n">
-        <v>176.8680561605024</v>
+        <v>176.8680561605025</v>
       </c>
       <c r="R11" t="n">
-        <v>16.61085138722498</v>
+        <v>16.61085138722501</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35491,16 +35491,16 @@
         <v>186.1091904063826</v>
       </c>
       <c r="K12" t="n">
-        <v>352.5043145717682</v>
+        <v>181.524853957753</v>
       </c>
       <c r="L12" t="n">
-        <v>290.8730133158208</v>
+        <v>409.6125748283507</v>
       </c>
       <c r="M12" t="n">
-        <v>358.9874790390622</v>
+        <v>358.9874790390623</v>
       </c>
       <c r="N12" t="n">
-        <v>383.0429961922271</v>
+        <v>622.7228616087751</v>
       </c>
       <c r="O12" t="n">
         <v>327.9652704179364</v>
@@ -35509,10 +35509,10 @@
         <v>243.6926936986961</v>
       </c>
       <c r="Q12" t="n">
-        <v>322.5559691322457</v>
+        <v>112.4786813963966</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>22.63732142078703</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35567,7 +35567,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>23.86813245058013</v>
+        <v>23.86813245058015</v>
       </c>
       <c r="K13" t="n">
         <v>170.3709935295874</v>
@@ -35579,13 +35579,13 @@
         <v>299.4977962876914</v>
       </c>
       <c r="N13" t="n">
-        <v>297.865919639685</v>
+        <v>297.8659196396851</v>
       </c>
       <c r="O13" t="n">
         <v>258.9493115061252</v>
       </c>
       <c r="P13" t="n">
-        <v>197.817605991746</v>
+        <v>197.8176059917461</v>
       </c>
       <c r="Q13" t="n">
         <v>52.68079795403621</v>
@@ -35649,28 +35649,28 @@
         <v>132.6846713669509</v>
       </c>
       <c r="K14" t="n">
-        <v>250.1109559575407</v>
+        <v>250.1109559575409</v>
       </c>
       <c r="L14" t="n">
-        <v>347.5592641161276</v>
+        <v>347.5592641161277</v>
       </c>
       <c r="M14" t="n">
-        <v>418.7159795815593</v>
+        <v>418.7159795815594</v>
       </c>
       <c r="N14" t="n">
-        <v>430.1516543891397</v>
+        <v>430.1516543891399</v>
       </c>
       <c r="O14" t="n">
-        <v>392.7100487188048</v>
+        <v>392.710048718805</v>
       </c>
       <c r="P14" t="n">
-        <v>300.319445096288</v>
+        <v>300.3194450962881</v>
       </c>
       <c r="Q14" t="n">
-        <v>176.8680561605024</v>
+        <v>176.8680561605026</v>
       </c>
       <c r="R14" t="n">
-        <v>16.61085138722498</v>
+        <v>16.61085138722504</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35725,25 +35725,25 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>60.01815506597376</v>
+        <v>60.01815506597381</v>
       </c>
       <c r="K15" t="n">
-        <v>445.9900909703316</v>
+        <v>181.524853957753</v>
       </c>
       <c r="L15" t="n">
-        <v>533.5555599935154</v>
+        <v>290.8730133158209</v>
       </c>
       <c r="M15" t="n">
-        <v>358.9874790390622</v>
+        <v>358.9874790390624</v>
       </c>
       <c r="N15" t="n">
-        <v>383.0429961922271</v>
+        <v>383.0429961922272</v>
       </c>
       <c r="O15" t="n">
-        <v>327.9652704179364</v>
+        <v>622.7228616087749</v>
       </c>
       <c r="P15" t="n">
-        <v>243.6926936986961</v>
+        <v>456.0828861981304</v>
       </c>
       <c r="Q15" t="n">
         <v>112.4786813963966</v>
@@ -35804,7 +35804,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>23.86813245058013</v>
+        <v>23.86813245058016</v>
       </c>
       <c r="K16" t="n">
         <v>170.3709935295874</v>
@@ -35813,19 +35813,19 @@
         <v>274.1035227175432</v>
       </c>
       <c r="M16" t="n">
-        <v>299.4977962876914</v>
+        <v>299.4977962876915</v>
       </c>
       <c r="N16" t="n">
-        <v>297.865919639685</v>
+        <v>297.8659196396851</v>
       </c>
       <c r="O16" t="n">
         <v>258.9493115061252</v>
       </c>
       <c r="P16" t="n">
-        <v>197.817605991746</v>
+        <v>197.8176059917461</v>
       </c>
       <c r="Q16" t="n">
-        <v>52.68079795403621</v>
+        <v>52.68079795403624</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35886,7 +35886,7 @@
         <v>132.6846713669509</v>
       </c>
       <c r="K17" t="n">
-        <v>250.1109559575408</v>
+        <v>250.1109559575409</v>
       </c>
       <c r="L17" t="n">
         <v>347.5592641161277</v>
@@ -35895,19 +35895,19 @@
         <v>418.7159795815594</v>
       </c>
       <c r="N17" t="n">
-        <v>430.1516543891398</v>
+        <v>430.1516543891399</v>
       </c>
       <c r="O17" t="n">
         <v>392.710048718805</v>
       </c>
       <c r="P17" t="n">
-        <v>300.319445096288</v>
+        <v>300.3194450962881</v>
       </c>
       <c r="Q17" t="n">
-        <v>176.8680561605025</v>
+        <v>176.8680561605026</v>
       </c>
       <c r="R17" t="n">
-        <v>16.61085138722501</v>
+        <v>16.61085138722504</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35962,22 +35962,22 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>60.01815506597379</v>
+        <v>60.01815506597381</v>
       </c>
       <c r="K18" t="n">
-        <v>370.2098690080899</v>
+        <v>370.2098690080894</v>
       </c>
       <c r="L18" t="n">
-        <v>290.8730133158208</v>
+        <v>290.8730133158209</v>
       </c>
       <c r="M18" t="n">
-        <v>358.9874790390623</v>
+        <v>358.9874790390624</v>
       </c>
       <c r="N18" t="n">
-        <v>383.0429961922271</v>
+        <v>383.0429961922272</v>
       </c>
       <c r="O18" t="n">
-        <v>327.9652704179364</v>
+        <v>327.9652704179365</v>
       </c>
       <c r="P18" t="n">
         <v>562.1554623386332</v>
@@ -36041,7 +36041,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>23.86813245058015</v>
+        <v>23.86813245058016</v>
       </c>
       <c r="K19" t="n">
         <v>170.3709935295874</v>
@@ -36050,7 +36050,7 @@
         <v>274.1035227175432</v>
       </c>
       <c r="M19" t="n">
-        <v>299.4977962876914</v>
+        <v>299.4977962876915</v>
       </c>
       <c r="N19" t="n">
         <v>297.8659196396851</v>
@@ -36062,7 +36062,7 @@
         <v>197.8176059917461</v>
       </c>
       <c r="Q19" t="n">
-        <v>52.68079795403621</v>
+        <v>52.68079795403624</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36123,7 +36123,7 @@
         <v>132.6846713669509</v>
       </c>
       <c r="K20" t="n">
-        <v>250.1109559575408</v>
+        <v>250.1109559575409</v>
       </c>
       <c r="L20" t="n">
         <v>347.5592641161277</v>
@@ -36132,19 +36132,19 @@
         <v>418.7159795815594</v>
       </c>
       <c r="N20" t="n">
-        <v>430.1516543891398</v>
+        <v>430.1516543891399</v>
       </c>
       <c r="O20" t="n">
         <v>392.710048718805</v>
       </c>
       <c r="P20" t="n">
-        <v>300.319445096288</v>
+        <v>300.3194450962881</v>
       </c>
       <c r="Q20" t="n">
-        <v>176.8680561605025</v>
+        <v>176.8680561605026</v>
       </c>
       <c r="R20" t="n">
-        <v>16.61085138722501</v>
+        <v>16.61085138722504</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36199,22 +36199,22 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>60.01815506597379</v>
+        <v>186.1091904063827</v>
       </c>
       <c r="K21" t="n">
         <v>181.524853957753</v>
       </c>
       <c r="L21" t="n">
-        <v>290.8730133158208</v>
+        <v>290.8730133158209</v>
       </c>
       <c r="M21" t="n">
         <v>622.7228616087749</v>
       </c>
       <c r="N21" t="n">
-        <v>622.7228616087749</v>
+        <v>383.0429961922272</v>
       </c>
       <c r="O21" t="n">
-        <v>331.6978061219488</v>
+        <v>445.2866361980876</v>
       </c>
       <c r="P21" t="n">
         <v>243.6926936986961</v>
@@ -36278,7 +36278,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>23.86813245058015</v>
+        <v>23.86813245058016</v>
       </c>
       <c r="K22" t="n">
         <v>170.3709935295874</v>
@@ -36287,7 +36287,7 @@
         <v>274.1035227175432</v>
       </c>
       <c r="M22" t="n">
-        <v>299.4977962876914</v>
+        <v>299.4977962876915</v>
       </c>
       <c r="N22" t="n">
         <v>297.8659196396851</v>
@@ -36299,7 +36299,7 @@
         <v>197.8176059917461</v>
       </c>
       <c r="Q22" t="n">
-        <v>52.68079795403621</v>
+        <v>52.68079795403624</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36357,10 +36357,10 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>139.8619362969972</v>
+        <v>132.6846713669509</v>
       </c>
       <c r="K23" t="n">
-        <v>250.1109559575408</v>
+        <v>250.1109559575409</v>
       </c>
       <c r="L23" t="n">
         <v>347.5592641161277</v>
@@ -36369,19 +36369,19 @@
         <v>418.7159795815594</v>
       </c>
       <c r="N23" t="n">
-        <v>430.1516543891398</v>
+        <v>430.1516543891399</v>
       </c>
       <c r="O23" t="n">
         <v>392.710048718805</v>
       </c>
       <c r="P23" t="n">
-        <v>300.319445096288</v>
+        <v>307.4967100263336</v>
       </c>
       <c r="Q23" t="n">
-        <v>176.8680561605025</v>
+        <v>176.8680561605026</v>
       </c>
       <c r="R23" t="n">
-        <v>82.32727126020745</v>
+        <v>82.32727126020748</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36436,31 +36436,31 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>186.1091904063826</v>
+        <v>60.01815506597381</v>
       </c>
       <c r="K24" t="n">
-        <v>402.76067795401</v>
+        <v>445.9900909703316</v>
       </c>
       <c r="L24" t="n">
-        <v>290.8730133158208</v>
+        <v>290.8730133158209</v>
       </c>
       <c r="M24" t="n">
-        <v>358.9874790390623</v>
+        <v>416.474470624921</v>
       </c>
       <c r="N24" t="n">
-        <v>383.0429961922271</v>
+        <v>641.1322360870907</v>
       </c>
       <c r="O24" t="n">
-        <v>327.9652704179364</v>
+        <v>327.9652704179365</v>
       </c>
       <c r="P24" t="n">
         <v>243.6926936986961</v>
       </c>
       <c r="Q24" t="n">
-        <v>322.5559691322457</v>
+        <v>112.4786813963966</v>
       </c>
       <c r="R24" t="n">
-        <v>22.63732142078703</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36515,7 +36515,7 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>23.86813245058015</v>
+        <v>23.86813245058016</v>
       </c>
       <c r="K25" t="n">
         <v>170.3709935295874</v>
@@ -36524,7 +36524,7 @@
         <v>274.1035227175432</v>
       </c>
       <c r="M25" t="n">
-        <v>299.4977962876914</v>
+        <v>299.4977962876915</v>
       </c>
       <c r="N25" t="n">
         <v>297.8659196396851</v>
@@ -36536,7 +36536,7 @@
         <v>197.8176059917461</v>
       </c>
       <c r="Q25" t="n">
-        <v>52.68079795403621</v>
+        <v>52.68079795403624</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36597,7 +36597,7 @@
         <v>132.6846713669509</v>
       </c>
       <c r="K26" t="n">
-        <v>257.2882208875871</v>
+        <v>250.1109559575409</v>
       </c>
       <c r="L26" t="n">
         <v>347.5592641161277</v>
@@ -36606,19 +36606,19 @@
         <v>418.7159795815594</v>
       </c>
       <c r="N26" t="n">
-        <v>430.1516543891398</v>
+        <v>430.1516543891399</v>
       </c>
       <c r="O26" t="n">
-        <v>392.710048718805</v>
+        <v>465.6037335218332</v>
       </c>
       <c r="P26" t="n">
-        <v>300.319445096288</v>
+        <v>300.3194450962881</v>
       </c>
       <c r="Q26" t="n">
-        <v>176.8680561605025</v>
+        <v>176.8680561605026</v>
       </c>
       <c r="R26" t="n">
-        <v>82.32727126020745</v>
+        <v>16.61085138722504</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36673,28 +36673,28 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>99.82562661638345</v>
+        <v>79.72311305215585</v>
       </c>
       <c r="K27" t="n">
         <v>181.524853957753</v>
       </c>
       <c r="L27" t="n">
-        <v>290.8730133158208</v>
+        <v>641.1322360870907</v>
       </c>
       <c r="M27" t="n">
-        <v>641.1322360870909</v>
+        <v>358.9874790390624</v>
       </c>
       <c r="N27" t="n">
-        <v>641.1322360870909</v>
+        <v>383.0429961922272</v>
       </c>
       <c r="O27" t="n">
-        <v>327.9652704179364</v>
+        <v>327.9652704179365</v>
       </c>
       <c r="P27" t="n">
         <v>243.6926936986961</v>
       </c>
       <c r="Q27" t="n">
-        <v>112.4786813963966</v>
+        <v>322.5559691322457</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36752,7 +36752,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>23.86813245058015</v>
+        <v>23.86813245058016</v>
       </c>
       <c r="K28" t="n">
         <v>170.3709935295874</v>
@@ -36761,7 +36761,7 @@
         <v>274.1035227175432</v>
       </c>
       <c r="M28" t="n">
-        <v>299.4977962876914</v>
+        <v>299.4977962876915</v>
       </c>
       <c r="N28" t="n">
         <v>297.8659196396851</v>
@@ -36773,7 +36773,7 @@
         <v>197.8176059917461</v>
       </c>
       <c r="Q28" t="n">
-        <v>52.68079795403621</v>
+        <v>52.68079795403624</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36831,10 +36831,10 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>132.6846713669509</v>
+        <v>139.8619362969962</v>
       </c>
       <c r="K29" t="n">
-        <v>250.1109559575408</v>
+        <v>250.1109559575409</v>
       </c>
       <c r="L29" t="n">
         <v>347.5592641161277</v>
@@ -36843,19 +36843,19 @@
         <v>418.7159795815594</v>
       </c>
       <c r="N29" t="n">
-        <v>430.1516543891398</v>
+        <v>430.1516543891399</v>
       </c>
       <c r="O29" t="n">
         <v>392.710048718805</v>
       </c>
       <c r="P29" t="n">
-        <v>373.2131298993163</v>
+        <v>300.3194450962881</v>
       </c>
       <c r="Q29" t="n">
-        <v>176.8680561605025</v>
+        <v>176.8680561605026</v>
       </c>
       <c r="R29" t="n">
-        <v>16.61085138722501</v>
+        <v>82.32727126020748</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36910,22 +36910,22 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>60.01815506597379</v>
+        <v>60.01815506597381</v>
       </c>
       <c r="K30" t="n">
-        <v>181.524853957753</v>
+        <v>445.9900909703316</v>
       </c>
       <c r="L30" t="n">
-        <v>290.8730133158208</v>
+        <v>324.3044877485148</v>
       </c>
       <c r="M30" t="n">
         <v>641.1322360870907</v>
       </c>
       <c r="N30" t="n">
-        <v>641.1322360870907</v>
+        <v>383.0429961922272</v>
       </c>
       <c r="O30" t="n">
-        <v>367.7727419683457</v>
+        <v>327.9652704179365</v>
       </c>
       <c r="P30" t="n">
         <v>243.6926936986961</v>
@@ -36989,7 +36989,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>23.86813245058015</v>
+        <v>23.86813245058016</v>
       </c>
       <c r="K31" t="n">
         <v>170.3709935295874</v>
@@ -36998,7 +36998,7 @@
         <v>274.1035227175432</v>
       </c>
       <c r="M31" t="n">
-        <v>299.4977962876914</v>
+        <v>299.4977962876915</v>
       </c>
       <c r="N31" t="n">
         <v>297.8659196396851</v>
@@ -37010,7 +37010,7 @@
         <v>197.8176059917461</v>
       </c>
       <c r="Q31" t="n">
-        <v>52.68079795403621</v>
+        <v>52.68079795403624</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37068,10 +37068,10 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>132.6846713669509</v>
+        <v>205.5783561699792</v>
       </c>
       <c r="K32" t="n">
-        <v>323.0046407605691</v>
+        <v>250.1109559575409</v>
       </c>
       <c r="L32" t="n">
         <v>347.5592641161277</v>
@@ -37080,19 +37080,19 @@
         <v>418.7159795815594</v>
       </c>
       <c r="N32" t="n">
-        <v>430.1516543891398</v>
+        <v>430.1516543891399</v>
       </c>
       <c r="O32" t="n">
         <v>392.710048718805</v>
       </c>
       <c r="P32" t="n">
-        <v>300.319445096288</v>
+        <v>300.3194450962881</v>
       </c>
       <c r="Q32" t="n">
-        <v>176.8680561605025</v>
+        <v>176.8680561605026</v>
       </c>
       <c r="R32" t="n">
-        <v>16.61085138722501</v>
+        <v>16.61085138722504</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37147,22 +37147,22 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>77.18830519559606</v>
+        <v>60.01815506597381</v>
       </c>
       <c r="K33" t="n">
-        <v>181.524853957753</v>
+        <v>445.9900909703316</v>
       </c>
       <c r="L33" t="n">
-        <v>290.8730133158208</v>
+        <v>324.3044877485148</v>
       </c>
       <c r="M33" t="n">
         <v>641.1322360870907</v>
       </c>
       <c r="N33" t="n">
-        <v>641.1322360870907</v>
+        <v>383.0429961922272</v>
       </c>
       <c r="O33" t="n">
-        <v>327.9652704179364</v>
+        <v>327.9652704179365</v>
       </c>
       <c r="P33" t="n">
         <v>243.6926936986961</v>
@@ -37171,7 +37171,7 @@
         <v>112.4786813963966</v>
       </c>
       <c r="R33" t="n">
-        <v>22.63732142078703</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37226,7 +37226,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>23.86813245058015</v>
+        <v>23.86813245058016</v>
       </c>
       <c r="K34" t="n">
         <v>170.3709935295874</v>
@@ -37235,7 +37235,7 @@
         <v>274.1035227175432</v>
       </c>
       <c r="M34" t="n">
-        <v>299.4977962876914</v>
+        <v>299.4977962876915</v>
       </c>
       <c r="N34" t="n">
         <v>297.8659196396851</v>
@@ -37247,7 +37247,7 @@
         <v>197.8176059917461</v>
       </c>
       <c r="Q34" t="n">
-        <v>52.68079795403621</v>
+        <v>52.68079795403624</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37308,28 +37308,28 @@
         <v>132.6846713669509</v>
       </c>
       <c r="K35" t="n">
-        <v>250.1109559575408</v>
+        <v>250.1109559575409</v>
       </c>
       <c r="L35" t="n">
         <v>347.5592641161277</v>
       </c>
       <c r="M35" t="n">
-        <v>418.7159795815594</v>
+        <v>418.7159795815588</v>
       </c>
       <c r="N35" t="n">
-        <v>430.1516543891398</v>
+        <v>430.1516543891399</v>
       </c>
       <c r="O35" t="n">
         <v>392.710048718805</v>
       </c>
       <c r="P35" t="n">
-        <v>300.319445096288</v>
+        <v>300.3194450962881</v>
       </c>
       <c r="Q35" t="n">
-        <v>176.8680561605025</v>
+        <v>176.8680561605026</v>
       </c>
       <c r="R35" t="n">
-        <v>16.61085138722501</v>
+        <v>16.61085138722504</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37384,22 +37384,22 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>60.01815506597379</v>
+        <v>186.1091904063827</v>
       </c>
       <c r="K36" t="n">
-        <v>181.524853957753</v>
+        <v>322.9017368910688</v>
       </c>
       <c r="L36" t="n">
-        <v>290.8730133158208</v>
+        <v>290.8730133158209</v>
       </c>
       <c r="M36" t="n">
+        <v>358.9874790390624</v>
+      </c>
+      <c r="N36" t="n">
         <v>622.7228616087749</v>
       </c>
-      <c r="N36" t="n">
-        <v>383.0429961922271</v>
-      </c>
       <c r="O36" t="n">
-        <v>548.7403501177096</v>
+        <v>327.9652704179365</v>
       </c>
       <c r="P36" t="n">
         <v>243.6926936986961</v>
@@ -37408,7 +37408,7 @@
         <v>112.4786813963966</v>
       </c>
       <c r="R36" t="n">
-        <v>22.63732142078703</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37463,7 +37463,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>23.86813245058015</v>
+        <v>23.86813245058016</v>
       </c>
       <c r="K37" t="n">
         <v>170.3709935295874</v>
@@ -37472,7 +37472,7 @@
         <v>274.1035227175432</v>
       </c>
       <c r="M37" t="n">
-        <v>299.4977962876914</v>
+        <v>299.4977962876915</v>
       </c>
       <c r="N37" t="n">
         <v>297.8659196396851</v>
@@ -37484,7 +37484,7 @@
         <v>197.8176059917461</v>
       </c>
       <c r="Q37" t="n">
-        <v>52.68079795403621</v>
+        <v>52.68079795403624</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37545,7 +37545,7 @@
         <v>132.6846713669509</v>
       </c>
       <c r="K38" t="n">
-        <v>250.1109559575408</v>
+        <v>250.1109559575409</v>
       </c>
       <c r="L38" t="n">
         <v>347.5592641161277</v>
@@ -37554,19 +37554,19 @@
         <v>418.7159795815594</v>
       </c>
       <c r="N38" t="n">
-        <v>430.1516543891398</v>
+        <v>430.1516543891399</v>
       </c>
       <c r="O38" t="n">
         <v>392.710048718805</v>
       </c>
       <c r="P38" t="n">
-        <v>300.319445096288</v>
+        <v>300.3194450962881</v>
       </c>
       <c r="Q38" t="n">
-        <v>176.8680561605025</v>
+        <v>176.8680561605026</v>
       </c>
       <c r="R38" t="n">
-        <v>16.61085138722501</v>
+        <v>16.61085138722504</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37621,22 +37621,22 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>186.1091904063826</v>
+        <v>60.01815506597381</v>
       </c>
       <c r="K39" t="n">
-        <v>322.90173689107</v>
+        <v>181.524853957753</v>
       </c>
       <c r="L39" t="n">
-        <v>290.8730133158208</v>
+        <v>290.8730133158209</v>
       </c>
       <c r="M39" t="n">
-        <v>358.9874790390623</v>
+        <v>622.7228616087749</v>
       </c>
       <c r="N39" t="n">
-        <v>622.7228616087751</v>
+        <v>622.7228616087749</v>
       </c>
       <c r="O39" t="n">
-        <v>327.9652704179364</v>
+        <v>331.6978061219486</v>
       </c>
       <c r="P39" t="n">
         <v>243.6926936986961</v>
@@ -37700,7 +37700,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>23.86813245058015</v>
+        <v>23.86813245058016</v>
       </c>
       <c r="K40" t="n">
         <v>170.3709935295874</v>
@@ -37709,7 +37709,7 @@
         <v>274.1035227175432</v>
       </c>
       <c r="M40" t="n">
-        <v>299.4977962876914</v>
+        <v>299.4977962876915</v>
       </c>
       <c r="N40" t="n">
         <v>297.8659196396851</v>
@@ -37721,7 +37721,7 @@
         <v>197.8176059917461</v>
       </c>
       <c r="Q40" t="n">
-        <v>52.68079795403621</v>
+        <v>52.68079795403624</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37782,28 +37782,28 @@
         <v>132.6846713669509</v>
       </c>
       <c r="K41" t="n">
-        <v>250.1109559575407</v>
+        <v>250.1109559575409</v>
       </c>
       <c r="L41" t="n">
-        <v>347.5592641161276</v>
+        <v>347.5592641161277</v>
       </c>
       <c r="M41" t="n">
-        <v>418.7159795815593</v>
+        <v>418.7159795815594</v>
       </c>
       <c r="N41" t="n">
-        <v>430.1516543891397</v>
+        <v>430.1516543891399</v>
       </c>
       <c r="O41" t="n">
-        <v>392.7100487188048</v>
+        <v>392.710048718805</v>
       </c>
       <c r="P41" t="n">
-        <v>300.319445096288</v>
+        <v>300.3194450962881</v>
       </c>
       <c r="Q41" t="n">
-        <v>176.8680561605024</v>
+        <v>176.8680561605026</v>
       </c>
       <c r="R41" t="n">
-        <v>16.61085138722498</v>
+        <v>16.61085138722467</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37858,22 +37858,22 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>60.01815506597376</v>
+        <v>60.01815506597381</v>
       </c>
       <c r="K42" t="n">
         <v>181.524853957753</v>
       </c>
       <c r="L42" t="n">
-        <v>290.8730133158208</v>
+        <v>290.8730133158209</v>
       </c>
       <c r="M42" t="n">
-        <v>622.7228616087748</v>
+        <v>358.9874790390624</v>
       </c>
       <c r="N42" t="n">
-        <v>383.0429961922271</v>
+        <v>595.4331886916614</v>
       </c>
       <c r="O42" t="n">
-        <v>571.3776715384965</v>
+        <v>622.7228616087749</v>
       </c>
       <c r="P42" t="n">
         <v>243.6926936986961</v>
@@ -37937,7 +37937,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>23.86813245058013</v>
+        <v>23.86813245058016</v>
       </c>
       <c r="K43" t="n">
         <v>170.3709935295874</v>
@@ -37946,19 +37946,19 @@
         <v>274.1035227175432</v>
       </c>
       <c r="M43" t="n">
-        <v>299.4977962876914</v>
+        <v>299.4977962876915</v>
       </c>
       <c r="N43" t="n">
-        <v>297.865919639685</v>
+        <v>297.8659196396851</v>
       </c>
       <c r="O43" t="n">
         <v>258.9493115061252</v>
       </c>
       <c r="P43" t="n">
-        <v>197.817605991746</v>
+        <v>197.8176059917461</v>
       </c>
       <c r="Q43" t="n">
-        <v>52.68079795403621</v>
+        <v>52.68079795403624</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38019,28 +38019,28 @@
         <v>132.6846713669509</v>
       </c>
       <c r="K44" t="n">
-        <v>250.1109559575407</v>
+        <v>250.1109559575409</v>
       </c>
       <c r="L44" t="n">
-        <v>347.5592641161276</v>
+        <v>347.5592641161277</v>
       </c>
       <c r="M44" t="n">
-        <v>418.7159795815593</v>
+        <v>418.7159795815594</v>
       </c>
       <c r="N44" t="n">
-        <v>430.1516543891397</v>
+        <v>430.1516543891399</v>
       </c>
       <c r="O44" t="n">
-        <v>392.710048718805</v>
+        <v>392.7100487188043</v>
       </c>
       <c r="P44" t="n">
-        <v>300.319445096288</v>
+        <v>300.3194450962881</v>
       </c>
       <c r="Q44" t="n">
-        <v>176.8680561605024</v>
+        <v>176.8680561605026</v>
       </c>
       <c r="R44" t="n">
-        <v>16.61085138722498</v>
+        <v>16.61085138722504</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38095,31 +38095,31 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>186.1091904063826</v>
+        <v>186.1091904063827</v>
       </c>
       <c r="K45" t="n">
         <v>181.524853957753</v>
       </c>
       <c r="L45" t="n">
-        <v>290.8730133158208</v>
+        <v>290.8730133158209</v>
       </c>
       <c r="M45" t="n">
-        <v>622.7228616087748</v>
+        <v>500.3643619723782</v>
       </c>
       <c r="N45" t="n">
-        <v>383.0429961922271</v>
+        <v>622.7228616087749</v>
       </c>
       <c r="O45" t="n">
-        <v>327.9652704179364</v>
+        <v>327.9652704179365</v>
       </c>
       <c r="P45" t="n">
-        <v>338.3767380580607</v>
+        <v>243.6926936986961</v>
       </c>
       <c r="Q45" t="n">
         <v>112.4786813963966</v>
       </c>
       <c r="R45" t="n">
-        <v>22.63732142078702</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38174,7 +38174,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>23.86813245058013</v>
+        <v>23.86813245058016</v>
       </c>
       <c r="K46" t="n">
         <v>170.3709935295874</v>
@@ -38183,19 +38183,19 @@
         <v>274.1035227175432</v>
       </c>
       <c r="M46" t="n">
-        <v>299.4977962876914</v>
+        <v>299.4977962876915</v>
       </c>
       <c r="N46" t="n">
-        <v>297.865919639685</v>
+        <v>297.8659196396851</v>
       </c>
       <c r="O46" t="n">
         <v>258.9493115061252</v>
       </c>
       <c r="P46" t="n">
-        <v>197.817605991746</v>
+        <v>197.8176059917461</v>
       </c>
       <c r="Q46" t="n">
-        <v>52.68079795403621</v>
+        <v>52.68079795403624</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/750000/Output_17_29.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/750000/Output_17_29.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1669956.227697233</v>
+        <v>1697421.571662236</v>
       </c>
     </row>
     <row r="7">
@@ -1369,10 +1369,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>222.5450921038461</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -1384,10 +1384,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>411.6062992654567</v>
       </c>
       <c r="H11" t="n">
-        <v>301.6186538912489</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>67.96895394968163</v>
@@ -1420,13 +1420,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>124.7874829717001</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>162.6558958697678</v>
+        <v>206.9146911261644</v>
       </c>
       <c r="U11" t="n">
-        <v>251.0499378478622</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -1435,10 +1435,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="12">
@@ -1469,7 +1469,7 @@
         <v>93.13436112172582</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>21.30239922246435</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1511,10 +1511,10 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W12" t="n">
-        <v>251.6949831609196</v>
+        <v>180.2518826854723</v>
       </c>
       <c r="X12" t="n">
-        <v>155.6322839504945</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y12" t="n">
         <v>205.6826957773044</v>
@@ -1530,7 +1530,7 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
@@ -1539,10 +1539,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>129.8339481036472</v>
+        <v>109.0461396551916</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -1575,22 +1575,22 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>102.739413241946</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>195.1205252336517</v>
       </c>
       <c r="T13" t="n">
-        <v>220.8610019386828</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
@@ -1606,10 +1606,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>13.30964085679383</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -1621,13 +1621,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>411.6062992654567</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>301.6186538912489</v>
       </c>
       <c r="I14" t="n">
-        <v>67.96895394968161</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1657,19 +1657,19 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>124.7874829717001</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
         <v>206.9146911261644</v>
       </c>
       <c r="U14" t="n">
-        <v>251.0499378478622</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>191.4904310942347</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
         <v>369.731100678469</v>
@@ -1700,13 +1700,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G15" t="n">
-        <v>63.92264786388973</v>
+        <v>135.3657483393379</v>
       </c>
       <c r="H15" t="n">
         <v>93.13436112172582</v>
       </c>
       <c r="I15" t="n">
-        <v>21.30239922246435</v>
+        <v>21.30239922246433</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1736,7 +1736,7 @@
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>134.9469826428689</v>
+        <v>63.50388216742162</v>
       </c>
       <c r="T15" t="n">
         <v>192.192932426668</v>
@@ -1764,7 +1764,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
@@ -1773,7 +1773,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
@@ -1818,22 +1818,22 @@
         <v>195.1205252336517</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>220.8610019386828</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>22.36346144440701</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>176.2211659153538</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1843,13 +1843,13 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>149.687492542102</v>
       </c>
       <c r="E17" t="n">
         <v>381.9303700722618</v>
@@ -1864,7 +1864,7 @@
         <v>301.6186538912489</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>67.96895394968163</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1897,7 +1897,7 @@
         <v>124.7874829717001</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>206.9146911261644</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
@@ -1906,13 +1906,13 @@
         <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>20.87224906942121</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
         <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -1940,7 +1940,7 @@
         <v>135.3657483393379</v>
       </c>
       <c r="H18" t="n">
-        <v>21.69126064627849</v>
+        <v>93.13436112172582</v>
       </c>
       <c r="I18" t="n">
         <v>21.30239922246435</v>
@@ -1973,7 +1973,7 @@
         <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>134.9469826428689</v>
+        <v>63.50388216742162</v>
       </c>
       <c r="T18" t="n">
         <v>192.192932426668</v>
@@ -2007,7 +2007,7 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -2052,16 +2052,16 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>195.1205252336517</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.2285878140705</v>
       </c>
       <c r="V19" t="n">
-        <v>157.5012761168599</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
@@ -2070,7 +2070,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>181.4556965829199</v>
       </c>
     </row>
     <row r="20">
@@ -2080,22 +2080,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>101.1011843990729</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>406.8760457417114</v>
+        <v>176.0736968693791</v>
       </c>
       <c r="G20" t="n">
-        <v>411.6062992654567</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -2131,13 +2131,13 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>124.7874829717001</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>251.0499378478622</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -2168,7 +2168,7 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E21" t="n">
-        <v>86.20197997995274</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F21" t="n">
         <v>145.0692123933839</v>
@@ -2210,7 +2210,7 @@
         <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>134.9469826428689</v>
+        <v>63.50388216742162</v>
       </c>
       <c r="T21" t="n">
         <v>192.192932426668</v>
@@ -2247,13 +2247,13 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>16.67229890362711</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>166.3328844140846</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2286,22 +2286,22 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>85.50162400254538</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>195.1205252336517</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>220.8610019386828</v>
       </c>
       <c r="U22" t="n">
         <v>286.2285878140705</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
@@ -2317,25 +2317,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>119.9841683304792</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
         <v>411.6062992654567</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>301.6186538912489</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2368,22 +2368,22 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>124.7874829717001</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>206.9146911261644</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>43.68101433647242</v>
       </c>
       <c r="V23" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
         <v>386.2379386560536</v>
@@ -2411,13 +2411,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G24" t="n">
-        <v>135.3657483393378</v>
+        <v>135.3657483393379</v>
       </c>
       <c r="H24" t="n">
-        <v>93.13436112172582</v>
+        <v>93.13436112172617</v>
       </c>
       <c r="I24" t="n">
-        <v>21.30239922246435</v>
+        <v>21.30239922246436</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2478,7 +2478,7 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -2490,10 +2490,10 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>166.3328844140846</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>136.6048728225538</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2526,13 +2526,13 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>172.745740444601</v>
+        <v>195.1205252336517</v>
       </c>
       <c r="T25" t="n">
         <v>220.8610019386828</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.2285878140705</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -2541,10 +2541,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2554,28 +2554,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>411.6062992654567</v>
+        <v>382.8883071312101</v>
       </c>
       <c r="H26" t="n">
-        <v>301.6186538912489</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>67.96895394968163</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2605,19 +2605,19 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>124.7874829717001</v>
       </c>
       <c r="T26" t="n">
-        <v>206.9146911261644</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>251.0499378478622</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>158.529523507277</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
         <v>0</v>
@@ -2651,10 +2651,10 @@
         <v>135.3657483393379</v>
       </c>
       <c r="H27" t="n">
-        <v>93.13436112172582</v>
+        <v>93.13436112172583</v>
       </c>
       <c r="I27" t="n">
-        <v>21.30239922246435</v>
+        <v>21.30239922246436</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2712,7 +2712,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>84.3531038845436</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -2730,10 +2730,10 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>147.485201092913</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>105.5870378728063</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2763,7 +2763,7 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>195.1205252336517</v>
       </c>
       <c r="T28" t="n">
         <v>220.8610019386828</v>
@@ -2772,13 +2772,13 @@
         <v>286.2285878140705</v>
       </c>
       <c r="V28" t="n">
-        <v>52.82937808726729</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -2803,7 +2803,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
-        <v>239.4688027523047</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
         <v>411.6062992654567</v>
@@ -2842,22 +2842,22 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>124.7874829717001</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>166.4513356218217</v>
       </c>
       <c r="U29" t="n">
-        <v>251.0499378478622</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
         <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
         <v>386.2379386560536</v>
@@ -2885,13 +2885,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G30" t="n">
-        <v>135.3657483393378</v>
+        <v>135.3657483393383</v>
       </c>
       <c r="H30" t="n">
-        <v>93.13436112172582</v>
+        <v>93.13436112172583</v>
       </c>
       <c r="I30" t="n">
-        <v>21.30239922246435</v>
+        <v>21.30239922246436</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2949,7 +2949,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
@@ -2961,7 +2961,7 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>111.0353489594</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -2997,16 +2997,16 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>102.739413241946</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>107.3781545692132</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2285878140705</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -3028,28 +3028,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
-        <v>274.0545368010793</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>301.6186538912489</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>67.96895394968163</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3088,10 +3088,10 @@
         <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>349.240968717413</v>
+        <v>2.567356302416692</v>
       </c>
       <c r="X32" t="n">
         <v>369.731100678469</v>
@@ -3125,10 +3125,10 @@
         <v>135.3657483393379</v>
       </c>
       <c r="H33" t="n">
-        <v>93.13436112172582</v>
+        <v>93.13436112172583</v>
       </c>
       <c r="I33" t="n">
-        <v>21.30239922246435</v>
+        <v>21.30239922246436</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3186,10 +3186,10 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>75.06173240118501</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
@@ -3198,7 +3198,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>166.3328844140846</v>
@@ -3234,10 +3234,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>102.739413241946</v>
       </c>
       <c r="S34" t="n">
-        <v>195.1205252336517</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>220.8610019386828</v>
@@ -3246,10 +3246,10 @@
         <v>286.2285878140705</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>223.6539724813502</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -3265,16 +3265,16 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>137.4764032057691</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>14.76398879744122</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
         <v>406.8760457417114</v>
@@ -3283,10 +3283,10 @@
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>301.6186538912489</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>67.96895394968163</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3319,19 +3319,19 @@
         <v>124.7874829717001</v>
       </c>
       <c r="T35" t="n">
-        <v>206.9146911261644</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
         <v>251.0499378478622</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
         <v>386.2379386560536</v>
@@ -3362,10 +3362,10 @@
         <v>135.3657483393379</v>
       </c>
       <c r="H36" t="n">
-        <v>21.69126064627761</v>
+        <v>42.99365986874195</v>
       </c>
       <c r="I36" t="n">
-        <v>21.30239922246435</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3423,10 +3423,10 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
@@ -3444,7 +3444,7 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>105.5870378728063</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3474,10 +3474,10 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>195.1205252336517</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>220.8610019386828</v>
       </c>
       <c r="U37" t="n">
         <v>286.2285878140705</v>
@@ -3486,13 +3486,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>27.04823451888337</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>26.37129161885266</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -3502,10 +3502,10 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>116.7529186185928</v>
       </c>
       <c r="D38" t="n">
         <v>354.683041620683</v>
@@ -3514,7 +3514,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
         <v>411.6062992654567</v>
@@ -3523,7 +3523,7 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>67.96895394968163</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3562,16 +3562,16 @@
         <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
-        <v>129.5923142503269</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="39">
@@ -3599,10 +3599,10 @@
         <v>135.3657483393379</v>
       </c>
       <c r="H39" t="n">
-        <v>21.69126064627761</v>
+        <v>93.13436112172583</v>
       </c>
       <c r="I39" t="n">
-        <v>21.30239922246435</v>
+        <v>21.30239922246436</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3635,7 +3635,7 @@
         <v>134.9469826428689</v>
       </c>
       <c r="T39" t="n">
-        <v>192.192932426668</v>
+        <v>120.7498319512199</v>
       </c>
       <c r="U39" t="n">
         <v>225.8112657109832</v>
@@ -3666,7 +3666,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>146.1308277393706</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
@@ -3681,7 +3681,7 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>105.5870378728063</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3714,10 +3714,10 @@
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>220.8610019386828</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>113.0363777788947</v>
+        <v>286.2285878140705</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
@@ -3726,10 +3726,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -3739,7 +3739,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
@@ -3748,10 +3748,10 @@
         <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
         <v>0</v>
@@ -3760,7 +3760,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>67.96895394968163</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3802,13 +3802,13 @@
         <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>349.240968717413</v>
+        <v>252.7212573228001</v>
       </c>
       <c r="X41" t="n">
-        <v>361.014978727977</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -3827,7 +3827,7 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E42" t="n">
-        <v>107.504379202417</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F42" t="n">
         <v>145.0692123933839</v>
@@ -3836,7 +3836,7 @@
         <v>135.3657483393379</v>
       </c>
       <c r="H42" t="n">
-        <v>93.13436112172582</v>
+        <v>42.99365986874195</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
@@ -3903,22 +3903,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>147.485201092913</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>105.5870378728063</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3954,19 +3954,19 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>286.2285878140705</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>67.63521007729759</v>
       </c>
       <c r="X43" t="n">
-        <v>110.9603109356156</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -3979,19 +3979,19 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>411.6062992654567</v>
       </c>
       <c r="H44" t="n">
         <v>301.6186538912489</v>
@@ -4030,22 +4030,22 @@
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>84.31128734950357</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>251.0499378478622</v>
+        <v>145.6597320411194</v>
       </c>
       <c r="V44" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
         <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="45">
@@ -4061,7 +4061,7 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D45" t="n">
-        <v>97.30436431165478</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E45" t="n">
         <v>157.6450804554009</v>
@@ -4073,10 +4073,10 @@
         <v>135.3657483393379</v>
       </c>
       <c r="H45" t="n">
-        <v>93.13436112172582</v>
+        <v>21.69126064627671</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>21.30239922246436</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4137,7 +4137,7 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>53.76397372915845</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
@@ -4152,7 +4152,7 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>42.42703359015189</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4182,10 +4182,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>102.739413241946</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>195.1205252336517</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>220.8610019386828</v>
@@ -4197,7 +4197,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
@@ -5017,22 +5017,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>834.1245497192494</v>
+        <v>1314.18569835078</v>
       </c>
       <c r="C11" t="n">
-        <v>834.1245497192494</v>
+        <v>945.2231814103686</v>
       </c>
       <c r="D11" t="n">
-        <v>834.1245497192494</v>
+        <v>945.2231814103686</v>
       </c>
       <c r="E11" t="n">
-        <v>834.1245497192494</v>
+        <v>945.2231814103686</v>
       </c>
       <c r="F11" t="n">
-        <v>423.1386449296419</v>
+        <v>534.237276620761</v>
       </c>
       <c r="G11" t="n">
-        <v>423.1386449296419</v>
+        <v>118.4733379687845</v>
       </c>
       <c r="H11" t="n">
         <v>118.4733379687845</v>
@@ -5041,25 +5041,25 @@
         <v>49.81782892870201</v>
       </c>
       <c r="J11" t="n">
-        <v>181.1756535819845</v>
+        <v>181.1756535819834</v>
       </c>
       <c r="K11" t="n">
-        <v>428.7854999799501</v>
+        <v>428.7854999799488</v>
       </c>
       <c r="L11" t="n">
-        <v>772.8691714549166</v>
+        <v>772.8691714549152</v>
       </c>
       <c r="M11" t="n">
-        <v>1187.39799124066</v>
+        <v>1187.397991240659</v>
       </c>
       <c r="N11" t="n">
-        <v>1613.248129085909</v>
+        <v>1613.248129085908</v>
       </c>
       <c r="O11" t="n">
-        <v>2002.031077317525</v>
+        <v>2002.031077317524</v>
       </c>
       <c r="P11" t="n">
-        <v>2299.347327962851</v>
+        <v>2299.34732796285</v>
       </c>
       <c r="Q11" t="n">
         <v>2474.446703561748</v>
@@ -5068,25 +5068,25 @@
         <v>2490.891446435101</v>
       </c>
       <c r="S11" t="n">
-        <v>2364.843483837424</v>
+        <v>2490.891446435101</v>
       </c>
       <c r="T11" t="n">
-        <v>2200.544599120487</v>
+        <v>2281.886707923823</v>
       </c>
       <c r="U11" t="n">
-        <v>1946.958803314565</v>
+        <v>2281.886707923823</v>
       </c>
       <c r="V11" t="n">
-        <v>1946.958803314565</v>
+        <v>2281.886707923823</v>
       </c>
       <c r="W11" t="n">
-        <v>1594.190148044451</v>
+        <v>1929.118052653709</v>
       </c>
       <c r="X11" t="n">
-        <v>1220.724389783371</v>
+        <v>1929.118052653709</v>
       </c>
       <c r="Y11" t="n">
-        <v>1220.724389783371</v>
+        <v>1538.978720677898</v>
       </c>
     </row>
     <row r="12">
@@ -5096,49 +5096,49 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>909.7854722244628</v>
+        <v>931.3030471966489</v>
       </c>
       <c r="C12" t="n">
-        <v>735.3324429433358</v>
+        <v>756.8500179155219</v>
       </c>
       <c r="D12" t="n">
-        <v>586.3980332820845</v>
+        <v>607.9156082542706</v>
       </c>
       <c r="E12" t="n">
-        <v>427.1605782766289</v>
+        <v>448.6781532488152</v>
       </c>
       <c r="F12" t="n">
-        <v>280.6260203035139</v>
+        <v>302.1435952757001</v>
       </c>
       <c r="G12" t="n">
-        <v>143.8929411728695</v>
+        <v>165.4105161450557</v>
       </c>
       <c r="H12" t="n">
-        <v>49.81782892870201</v>
+        <v>71.33540390088822</v>
       </c>
       <c r="I12" t="n">
         <v>49.81782892870201</v>
       </c>
       <c r="J12" t="n">
-        <v>234.0659274310208</v>
+        <v>119.1040605898647</v>
       </c>
       <c r="K12" t="n">
-        <v>413.7755328491962</v>
+        <v>560.634250650493</v>
       </c>
       <c r="L12" t="n">
-        <v>819.2919819292634</v>
+        <v>848.5985338331556</v>
       </c>
       <c r="M12" t="n">
-        <v>1174.689586177935</v>
+        <v>1203.996138081827</v>
       </c>
       <c r="N12" t="n">
-        <v>1791.185219170623</v>
+        <v>1583.208704312132</v>
       </c>
       <c r="O12" t="n">
-        <v>2115.87083688438</v>
+        <v>1907.894322025889</v>
       </c>
       <c r="P12" t="n">
-        <v>2357.126603646089</v>
+        <v>2149.150088787598</v>
       </c>
       <c r="Q12" t="n">
         <v>2468.480498228521</v>
@@ -5159,13 +5159,13 @@
         <v>1697.202791960408</v>
       </c>
       <c r="W12" t="n">
-        <v>1442.965435232206</v>
+        <v>1515.130183187204</v>
       </c>
       <c r="X12" t="n">
-        <v>1285.761108009485</v>
+        <v>1307.278682981671</v>
       </c>
       <c r="Y12" t="n">
-        <v>1078.000809244531</v>
+        <v>1099.518384216717</v>
       </c>
     </row>
     <row r="13">
@@ -5175,19 +5175,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>647.9291469762339</v>
+        <v>604.8851252346661</v>
       </c>
       <c r="C13" t="n">
-        <v>478.9929640483271</v>
+        <v>604.8851252346661</v>
       </c>
       <c r="D13" t="n">
-        <v>328.8763246359913</v>
+        <v>454.7684858223304</v>
       </c>
       <c r="E13" t="n">
-        <v>180.9632310535982</v>
+        <v>306.8553922399373</v>
       </c>
       <c r="F13" t="n">
-        <v>180.9632310535982</v>
+        <v>159.9654447420269</v>
       </c>
       <c r="G13" t="n">
         <v>49.81782892870201</v>
@@ -5223,28 +5223,28 @@
         <v>1609.220368204927</v>
       </c>
       <c r="R13" t="n">
-        <v>1609.220368204927</v>
+        <v>1505.443183112052</v>
       </c>
       <c r="S13" t="n">
-        <v>1609.220368204927</v>
+        <v>1308.351743482101</v>
       </c>
       <c r="T13" t="n">
-        <v>1386.128447054742</v>
+        <v>1308.351743482101</v>
       </c>
       <c r="U13" t="n">
-        <v>1386.128447054742</v>
+        <v>1308.351743482101</v>
       </c>
       <c r="V13" t="n">
-        <v>1386.128447054742</v>
+        <v>1053.667255276214</v>
       </c>
       <c r="W13" t="n">
-        <v>1096.711277017781</v>
+        <v>1053.667255276214</v>
       </c>
       <c r="X13" t="n">
-        <v>868.7217261197641</v>
+        <v>825.6777043781963</v>
       </c>
       <c r="Y13" t="n">
-        <v>647.9291469762339</v>
+        <v>604.8851252346661</v>
       </c>
     </row>
     <row r="14">
@@ -5254,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>945.2231814103684</v>
+        <v>778.9131223526961</v>
       </c>
       <c r="C14" t="n">
-        <v>945.2231814103684</v>
+        <v>765.4690406791669</v>
       </c>
       <c r="D14" t="n">
-        <v>945.2231814103684</v>
+        <v>765.4690406791669</v>
       </c>
       <c r="E14" t="n">
-        <v>945.2231814103684</v>
+        <v>765.4690406791669</v>
       </c>
       <c r="F14" t="n">
-        <v>534.2372766207609</v>
+        <v>354.4831358895594</v>
       </c>
       <c r="G14" t="n">
-        <v>118.4733379687844</v>
+        <v>354.4831358895594</v>
       </c>
       <c r="H14" t="n">
-        <v>118.4733379687844</v>
+        <v>49.81782892870201</v>
       </c>
       <c r="I14" t="n">
-        <v>49.81782892870199</v>
+        <v>49.81782892870201</v>
       </c>
       <c r="J14" t="n">
-        <v>181.1756535819834</v>
+        <v>181.1756535819835</v>
       </c>
       <c r="K14" t="n">
-        <v>428.7854999799488</v>
+        <v>428.785499979949</v>
       </c>
       <c r="L14" t="n">
-        <v>772.8691714549152</v>
+        <v>772.8691714549154</v>
       </c>
       <c r="M14" t="n">
         <v>1187.397991240659</v>
       </c>
       <c r="N14" t="n">
-        <v>1613.248129085907</v>
+        <v>1613.248129085908</v>
       </c>
       <c r="O14" t="n">
-        <v>2002.031077317524</v>
+        <v>2002.031077317525</v>
       </c>
       <c r="P14" t="n">
-        <v>2299.347327962849</v>
+        <v>2299.34732796285</v>
       </c>
       <c r="Q14" t="n">
-        <v>2474.446703561747</v>
+        <v>2474.446703561748</v>
       </c>
       <c r="R14" t="n">
-        <v>2490.8914464351</v>
+        <v>2490.891446435101</v>
       </c>
       <c r="S14" t="n">
-        <v>2364.843483837423</v>
+        <v>2490.891446435101</v>
       </c>
       <c r="T14" t="n">
-        <v>2155.838745326146</v>
+        <v>2281.886707923823</v>
       </c>
       <c r="U14" t="n">
-        <v>1902.252949520224</v>
+        <v>2281.886707923823</v>
       </c>
       <c r="V14" t="n">
-        <v>1708.82827164726</v>
+        <v>2281.886707923823</v>
       </c>
       <c r="W14" t="n">
-        <v>1708.82827164726</v>
+        <v>1929.118052653709</v>
       </c>
       <c r="X14" t="n">
-        <v>1335.36251338618</v>
+        <v>1555.65229439263</v>
       </c>
       <c r="Y14" t="n">
-        <v>945.2231814103684</v>
+        <v>1165.512962416818</v>
       </c>
     </row>
     <row r="15">
@@ -5333,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>859.1382992416507</v>
+        <v>931.3030471966489</v>
       </c>
       <c r="C15" t="n">
-        <v>684.6852699605237</v>
+        <v>756.8500179155219</v>
       </c>
       <c r="D15" t="n">
-        <v>535.7508602992724</v>
+        <v>607.9156082542706</v>
       </c>
       <c r="E15" t="n">
-        <v>376.5134052938169</v>
+        <v>448.6781532488151</v>
       </c>
       <c r="F15" t="n">
-        <v>229.9788473207019</v>
+        <v>302.1435952757001</v>
       </c>
       <c r="G15" t="n">
         <v>165.4105161450557</v>
       </c>
       <c r="H15" t="n">
-        <v>71.3354039008882</v>
+        <v>71.33540390088821</v>
       </c>
       <c r="I15" t="n">
-        <v>49.81782892870199</v>
+        <v>49.81782892870201</v>
       </c>
       <c r="J15" t="n">
         <v>109.2358024440161</v>
       </c>
       <c r="K15" t="n">
-        <v>288.9454078621915</v>
+        <v>475.7435727620243</v>
       </c>
       <c r="L15" t="n">
-        <v>576.9096910448542</v>
+        <v>763.707855944687</v>
       </c>
       <c r="M15" t="n">
-        <v>932.3072952935258</v>
+        <v>1119.105460193359</v>
       </c>
       <c r="N15" t="n">
-        <v>1311.519861523831</v>
+        <v>1498.318026423664</v>
       </c>
       <c r="O15" t="n">
-        <v>1928.015494516518</v>
+        <v>1823.003644137421</v>
       </c>
       <c r="P15" t="n">
-        <v>2379.537551852667</v>
+        <v>2379.537551852668</v>
       </c>
       <c r="Q15" t="n">
-        <v>2490.8914464351</v>
+        <v>2490.891446435101</v>
       </c>
       <c r="R15" t="n">
-        <v>2490.8914464351</v>
+        <v>2490.891446435101</v>
       </c>
       <c r="S15" t="n">
-        <v>2354.581362957454</v>
+        <v>2426.746110912452</v>
       </c>
       <c r="T15" t="n">
-        <v>2160.447087779001</v>
+        <v>2232.611835734</v>
       </c>
       <c r="U15" t="n">
-        <v>1932.35490019215</v>
+        <v>2004.519648147148</v>
       </c>
       <c r="V15" t="n">
-        <v>1697.202791960407</v>
+        <v>1769.367539915405</v>
       </c>
       <c r="W15" t="n">
-        <v>1442.965435232205</v>
+        <v>1515.130183187204</v>
       </c>
       <c r="X15" t="n">
-        <v>1235.113935026673</v>
+        <v>1307.278682981671</v>
       </c>
       <c r="Y15" t="n">
-        <v>1027.353636261719</v>
+        <v>1099.518384216717</v>
       </c>
     </row>
     <row r="16">
@@ -5412,13 +5412,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>831.6867069089295</v>
+        <v>683.7736133265364</v>
       </c>
       <c r="C16" t="n">
-        <v>662.7505239810226</v>
+        <v>514.8374303986295</v>
       </c>
       <c r="D16" t="n">
-        <v>512.6338845686869</v>
+        <v>364.7207909862938</v>
       </c>
       <c r="E16" t="n">
         <v>364.7207909862938</v>
@@ -5427,25 +5427,25 @@
         <v>217.8308434883834</v>
       </c>
       <c r="G16" t="n">
-        <v>49.81782892870199</v>
+        <v>49.81782892870201</v>
       </c>
       <c r="H16" t="n">
-        <v>49.81782892870199</v>
+        <v>49.81782892870201</v>
       </c>
       <c r="I16" t="n">
-        <v>49.81782892870199</v>
+        <v>49.81782892870201</v>
       </c>
       <c r="J16" t="n">
-        <v>73.44728005477636</v>
+        <v>73.44728005477639</v>
       </c>
       <c r="K16" t="n">
-        <v>242.1145636490679</v>
+        <v>242.114563649068</v>
       </c>
       <c r="L16" t="n">
-        <v>513.4770511394357</v>
+        <v>513.4770511394358</v>
       </c>
       <c r="M16" t="n">
-        <v>809.9798694642502</v>
+        <v>809.9798694642504</v>
       </c>
       <c r="N16" t="n">
         <v>1104.867129907539</v>
@@ -5466,22 +5466,22 @@
         <v>1412.128928574976</v>
       </c>
       <c r="T16" t="n">
-        <v>1412.128928574976</v>
+        <v>1189.037007424791</v>
       </c>
       <c r="U16" t="n">
-        <v>1412.128928574976</v>
+        <v>1166.447652430441</v>
       </c>
       <c r="V16" t="n">
-        <v>1412.128928574976</v>
+        <v>911.7631642245537</v>
       </c>
       <c r="W16" t="n">
-        <v>1412.128928574976</v>
+        <v>911.7631642245537</v>
       </c>
       <c r="X16" t="n">
-        <v>1234.127750882699</v>
+        <v>683.7736133265364</v>
       </c>
       <c r="Y16" t="n">
-        <v>1013.335171739169</v>
+        <v>683.7736133265364</v>
       </c>
     </row>
     <row r="17">
@@ -5491,49 +5491,49 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1567.021231929388</v>
+        <v>2155.838745326147</v>
       </c>
       <c r="C17" t="n">
-        <v>1567.021231929388</v>
+        <v>1786.876228385735</v>
       </c>
       <c r="D17" t="n">
-        <v>1567.021231929388</v>
+        <v>1635.67674096947</v>
       </c>
       <c r="E17" t="n">
-        <v>1181.232979331143</v>
+        <v>1249.888488371226</v>
       </c>
       <c r="F17" t="n">
-        <v>770.247074541536</v>
+        <v>838.9025835816185</v>
       </c>
       <c r="G17" t="n">
-        <v>354.4831358895594</v>
+        <v>423.1386449296419</v>
       </c>
       <c r="H17" t="n">
-        <v>49.81782892870201</v>
+        <v>118.4733379687845</v>
       </c>
       <c r="I17" t="n">
         <v>49.81782892870201</v>
       </c>
       <c r="J17" t="n">
-        <v>181.1756535819836</v>
+        <v>181.1756535819845</v>
       </c>
       <c r="K17" t="n">
-        <v>428.7854999799492</v>
+        <v>428.7854999799501</v>
       </c>
       <c r="L17" t="n">
-        <v>772.8691714549157</v>
+        <v>772.8691714549166</v>
       </c>
       <c r="M17" t="n">
-        <v>1187.397991240659</v>
+        <v>1187.39799124066</v>
       </c>
       <c r="N17" t="n">
-        <v>1613.248129085908</v>
+        <v>1613.248129085909</v>
       </c>
       <c r="O17" t="n">
         <v>2002.031077317525</v>
       </c>
       <c r="P17" t="n">
-        <v>2299.34732796285</v>
+        <v>2299.347327962851</v>
       </c>
       <c r="Q17" t="n">
         <v>2474.446703561748</v>
@@ -5545,22 +5545,22 @@
         <v>2364.843483837424</v>
       </c>
       <c r="T17" t="n">
-        <v>2364.843483837424</v>
+        <v>2155.838745326147</v>
       </c>
       <c r="U17" t="n">
-        <v>2364.843483837424</v>
+        <v>2155.838745326147</v>
       </c>
       <c r="V17" t="n">
-        <v>2364.843483837424</v>
+        <v>2155.838745326147</v>
       </c>
       <c r="W17" t="n">
-        <v>2343.760403969321</v>
+        <v>2155.838745326147</v>
       </c>
       <c r="X17" t="n">
-        <v>2343.760403969321</v>
+        <v>2155.838745326147</v>
       </c>
       <c r="Y17" t="n">
-        <v>1953.62107199351</v>
+        <v>2155.838745326147</v>
       </c>
     </row>
     <row r="18">
@@ -5570,22 +5570,22 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>859.1382992416516</v>
+        <v>931.3030471966489</v>
       </c>
       <c r="C18" t="n">
-        <v>684.6852699605246</v>
+        <v>756.8500179155219</v>
       </c>
       <c r="D18" t="n">
-        <v>535.7508602992733</v>
+        <v>607.9156082542706</v>
       </c>
       <c r="E18" t="n">
-        <v>376.5134052938178</v>
+        <v>448.6781532488152</v>
       </c>
       <c r="F18" t="n">
-        <v>229.9788473207028</v>
+        <v>302.1435952757001</v>
       </c>
       <c r="G18" t="n">
-        <v>93.24576819005841</v>
+        <v>165.4105161450557</v>
       </c>
       <c r="H18" t="n">
         <v>71.33540390088822</v>
@@ -5594,25 +5594,25 @@
         <v>49.81782892870201</v>
       </c>
       <c r="J18" t="n">
-        <v>109.2358024440161</v>
+        <v>234.0659274310208</v>
       </c>
       <c r="K18" t="n">
-        <v>475.7435727620246</v>
+        <v>675.596117491649</v>
       </c>
       <c r="L18" t="n">
-        <v>763.7078559446873</v>
+        <v>963.5604006743116</v>
       </c>
       <c r="M18" t="n">
-        <v>1119.105460193359</v>
+        <v>1318.958004922983</v>
       </c>
       <c r="N18" t="n">
-        <v>1498.318026423664</v>
+        <v>1698.170571153288</v>
       </c>
       <c r="O18" t="n">
-        <v>1823.003644137421</v>
+        <v>2022.856188867045</v>
       </c>
       <c r="P18" t="n">
-        <v>2379.537551852668</v>
+        <v>2264.111955628754</v>
       </c>
       <c r="Q18" t="n">
         <v>2490.891446435101</v>
@@ -5621,25 +5621,25 @@
         <v>2490.891446435101</v>
       </c>
       <c r="S18" t="n">
-        <v>2354.581362957455</v>
+        <v>2426.746110912452</v>
       </c>
       <c r="T18" t="n">
-        <v>2160.447087779002</v>
+        <v>2232.611835734</v>
       </c>
       <c r="U18" t="n">
-        <v>1932.354900192151</v>
+        <v>2004.519648147148</v>
       </c>
       <c r="V18" t="n">
-        <v>1697.202791960408</v>
+        <v>1769.367539915405</v>
       </c>
       <c r="W18" t="n">
-        <v>1442.965435232206</v>
+        <v>1515.130183187204</v>
       </c>
       <c r="X18" t="n">
-        <v>1235.113935026674</v>
+        <v>1307.278682981671</v>
       </c>
       <c r="Y18" t="n">
-        <v>1027.35363626172</v>
+        <v>1099.518384216717</v>
       </c>
     </row>
     <row r="19">
@@ -5649,10 +5649,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>514.8374303986295</v>
+        <v>364.7207909862938</v>
       </c>
       <c r="C19" t="n">
-        <v>514.8374303986295</v>
+        <v>364.7207909862938</v>
       </c>
       <c r="D19" t="n">
         <v>364.7207909862938</v>
@@ -5673,22 +5673,22 @@
         <v>49.81782892870201</v>
       </c>
       <c r="J19" t="n">
-        <v>73.44728005477637</v>
+        <v>73.44728005477636</v>
       </c>
       <c r="K19" t="n">
         <v>242.1145636490679</v>
       </c>
       <c r="L19" t="n">
-        <v>513.4770511394357</v>
+        <v>513.4770511394356</v>
       </c>
       <c r="M19" t="n">
-        <v>809.9798694642502</v>
+        <v>809.9798694642501</v>
       </c>
       <c r="N19" t="n">
-        <v>1104.867129907539</v>
+        <v>1104.867129907538</v>
       </c>
       <c r="O19" t="n">
-        <v>1361.226948298603</v>
+        <v>1361.226948298602</v>
       </c>
       <c r="P19" t="n">
         <v>1557.066378230431</v>
@@ -5700,25 +5700,25 @@
         <v>1609.220368204927</v>
       </c>
       <c r="S19" t="n">
-        <v>1412.128928574976</v>
+        <v>1609.220368204927</v>
       </c>
       <c r="T19" t="n">
-        <v>1412.128928574976</v>
+        <v>1609.220368204927</v>
       </c>
       <c r="U19" t="n">
-        <v>1412.128928574976</v>
+        <v>1320.100582534149</v>
       </c>
       <c r="V19" t="n">
-        <v>1253.036730477138</v>
+        <v>1065.416094328262</v>
       </c>
       <c r="W19" t="n">
-        <v>963.619560440177</v>
+        <v>775.9989242913009</v>
       </c>
       <c r="X19" t="n">
-        <v>735.6300095421597</v>
+        <v>548.0093733932836</v>
       </c>
       <c r="Y19" t="n">
-        <v>514.8374303986295</v>
+        <v>364.7207909862938</v>
       </c>
     </row>
     <row r="20">
@@ -5728,76 +5728,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1245.530189310698</v>
+        <v>1340.686516134087</v>
       </c>
       <c r="C20" t="n">
-        <v>876.5676723702861</v>
+        <v>971.7239991936756</v>
       </c>
       <c r="D20" t="n">
-        <v>876.5676723702861</v>
+        <v>613.4583005869251</v>
       </c>
       <c r="E20" t="n">
-        <v>876.5676723702861</v>
+        <v>227.6700479886809</v>
       </c>
       <c r="F20" t="n">
-        <v>465.5817675806785</v>
+        <v>49.81782892870201</v>
       </c>
       <c r="G20" t="n">
-        <v>49.81782892870199</v>
+        <v>49.81782892870201</v>
       </c>
       <c r="H20" t="n">
-        <v>49.81782892870199</v>
+        <v>49.81782892870201</v>
       </c>
       <c r="I20" t="n">
-        <v>49.81782892870199</v>
+        <v>49.81782892870201</v>
       </c>
       <c r="J20" t="n">
-        <v>181.1756535819834</v>
+        <v>181.1756535819836</v>
       </c>
       <c r="K20" t="n">
-        <v>428.7854999799488</v>
+        <v>428.7854999799492</v>
       </c>
       <c r="L20" t="n">
-        <v>772.8691714549152</v>
+        <v>772.8691714549157</v>
       </c>
       <c r="M20" t="n">
         <v>1187.397991240659</v>
       </c>
       <c r="N20" t="n">
-        <v>1613.248129085907</v>
+        <v>1613.248129085908</v>
       </c>
       <c r="O20" t="n">
         <v>2002.031077317524</v>
       </c>
       <c r="P20" t="n">
-        <v>2299.347327962849</v>
+        <v>2299.34732796285</v>
       </c>
       <c r="Q20" t="n">
-        <v>2474.446703561747</v>
+        <v>2474.446703561748</v>
       </c>
       <c r="R20" t="n">
-        <v>2490.8914464351</v>
+        <v>2490.891446435101</v>
       </c>
       <c r="S20" t="n">
-        <v>2364.843483837423</v>
+        <v>2490.891446435101</v>
       </c>
       <c r="T20" t="n">
-        <v>2364.843483837423</v>
+        <v>2490.891446435101</v>
       </c>
       <c r="U20" t="n">
-        <v>2111.257688031501</v>
+        <v>2490.891446435101</v>
       </c>
       <c r="V20" t="n">
-        <v>2111.257688031501</v>
+        <v>2490.891446435101</v>
       </c>
       <c r="W20" t="n">
-        <v>2111.257688031501</v>
+        <v>2490.891446435101</v>
       </c>
       <c r="X20" t="n">
-        <v>1737.791929770422</v>
+        <v>2117.425688174021</v>
       </c>
       <c r="Y20" t="n">
-        <v>1347.65259779461</v>
+        <v>1727.286356198209</v>
       </c>
     </row>
     <row r="21">
@@ -5807,76 +5807,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>859.1382992416507</v>
+        <v>931.3030471966489</v>
       </c>
       <c r="C21" t="n">
-        <v>684.6852699605237</v>
+        <v>756.8500179155219</v>
       </c>
       <c r="D21" t="n">
-        <v>535.7508602992724</v>
+        <v>607.9156082542706</v>
       </c>
       <c r="E21" t="n">
-        <v>448.6781532488151</v>
+        <v>448.6781532488152</v>
       </c>
       <c r="F21" t="n">
-        <v>302.1435952757</v>
+        <v>302.1435952757001</v>
       </c>
       <c r="G21" t="n">
         <v>165.4105161450557</v>
       </c>
       <c r="H21" t="n">
-        <v>71.3354039008882</v>
+        <v>71.33540390088822</v>
       </c>
       <c r="I21" t="n">
-        <v>49.81782892870199</v>
+        <v>49.81782892870201</v>
       </c>
       <c r="J21" t="n">
         <v>234.0659274310208</v>
       </c>
       <c r="K21" t="n">
-        <v>413.7755328491963</v>
+        <v>413.7755328491962</v>
       </c>
       <c r="L21" t="n">
-        <v>701.7398160318589</v>
+        <v>701.7398160318588</v>
       </c>
       <c r="M21" t="n">
-        <v>1318.235449024546</v>
+        <v>1226.407086288406</v>
       </c>
       <c r="N21" t="n">
-        <v>1697.448015254851</v>
+        <v>1605.619652518711</v>
       </c>
       <c r="O21" t="n">
-        <v>2138.281785090958</v>
+        <v>1930.305270232468</v>
       </c>
       <c r="P21" t="n">
-        <v>2379.537551852667</v>
+        <v>2171.561036994177</v>
       </c>
       <c r="Q21" t="n">
-        <v>2490.8914464351</v>
+        <v>2490.891446435101</v>
       </c>
       <c r="R21" t="n">
-        <v>2490.8914464351</v>
+        <v>2490.891446435101</v>
       </c>
       <c r="S21" t="n">
-        <v>2354.581362957454</v>
+        <v>2426.746110912452</v>
       </c>
       <c r="T21" t="n">
-        <v>2160.447087779001</v>
+        <v>2232.611835734</v>
       </c>
       <c r="U21" t="n">
-        <v>1932.35490019215</v>
+        <v>2004.519648147148</v>
       </c>
       <c r="V21" t="n">
-        <v>1697.202791960407</v>
+        <v>1769.367539915405</v>
       </c>
       <c r="W21" t="n">
-        <v>1442.965435232205</v>
+        <v>1515.130183187204</v>
       </c>
       <c r="X21" t="n">
-        <v>1235.113935026673</v>
+        <v>1307.278682981671</v>
       </c>
       <c r="Y21" t="n">
-        <v>1027.353636261719</v>
+        <v>1099.518384216717</v>
       </c>
     </row>
     <row r="22">
@@ -5886,28 +5886,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>534.6801199986834</v>
+        <v>235.5947178198686</v>
       </c>
       <c r="C22" t="n">
-        <v>365.7439370707765</v>
+        <v>66.65853489196172</v>
       </c>
       <c r="D22" t="n">
-        <v>365.7439370707765</v>
+        <v>66.65853489196172</v>
       </c>
       <c r="E22" t="n">
-        <v>217.8308434883834</v>
+        <v>49.81782892870201</v>
       </c>
       <c r="F22" t="n">
-        <v>217.8308434883834</v>
+        <v>49.81782892870201</v>
       </c>
       <c r="G22" t="n">
-        <v>49.81782892870199</v>
+        <v>49.81782892870201</v>
       </c>
       <c r="H22" t="n">
-        <v>49.81782892870199</v>
+        <v>49.81782892870201</v>
       </c>
       <c r="I22" t="n">
-        <v>49.81782892870199</v>
+        <v>49.81782892870201</v>
       </c>
       <c r="J22" t="n">
         <v>73.44728005477636</v>
@@ -5916,16 +5916,16 @@
         <v>242.1145636490679</v>
       </c>
       <c r="L22" t="n">
-        <v>513.4770511394357</v>
+        <v>513.4770511394356</v>
       </c>
       <c r="M22" t="n">
-        <v>809.9798694642502</v>
+        <v>809.9798694642501</v>
       </c>
       <c r="N22" t="n">
-        <v>1104.867129907539</v>
+        <v>1104.867129907538</v>
       </c>
       <c r="O22" t="n">
-        <v>1361.226948298603</v>
+        <v>1361.226948298602</v>
       </c>
       <c r="P22" t="n">
         <v>1557.066378230431</v>
@@ -5934,28 +5934,28 @@
         <v>1609.220368204927</v>
       </c>
       <c r="R22" t="n">
-        <v>1522.855091434679</v>
+        <v>1609.220368204927</v>
       </c>
       <c r="S22" t="n">
-        <v>1522.855091434679</v>
+        <v>1412.128928574975</v>
       </c>
       <c r="T22" t="n">
-        <v>1522.855091434679</v>
+        <v>1189.037007424791</v>
       </c>
       <c r="U22" t="n">
-        <v>1233.735305763901</v>
+        <v>899.9172217540125</v>
       </c>
       <c r="V22" t="n">
-        <v>1233.735305763901</v>
+        <v>645.2327335481257</v>
       </c>
       <c r="W22" t="n">
-        <v>944.3181357269405</v>
+        <v>645.2327335481257</v>
       </c>
       <c r="X22" t="n">
-        <v>716.3285848289231</v>
+        <v>417.2431826501083</v>
       </c>
       <c r="Y22" t="n">
-        <v>716.3285848289231</v>
+        <v>417.2431826501083</v>
       </c>
     </row>
     <row r="23">
@@ -5965,76 +5965,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>957.2131641061021</v>
+        <v>1568.493981887653</v>
       </c>
       <c r="C23" t="n">
-        <v>588.2506471656905</v>
+        <v>1568.493981887653</v>
       </c>
       <c r="D23" t="n">
-        <v>467.0545175389437</v>
+        <v>1568.493981887653</v>
       </c>
       <c r="E23" t="n">
-        <v>467.0545175389437</v>
+        <v>1182.705729289409</v>
       </c>
       <c r="F23" t="n">
-        <v>467.0545175389437</v>
+        <v>771.7198244998012</v>
       </c>
       <c r="G23" t="n">
-        <v>51.29057888696726</v>
+        <v>355.9558858478247</v>
       </c>
       <c r="H23" t="n">
-        <v>51.29057888696726</v>
+        <v>51.29057888696727</v>
       </c>
       <c r="I23" t="n">
-        <v>51.29057888696726</v>
+        <v>51.29057888696727</v>
       </c>
       <c r="J23" t="n">
-        <v>182.6484035402487</v>
+        <v>189.7538958209951</v>
       </c>
       <c r="K23" t="n">
-        <v>430.2582499382141</v>
+        <v>437.3637422189605</v>
       </c>
       <c r="L23" t="n">
-        <v>774.3419214131807</v>
+        <v>781.4474136939268</v>
       </c>
       <c r="M23" t="n">
-        <v>1188.870741198924</v>
+        <v>1195.976233479671</v>
       </c>
       <c r="N23" t="n">
-        <v>1614.720879044173</v>
+        <v>1621.826371324919</v>
       </c>
       <c r="O23" t="n">
-        <v>2003.50382727579</v>
+        <v>2010.609319556535</v>
       </c>
       <c r="P23" t="n">
         <v>2307.92557020186</v>
       </c>
       <c r="Q23" t="n">
-        <v>2483.024945800757</v>
+        <v>2483.024945800758</v>
       </c>
       <c r="R23" t="n">
         <v>2564.528944348363</v>
       </c>
       <c r="S23" t="n">
-        <v>2438.480981750686</v>
+        <v>2564.528944348363</v>
       </c>
       <c r="T23" t="n">
-        <v>2438.480981750686</v>
+        <v>2355.524205837086</v>
       </c>
       <c r="U23" t="n">
-        <v>2438.480981750686</v>
+        <v>2311.401969133579</v>
       </c>
       <c r="V23" t="n">
-        <v>2107.418094407115</v>
+        <v>2311.401969133579</v>
       </c>
       <c r="W23" t="n">
-        <v>2107.418094407115</v>
+        <v>1958.633313863465</v>
       </c>
       <c r="X23" t="n">
-        <v>1733.952336146036</v>
+        <v>1958.633313863465</v>
       </c>
       <c r="Y23" t="n">
-        <v>1343.813004170224</v>
+        <v>1568.493981887653</v>
       </c>
     </row>
     <row r="24">
@@ -6044,58 +6044,58 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>932.775797154914</v>
+        <v>932.7757971549145</v>
       </c>
       <c r="C24" t="n">
-        <v>758.322767873787</v>
+        <v>758.3227678737875</v>
       </c>
       <c r="D24" t="n">
-        <v>609.3883582125358</v>
+        <v>609.3883582125362</v>
       </c>
       <c r="E24" t="n">
-        <v>450.1509032070803</v>
+        <v>450.1509032070807</v>
       </c>
       <c r="F24" t="n">
-        <v>303.6163452339653</v>
+        <v>303.6163452339657</v>
       </c>
       <c r="G24" t="n">
-        <v>166.883266103321</v>
+        <v>166.8832661033213</v>
       </c>
       <c r="H24" t="n">
-        <v>72.80815385915346</v>
+        <v>72.80815385915349</v>
       </c>
       <c r="I24" t="n">
-        <v>51.29057888696726</v>
+        <v>51.29057888696727</v>
       </c>
       <c r="J24" t="n">
-        <v>110.7085524022813</v>
+        <v>235.538677389286</v>
       </c>
       <c r="K24" t="n">
-        <v>552.2387424629096</v>
+        <v>415.2482828074615</v>
       </c>
       <c r="L24" t="n">
-        <v>840.2030256455723</v>
+        <v>703.2125659901241</v>
       </c>
       <c r="M24" t="n">
-        <v>1252.512751564244</v>
+        <v>1058.610170238795</v>
       </c>
       <c r="N24" t="n">
-        <v>1887.233665290464</v>
+        <v>1437.8227364691</v>
       </c>
       <c r="O24" t="n">
-        <v>2211.919283004221</v>
+        <v>1762.508354182857</v>
       </c>
       <c r="P24" t="n">
-        <v>2453.17504976593</v>
+        <v>2222.787586700861</v>
       </c>
       <c r="Q24" t="n">
-        <v>2564.528944348363</v>
+        <v>2542.117996141784</v>
       </c>
       <c r="R24" t="n">
         <v>2564.528944348363</v>
       </c>
       <c r="S24" t="n">
-        <v>2428.218860870717</v>
+        <v>2428.218860870718</v>
       </c>
       <c r="T24" t="n">
         <v>2234.084585692265</v>
@@ -6104,7 +6104,7 @@
         <v>2005.992398105413</v>
       </c>
       <c r="V24" t="n">
-        <v>1770.84028987367</v>
+        <v>1770.840289873671</v>
       </c>
       <c r="W24" t="n">
         <v>1516.602933145469</v>
@@ -6113,7 +6113,7 @@
         <v>1308.751432939936</v>
       </c>
       <c r="Y24" t="n">
-        <v>1100.991134174982</v>
+        <v>1100.991134174983</v>
       </c>
     </row>
     <row r="25">
@@ -6123,40 +6123,40 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>220.2267618148742</v>
+        <v>357.2883134694303</v>
       </c>
       <c r="C25" t="n">
-        <v>51.29057888696726</v>
+        <v>357.2883134694303</v>
       </c>
       <c r="D25" t="n">
-        <v>51.29057888696726</v>
+        <v>357.2883134694303</v>
       </c>
       <c r="E25" t="n">
-        <v>51.29057888696726</v>
+        <v>357.2883134694303</v>
       </c>
       <c r="F25" t="n">
-        <v>51.29057888696726</v>
+        <v>357.2883134694303</v>
       </c>
       <c r="G25" t="n">
-        <v>51.29057888696726</v>
+        <v>189.2752989097489</v>
       </c>
       <c r="H25" t="n">
-        <v>51.29057888696726</v>
+        <v>51.29057888696727</v>
       </c>
       <c r="I25" t="n">
-        <v>51.29057888696726</v>
+        <v>51.29057888696727</v>
       </c>
       <c r="J25" t="n">
-        <v>74.92003001304163</v>
+        <v>74.9200300130416</v>
       </c>
       <c r="K25" t="n">
-        <v>243.5873136073332</v>
+        <v>243.5873136073331</v>
       </c>
       <c r="L25" t="n">
-        <v>514.949801097701</v>
+        <v>514.9498010977009</v>
       </c>
       <c r="M25" t="n">
-        <v>811.4526194225155</v>
+        <v>811.4526194225153</v>
       </c>
       <c r="N25" t="n">
         <v>1106.339879865804</v>
@@ -6174,25 +6174,25 @@
         <v>1610.693118163192</v>
       </c>
       <c r="S25" t="n">
-        <v>1436.202471249454</v>
+        <v>1413.601678533241</v>
       </c>
       <c r="T25" t="n">
-        <v>1213.110550099269</v>
+        <v>1190.509757383056</v>
       </c>
       <c r="U25" t="n">
-        <v>1213.110550099269</v>
+        <v>901.3899717122778</v>
       </c>
       <c r="V25" t="n">
-        <v>958.4260618933822</v>
+        <v>646.7054835063909</v>
       </c>
       <c r="W25" t="n">
-        <v>669.0088918564217</v>
+        <v>357.2883134694303</v>
       </c>
       <c r="X25" t="n">
-        <v>441.0193409584043</v>
+        <v>357.2883134694303</v>
       </c>
       <c r="Y25" t="n">
-        <v>220.2267618148742</v>
+        <v>357.2883134694303</v>
       </c>
     </row>
     <row r="26">
@@ -6202,76 +6202,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1551.66824622982</v>
+        <v>1661.741809710753</v>
       </c>
       <c r="C26" t="n">
-        <v>1182.705729289409</v>
+        <v>1661.741809710753</v>
       </c>
       <c r="D26" t="n">
-        <v>1182.705729289409</v>
+        <v>1303.476111104003</v>
       </c>
       <c r="E26" t="n">
-        <v>1182.705729289409</v>
+        <v>917.6878585057584</v>
       </c>
       <c r="F26" t="n">
-        <v>771.7198244998012</v>
+        <v>506.7019537161509</v>
       </c>
       <c r="G26" t="n">
-        <v>355.9558858478247</v>
+        <v>119.9460879270497</v>
       </c>
       <c r="H26" t="n">
-        <v>51.29057888696726</v>
+        <v>119.9460879270497</v>
       </c>
       <c r="I26" t="n">
-        <v>51.29057888696726</v>
+        <v>51.29057888696727</v>
       </c>
       <c r="J26" t="n">
-        <v>182.6484035402487</v>
+        <v>182.6484035402486</v>
       </c>
       <c r="K26" t="n">
-        <v>430.2582499382141</v>
+        <v>430.2582499382139</v>
       </c>
       <c r="L26" t="n">
-        <v>774.3419214131807</v>
+        <v>774.3419214131802</v>
       </c>
       <c r="M26" t="n">
         <v>1188.870741198924</v>
       </c>
       <c r="N26" t="n">
-        <v>1614.720879044173</v>
+        <v>1621.826371324919</v>
       </c>
       <c r="O26" t="n">
-        <v>2075.668575230788</v>
+        <v>2010.609319556535</v>
       </c>
       <c r="P26" t="n">
-        <v>2372.984825876113</v>
+        <v>2307.92557020186</v>
       </c>
       <c r="Q26" t="n">
-        <v>2548.08420147501</v>
+        <v>2483.024945800758</v>
       </c>
       <c r="R26" t="n">
         <v>2564.528944348363</v>
       </c>
       <c r="S26" t="n">
-        <v>2564.528944348363</v>
+        <v>2438.480981750687</v>
       </c>
       <c r="T26" t="n">
-        <v>2355.524205837086</v>
+        <v>2438.480981750687</v>
       </c>
       <c r="U26" t="n">
-        <v>2101.938410031164</v>
+        <v>2438.480981750687</v>
       </c>
       <c r="V26" t="n">
-        <v>2101.938410031164</v>
+        <v>2438.480981750687</v>
       </c>
       <c r="W26" t="n">
-        <v>1941.807578205632</v>
+        <v>2438.480981750687</v>
       </c>
       <c r="X26" t="n">
-        <v>1941.807578205632</v>
+        <v>2438.480981750687</v>
       </c>
       <c r="Y26" t="n">
-        <v>1551.66824622982</v>
+        <v>2048.341649774875</v>
       </c>
     </row>
     <row r="27">
@@ -6287,46 +6287,46 @@
         <v>758.322767873787</v>
       </c>
       <c r="D27" t="n">
-        <v>609.3883582125356</v>
+        <v>609.3883582125359</v>
       </c>
       <c r="E27" t="n">
-        <v>450.1509032070801</v>
+        <v>450.1509032070803</v>
       </c>
       <c r="F27" t="n">
-        <v>303.6163452339651</v>
+        <v>303.6163452339654</v>
       </c>
       <c r="G27" t="n">
-        <v>166.8832661033211</v>
+        <v>166.883266103321</v>
       </c>
       <c r="H27" t="n">
-        <v>72.80815385915366</v>
+        <v>72.80815385915349</v>
       </c>
       <c r="I27" t="n">
-        <v>51.29057888696726</v>
+        <v>51.29057888696727</v>
       </c>
       <c r="J27" t="n">
-        <v>130.2164608086016</v>
+        <v>235.538677389286</v>
       </c>
       <c r="K27" t="n">
-        <v>309.926066226777</v>
+        <v>634.271748563756</v>
       </c>
       <c r="L27" t="n">
-        <v>944.6469799529968</v>
+        <v>922.2360317464186</v>
       </c>
       <c r="M27" t="n">
-        <v>1300.044584201669</v>
+        <v>1277.63363599509</v>
       </c>
       <c r="N27" t="n">
-        <v>1679.257150431974</v>
+        <v>1656.846202225395</v>
       </c>
       <c r="O27" t="n">
-        <v>2003.942768145731</v>
+        <v>1981.531819939152</v>
       </c>
       <c r="P27" t="n">
-        <v>2245.19853490744</v>
+        <v>2222.787586700861</v>
       </c>
       <c r="Q27" t="n">
-        <v>2564.528944348363</v>
+        <v>2542.117996141784</v>
       </c>
       <c r="R27" t="n">
         <v>2564.528944348363</v>
@@ -6341,7 +6341,7 @@
         <v>2005.992398105413</v>
       </c>
       <c r="V27" t="n">
-        <v>1770.84028987367</v>
+        <v>1770.840289873671</v>
       </c>
       <c r="W27" t="n">
         <v>1516.602933145469</v>
@@ -6360,40 +6360,40 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>306.9191030947645</v>
+        <v>51.29057888696727</v>
       </c>
       <c r="C28" t="n">
-        <v>306.9191030947645</v>
+        <v>51.29057888696727</v>
       </c>
       <c r="D28" t="n">
-        <v>306.9191030947645</v>
+        <v>51.29057888696727</v>
       </c>
       <c r="E28" t="n">
-        <v>306.9191030947645</v>
+        <v>51.29057888696727</v>
       </c>
       <c r="F28" t="n">
-        <v>306.9191030947645</v>
+        <v>51.29057888696727</v>
       </c>
       <c r="G28" t="n">
-        <v>306.9191030947645</v>
+        <v>51.29057888696727</v>
       </c>
       <c r="H28" t="n">
-        <v>157.9441524958625</v>
+        <v>51.29057888696727</v>
       </c>
       <c r="I28" t="n">
-        <v>51.29057888696726</v>
+        <v>51.29057888696727</v>
       </c>
       <c r="J28" t="n">
-        <v>74.92003001304163</v>
+        <v>74.9200300130416</v>
       </c>
       <c r="K28" t="n">
-        <v>243.5873136073332</v>
+        <v>243.5873136073331</v>
       </c>
       <c r="L28" t="n">
-        <v>514.949801097701</v>
+        <v>514.9498010977009</v>
       </c>
       <c r="M28" t="n">
-        <v>811.4526194225155</v>
+        <v>811.4526194225153</v>
       </c>
       <c r="N28" t="n">
         <v>1106.339879865804</v>
@@ -6411,25 +6411,25 @@
         <v>1610.693118163192</v>
       </c>
       <c r="S28" t="n">
-        <v>1610.693118163192</v>
+        <v>1413.601678533241</v>
       </c>
       <c r="T28" t="n">
-        <v>1387.601197013008</v>
+        <v>1190.509757383056</v>
       </c>
       <c r="U28" t="n">
-        <v>1098.481411342229</v>
+        <v>901.3899717122778</v>
       </c>
       <c r="V28" t="n">
-        <v>1045.118403173273</v>
+        <v>646.7054835063909</v>
       </c>
       <c r="W28" t="n">
-        <v>755.701233136312</v>
+        <v>357.2883134694303</v>
       </c>
       <c r="X28" t="n">
-        <v>527.7116822382947</v>
+        <v>357.2883134694303</v>
       </c>
       <c r="Y28" t="n">
-        <v>306.9191030947645</v>
+        <v>136.4957343259002</v>
       </c>
     </row>
     <row r="29">
@@ -6439,76 +6439,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1463.692966625382</v>
+        <v>1632.791191867207</v>
       </c>
       <c r="C29" t="n">
-        <v>1094.730449684971</v>
+        <v>1263.828674926796</v>
       </c>
       <c r="D29" t="n">
-        <v>1094.730449684971</v>
+        <v>1263.828674926796</v>
       </c>
       <c r="E29" t="n">
-        <v>708.9421970867263</v>
+        <v>878.0404223285514</v>
       </c>
       <c r="F29" t="n">
         <v>467.0545175389437</v>
       </c>
       <c r="G29" t="n">
-        <v>51.29057888696726</v>
+        <v>51.29057888696727</v>
       </c>
       <c r="H29" t="n">
-        <v>51.29057888696726</v>
+        <v>51.29057888696727</v>
       </c>
       <c r="I29" t="n">
-        <v>51.29057888696726</v>
+        <v>51.29057888696727</v>
       </c>
       <c r="J29" t="n">
-        <v>189.7538958209935</v>
+        <v>182.6484035402486</v>
       </c>
       <c r="K29" t="n">
-        <v>437.363742218959</v>
+        <v>430.2582499382139</v>
       </c>
       <c r="L29" t="n">
-        <v>781.4474136939255</v>
+        <v>774.3419214131802</v>
       </c>
       <c r="M29" t="n">
-        <v>1195.976233479669</v>
+        <v>1188.870741198924</v>
       </c>
       <c r="N29" t="n">
-        <v>1621.826371324918</v>
+        <v>1614.720879044172</v>
       </c>
       <c r="O29" t="n">
-        <v>2010.609319556535</v>
+        <v>2003.503827275789</v>
       </c>
       <c r="P29" t="n">
-        <v>2307.92557020186</v>
+        <v>2300.820077921114</v>
       </c>
       <c r="Q29" t="n">
-        <v>2483.024945800757</v>
+        <v>2483.024945800758</v>
       </c>
       <c r="R29" t="n">
         <v>2564.528944348363</v>
       </c>
       <c r="S29" t="n">
-        <v>2438.480981750686</v>
+        <v>2564.528944348363</v>
       </c>
       <c r="T29" t="n">
-        <v>2438.480981750686</v>
+        <v>2396.396282104099</v>
       </c>
       <c r="U29" t="n">
-        <v>2184.895185944765</v>
+        <v>2396.396282104099</v>
       </c>
       <c r="V29" t="n">
-        <v>1853.832298601194</v>
+        <v>2396.396282104099</v>
       </c>
       <c r="W29" t="n">
-        <v>1853.832298601194</v>
+        <v>2396.396282104099</v>
       </c>
       <c r="X29" t="n">
-        <v>1853.832298601194</v>
+        <v>2022.930523843019</v>
       </c>
       <c r="Y29" t="n">
-        <v>1463.692966625382</v>
+        <v>1632.791191867207</v>
       </c>
     </row>
     <row r="30">
@@ -6518,49 +6518,49 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>932.775797154914</v>
+        <v>932.7757971549145</v>
       </c>
       <c r="C30" t="n">
-        <v>758.322767873787</v>
+        <v>758.3227678737875</v>
       </c>
       <c r="D30" t="n">
-        <v>609.3883582125358</v>
+        <v>609.3883582125362</v>
       </c>
       <c r="E30" t="n">
-        <v>450.1509032070803</v>
+        <v>450.1509032070807</v>
       </c>
       <c r="F30" t="n">
-        <v>303.6163452339653</v>
+        <v>303.6163452339657</v>
       </c>
       <c r="G30" t="n">
         <v>166.883266103321</v>
       </c>
       <c r="H30" t="n">
-        <v>72.80815385915346</v>
+        <v>72.80815385915349</v>
       </c>
       <c r="I30" t="n">
-        <v>51.29057888696726</v>
+        <v>51.29057888696727</v>
       </c>
       <c r="J30" t="n">
-        <v>110.7085524022813</v>
+        <v>235.538677389286</v>
       </c>
       <c r="K30" t="n">
-        <v>552.2387424629096</v>
+        <v>656.6826967703352</v>
       </c>
       <c r="L30" t="n">
-        <v>873.3001853339392</v>
+        <v>944.6469799529978</v>
       </c>
       <c r="M30" t="n">
-        <v>1508.021099060159</v>
+        <v>1300.044584201669</v>
       </c>
       <c r="N30" t="n">
-        <v>1887.233665290464</v>
+        <v>1679.257150431974</v>
       </c>
       <c r="O30" t="n">
-        <v>2211.919283004221</v>
+        <v>2003.942768145731</v>
       </c>
       <c r="P30" t="n">
-        <v>2453.17504976593</v>
+        <v>2245.19853490744</v>
       </c>
       <c r="Q30" t="n">
         <v>2564.528944348363</v>
@@ -6569,7 +6569,7 @@
         <v>2564.528944348363</v>
       </c>
       <c r="S30" t="n">
-        <v>2428.218860870717</v>
+        <v>2428.218860870718</v>
       </c>
       <c r="T30" t="n">
         <v>2234.084585692265</v>
@@ -6578,7 +6578,7 @@
         <v>2005.992398105413</v>
       </c>
       <c r="V30" t="n">
-        <v>1770.84028987367</v>
+        <v>1770.840289873671</v>
       </c>
       <c r="W30" t="n">
         <v>1516.602933145469</v>
@@ -6587,7 +6587,7 @@
         <v>1308.751432939936</v>
       </c>
       <c r="Y30" t="n">
-        <v>1100.991134174982</v>
+        <v>1100.991134174983</v>
       </c>
     </row>
     <row r="31">
@@ -6597,40 +6597,40 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>220.2267618148742</v>
+        <v>332.3836799556823</v>
       </c>
       <c r="C31" t="n">
-        <v>51.29057888696726</v>
+        <v>163.4474970277754</v>
       </c>
       <c r="D31" t="n">
-        <v>51.29057888696726</v>
+        <v>163.4474970277754</v>
       </c>
       <c r="E31" t="n">
-        <v>51.29057888696726</v>
+        <v>163.4474970277754</v>
       </c>
       <c r="F31" t="n">
-        <v>51.29057888696726</v>
+        <v>51.29057888696727</v>
       </c>
       <c r="G31" t="n">
-        <v>51.29057888696726</v>
+        <v>51.29057888696727</v>
       </c>
       <c r="H31" t="n">
-        <v>51.29057888696726</v>
+        <v>51.29057888696727</v>
       </c>
       <c r="I31" t="n">
-        <v>51.29057888696726</v>
+        <v>51.29057888696727</v>
       </c>
       <c r="J31" t="n">
-        <v>74.92003001304163</v>
+        <v>74.9200300130416</v>
       </c>
       <c r="K31" t="n">
-        <v>243.5873136073332</v>
+        <v>243.5873136073331</v>
       </c>
       <c r="L31" t="n">
-        <v>514.949801097701</v>
+        <v>514.9498010977009</v>
       </c>
       <c r="M31" t="n">
-        <v>811.4526194225155</v>
+        <v>811.4526194225153</v>
       </c>
       <c r="N31" t="n">
         <v>1106.339879865804</v>
@@ -6645,28 +6645,28 @@
         <v>1610.693118163192</v>
       </c>
       <c r="R31" t="n">
-        <v>1610.693118163192</v>
+        <v>1506.915933070317</v>
       </c>
       <c r="S31" t="n">
-        <v>1610.693118163192</v>
+        <v>1506.915933070317</v>
       </c>
       <c r="T31" t="n">
-        <v>1502.230335770048</v>
+        <v>1506.915933070317</v>
       </c>
       <c r="U31" t="n">
-        <v>1213.110550099269</v>
+        <v>1506.915933070317</v>
       </c>
       <c r="V31" t="n">
-        <v>958.4260618933822</v>
+        <v>1252.23144486443</v>
       </c>
       <c r="W31" t="n">
-        <v>669.0088918564217</v>
+        <v>962.8142748274695</v>
       </c>
       <c r="X31" t="n">
-        <v>441.0193409584043</v>
+        <v>734.8247239294521</v>
       </c>
       <c r="Y31" t="n">
-        <v>220.2267618148742</v>
+        <v>514.032144785922</v>
       </c>
     </row>
     <row r="32">
@@ -6676,76 +6676,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>991.0443489001098</v>
+        <v>1285.682762255313</v>
       </c>
       <c r="C32" t="n">
-        <v>991.0443489001098</v>
+        <v>916.7202453149016</v>
       </c>
       <c r="D32" t="n">
-        <v>632.7786502933593</v>
+        <v>916.7202453149016</v>
       </c>
       <c r="E32" t="n">
-        <v>632.7786502933593</v>
+        <v>530.9319927166573</v>
       </c>
       <c r="F32" t="n">
-        <v>355.9558858478247</v>
+        <v>119.9460879270497</v>
       </c>
       <c r="G32" t="n">
-        <v>355.9558858478247</v>
+        <v>119.9460879270497</v>
       </c>
       <c r="H32" t="n">
-        <v>51.29057888696726</v>
+        <v>119.9460879270497</v>
       </c>
       <c r="I32" t="n">
-        <v>51.29057888696726</v>
+        <v>51.29057888696727</v>
       </c>
       <c r="J32" t="n">
-        <v>254.8131514952466</v>
+        <v>182.6484035402486</v>
       </c>
       <c r="K32" t="n">
-        <v>502.4229978932121</v>
+        <v>430.2582499382139</v>
       </c>
       <c r="L32" t="n">
-        <v>846.5066693681786</v>
+        <v>774.3419214131802</v>
       </c>
       <c r="M32" t="n">
-        <v>1261.035489153922</v>
+        <v>1188.870741198924</v>
       </c>
       <c r="N32" t="n">
-        <v>1686.885626999171</v>
+        <v>1614.720879044172</v>
       </c>
       <c r="O32" t="n">
-        <v>2075.668575230788</v>
+        <v>2003.503827275789</v>
       </c>
       <c r="P32" t="n">
-        <v>2372.984825876113</v>
+        <v>2307.92557020186</v>
       </c>
       <c r="Q32" t="n">
-        <v>2548.08420147501</v>
+        <v>2483.024945800758</v>
       </c>
       <c r="R32" t="n">
         <v>2564.528944348363</v>
       </c>
       <c r="S32" t="n">
-        <v>2438.480981750686</v>
+        <v>2438.480981750687</v>
       </c>
       <c r="T32" t="n">
-        <v>2438.480981750686</v>
+        <v>2438.480981750687</v>
       </c>
       <c r="U32" t="n">
-        <v>2438.480981750686</v>
+        <v>2438.480981750687</v>
       </c>
       <c r="V32" t="n">
-        <v>2107.418094407115</v>
+        <v>2438.480981750687</v>
       </c>
       <c r="W32" t="n">
-        <v>1754.649439137001</v>
+        <v>2435.887692556326</v>
       </c>
       <c r="X32" t="n">
-        <v>1381.183680875921</v>
+        <v>2062.421934295247</v>
       </c>
       <c r="Y32" t="n">
-        <v>991.0443489001098</v>
+        <v>1672.282602319435</v>
       </c>
     </row>
     <row r="33">
@@ -6755,49 +6755,49 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>932.775797154914</v>
+        <v>932.7757971549145</v>
       </c>
       <c r="C33" t="n">
-        <v>758.322767873787</v>
+        <v>758.3227678737875</v>
       </c>
       <c r="D33" t="n">
-        <v>609.3883582125356</v>
+        <v>609.3883582125361</v>
       </c>
       <c r="E33" t="n">
-        <v>450.1509032070801</v>
+        <v>450.1509032070805</v>
       </c>
       <c r="F33" t="n">
-        <v>303.6163452339651</v>
+        <v>303.6163452339656</v>
       </c>
       <c r="G33" t="n">
-        <v>166.8832661033211</v>
+        <v>166.883266103321</v>
       </c>
       <c r="H33" t="n">
-        <v>72.80815385915366</v>
+        <v>72.80815385915348</v>
       </c>
       <c r="I33" t="n">
-        <v>51.29057888696726</v>
+        <v>51.29057888696727</v>
       </c>
       <c r="J33" t="n">
-        <v>110.7085524022813</v>
+        <v>235.538677389286</v>
       </c>
       <c r="K33" t="n">
-        <v>552.2387424629096</v>
+        <v>677.0688674499143</v>
       </c>
       <c r="L33" t="n">
-        <v>873.3001853339392</v>
+        <v>965.0331506325768</v>
       </c>
       <c r="M33" t="n">
-        <v>1508.021099060159</v>
+        <v>1320.430754881249</v>
       </c>
       <c r="N33" t="n">
-        <v>1887.233665290464</v>
+        <v>1699.643321111553</v>
       </c>
       <c r="O33" t="n">
-        <v>2211.919283004221</v>
+        <v>2024.32893882531</v>
       </c>
       <c r="P33" t="n">
-        <v>2453.17504976593</v>
+        <v>2265.584705587019</v>
       </c>
       <c r="Q33" t="n">
         <v>2564.528944348363</v>
@@ -6806,16 +6806,16 @@
         <v>2564.528944348363</v>
       </c>
       <c r="S33" t="n">
-        <v>2428.218860870717</v>
+        <v>2428.218860870718</v>
       </c>
       <c r="T33" t="n">
-        <v>2234.084585692265</v>
+        <v>2234.084585692266</v>
       </c>
       <c r="U33" t="n">
         <v>2005.992398105413</v>
       </c>
       <c r="V33" t="n">
-        <v>1770.84028987367</v>
+        <v>1770.840289873671</v>
       </c>
       <c r="W33" t="n">
         <v>1516.602933145469</v>
@@ -6824,7 +6824,7 @@
         <v>1308.751432939936</v>
       </c>
       <c r="Y33" t="n">
-        <v>1100.991134174982</v>
+        <v>1100.991134174983</v>
       </c>
     </row>
     <row r="34">
@@ -6834,40 +6834,40 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>536.1528699569487</v>
+        <v>514.1066345269521</v>
       </c>
       <c r="C34" t="n">
-        <v>367.2166870290418</v>
+        <v>514.1066345269521</v>
       </c>
       <c r="D34" t="n">
-        <v>367.2166870290418</v>
+        <v>514.1066345269521</v>
       </c>
       <c r="E34" t="n">
-        <v>219.3035934466487</v>
+        <v>366.193540944559</v>
       </c>
       <c r="F34" t="n">
         <v>219.3035934466487</v>
       </c>
       <c r="G34" t="n">
-        <v>51.29057888696726</v>
+        <v>51.29057888696727</v>
       </c>
       <c r="H34" t="n">
-        <v>51.29057888696726</v>
+        <v>51.29057888696727</v>
       </c>
       <c r="I34" t="n">
-        <v>51.29057888696726</v>
+        <v>51.29057888696727</v>
       </c>
       <c r="J34" t="n">
-        <v>74.92003001304163</v>
+        <v>74.9200300130416</v>
       </c>
       <c r="K34" t="n">
-        <v>243.5873136073332</v>
+        <v>243.5873136073331</v>
       </c>
       <c r="L34" t="n">
-        <v>514.949801097701</v>
+        <v>514.9498010977009</v>
       </c>
       <c r="M34" t="n">
-        <v>811.4526194225155</v>
+        <v>811.4526194225153</v>
       </c>
       <c r="N34" t="n">
         <v>1106.339879865804</v>
@@ -6882,28 +6882,28 @@
         <v>1610.693118163192</v>
       </c>
       <c r="R34" t="n">
-        <v>1610.693118163192</v>
+        <v>1506.915933070317</v>
       </c>
       <c r="S34" t="n">
-        <v>1413.601678533241</v>
+        <v>1506.915933070317</v>
       </c>
       <c r="T34" t="n">
-        <v>1190.509757383056</v>
+        <v>1283.824011920133</v>
       </c>
       <c r="U34" t="n">
-        <v>901.389971712278</v>
+        <v>994.7042262493543</v>
       </c>
       <c r="V34" t="n">
-        <v>901.389971712278</v>
+        <v>740.0197380434674</v>
       </c>
       <c r="W34" t="n">
-        <v>611.9728016753174</v>
+        <v>514.1066345269521</v>
       </c>
       <c r="X34" t="n">
-        <v>611.9728016753174</v>
+        <v>514.1066345269521</v>
       </c>
       <c r="Y34" t="n">
-        <v>611.9728016753174</v>
+        <v>514.1066345269521</v>
       </c>
     </row>
     <row r="35">
@@ -6913,43 +6913,43 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1138.647859283333</v>
+        <v>898.4217596988037</v>
       </c>
       <c r="C35" t="n">
-        <v>1138.647859283333</v>
+        <v>529.4592427583921</v>
       </c>
       <c r="D35" t="n">
-        <v>780.3821606765823</v>
+        <v>529.4592427583921</v>
       </c>
       <c r="E35" t="n">
-        <v>765.4690406791669</v>
+        <v>529.4592427583921</v>
       </c>
       <c r="F35" t="n">
-        <v>354.4831358895594</v>
+        <v>118.4733379687844</v>
       </c>
       <c r="G35" t="n">
-        <v>354.4831358895594</v>
+        <v>118.4733379687844</v>
       </c>
       <c r="H35" t="n">
-        <v>49.81782892870199</v>
+        <v>118.4733379687844</v>
       </c>
       <c r="I35" t="n">
         <v>49.81782892870199</v>
       </c>
       <c r="J35" t="n">
-        <v>181.1756535819834</v>
+        <v>181.175653581984</v>
       </c>
       <c r="K35" t="n">
-        <v>428.7854999799488</v>
+        <v>428.7854999799493</v>
       </c>
       <c r="L35" t="n">
-        <v>772.8691714549153</v>
+        <v>772.8691714549157</v>
       </c>
       <c r="M35" t="n">
-        <v>1187.397991240658</v>
+        <v>1187.397991240659</v>
       </c>
       <c r="N35" t="n">
-        <v>1613.248129085907</v>
+        <v>1613.248129085908</v>
       </c>
       <c r="O35" t="n">
         <v>2002.031077317524</v>
@@ -6967,22 +6967,22 @@
         <v>2364.843483837423</v>
       </c>
       <c r="T35" t="n">
-        <v>2155.838745326146</v>
+        <v>2364.843483837423</v>
       </c>
       <c r="U35" t="n">
-        <v>1902.252949520224</v>
+        <v>2111.257688031501</v>
       </c>
       <c r="V35" t="n">
-        <v>1902.252949520224</v>
+        <v>1780.194800687931</v>
       </c>
       <c r="W35" t="n">
-        <v>1902.252949520224</v>
+        <v>1427.426145417817</v>
       </c>
       <c r="X35" t="n">
-        <v>1528.787191259144</v>
+        <v>1427.426145417817</v>
       </c>
       <c r="Y35" t="n">
-        <v>1138.647859283333</v>
+        <v>1037.286813442005</v>
       </c>
     </row>
     <row r="36">
@@ -7010,7 +7010,7 @@
         <v>93.2457681900575</v>
       </c>
       <c r="H36" t="n">
-        <v>71.3354039008882</v>
+        <v>49.81782892870199</v>
       </c>
       <c r="I36" t="n">
         <v>49.81782892870199</v>
@@ -7019,13 +7019,13 @@
         <v>234.0659274310208</v>
       </c>
       <c r="K36" t="n">
-        <v>553.7386469531789</v>
+        <v>462.4903639055374</v>
       </c>
       <c r="L36" t="n">
-        <v>841.7029301358416</v>
+        <v>1078.985996898225</v>
       </c>
       <c r="M36" t="n">
-        <v>1197.100534384513</v>
+        <v>1434.383601146896</v>
       </c>
       <c r="N36" t="n">
         <v>1813.596167377201</v>
@@ -7071,46 +7071,46 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>620.2106265458076</v>
+        <v>344.6208700090054</v>
       </c>
       <c r="C37" t="n">
-        <v>451.2744436179007</v>
+        <v>344.6208700090054</v>
       </c>
       <c r="D37" t="n">
-        <v>451.2744436179007</v>
+        <v>344.6208700090054</v>
       </c>
       <c r="E37" t="n">
-        <v>303.3613500355076</v>
+        <v>196.7077764266124</v>
       </c>
       <c r="F37" t="n">
-        <v>156.4714025375973</v>
+        <v>49.81782892870199</v>
       </c>
       <c r="G37" t="n">
-        <v>156.4714025375973</v>
+        <v>49.81782892870199</v>
       </c>
       <c r="H37" t="n">
-        <v>156.4714025375973</v>
+        <v>49.81782892870199</v>
       </c>
       <c r="I37" t="n">
         <v>49.81782892870199</v>
       </c>
       <c r="J37" t="n">
-        <v>73.44728005477636</v>
+        <v>73.44728005477633</v>
       </c>
       <c r="K37" t="n">
-        <v>242.1145636490679</v>
+        <v>242.1145636490678</v>
       </c>
       <c r="L37" t="n">
-        <v>513.4770511394357</v>
+        <v>513.4770511394356</v>
       </c>
       <c r="M37" t="n">
-        <v>809.9798694642502</v>
+        <v>809.9798694642501</v>
       </c>
       <c r="N37" t="n">
-        <v>1104.867129907539</v>
+        <v>1104.867129907538</v>
       </c>
       <c r="O37" t="n">
-        <v>1361.226948298603</v>
+        <v>1361.226948298602</v>
       </c>
       <c r="P37" t="n">
         <v>1557.066378230431</v>
@@ -7122,25 +7122,25 @@
         <v>1609.220368204927</v>
       </c>
       <c r="S37" t="n">
-        <v>1412.128928574976</v>
+        <v>1609.220368204927</v>
       </c>
       <c r="T37" t="n">
-        <v>1412.128928574976</v>
+        <v>1386.128447054742</v>
       </c>
       <c r="U37" t="n">
-        <v>1123.009142904198</v>
+        <v>1097.008661383964</v>
       </c>
       <c r="V37" t="n">
-        <v>868.3246546983108</v>
+        <v>842.3241731780771</v>
       </c>
       <c r="W37" t="n">
-        <v>841.0032056893377</v>
+        <v>552.9070031411165</v>
       </c>
       <c r="X37" t="n">
-        <v>841.0032056893377</v>
+        <v>526.2693348392452</v>
       </c>
       <c r="Y37" t="n">
-        <v>620.2106265458076</v>
+        <v>526.2693348392452</v>
       </c>
     </row>
     <row r="38">
@@ -7150,40 +7150,40 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1620.621623575281</v>
+        <v>1396.223468854637</v>
       </c>
       <c r="C38" t="n">
-        <v>1620.621623575281</v>
+        <v>1278.291227825756</v>
       </c>
       <c r="D38" t="n">
-        <v>1262.35592496853</v>
+        <v>920.0255292190052</v>
       </c>
       <c r="E38" t="n">
-        <v>876.5676723702861</v>
+        <v>534.2372766207609</v>
       </c>
       <c r="F38" t="n">
-        <v>465.5817675806785</v>
+        <v>534.2372766207609</v>
       </c>
       <c r="G38" t="n">
-        <v>49.81782892870199</v>
+        <v>118.4733379687844</v>
       </c>
       <c r="H38" t="n">
-        <v>49.81782892870199</v>
+        <v>118.4733379687844</v>
       </c>
       <c r="I38" t="n">
         <v>49.81782892870199</v>
       </c>
       <c r="J38" t="n">
-        <v>181.1756535819834</v>
+        <v>181.1756535819836</v>
       </c>
       <c r="K38" t="n">
         <v>428.7854999799488</v>
       </c>
       <c r="L38" t="n">
-        <v>772.8691714549152</v>
+        <v>772.869171454915</v>
       </c>
       <c r="M38" t="n">
-        <v>1187.397991240659</v>
+        <v>1187.397991240658</v>
       </c>
       <c r="N38" t="n">
         <v>1613.248129085907</v>
@@ -7210,16 +7210,16 @@
         <v>2490.8914464351</v>
       </c>
       <c r="V38" t="n">
-        <v>2490.8914464351</v>
+        <v>2159.828559091529</v>
       </c>
       <c r="W38" t="n">
-        <v>2138.122791164985</v>
+        <v>2159.828559091529</v>
       </c>
       <c r="X38" t="n">
-        <v>2138.122791164985</v>
+        <v>1786.362800830449</v>
       </c>
       <c r="Y38" t="n">
-        <v>2007.221463639403</v>
+        <v>1396.223468854637</v>
       </c>
     </row>
     <row r="39">
@@ -7229,43 +7229,43 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>859.1382992416507</v>
+        <v>931.3030471966489</v>
       </c>
       <c r="C39" t="n">
-        <v>684.6852699605237</v>
+        <v>756.8500179155219</v>
       </c>
       <c r="D39" t="n">
-        <v>535.7508602992724</v>
+        <v>607.9156082542706</v>
       </c>
       <c r="E39" t="n">
-        <v>376.5134052938169</v>
+        <v>448.6781532488152</v>
       </c>
       <c r="F39" t="n">
-        <v>229.9788473207019</v>
+        <v>302.1435952757001</v>
       </c>
       <c r="G39" t="n">
-        <v>93.2457681900575</v>
+        <v>165.4105161450557</v>
       </c>
       <c r="H39" t="n">
-        <v>71.3354039008882</v>
+        <v>71.33540390088822</v>
       </c>
       <c r="I39" t="n">
         <v>49.81782892870199</v>
       </c>
       <c r="J39" t="n">
-        <v>109.2358024440161</v>
+        <v>234.0659274310208</v>
       </c>
       <c r="K39" t="n">
-        <v>288.9454078621915</v>
+        <v>675.596117491649</v>
       </c>
       <c r="L39" t="n">
-        <v>576.9096910448542</v>
+        <v>1078.985996898225</v>
       </c>
       <c r="M39" t="n">
-        <v>1193.405324037542</v>
+        <v>1434.383601146896</v>
       </c>
       <c r="N39" t="n">
-        <v>1809.900957030229</v>
+        <v>1813.596167377201</v>
       </c>
       <c r="O39" t="n">
         <v>2138.281785090958</v>
@@ -7283,22 +7283,22 @@
         <v>2354.581362957454</v>
       </c>
       <c r="T39" t="n">
-        <v>2160.447087779001</v>
+        <v>2232.611835734</v>
       </c>
       <c r="U39" t="n">
-        <v>1932.35490019215</v>
+        <v>2004.519648147148</v>
       </c>
       <c r="V39" t="n">
-        <v>1697.202791960407</v>
+        <v>1769.367539915405</v>
       </c>
       <c r="W39" t="n">
-        <v>1442.965435232205</v>
+        <v>1515.130183187204</v>
       </c>
       <c r="X39" t="n">
-        <v>1235.113935026673</v>
+        <v>1307.278682981671</v>
       </c>
       <c r="Y39" t="n">
-        <v>1027.353636261719</v>
+        <v>1099.518384216717</v>
       </c>
     </row>
     <row r="40">
@@ -7308,46 +7308,46 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>325.4075854655042</v>
+        <v>366.3609085630438</v>
       </c>
       <c r="C40" t="n">
-        <v>156.4714025375973</v>
+        <v>197.4247256351369</v>
       </c>
       <c r="D40" t="n">
-        <v>156.4714025375973</v>
+        <v>49.81782892870199</v>
       </c>
       <c r="E40" t="n">
-        <v>156.4714025375973</v>
+        <v>49.81782892870199</v>
       </c>
       <c r="F40" t="n">
-        <v>156.4714025375973</v>
+        <v>49.81782892870199</v>
       </c>
       <c r="G40" t="n">
-        <v>156.4714025375973</v>
+        <v>49.81782892870199</v>
       </c>
       <c r="H40" t="n">
-        <v>156.4714025375973</v>
+        <v>49.81782892870199</v>
       </c>
       <c r="I40" t="n">
         <v>49.81782892870199</v>
       </c>
       <c r="J40" t="n">
-        <v>73.44728005477636</v>
+        <v>73.44728005477633</v>
       </c>
       <c r="K40" t="n">
-        <v>242.1145636490679</v>
+        <v>242.1145636490678</v>
       </c>
       <c r="L40" t="n">
-        <v>513.4770511394357</v>
+        <v>513.4770511394356</v>
       </c>
       <c r="M40" t="n">
-        <v>809.9798694642502</v>
+        <v>809.9798694642501</v>
       </c>
       <c r="N40" t="n">
-        <v>1104.867129907539</v>
+        <v>1104.867129907538</v>
       </c>
       <c r="O40" t="n">
-        <v>1361.226948298603</v>
+        <v>1361.226948298602</v>
       </c>
       <c r="P40" t="n">
         <v>1557.066378230431</v>
@@ -7362,22 +7362,22 @@
         <v>1609.220368204927</v>
       </c>
       <c r="T40" t="n">
-        <v>1386.128447054743</v>
+        <v>1609.220368204927</v>
       </c>
       <c r="U40" t="n">
-        <v>1271.950287682122</v>
+        <v>1320.100582534149</v>
       </c>
       <c r="V40" t="n">
-        <v>1017.265799476235</v>
+        <v>1065.416094328262</v>
       </c>
       <c r="W40" t="n">
-        <v>727.8486294392741</v>
+        <v>775.9989242913009</v>
       </c>
       <c r="X40" t="n">
-        <v>727.8486294392741</v>
+        <v>548.0093733932836</v>
       </c>
       <c r="Y40" t="n">
-        <v>507.0560502957439</v>
+        <v>548.0093733932836</v>
       </c>
     </row>
     <row r="41">
@@ -7387,37 +7387,37 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>408.0835275354525</v>
+        <v>1273.513193963387</v>
       </c>
       <c r="C41" t="n">
-        <v>408.0835275354525</v>
+        <v>1273.513193963387</v>
       </c>
       <c r="D41" t="n">
-        <v>49.81782892870199</v>
+        <v>915.2474953566364</v>
       </c>
       <c r="E41" t="n">
-        <v>49.81782892870199</v>
+        <v>529.4592427583921</v>
       </c>
       <c r="F41" t="n">
-        <v>49.81782892870199</v>
+        <v>118.4733379687844</v>
       </c>
       <c r="G41" t="n">
-        <v>49.81782892870199</v>
+        <v>118.4733379687844</v>
       </c>
       <c r="H41" t="n">
-        <v>49.81782892870199</v>
+        <v>118.4733379687844</v>
       </c>
       <c r="I41" t="n">
         <v>49.81782892870199</v>
       </c>
       <c r="J41" t="n">
-        <v>181.1756535819834</v>
+        <v>181.1756535819836</v>
       </c>
       <c r="K41" t="n">
-        <v>428.7854999799488</v>
+        <v>428.7854999799492</v>
       </c>
       <c r="L41" t="n">
-        <v>772.8691714549153</v>
+        <v>772.8691714549157</v>
       </c>
       <c r="M41" t="n">
         <v>1187.397991240659</v>
@@ -7426,10 +7426,10 @@
         <v>1613.248129085908</v>
       </c>
       <c r="O41" t="n">
-        <v>2002.031077317525</v>
+        <v>2002.031077317524</v>
       </c>
       <c r="P41" t="n">
-        <v>2299.34732796285</v>
+        <v>2299.347327962849</v>
       </c>
       <c r="Q41" t="n">
         <v>2474.446703561747</v>
@@ -7450,13 +7450,13 @@
         <v>1902.252949520224</v>
       </c>
       <c r="W41" t="n">
-        <v>1549.48429425011</v>
+        <v>1646.978952224467</v>
       </c>
       <c r="X41" t="n">
-        <v>1184.822699575386</v>
+        <v>1273.513193963387</v>
       </c>
       <c r="Y41" t="n">
-        <v>794.6833675995742</v>
+        <v>1273.513193963387</v>
       </c>
     </row>
     <row r="42">
@@ -7475,13 +7475,13 @@
         <v>535.7508602992724</v>
       </c>
       <c r="E42" t="n">
-        <v>427.1605782766289</v>
+        <v>376.5134052938169</v>
       </c>
       <c r="F42" t="n">
-        <v>280.6260203035139</v>
+        <v>229.9788473207019</v>
       </c>
       <c r="G42" t="n">
-        <v>143.8929411728695</v>
+        <v>93.2457681900575</v>
       </c>
       <c r="H42" t="n">
         <v>49.81782892870199</v>
@@ -7490,25 +7490,25 @@
         <v>49.81782892870199</v>
       </c>
       <c r="J42" t="n">
-        <v>109.2358024440161</v>
+        <v>234.0659274310208</v>
       </c>
       <c r="K42" t="n">
-        <v>288.9454078621915</v>
+        <v>583.0451988570713</v>
       </c>
       <c r="L42" t="n">
-        <v>576.9096910448542</v>
+        <v>871.0094820397339</v>
       </c>
       <c r="M42" t="n">
-        <v>932.3072952935258</v>
+        <v>1226.407086288405</v>
       </c>
       <c r="N42" t="n">
-        <v>1521.786152098271</v>
+        <v>1605.61965251871</v>
       </c>
       <c r="O42" t="n">
-        <v>2138.281785090958</v>
+        <v>1930.305270232467</v>
       </c>
       <c r="P42" t="n">
-        <v>2379.537551852667</v>
+        <v>2171.561036994176</v>
       </c>
       <c r="Q42" t="n">
         <v>2490.8914464351</v>
@@ -7545,46 +7545,46 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>771.3891229746523</v>
+        <v>366.6671054390021</v>
       </c>
       <c r="C43" t="n">
-        <v>602.4529400467454</v>
+        <v>197.7309225110951</v>
       </c>
       <c r="D43" t="n">
-        <v>452.3363006344097</v>
+        <v>197.7309225110951</v>
       </c>
       <c r="E43" t="n">
-        <v>452.3363006344097</v>
+        <v>49.81782892870199</v>
       </c>
       <c r="F43" t="n">
-        <v>305.4463531364993</v>
+        <v>49.81782892870199</v>
       </c>
       <c r="G43" t="n">
-        <v>305.4463531364993</v>
+        <v>49.81782892870199</v>
       </c>
       <c r="H43" t="n">
-        <v>156.4714025375973</v>
+        <v>49.81782892870199</v>
       </c>
       <c r="I43" t="n">
         <v>49.81782892870199</v>
       </c>
       <c r="J43" t="n">
-        <v>73.44728005477636</v>
+        <v>73.44728005477633</v>
       </c>
       <c r="K43" t="n">
-        <v>242.1145636490679</v>
+        <v>242.1145636490678</v>
       </c>
       <c r="L43" t="n">
-        <v>513.4770511394357</v>
+        <v>513.4770511394356</v>
       </c>
       <c r="M43" t="n">
-        <v>809.9798694642502</v>
+        <v>809.9798694642501</v>
       </c>
       <c r="N43" t="n">
-        <v>1104.867129907539</v>
+        <v>1104.867129907538</v>
       </c>
       <c r="O43" t="n">
-        <v>1361.226948298603</v>
+        <v>1361.226948298602</v>
       </c>
       <c r="P43" t="n">
         <v>1557.066378230431</v>
@@ -7602,19 +7602,19 @@
         <v>1609.220368204927</v>
       </c>
       <c r="U43" t="n">
-        <v>1609.220368204927</v>
+        <v>1320.100582534149</v>
       </c>
       <c r="V43" t="n">
-        <v>1354.53587999904</v>
+        <v>1065.416094328262</v>
       </c>
       <c r="W43" t="n">
-        <v>1065.118709962079</v>
+        <v>997.0977003107893</v>
       </c>
       <c r="X43" t="n">
-        <v>953.037587804892</v>
+        <v>769.1081494127719</v>
       </c>
       <c r="Y43" t="n">
-        <v>953.037587804892</v>
+        <v>548.3155702692418</v>
       </c>
     </row>
     <row r="44">
@@ -7624,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1081.711351436722</v>
+        <v>1567.021231929388</v>
       </c>
       <c r="C44" t="n">
-        <v>712.7488344963099</v>
+        <v>1567.021231929388</v>
       </c>
       <c r="D44" t="n">
-        <v>354.4831358895594</v>
+        <v>1567.021231929388</v>
       </c>
       <c r="E44" t="n">
-        <v>354.4831358895594</v>
+        <v>1181.232979331143</v>
       </c>
       <c r="F44" t="n">
-        <v>354.4831358895594</v>
+        <v>770.247074541536</v>
       </c>
       <c r="G44" t="n">
         <v>354.4831358895594</v>
       </c>
       <c r="H44" t="n">
-        <v>49.81782892870199</v>
+        <v>49.81782892870198</v>
       </c>
       <c r="I44" t="n">
-        <v>49.81782892870199</v>
+        <v>49.81782892870198</v>
       </c>
       <c r="J44" t="n">
         <v>181.1756535819834</v>
       </c>
       <c r="K44" t="n">
-        <v>428.7854999799488</v>
+        <v>428.7854999799487</v>
       </c>
       <c r="L44" t="n">
-        <v>772.8691714549153</v>
+        <v>772.8691714549145</v>
       </c>
       <c r="M44" t="n">
-        <v>1187.397991240659</v>
+        <v>1187.397991240658</v>
       </c>
       <c r="N44" t="n">
-        <v>1613.248129085908</v>
+        <v>1613.248129085906</v>
       </c>
       <c r="O44" t="n">
-        <v>2002.031077317524</v>
+        <v>2002.031077317523</v>
       </c>
       <c r="P44" t="n">
         <v>2299.347327962849</v>
       </c>
       <c r="Q44" t="n">
-        <v>2474.446703561747</v>
+        <v>2474.446703561746</v>
       </c>
       <c r="R44" t="n">
-        <v>2490.8914464351</v>
+        <v>2490.891446435099</v>
       </c>
       <c r="S44" t="n">
-        <v>2490.8914464351</v>
+        <v>2490.891446435099</v>
       </c>
       <c r="T44" t="n">
-        <v>2405.72852992045</v>
+        <v>2490.891446435099</v>
       </c>
       <c r="U44" t="n">
-        <v>2152.142734114528</v>
+        <v>2343.760403969321</v>
       </c>
       <c r="V44" t="n">
-        <v>1821.079846770957</v>
+        <v>2343.760403969321</v>
       </c>
       <c r="W44" t="n">
-        <v>1468.311191500843</v>
+        <v>2343.760403969321</v>
       </c>
       <c r="X44" t="n">
-        <v>1468.311191500843</v>
+        <v>2343.760403969321</v>
       </c>
       <c r="Y44" t="n">
-        <v>1468.311191500843</v>
+        <v>1953.62107199351</v>
       </c>
     </row>
     <row r="45">
@@ -7703,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>859.1382992416507</v>
+        <v>859.1382992416497</v>
       </c>
       <c r="C45" t="n">
-        <v>684.6852699605237</v>
+        <v>684.6852699605228</v>
       </c>
       <c r="D45" t="n">
-        <v>586.3980332820845</v>
+        <v>535.7508602992715</v>
       </c>
       <c r="E45" t="n">
-        <v>427.1605782766289</v>
+        <v>376.513405293816</v>
       </c>
       <c r="F45" t="n">
-        <v>280.6260203035139</v>
+        <v>229.978847320701</v>
       </c>
       <c r="G45" t="n">
-        <v>143.8929411728695</v>
+        <v>93.24576819005659</v>
       </c>
       <c r="H45" t="n">
-        <v>49.81782892870199</v>
+        <v>71.3354039008882</v>
       </c>
       <c r="I45" t="n">
-        <v>49.81782892870199</v>
+        <v>49.81782892870198</v>
       </c>
       <c r="J45" t="n">
-        <v>234.0659274310208</v>
+        <v>234.0659274310207</v>
       </c>
       <c r="K45" t="n">
-        <v>413.7755328491963</v>
+        <v>475.7435727620233</v>
       </c>
       <c r="L45" t="n">
-        <v>701.7398160318589</v>
+        <v>763.7078559446859</v>
       </c>
       <c r="M45" t="n">
-        <v>1197.100534384513</v>
+        <v>1119.105460193357</v>
       </c>
       <c r="N45" t="n">
-        <v>1813.596167377201</v>
+        <v>1498.318026423662</v>
       </c>
       <c r="O45" t="n">
-        <v>2138.281785090958</v>
+        <v>1823.003644137419</v>
       </c>
       <c r="P45" t="n">
-        <v>2379.537551852667</v>
+        <v>2379.537551852666</v>
       </c>
       <c r="Q45" t="n">
-        <v>2490.8914464351</v>
+        <v>2490.891446435099</v>
       </c>
       <c r="R45" t="n">
-        <v>2490.8914464351</v>
+        <v>2490.891446435099</v>
       </c>
       <c r="S45" t="n">
-        <v>2354.581362957454</v>
+        <v>2354.581362957453</v>
       </c>
       <c r="T45" t="n">
-        <v>2160.447087779001</v>
+        <v>2160.447087779</v>
       </c>
       <c r="U45" t="n">
-        <v>1932.35490019215</v>
+        <v>1932.354900192149</v>
       </c>
       <c r="V45" t="n">
-        <v>1697.202791960407</v>
+        <v>1697.202791960406</v>
       </c>
       <c r="W45" t="n">
         <v>1442.965435232205</v>
       </c>
       <c r="X45" t="n">
-        <v>1235.113935026673</v>
+        <v>1235.113935026672</v>
       </c>
       <c r="Y45" t="n">
-        <v>1027.353636261719</v>
+        <v>1027.353636261718</v>
       </c>
     </row>
     <row r="46">
@@ -7782,46 +7782,46 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>92.6734184137039</v>
+        <v>104.1248730995691</v>
       </c>
       <c r="C46" t="n">
-        <v>92.6734184137039</v>
+        <v>49.81782892870198</v>
       </c>
       <c r="D46" t="n">
-        <v>92.6734184137039</v>
+        <v>49.81782892870198</v>
       </c>
       <c r="E46" t="n">
-        <v>92.6734184137039</v>
+        <v>49.81782892870198</v>
       </c>
       <c r="F46" t="n">
-        <v>92.6734184137039</v>
+        <v>49.81782892870198</v>
       </c>
       <c r="G46" t="n">
-        <v>92.6734184137039</v>
+        <v>49.81782892870198</v>
       </c>
       <c r="H46" t="n">
-        <v>49.81782892870199</v>
+        <v>49.81782892870198</v>
       </c>
       <c r="I46" t="n">
-        <v>49.81782892870199</v>
+        <v>49.81782892870198</v>
       </c>
       <c r="J46" t="n">
-        <v>73.44728005477636</v>
+        <v>73.44728005477631</v>
       </c>
       <c r="K46" t="n">
-        <v>242.1145636490679</v>
+        <v>242.1145636490678</v>
       </c>
       <c r="L46" t="n">
-        <v>513.4770511394357</v>
+        <v>513.4770511394356</v>
       </c>
       <c r="M46" t="n">
-        <v>809.9798694642502</v>
+        <v>809.9798694642501</v>
       </c>
       <c r="N46" t="n">
-        <v>1104.867129907539</v>
+        <v>1104.867129907538</v>
       </c>
       <c r="O46" t="n">
-        <v>1361.226948298603</v>
+        <v>1361.226948298602</v>
       </c>
       <c r="P46" t="n">
         <v>1557.066378230431</v>
@@ -7830,28 +7830,28 @@
         <v>1609.220368204927</v>
       </c>
       <c r="R46" t="n">
-        <v>1505.443183112052</v>
+        <v>1609.220368204927</v>
       </c>
       <c r="S46" t="n">
-        <v>1308.351743482101</v>
+        <v>1609.220368204927</v>
       </c>
       <c r="T46" t="n">
-        <v>1085.259822331916</v>
+        <v>1386.128447054742</v>
       </c>
       <c r="U46" t="n">
-        <v>796.1400366611382</v>
+        <v>1097.008661383964</v>
       </c>
       <c r="V46" t="n">
-        <v>541.4555484552513</v>
+        <v>842.3241731780771</v>
       </c>
       <c r="W46" t="n">
-        <v>541.4555484552513</v>
+        <v>552.9070031411165</v>
       </c>
       <c r="X46" t="n">
-        <v>313.465997557234</v>
+        <v>324.9174522430992</v>
       </c>
       <c r="Y46" t="n">
-        <v>92.6734184137039</v>
+        <v>104.1248730995691</v>
       </c>
     </row>
   </sheetData>
@@ -8768,19 +8768,19 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>126.0910353404088</v>
+        <v>9.967937521059255</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L12" t="n">
-        <v>118.7395615125299</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>239.6798654165481</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
@@ -8789,7 +8789,7 @@
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R12" t="n">
         <v>45.52166981132082</v>
@@ -9008,7 +9008,7 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>188.6850150503361</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -9020,16 +9020,16 @@
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>294.7575911908384</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>212.3901924994343</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>22.88434839053377</v>
+        <v>22.88434839053376</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9242,10 +9242,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>188.6850150503364</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -9260,13 +9260,13 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>116.5915113372863</v>
       </c>
       <c r="R18" t="n">
-        <v>22.88434839053377</v>
+        <v>22.88434839053379</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9488,22 +9488,22 @@
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>263.7353825697126</v>
+        <v>170.9794606140161</v>
       </c>
       <c r="N21" t="n">
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>117.3213657801511</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
-        <v>22.88434839053377</v>
+        <v>22.88434839053379</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9637,7 +9637,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>7.177264930046988</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
@@ -9655,7 +9655,7 @@
         <v>0</v>
       </c>
       <c r="P23" t="n">
-        <v>7.177264930045453</v>
+        <v>0</v>
       </c>
       <c r="Q23" t="n">
         <v>0</v>
@@ -9716,31 +9716,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>57.48699158585868</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>258.0892398948636</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>221.2358239962574</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
-        <v>22.88434839053377</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9886,10 +9886,10 @@
         <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>0</v>
+        <v>7.177264930046931</v>
       </c>
       <c r="O26" t="n">
-        <v>72.89368480302824</v>
+        <v>0</v>
       </c>
       <c r="P26" t="n">
         <v>0</v>
@@ -9898,7 +9898,7 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9953,13 +9953,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>19.70495798618204</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>221.2358239962571</v>
       </c>
       <c r="L27" t="n">
-        <v>350.2592227712699</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
         <v>0</v>
@@ -9977,7 +9977,7 @@
         <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
-        <v>22.88434839053377</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10111,7 +10111,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>7.177264930045311</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
         <v>0</v>
@@ -10132,7 +10132,7 @@
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>7.177264930046675</v>
       </c>
       <c r="R29" t="n">
         <v>65.71641987298243</v>
@@ -10190,16 +10190,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
-        <v>264.4652370125786</v>
+        <v>243.8731454170442</v>
       </c>
       <c r="L30" t="n">
-        <v>33.4314744326939</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>282.1447570480285</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
         <v>0</v>
@@ -10211,10 +10211,10 @@
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
-        <v>22.88434839053377</v>
+        <v>22.8843483905338</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10348,7 +10348,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>72.89368480302826</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
         <v>0</v>
@@ -10366,13 +10366,13 @@
         <v>0</v>
       </c>
       <c r="P32" t="n">
-        <v>0</v>
+        <v>7.177264930046704</v>
       </c>
       <c r="Q32" t="n">
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10427,16 +10427,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L33" t="n">
-        <v>33.4314744326939</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>282.1447570480285</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
         <v>0</v>
@@ -10448,10 +10448,10 @@
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>189.4851961403145</v>
       </c>
       <c r="R33" t="n">
-        <v>22.88434839053377</v>
+        <v>22.8843483905338</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10667,16 +10667,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>141.3768829333158</v>
+        <v>49.20690005691031</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>331.8498482929542</v>
       </c>
       <c r="M36" t="n">
         <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>239.6798654165477</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
         <v>0</v>
@@ -10688,7 +10688,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>22.88434839053377</v>
+        <v>22.8843483905338</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10901,22 +10901,22 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>116.5915113372859</v>
       </c>
       <c r="M39" t="n">
-        <v>263.7353825697126</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>239.6798654165477</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>3.732535704012093</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
@@ -10925,7 +10925,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>22.88434839053377</v>
+        <v>22.8843483905338</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11138,10 +11138,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>170.9794606140153</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -11150,19 +11150,19 @@
         <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>212.3901924994342</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>294.7575911908384</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
-        <v>22.88434839053377</v>
+        <v>22.8843483905338</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11378,28 +11378,28 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>62.5939797099264</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>141.3768829333159</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>239.6798654165477</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>22.88434839053377</v>
+        <v>22.8843483905338</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23257,10 +23257,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>160.1887495596344</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>354.683041620683</v>
@@ -23272,10 +23272,10 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>411.6062992654567</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>301.6186538912489</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23308,13 +23308,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>124.7874829717001</v>
       </c>
       <c r="T11" t="n">
-        <v>44.25879525639661</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>251.0499378478622</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -23323,10 +23323,10 @@
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -23357,7 +23357,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>21.30239922246435</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -23399,10 +23399,10 @@
         <v>0</v>
       </c>
       <c r="W12" t="n">
-        <v>0</v>
+        <v>71.4431004754473</v>
       </c>
       <c r="X12" t="n">
-        <v>50.14070125298295</v>
+        <v>0</v>
       </c>
       <c r="Y12" t="n">
         <v>0</v>
@@ -23418,7 +23418,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -23427,10 +23427,10 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>36.49893631043739</v>
+        <v>57.28674475889295</v>
       </c>
       <c r="H13" t="n">
         <v>147.485201092913</v>
@@ -23463,22 +23463,22 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>102.739413241946</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>195.1205252336517</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>220.8610019386828</v>
       </c>
       <c r="U13" t="n">
         <v>286.2285878140705</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -23494,10 +23494,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710076</v>
+        <v>351.9632509142137</v>
       </c>
       <c r="D14" t="n">
         <v>354.683041620683</v>
@@ -23509,13 +23509,13 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>411.6062992654567</v>
       </c>
       <c r="H14" t="n">
-        <v>301.6186538912489</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>67.96895394968158</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23545,19 +23545,19 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>124.7874829717001</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>251.0499378478622</v>
       </c>
       <c r="V14" t="n">
-        <v>136.2618273759002</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
@@ -23588,7 +23588,7 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>71.4431004754482</v>
+        <v>0</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -23624,7 +23624,7 @@
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>0</v>
+        <v>71.44310047544725</v>
       </c>
       <c r="T15" t="n">
         <v>0</v>
@@ -23652,7 +23652,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -23661,7 +23661,7 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -23706,22 +23706,22 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>220.8610019386828</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2285878140705</v>
+        <v>263.8651263696635</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>49.48848947368339</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -23731,13 +23731,13 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>354.683041620683</v>
+        <v>204.995549078581</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
@@ -23752,7 +23752,7 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>67.96895394968161</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23785,7 +23785,7 @@
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>206.9146911261644</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
         <v>251.0499378478622</v>
@@ -23794,13 +23794,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
-        <v>328.3687196479918</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="18">
@@ -23828,7 +23828,7 @@
         <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>71.44310047544732</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -23861,7 +23861,7 @@
         <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>0</v>
+        <v>71.44310047544725</v>
       </c>
       <c r="T18" t="n">
         <v>0</v>
@@ -23895,7 +23895,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
@@ -23940,16 +23940,16 @@
         <v>102.739413241946</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>195.1205252336517</v>
       </c>
       <c r="T19" t="n">
         <v>220.8610019386828</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2285878140705</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>94.63636720696812</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -23958,7 +23958,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>37.12895676917489</v>
       </c>
     </row>
     <row r="20">
@@ -23968,28 +23968,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>281.6326572644076</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>230.8023488723323</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>411.6062992654567</v>
       </c>
       <c r="H20" t="n">
         <v>301.6186538912489</v>
       </c>
       <c r="I20" t="n">
-        <v>67.96895394968161</v>
+        <v>67.96895394968163</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24019,13 +24019,13 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>124.7874829717001</v>
       </c>
       <c r="T20" t="n">
         <v>206.9146911261644</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>251.0499378478622</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
@@ -24056,7 +24056,7 @@
         <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>71.4431004754482</v>
+        <v>0</v>
       </c>
       <c r="F21" t="n">
         <v>0</v>
@@ -24098,7 +24098,7 @@
         <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>0</v>
+        <v>71.44310047544725</v>
       </c>
       <c r="T21" t="n">
         <v>0</v>
@@ -24135,13 +24135,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>129.7616637429421</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>166.3328844140846</v>
       </c>
       <c r="H22" t="n">
         <v>147.485201092913</v>
@@ -24174,22 +24174,22 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>17.23778923940063</v>
+        <v>102.739413241946</v>
       </c>
       <c r="S22" t="n">
-        <v>195.1205252336517</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>220.8610019386828</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -24205,28 +24205,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
-        <v>234.6988732902037</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>301.6186538912489</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>67.96895394968161</v>
+        <v>67.96895394968163</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24256,22 +24256,22 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>124.7874829717001</v>
       </c>
       <c r="T23" t="n">
-        <v>206.9146911261644</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>251.0499378478622</v>
+        <v>207.3689235113898</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
         <v>0</v>
@@ -24366,7 +24366,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
@@ -24378,10 +24378,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>166.3328844140846</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>147.485201092913</v>
+        <v>10.88032827035917</v>
       </c>
       <c r="I25" t="n">
         <v>105.5870378728063</v>
@@ -24414,13 +24414,13 @@
         <v>102.739413241946</v>
       </c>
       <c r="S25" t="n">
-        <v>22.37478478905072</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2285878140705</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24429,10 +24429,10 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -24442,28 +24442,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>28.71799213424663</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>301.6186538912489</v>
       </c>
       <c r="I26" t="n">
-        <v>67.96895394968161</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24493,19 +24493,19 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>124.7874829717001</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>206.9146911261644</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>251.0499378478622</v>
       </c>
       <c r="V26" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
-        <v>190.711445210136</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
         <v>369.731100678469</v>
@@ -24600,7 +24600,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>95.4788762973937</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
@@ -24618,10 +24618,10 @@
         <v>166.3328844140846</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>147.485201092913</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>105.5870378728063</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24651,7 +24651,7 @@
         <v>102.739413241946</v>
       </c>
       <c r="S28" t="n">
-        <v>195.1205252336517</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24660,13 +24660,13 @@
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>199.3082652365607</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -24691,7 +24691,7 @@
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>167.4072429894067</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
         <v>0</v>
@@ -24700,7 +24700,7 @@
         <v>301.6186538912489</v>
       </c>
       <c r="I29" t="n">
-        <v>67.96895394968161</v>
+        <v>67.96895394968163</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24730,22 +24730,22 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>124.7874829717001</v>
       </c>
       <c r="T29" t="n">
-        <v>206.9146911261644</v>
+        <v>40.46335550434273</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>251.0499378478622</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
         <v>0</v>
@@ -24837,7 +24837,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
@@ -24849,7 +24849,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>34.38569906353123</v>
       </c>
       <c r="G31" t="n">
         <v>166.3328844140846</v>
@@ -24885,16 +24885,16 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>102.739413241946</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>195.1205252336517</v>
       </c>
       <c r="T31" t="n">
-        <v>113.4828473694697</v>
+        <v>220.8610019386828</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.2285878140705</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -24916,28 +24916,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>132.8215089406322</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
         <v>411.6062992654567</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>301.6186538912489</v>
       </c>
       <c r="I32" t="n">
-        <v>67.96895394968161</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -24976,10 +24976,10 @@
         <v>251.0499378478622</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>346.6736124149963</v>
       </c>
       <c r="X32" t="n">
         <v>0</v>
@@ -25074,10 +25074,10 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>104.7702477807523</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
         <v>148.6154730182124</v>
@@ -25086,7 +25086,7 @@
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -25122,10 +25122,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>102.739413241946</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>195.1205252336517</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25134,10 +25134,10 @@
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>62.86902585524084</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
@@ -25153,16 +25153,16 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634806</v>
+        <v>245.2574384577115</v>
       </c>
       <c r="C35" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
-        <v>367.1663812748205</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
         <v>0</v>
@@ -25171,10 +25171,10 @@
         <v>411.6062992654567</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>301.6186538912489</v>
       </c>
       <c r="I35" t="n">
-        <v>67.96895394968161</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25207,19 +25207,19 @@
         <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>206.9146911261644</v>
       </c>
       <c r="U35" t="n">
         <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
         <v>0</v>
@@ -25250,10 +25250,10 @@
         <v>0</v>
       </c>
       <c r="H36" t="n">
-        <v>71.4431004754482</v>
+        <v>50.14070125298388</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>21.30239922246436</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -25311,10 +25311,10 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
         <v>148.6154730182124</v>
@@ -25332,7 +25332,7 @@
         <v>147.485201092913</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>105.5870378728063</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25362,10 +25362,10 @@
         <v>102.739413241946</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>195.1205252336517</v>
       </c>
       <c r="T37" t="n">
-        <v>220.8610019386828</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -25374,13 +25374,13 @@
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>259.4747638177076</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>199.3383637701845</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -25390,10 +25390,10 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
-        <v>365.2728917710076</v>
+        <v>248.5199731524147</v>
       </c>
       <c r="D38" t="n">
         <v>0</v>
@@ -25402,7 +25402,7 @@
         <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
         <v>0</v>
@@ -25411,7 +25411,7 @@
         <v>301.6186538912489</v>
       </c>
       <c r="I38" t="n">
-        <v>67.96895394968161</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25450,16 +25450,16 @@
         <v>251.0499378478622</v>
       </c>
       <c r="V38" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>256.6456244057267</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -25487,7 +25487,7 @@
         <v>0</v>
       </c>
       <c r="H39" t="n">
-        <v>71.4431004754482</v>
+        <v>0</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
@@ -25523,7 +25523,7 @@
         <v>0</v>
       </c>
       <c r="T39" t="n">
-        <v>0</v>
+        <v>71.44310047544816</v>
       </c>
       <c r="U39" t="n">
         <v>0</v>
@@ -25554,7 +25554,7 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>2.484645278841782</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
@@ -25569,7 +25569,7 @@
         <v>147.485201092913</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>105.5870378728063</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25602,10 +25602,10 @@
         <v>195.1205252336517</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>220.8610019386828</v>
       </c>
       <c r="U40" t="n">
-        <v>173.1922100351757</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25614,10 +25614,10 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -25627,7 +25627,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
         <v>365.2728917710076</v>
@@ -25636,10 +25636,10 @@
         <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
         <v>411.6062992654567</v>
@@ -25648,7 +25648,7 @@
         <v>301.6186538912489</v>
       </c>
       <c r="I41" t="n">
-        <v>67.96895394968161</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25690,13 +25690,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>96.51971139461293</v>
       </c>
       <c r="X41" t="n">
-        <v>8.716121950492038</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="42">
@@ -25715,7 +25715,7 @@
         <v>0</v>
       </c>
       <c r="E42" t="n">
-        <v>50.14070125298392</v>
+        <v>0</v>
       </c>
       <c r="F42" t="n">
         <v>0</v>
@@ -25724,10 +25724,10 @@
         <v>0</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>50.14070125298388</v>
       </c>
       <c r="I42" t="n">
-        <v>21.30239922246435</v>
+        <v>21.30239922246436</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -25791,22 +25791,22 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>166.3328844140846</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>147.485201092913</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>105.5870378728063</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25842,19 +25842,19 @@
         <v>220.8610019386828</v>
       </c>
       <c r="U43" t="n">
-        <v>286.2285878140705</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>218.8877882592934</v>
       </c>
       <c r="X43" t="n">
-        <v>114.7493444534216</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -25867,25 +25867,25 @@
         <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>411.6062992654567</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>67.96895394968161</v>
+        <v>67.96895394968163</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25918,22 +25918,22 @@
         <v>124.7874829717001</v>
       </c>
       <c r="T44" t="n">
-        <v>122.6034037766609</v>
+        <v>206.9146911261644</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>105.3902058067428</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -25949,7 +25949,7 @@
         <v>0</v>
       </c>
       <c r="D45" t="n">
-        <v>50.14070125298397</v>
+        <v>0</v>
       </c>
       <c r="E45" t="n">
         <v>0</v>
@@ -25961,10 +25961,10 @@
         <v>0</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>71.44310047544911</v>
       </c>
       <c r="I45" t="n">
-        <v>21.30239922246435</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -26025,7 +26025,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>113.4828473694694</v>
       </c>
       <c r="D46" t="n">
         <v>148.6154730182124</v>
@@ -26040,7 +26040,7 @@
         <v>166.3328844140846</v>
       </c>
       <c r="H46" t="n">
-        <v>105.0581675027611</v>
+        <v>147.485201092913</v>
       </c>
       <c r="I46" t="n">
         <v>105.5870378728063</v>
@@ -26070,10 +26070,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>102.739413241946</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>195.1205252336517</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26085,7 +26085,7 @@
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>637518.3534298377</v>
+        <v>637518.3534298379</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>637518.353429838</v>
+        <v>637518.3534298379</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>637518.3534298377</v>
+        <v>637518.3534298379</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>650231.8507013294</v>
+        <v>650231.8507013295</v>
       </c>
     </row>
     <row r="10">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>650231.8507013294</v>
+        <v>650231.8507013293</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>650231.8507013293</v>
+        <v>650231.8507013294</v>
       </c>
     </row>
     <row r="13">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>637518.3534298376</v>
+        <v>637518.3534298377</v>
       </c>
     </row>
     <row r="15">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>637518.3534298379</v>
+        <v>637518.3534298377</v>
       </c>
     </row>
   </sheetData>
@@ -26316,46 +26316,46 @@
         <v>593975.3455698527</v>
       </c>
       <c r="C2" t="n">
-        <v>593975.3455698526</v>
+        <v>593975.3455698527</v>
       </c>
       <c r="D2" t="n">
-        <v>593975.3455698524</v>
+        <v>593975.3455698527</v>
       </c>
       <c r="E2" t="n">
-        <v>436708.638297232</v>
+        <v>436708.6382972321</v>
       </c>
       <c r="F2" t="n">
-        <v>436708.638297232</v>
+        <v>436708.6382972322</v>
       </c>
       <c r="G2" t="n">
-        <v>436708.6382972321</v>
+        <v>436708.6382972322</v>
       </c>
       <c r="H2" t="n">
-        <v>436708.638297232</v>
+        <v>436708.6382972323</v>
       </c>
       <c r="I2" t="n">
-        <v>443027.7805342854</v>
+        <v>443027.7805342855</v>
       </c>
       <c r="J2" t="n">
-        <v>443027.7805342856</v>
+        <v>443027.7805342857</v>
       </c>
       <c r="K2" t="n">
-        <v>443027.7805342853</v>
+        <v>443027.7805342855</v>
       </c>
       <c r="L2" t="n">
-        <v>443027.7805342856</v>
+        <v>443027.7805342855</v>
       </c>
       <c r="M2" t="n">
         <v>436708.638297232</v>
       </c>
       <c r="N2" t="n">
+        <v>436708.6382972322</v>
+      </c>
+      <c r="O2" t="n">
+        <v>436708.6382972321</v>
+      </c>
+      <c r="P2" t="n">
         <v>436708.638297232</v>
-      </c>
-      <c r="O2" t="n">
-        <v>436708.6382972322</v>
-      </c>
-      <c r="P2" t="n">
-        <v>436708.6382972321</v>
       </c>
     </row>
     <row r="3">
@@ -26386,7 +26386,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>4895.439270648227</v>
+        <v>4895.439270648196</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>150597.3382468589</v>
+        <v>150597.3382468592</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26429,34 +26429,34 @@
         <v>20610.62669540532</v>
       </c>
       <c r="F4" t="n">
-        <v>20610.6266954053</v>
+        <v>20610.62669540531</v>
       </c>
       <c r="G4" t="n">
         <v>20610.62669540532</v>
       </c>
       <c r="H4" t="n">
-        <v>20610.6266954053</v>
+        <v>20610.62669540533</v>
       </c>
       <c r="I4" t="n">
-        <v>24403.50379676126</v>
+        <v>24403.50379676134</v>
       </c>
       <c r="J4" t="n">
-        <v>24403.50379676127</v>
+        <v>24403.50379676133</v>
       </c>
       <c r="K4" t="n">
-        <v>24403.50379676126</v>
+        <v>24403.50379676132</v>
       </c>
       <c r="L4" t="n">
-        <v>24403.50379676127</v>
+        <v>24403.50379676132</v>
       </c>
       <c r="M4" t="n">
-        <v>20610.6266954053</v>
+        <v>20610.62669540531</v>
       </c>
       <c r="N4" t="n">
-        <v>20610.6266954053</v>
+        <v>20610.62669540531</v>
       </c>
       <c r="O4" t="n">
-        <v>20610.6266954053</v>
+        <v>20610.62669540531</v>
       </c>
       <c r="P4" t="n">
         <v>20610.6266954053</v>
@@ -26481,10 +26481,10 @@
         <v>57906.41050425675</v>
       </c>
       <c r="F5" t="n">
+        <v>57906.41050425676</v>
+      </c>
+      <c r="G5" t="n">
         <v>57906.41050425675</v>
-      </c>
-      <c r="G5" t="n">
-        <v>57906.41050425676</v>
       </c>
       <c r="H5" t="n">
         <v>57906.41050425675</v>
@@ -26502,16 +26502,16 @@
         <v>59025.70047253834</v>
       </c>
       <c r="M5" t="n">
-        <v>57906.41050425675</v>
+        <v>57906.41050425674</v>
       </c>
       <c r="N5" t="n">
-        <v>57906.41050425675</v>
+        <v>57906.41050425674</v>
       </c>
       <c r="O5" t="n">
-        <v>57906.41050425675</v>
+        <v>57906.41050425674</v>
       </c>
       <c r="P5" t="n">
-        <v>57906.41050425675</v>
+        <v>57906.41050425672</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>124029.7300719234</v>
+        <v>124069.4522727365</v>
       </c>
       <c r="C6" t="n">
-        <v>124029.7300719233</v>
+        <v>124069.4522727365</v>
       </c>
       <c r="D6" t="n">
-        <v>124029.7300719231</v>
+        <v>124069.4522727365</v>
       </c>
       <c r="E6" t="n">
-        <v>-571927.1039631877</v>
+        <v>-567006.6908470175</v>
       </c>
       <c r="F6" t="n">
-        <v>352724.4754129365</v>
+        <v>357644.8885291067</v>
       </c>
       <c r="G6" t="n">
-        <v>352724.4754129364</v>
+        <v>357644.8885291069</v>
       </c>
       <c r="H6" t="n">
-        <v>352724.4754129365</v>
+        <v>357644.8885291069</v>
       </c>
       <c r="I6" t="n">
-        <v>349453.9127661541</v>
+        <v>354178.2145715193</v>
       </c>
       <c r="J6" t="n">
-        <v>354349.3520368026</v>
+        <v>359073.6538421677</v>
       </c>
       <c r="K6" t="n">
-        <v>354349.3520368022</v>
+        <v>359073.6538421675</v>
       </c>
       <c r="L6" t="n">
-        <v>354349.3520368026</v>
+        <v>359073.6538421675</v>
       </c>
       <c r="M6" t="n">
-        <v>202127.1371660775</v>
+        <v>207047.5502822473</v>
       </c>
       <c r="N6" t="n">
-        <v>352724.4754129364</v>
+        <v>357644.8885291068</v>
       </c>
       <c r="O6" t="n">
-        <v>352724.4754129366</v>
+        <v>357644.8885291067</v>
       </c>
       <c r="P6" t="n">
-        <v>352724.4754129365</v>
+        <v>357644.8885291066</v>
       </c>
     </row>
   </sheetData>
@@ -26749,37 +26749,37 @@
         <v>919.4890146074874</v>
       </c>
       <c r="F3" t="n">
-        <v>919.4890146074875</v>
+        <v>919.4890146074877</v>
       </c>
       <c r="G3" t="n">
-        <v>919.4890146074875</v>
+        <v>919.4890146074874</v>
       </c>
       <c r="H3" t="n">
-        <v>919.4890146074875</v>
+        <v>919.4890146074874</v>
       </c>
       <c r="I3" t="n">
-        <v>919.4890146074875</v>
+        <v>919.4890146074873</v>
       </c>
       <c r="J3" t="n">
-        <v>919.4890146074875</v>
+        <v>919.4890146074873</v>
       </c>
       <c r="K3" t="n">
-        <v>919.4890146074875</v>
+        <v>919.4890146074873</v>
       </c>
       <c r="L3" t="n">
-        <v>919.4890146074875</v>
+        <v>919.4890146074873</v>
       </c>
       <c r="M3" t="n">
-        <v>919.4890146074875</v>
+        <v>919.4890146074873</v>
       </c>
       <c r="N3" t="n">
-        <v>919.4890146074875</v>
+        <v>919.4890146074873</v>
       </c>
       <c r="O3" t="n">
-        <v>919.4890146074875</v>
+        <v>919.4890146074873</v>
       </c>
       <c r="P3" t="n">
-        <v>919.4890146074875</v>
+        <v>919.4890146074873</v>
       </c>
     </row>
     <row r="4">
@@ -26801,25 +26801,25 @@
         <v>622.7228616087751</v>
       </c>
       <c r="F4" t="n">
-        <v>622.7228616087749</v>
+        <v>622.7228616087751</v>
       </c>
       <c r="G4" t="n">
         <v>622.7228616087751</v>
       </c>
       <c r="H4" t="n">
-        <v>622.7228616087749</v>
+        <v>622.7228616087751</v>
       </c>
       <c r="I4" t="n">
-        <v>641.1322360870907</v>
+        <v>641.1322360870909</v>
       </c>
       <c r="J4" t="n">
-        <v>641.1322360870907</v>
+        <v>641.1322360870909</v>
       </c>
       <c r="K4" t="n">
-        <v>641.1322360870907</v>
+        <v>641.1322360870909</v>
       </c>
       <c r="L4" t="n">
-        <v>641.1322360870907</v>
+        <v>641.1322360870909</v>
       </c>
       <c r="M4" t="n">
         <v>622.7228616087749</v>
@@ -26831,7 +26831,7 @@
         <v>622.7228616087749</v>
       </c>
       <c r="P4" t="n">
-        <v>622.7228616087749</v>
+        <v>622.7228616087747</v>
       </c>
     </row>
   </sheetData>
@@ -26974,7 +26974,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>-2.273736754432321e-13</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -27032,7 +27032,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>18.40937447831584</v>
+        <v>18.40937447831573</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>604.3134871304591</v>
+        <v>604.3134871304603</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -31992,31 +31992,31 @@
         <v>3.696438249678339</v>
       </c>
       <c r="H14" t="n">
-        <v>37.8561482245183</v>
+        <v>37.85614822451831</v>
       </c>
       <c r="I14" t="n">
         <v>142.5069356207243</v>
       </c>
       <c r="J14" t="n">
-        <v>313.7305758936372</v>
+        <v>313.7305758936373</v>
       </c>
       <c r="K14" t="n">
-        <v>470.2008070025214</v>
+        <v>470.2008070025215</v>
       </c>
       <c r="L14" t="n">
-        <v>583.325679086115</v>
+        <v>583.3256790861151</v>
       </c>
       <c r="M14" t="n">
-        <v>649.0622128088321</v>
+        <v>649.0622128088322</v>
       </c>
       <c r="N14" t="n">
-        <v>659.5647179857308</v>
+        <v>659.5647179857309</v>
       </c>
       <c r="O14" t="n">
-        <v>622.8082601404917</v>
+        <v>622.8082601404918</v>
       </c>
       <c r="P14" t="n">
-        <v>531.5524408515577</v>
+        <v>531.5524408515578</v>
       </c>
       <c r="Q14" t="n">
         <v>399.173746034952</v>
@@ -32074,16 +32074,16 @@
         <v>19.10108311477064</v>
       </c>
       <c r="I15" t="n">
-        <v>68.09423362895073</v>
+        <v>68.09423362895075</v>
       </c>
       <c r="J15" t="n">
         <v>186.8557817326405</v>
       </c>
       <c r="K15" t="n">
-        <v>319.366292932112</v>
+        <v>319.3662929321121</v>
       </c>
       <c r="L15" t="n">
-        <v>429.427393095695</v>
+        <v>429.4273930956951</v>
       </c>
       <c r="M15" t="n">
         <v>501.1215129610807</v>
@@ -32092,13 +32092,13 @@
         <v>514.3847082755605</v>
       </c>
       <c r="O15" t="n">
-        <v>470.5615148623809</v>
+        <v>470.561514862381</v>
       </c>
       <c r="P15" t="n">
         <v>377.6671011130264</v>
       </c>
       <c r="Q15" t="n">
-        <v>252.4604554824181</v>
+        <v>252.4604554824182</v>
       </c>
       <c r="R15" t="n">
         <v>122.7951555734302</v>
@@ -32107,7 +32107,7 @@
         <v>36.73618846096894</v>
       </c>
       <c r="T15" t="n">
-        <v>7.971796268153592</v>
+        <v>7.971796268153593</v>
       </c>
       <c r="U15" t="n">
         <v>0.1301163699916257</v>
@@ -32150,13 +32150,13 @@
         <v>1.658094944374158</v>
       </c>
       <c r="H16" t="n">
-        <v>14.74197141452661</v>
+        <v>14.74197141452662</v>
       </c>
       <c r="I16" t="n">
         <v>49.86343705445196</v>
       </c>
       <c r="J16" t="n">
-        <v>117.2273125672529</v>
+        <v>117.227312567253</v>
       </c>
       <c r="K16" t="n">
         <v>192.6404853554703</v>
@@ -32186,10 +32186,10 @@
         <v>28.89607280332054</v>
       </c>
       <c r="T16" t="n">
-        <v>7.084587489598672</v>
+        <v>7.084587489598673</v>
       </c>
       <c r="U16" t="n">
-        <v>0.09044154242040871</v>
+        <v>0.09044154242040872</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32229,7 +32229,7 @@
         <v>3.696438249678339</v>
       </c>
       <c r="H17" t="n">
-        <v>37.8561482245183</v>
+        <v>37.85614822451829</v>
       </c>
       <c r="I17" t="n">
         <v>142.5069356207243</v>
@@ -32238,7 +32238,7 @@
         <v>313.7305758936372</v>
       </c>
       <c r="K17" t="n">
-        <v>470.2008070025214</v>
+        <v>470.2008070025213</v>
       </c>
       <c r="L17" t="n">
         <v>583.325679086115</v>
@@ -32247,22 +32247,22 @@
         <v>649.0622128088321</v>
       </c>
       <c r="N17" t="n">
-        <v>659.5647179857308</v>
+        <v>659.5647179857307</v>
       </c>
       <c r="O17" t="n">
         <v>622.8082601404917</v>
       </c>
       <c r="P17" t="n">
-        <v>531.5524408515577</v>
+        <v>531.5524408515575</v>
       </c>
       <c r="Q17" t="n">
         <v>399.173746034952</v>
       </c>
       <c r="R17" t="n">
-        <v>232.1963892013572</v>
+        <v>232.1963892013571</v>
       </c>
       <c r="S17" t="n">
-        <v>84.23258661454524</v>
+        <v>84.23258661454523</v>
       </c>
       <c r="T17" t="n">
         <v>16.18115843796694</v>
@@ -32317,22 +32317,22 @@
         <v>186.8557817326405</v>
       </c>
       <c r="K18" t="n">
-        <v>319.366292932112</v>
+        <v>319.3662929321119</v>
       </c>
       <c r="L18" t="n">
         <v>429.427393095695</v>
       </c>
       <c r="M18" t="n">
-        <v>501.1215129610807</v>
+        <v>501.1215129610806</v>
       </c>
       <c r="N18" t="n">
-        <v>514.3847082755605</v>
+        <v>514.3847082755603</v>
       </c>
       <c r="O18" t="n">
         <v>470.5615148623809</v>
       </c>
       <c r="P18" t="n">
-        <v>377.6671011130264</v>
+        <v>377.6671011130263</v>
       </c>
       <c r="Q18" t="n">
         <v>252.4604554824181</v>
@@ -32341,13 +32341,13 @@
         <v>122.7951555734302</v>
       </c>
       <c r="S18" t="n">
-        <v>36.73618846096894</v>
+        <v>36.73618846096893</v>
       </c>
       <c r="T18" t="n">
-        <v>7.971796268153592</v>
+        <v>7.971796268153591</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1301163699916257</v>
+        <v>0.1301163699916256</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32384,31 +32384,31 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>1.658094944374158</v>
+        <v>1.658094944374157</v>
       </c>
       <c r="H19" t="n">
         <v>14.74197141452661</v>
       </c>
       <c r="I19" t="n">
-        <v>49.86343705445196</v>
+        <v>49.86343705445195</v>
       </c>
       <c r="J19" t="n">
         <v>117.2273125672529</v>
       </c>
       <c r="K19" t="n">
-        <v>192.6404853554703</v>
+        <v>192.6404853554702</v>
       </c>
       <c r="L19" t="n">
         <v>246.5134974572271</v>
       </c>
       <c r="M19" t="n">
-        <v>259.9139193258509</v>
+        <v>259.9139193258508</v>
       </c>
       <c r="N19" t="n">
         <v>253.7337472604565</v>
       </c>
       <c r="O19" t="n">
-        <v>234.3641835920856</v>
+        <v>234.3641835920855</v>
       </c>
       <c r="P19" t="n">
         <v>200.5390467268526</v>
@@ -32417,16 +32417,16 @@
         <v>138.8428412057306</v>
       </c>
       <c r="R19" t="n">
-        <v>74.55397813522347</v>
+        <v>74.55397813522346</v>
       </c>
       <c r="S19" t="n">
         <v>28.89607280332054</v>
       </c>
       <c r="T19" t="n">
-        <v>7.084587489598672</v>
+        <v>7.084587489598671</v>
       </c>
       <c r="U19" t="n">
-        <v>0.09044154242040871</v>
+        <v>0.09044154242040869</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32466,7 +32466,7 @@
         <v>3.696438249678339</v>
       </c>
       <c r="H20" t="n">
-        <v>37.8561482245183</v>
+        <v>37.85614822451829</v>
       </c>
       <c r="I20" t="n">
         <v>142.5069356207243</v>
@@ -32475,7 +32475,7 @@
         <v>313.7305758936372</v>
       </c>
       <c r="K20" t="n">
-        <v>470.2008070025214</v>
+        <v>470.2008070025213</v>
       </c>
       <c r="L20" t="n">
         <v>583.325679086115</v>
@@ -32484,22 +32484,22 @@
         <v>649.0622128088321</v>
       </c>
       <c r="N20" t="n">
-        <v>659.5647179857308</v>
+        <v>659.5647179857307</v>
       </c>
       <c r="O20" t="n">
         <v>622.8082601404917</v>
       </c>
       <c r="P20" t="n">
-        <v>531.5524408515577</v>
+        <v>531.5524408515575</v>
       </c>
       <c r="Q20" t="n">
         <v>399.173746034952</v>
       </c>
       <c r="R20" t="n">
-        <v>232.1963892013572</v>
+        <v>232.1963892013571</v>
       </c>
       <c r="S20" t="n">
-        <v>84.23258661454524</v>
+        <v>84.23258661454523</v>
       </c>
       <c r="T20" t="n">
         <v>16.18115843796694</v>
@@ -32554,22 +32554,22 @@
         <v>186.8557817326405</v>
       </c>
       <c r="K21" t="n">
-        <v>319.366292932112</v>
+        <v>319.3662929321119</v>
       </c>
       <c r="L21" t="n">
         <v>429.427393095695</v>
       </c>
       <c r="M21" t="n">
-        <v>501.1215129610807</v>
+        <v>501.1215129610806</v>
       </c>
       <c r="N21" t="n">
-        <v>514.3847082755605</v>
+        <v>514.3847082755603</v>
       </c>
       <c r="O21" t="n">
         <v>470.5615148623809</v>
       </c>
       <c r="P21" t="n">
-        <v>377.6671011130264</v>
+        <v>377.6671011130263</v>
       </c>
       <c r="Q21" t="n">
         <v>252.4604554824181</v>
@@ -32578,13 +32578,13 @@
         <v>122.7951555734302</v>
       </c>
       <c r="S21" t="n">
-        <v>36.73618846096894</v>
+        <v>36.73618846096893</v>
       </c>
       <c r="T21" t="n">
-        <v>7.971796268153592</v>
+        <v>7.971796268153591</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1301163699916257</v>
+        <v>0.1301163699916256</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32621,31 +32621,31 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>1.658094944374158</v>
+        <v>1.658094944374157</v>
       </c>
       <c r="H22" t="n">
         <v>14.74197141452661</v>
       </c>
       <c r="I22" t="n">
-        <v>49.86343705445196</v>
+        <v>49.86343705445195</v>
       </c>
       <c r="J22" t="n">
         <v>117.2273125672529</v>
       </c>
       <c r="K22" t="n">
-        <v>192.6404853554703</v>
+        <v>192.6404853554702</v>
       </c>
       <c r="L22" t="n">
         <v>246.5134974572271</v>
       </c>
       <c r="M22" t="n">
-        <v>259.9139193258509</v>
+        <v>259.9139193258508</v>
       </c>
       <c r="N22" t="n">
         <v>253.7337472604565</v>
       </c>
       <c r="O22" t="n">
-        <v>234.3641835920856</v>
+        <v>234.3641835920855</v>
       </c>
       <c r="P22" t="n">
         <v>200.5390467268526</v>
@@ -32654,16 +32654,16 @@
         <v>138.8428412057306</v>
       </c>
       <c r="R22" t="n">
-        <v>74.55397813522347</v>
+        <v>74.55397813522346</v>
       </c>
       <c r="S22" t="n">
         <v>28.89607280332054</v>
       </c>
       <c r="T22" t="n">
-        <v>7.084587489598672</v>
+        <v>7.084587489598671</v>
       </c>
       <c r="U22" t="n">
-        <v>0.09044154242040871</v>
+        <v>0.09044154242040869</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,49 +32700,49 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>3.696438249678339</v>
+        <v>3.696438249678338</v>
       </c>
       <c r="H23" t="n">
-        <v>37.8561482245183</v>
+        <v>37.85614822451829</v>
       </c>
       <c r="I23" t="n">
         <v>142.5069356207243</v>
       </c>
       <c r="J23" t="n">
-        <v>313.7305758936372</v>
+        <v>313.7305758936371</v>
       </c>
       <c r="K23" t="n">
-        <v>470.2008070025214</v>
+        <v>470.2008070025213</v>
       </c>
       <c r="L23" t="n">
-        <v>583.325679086115</v>
+        <v>583.3256790861149</v>
       </c>
       <c r="M23" t="n">
-        <v>649.0622128088321</v>
+        <v>649.062212808832</v>
       </c>
       <c r="N23" t="n">
-        <v>659.5647179857308</v>
+        <v>659.5647179857306</v>
       </c>
       <c r="O23" t="n">
-        <v>622.8082601404917</v>
+        <v>622.8082601404916</v>
       </c>
       <c r="P23" t="n">
-        <v>531.5524408515577</v>
+        <v>531.5524408515575</v>
       </c>
       <c r="Q23" t="n">
-        <v>399.173746034952</v>
+        <v>399.1737460349519</v>
       </c>
       <c r="R23" t="n">
-        <v>232.1963892013572</v>
+        <v>232.1963892013571</v>
       </c>
       <c r="S23" t="n">
-        <v>84.23258661454524</v>
+        <v>84.23258661454521</v>
       </c>
       <c r="T23" t="n">
-        <v>16.18115843796694</v>
+        <v>16.18115843796693</v>
       </c>
       <c r="U23" t="n">
-        <v>0.2957150599742671</v>
+        <v>0.295715059974267</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32782,31 +32782,31 @@
         <v>1.977768823872709</v>
       </c>
       <c r="H24" t="n">
-        <v>19.10108311477064</v>
+        <v>19.10108311477063</v>
       </c>
       <c r="I24" t="n">
-        <v>68.09423362895073</v>
+        <v>68.09423362895072</v>
       </c>
       <c r="J24" t="n">
         <v>186.8557817326405</v>
       </c>
       <c r="K24" t="n">
-        <v>319.366292932112</v>
+        <v>319.3662929321119</v>
       </c>
       <c r="L24" t="n">
         <v>429.427393095695</v>
       </c>
       <c r="M24" t="n">
-        <v>501.1215129610807</v>
+        <v>501.1215129610805</v>
       </c>
       <c r="N24" t="n">
-        <v>514.3847082755605</v>
+        <v>514.3847082755603</v>
       </c>
       <c r="O24" t="n">
-        <v>470.5615148623809</v>
+        <v>470.5615148623808</v>
       </c>
       <c r="P24" t="n">
-        <v>377.6671011130264</v>
+        <v>377.6671011130263</v>
       </c>
       <c r="Q24" t="n">
         <v>252.4604554824181</v>
@@ -32815,13 +32815,13 @@
         <v>122.7951555734302</v>
       </c>
       <c r="S24" t="n">
-        <v>36.73618846096894</v>
+        <v>36.73618846096893</v>
       </c>
       <c r="T24" t="n">
-        <v>7.971796268153592</v>
+        <v>7.97179626815359</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1301163699916257</v>
+        <v>0.1301163699916256</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32858,49 +32858,49 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>1.658094944374158</v>
+        <v>1.658094944374157</v>
       </c>
       <c r="H25" t="n">
         <v>14.74197141452661</v>
       </c>
       <c r="I25" t="n">
-        <v>49.86343705445196</v>
+        <v>49.86343705445194</v>
       </c>
       <c r="J25" t="n">
         <v>117.2273125672529</v>
       </c>
       <c r="K25" t="n">
-        <v>192.6404853554703</v>
+        <v>192.6404853554702</v>
       </c>
       <c r="L25" t="n">
-        <v>246.5134974572271</v>
+        <v>246.513497457227</v>
       </c>
       <c r="M25" t="n">
-        <v>259.9139193258509</v>
+        <v>259.9139193258508</v>
       </c>
       <c r="N25" t="n">
         <v>253.7337472604565</v>
       </c>
       <c r="O25" t="n">
-        <v>234.3641835920856</v>
+        <v>234.3641835920855</v>
       </c>
       <c r="P25" t="n">
-        <v>200.5390467268526</v>
+        <v>200.5390467268525</v>
       </c>
       <c r="Q25" t="n">
         <v>138.8428412057306</v>
       </c>
       <c r="R25" t="n">
-        <v>74.55397813522347</v>
+        <v>74.55397813522346</v>
       </c>
       <c r="S25" t="n">
-        <v>28.89607280332054</v>
+        <v>28.89607280332053</v>
       </c>
       <c r="T25" t="n">
-        <v>7.084587489598672</v>
+        <v>7.08458748959867</v>
       </c>
       <c r="U25" t="n">
-        <v>0.09044154242040871</v>
+        <v>0.09044154242040868</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,49 +32937,49 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>3.696438249678339</v>
+        <v>3.696438249678338</v>
       </c>
       <c r="H26" t="n">
-        <v>37.8561482245183</v>
+        <v>37.85614822451829</v>
       </c>
       <c r="I26" t="n">
         <v>142.5069356207243</v>
       </c>
       <c r="J26" t="n">
-        <v>313.7305758936372</v>
+        <v>313.7305758936371</v>
       </c>
       <c r="K26" t="n">
-        <v>470.2008070025214</v>
+        <v>470.2008070025213</v>
       </c>
       <c r="L26" t="n">
-        <v>583.325679086115</v>
+        <v>583.3256790861149</v>
       </c>
       <c r="M26" t="n">
-        <v>649.0622128088321</v>
+        <v>649.062212808832</v>
       </c>
       <c r="N26" t="n">
-        <v>659.5647179857308</v>
+        <v>659.5647179857306</v>
       </c>
       <c r="O26" t="n">
-        <v>622.8082601404917</v>
+        <v>622.8082601404916</v>
       </c>
       <c r="P26" t="n">
-        <v>531.5524408515577</v>
+        <v>531.5524408515575</v>
       </c>
       <c r="Q26" t="n">
-        <v>399.173746034952</v>
+        <v>399.1737460349519</v>
       </c>
       <c r="R26" t="n">
-        <v>232.1963892013572</v>
+        <v>232.1963892013571</v>
       </c>
       <c r="S26" t="n">
-        <v>84.23258661454524</v>
+        <v>84.23258661454521</v>
       </c>
       <c r="T26" t="n">
-        <v>16.18115843796694</v>
+        <v>16.18115843796693</v>
       </c>
       <c r="U26" t="n">
-        <v>0.2957150599742671</v>
+        <v>0.295715059974267</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33019,31 +33019,31 @@
         <v>1.977768823872709</v>
       </c>
       <c r="H27" t="n">
-        <v>19.10108311477064</v>
+        <v>19.10108311477063</v>
       </c>
       <c r="I27" t="n">
-        <v>68.09423362895073</v>
+        <v>68.09423362895072</v>
       </c>
       <c r="J27" t="n">
         <v>186.8557817326405</v>
       </c>
       <c r="K27" t="n">
-        <v>319.366292932112</v>
+        <v>319.3662929321119</v>
       </c>
       <c r="L27" t="n">
         <v>429.427393095695</v>
       </c>
       <c r="M27" t="n">
-        <v>501.1215129610807</v>
+        <v>501.1215129610805</v>
       </c>
       <c r="N27" t="n">
-        <v>514.3847082755605</v>
+        <v>514.3847082755603</v>
       </c>
       <c r="O27" t="n">
-        <v>470.5615148623809</v>
+        <v>470.5615148623808</v>
       </c>
       <c r="P27" t="n">
-        <v>377.6671011130264</v>
+        <v>377.6671011130263</v>
       </c>
       <c r="Q27" t="n">
         <v>252.4604554824181</v>
@@ -33052,13 +33052,13 @@
         <v>122.7951555734302</v>
       </c>
       <c r="S27" t="n">
-        <v>36.73618846096894</v>
+        <v>36.73618846096893</v>
       </c>
       <c r="T27" t="n">
-        <v>7.971796268153592</v>
+        <v>7.97179626815359</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1301163699916257</v>
+        <v>0.1301163699916256</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33095,49 +33095,49 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>1.658094944374158</v>
+        <v>1.658094944374157</v>
       </c>
       <c r="H28" t="n">
         <v>14.74197141452661</v>
       </c>
       <c r="I28" t="n">
-        <v>49.86343705445196</v>
+        <v>49.86343705445194</v>
       </c>
       <c r="J28" t="n">
         <v>117.2273125672529</v>
       </c>
       <c r="K28" t="n">
-        <v>192.6404853554703</v>
+        <v>192.6404853554702</v>
       </c>
       <c r="L28" t="n">
-        <v>246.5134974572271</v>
+        <v>246.513497457227</v>
       </c>
       <c r="M28" t="n">
-        <v>259.9139193258509</v>
+        <v>259.9139193258508</v>
       </c>
       <c r="N28" t="n">
         <v>253.7337472604565</v>
       </c>
       <c r="O28" t="n">
-        <v>234.3641835920856</v>
+        <v>234.3641835920855</v>
       </c>
       <c r="P28" t="n">
-        <v>200.5390467268526</v>
+        <v>200.5390467268525</v>
       </c>
       <c r="Q28" t="n">
         <v>138.8428412057306</v>
       </c>
       <c r="R28" t="n">
-        <v>74.55397813522347</v>
+        <v>74.55397813522346</v>
       </c>
       <c r="S28" t="n">
-        <v>28.89607280332054</v>
+        <v>28.89607280332053</v>
       </c>
       <c r="T28" t="n">
-        <v>7.084587489598672</v>
+        <v>7.08458748959867</v>
       </c>
       <c r="U28" t="n">
-        <v>0.09044154242040871</v>
+        <v>0.09044154242040868</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,49 +33174,49 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>3.696438249678339</v>
+        <v>3.696438249678338</v>
       </c>
       <c r="H29" t="n">
-        <v>37.8561482245183</v>
+        <v>37.85614822451829</v>
       </c>
       <c r="I29" t="n">
         <v>142.5069356207243</v>
       </c>
       <c r="J29" t="n">
-        <v>313.7305758936372</v>
+        <v>313.7305758936371</v>
       </c>
       <c r="K29" t="n">
-        <v>470.2008070025214</v>
+        <v>470.2008070025213</v>
       </c>
       <c r="L29" t="n">
-        <v>583.325679086115</v>
+        <v>583.3256790861149</v>
       </c>
       <c r="M29" t="n">
-        <v>649.0622128088321</v>
+        <v>649.062212808832</v>
       </c>
       <c r="N29" t="n">
-        <v>659.5647179857308</v>
+        <v>659.5647179857306</v>
       </c>
       <c r="O29" t="n">
-        <v>622.8082601404917</v>
+        <v>622.8082601404916</v>
       </c>
       <c r="P29" t="n">
-        <v>531.5524408515577</v>
+        <v>531.5524408515575</v>
       </c>
       <c r="Q29" t="n">
-        <v>399.173746034952</v>
+        <v>399.1737460349519</v>
       </c>
       <c r="R29" t="n">
-        <v>232.1963892013572</v>
+        <v>232.1963892013571</v>
       </c>
       <c r="S29" t="n">
-        <v>84.23258661454524</v>
+        <v>84.23258661454521</v>
       </c>
       <c r="T29" t="n">
-        <v>16.18115843796694</v>
+        <v>16.18115843796693</v>
       </c>
       <c r="U29" t="n">
-        <v>0.2957150599742671</v>
+        <v>0.295715059974267</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33256,31 +33256,31 @@
         <v>1.977768823872709</v>
       </c>
       <c r="H30" t="n">
-        <v>19.10108311477064</v>
+        <v>19.10108311477063</v>
       </c>
       <c r="I30" t="n">
-        <v>68.09423362895073</v>
+        <v>68.09423362895072</v>
       </c>
       <c r="J30" t="n">
         <v>186.8557817326405</v>
       </c>
       <c r="K30" t="n">
-        <v>319.366292932112</v>
+        <v>319.3662929321119</v>
       </c>
       <c r="L30" t="n">
         <v>429.427393095695</v>
       </c>
       <c r="M30" t="n">
-        <v>501.1215129610807</v>
+        <v>501.1215129610805</v>
       </c>
       <c r="N30" t="n">
-        <v>514.3847082755605</v>
+        <v>514.3847082755603</v>
       </c>
       <c r="O30" t="n">
-        <v>470.5615148623809</v>
+        <v>470.5615148623808</v>
       </c>
       <c r="P30" t="n">
-        <v>377.6671011130264</v>
+        <v>377.6671011130263</v>
       </c>
       <c r="Q30" t="n">
         <v>252.4604554824181</v>
@@ -33289,13 +33289,13 @@
         <v>122.7951555734302</v>
       </c>
       <c r="S30" t="n">
-        <v>36.73618846096894</v>
+        <v>36.73618846096893</v>
       </c>
       <c r="T30" t="n">
-        <v>7.971796268153592</v>
+        <v>7.97179626815359</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1301163699916257</v>
+        <v>0.1301163699916256</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33332,49 +33332,49 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>1.658094944374158</v>
+        <v>1.658094944374157</v>
       </c>
       <c r="H31" t="n">
         <v>14.74197141452661</v>
       </c>
       <c r="I31" t="n">
-        <v>49.86343705445196</v>
+        <v>49.86343705445194</v>
       </c>
       <c r="J31" t="n">
         <v>117.2273125672529</v>
       </c>
       <c r="K31" t="n">
-        <v>192.6404853554703</v>
+        <v>192.6404853554702</v>
       </c>
       <c r="L31" t="n">
-        <v>246.5134974572271</v>
+        <v>246.513497457227</v>
       </c>
       <c r="M31" t="n">
-        <v>259.9139193258509</v>
+        <v>259.9139193258508</v>
       </c>
       <c r="N31" t="n">
         <v>253.7337472604565</v>
       </c>
       <c r="O31" t="n">
-        <v>234.3641835920856</v>
+        <v>234.3641835920855</v>
       </c>
       <c r="P31" t="n">
-        <v>200.5390467268526</v>
+        <v>200.5390467268525</v>
       </c>
       <c r="Q31" t="n">
         <v>138.8428412057306</v>
       </c>
       <c r="R31" t="n">
-        <v>74.55397813522347</v>
+        <v>74.55397813522346</v>
       </c>
       <c r="S31" t="n">
-        <v>28.89607280332054</v>
+        <v>28.89607280332053</v>
       </c>
       <c r="T31" t="n">
-        <v>7.084587489598672</v>
+        <v>7.08458748959867</v>
       </c>
       <c r="U31" t="n">
-        <v>0.09044154242040871</v>
+        <v>0.09044154242040868</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,49 +33411,49 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>3.696438249678339</v>
+        <v>3.696438249678338</v>
       </c>
       <c r="H32" t="n">
-        <v>37.8561482245183</v>
+        <v>37.85614822451829</v>
       </c>
       <c r="I32" t="n">
         <v>142.5069356207243</v>
       </c>
       <c r="J32" t="n">
-        <v>313.7305758936372</v>
+        <v>313.7305758936371</v>
       </c>
       <c r="K32" t="n">
-        <v>470.2008070025214</v>
+        <v>470.2008070025213</v>
       </c>
       <c r="L32" t="n">
-        <v>583.325679086115</v>
+        <v>583.3256790861149</v>
       </c>
       <c r="M32" t="n">
-        <v>649.0622128088321</v>
+        <v>649.062212808832</v>
       </c>
       <c r="N32" t="n">
-        <v>659.5647179857308</v>
+        <v>659.5647179857306</v>
       </c>
       <c r="O32" t="n">
-        <v>622.8082601404917</v>
+        <v>622.8082601404916</v>
       </c>
       <c r="P32" t="n">
-        <v>531.5524408515577</v>
+        <v>531.5524408515575</v>
       </c>
       <c r="Q32" t="n">
-        <v>399.173746034952</v>
+        <v>399.1737460349519</v>
       </c>
       <c r="R32" t="n">
-        <v>232.1963892013572</v>
+        <v>232.1963892013571</v>
       </c>
       <c r="S32" t="n">
-        <v>84.23258661454524</v>
+        <v>84.23258661454521</v>
       </c>
       <c r="T32" t="n">
-        <v>16.18115843796694</v>
+        <v>16.18115843796693</v>
       </c>
       <c r="U32" t="n">
-        <v>0.2957150599742671</v>
+        <v>0.295715059974267</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33493,31 +33493,31 @@
         <v>1.977768823872709</v>
       </c>
       <c r="H33" t="n">
-        <v>19.10108311477064</v>
+        <v>19.10108311477063</v>
       </c>
       <c r="I33" t="n">
-        <v>68.09423362895073</v>
+        <v>68.09423362895072</v>
       </c>
       <c r="J33" t="n">
         <v>186.8557817326405</v>
       </c>
       <c r="K33" t="n">
-        <v>319.366292932112</v>
+        <v>319.3662929321119</v>
       </c>
       <c r="L33" t="n">
         <v>429.427393095695</v>
       </c>
       <c r="M33" t="n">
-        <v>501.1215129610807</v>
+        <v>501.1215129610805</v>
       </c>
       <c r="N33" t="n">
-        <v>514.3847082755605</v>
+        <v>514.3847082755603</v>
       </c>
       <c r="O33" t="n">
-        <v>470.5615148623809</v>
+        <v>470.5615148623808</v>
       </c>
       <c r="P33" t="n">
-        <v>377.6671011130264</v>
+        <v>377.6671011130263</v>
       </c>
       <c r="Q33" t="n">
         <v>252.4604554824181</v>
@@ -33526,13 +33526,13 @@
         <v>122.7951555734302</v>
       </c>
       <c r="S33" t="n">
-        <v>36.73618846096894</v>
+        <v>36.73618846096893</v>
       </c>
       <c r="T33" t="n">
-        <v>7.971796268153592</v>
+        <v>7.97179626815359</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1301163699916257</v>
+        <v>0.1301163699916256</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33569,49 +33569,49 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>1.658094944374158</v>
+        <v>1.658094944374157</v>
       </c>
       <c r="H34" t="n">
         <v>14.74197141452661</v>
       </c>
       <c r="I34" t="n">
-        <v>49.86343705445196</v>
+        <v>49.86343705445194</v>
       </c>
       <c r="J34" t="n">
         <v>117.2273125672529</v>
       </c>
       <c r="K34" t="n">
-        <v>192.6404853554703</v>
+        <v>192.6404853554702</v>
       </c>
       <c r="L34" t="n">
-        <v>246.5134974572271</v>
+        <v>246.513497457227</v>
       </c>
       <c r="M34" t="n">
-        <v>259.9139193258509</v>
+        <v>259.9139193258508</v>
       </c>
       <c r="N34" t="n">
         <v>253.7337472604565</v>
       </c>
       <c r="O34" t="n">
-        <v>234.3641835920856</v>
+        <v>234.3641835920855</v>
       </c>
       <c r="P34" t="n">
-        <v>200.5390467268526</v>
+        <v>200.5390467268525</v>
       </c>
       <c r="Q34" t="n">
         <v>138.8428412057306</v>
       </c>
       <c r="R34" t="n">
-        <v>74.55397813522347</v>
+        <v>74.55397813522346</v>
       </c>
       <c r="S34" t="n">
-        <v>28.89607280332054</v>
+        <v>28.89607280332053</v>
       </c>
       <c r="T34" t="n">
-        <v>7.084587489598672</v>
+        <v>7.08458748959867</v>
       </c>
       <c r="U34" t="n">
-        <v>0.09044154242040871</v>
+        <v>0.09044154242040868</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,49 +33648,49 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>3.696438249678339</v>
+        <v>3.696438249678338</v>
       </c>
       <c r="H35" t="n">
-        <v>37.8561482245183</v>
+        <v>37.85614822451829</v>
       </c>
       <c r="I35" t="n">
         <v>142.5069356207243</v>
       </c>
       <c r="J35" t="n">
-        <v>313.7305758936372</v>
+        <v>313.7305758936371</v>
       </c>
       <c r="K35" t="n">
-        <v>470.2008070025214</v>
+        <v>470.2008070025213</v>
       </c>
       <c r="L35" t="n">
-        <v>583.325679086115</v>
+        <v>583.3256790861149</v>
       </c>
       <c r="M35" t="n">
-        <v>649.0622128088321</v>
+        <v>649.062212808832</v>
       </c>
       <c r="N35" t="n">
-        <v>659.5647179857308</v>
+        <v>659.5647179857306</v>
       </c>
       <c r="O35" t="n">
-        <v>622.8082601404917</v>
+        <v>622.8082601404916</v>
       </c>
       <c r="P35" t="n">
-        <v>531.5524408515577</v>
+        <v>531.5524408515575</v>
       </c>
       <c r="Q35" t="n">
-        <v>399.173746034952</v>
+        <v>399.1737460349519</v>
       </c>
       <c r="R35" t="n">
-        <v>232.1963892013572</v>
+        <v>232.1963892013571</v>
       </c>
       <c r="S35" t="n">
-        <v>84.23258661454524</v>
+        <v>84.23258661454521</v>
       </c>
       <c r="T35" t="n">
-        <v>16.18115843796694</v>
+        <v>16.18115843796693</v>
       </c>
       <c r="U35" t="n">
-        <v>0.2957150599742671</v>
+        <v>0.295715059974267</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33730,31 +33730,31 @@
         <v>1.977768823872709</v>
       </c>
       <c r="H36" t="n">
-        <v>19.10108311477064</v>
+        <v>19.10108311477063</v>
       </c>
       <c r="I36" t="n">
-        <v>68.09423362895073</v>
+        <v>68.09423362895072</v>
       </c>
       <c r="J36" t="n">
         <v>186.8557817326405</v>
       </c>
       <c r="K36" t="n">
-        <v>319.366292932112</v>
+        <v>319.3662929321119</v>
       </c>
       <c r="L36" t="n">
         <v>429.427393095695</v>
       </c>
       <c r="M36" t="n">
-        <v>501.1215129610807</v>
+        <v>501.1215129610805</v>
       </c>
       <c r="N36" t="n">
-        <v>514.3847082755605</v>
+        <v>514.3847082755603</v>
       </c>
       <c r="O36" t="n">
-        <v>470.5615148623809</v>
+        <v>470.5615148623808</v>
       </c>
       <c r="P36" t="n">
-        <v>377.6671011130264</v>
+        <v>377.6671011130263</v>
       </c>
       <c r="Q36" t="n">
         <v>252.4604554824181</v>
@@ -33763,13 +33763,13 @@
         <v>122.7951555734302</v>
       </c>
       <c r="S36" t="n">
-        <v>36.73618846096894</v>
+        <v>36.73618846096893</v>
       </c>
       <c r="T36" t="n">
-        <v>7.971796268153592</v>
+        <v>7.97179626815359</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1301163699916257</v>
+        <v>0.1301163699916256</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33806,49 +33806,49 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>1.658094944374158</v>
+        <v>1.658094944374157</v>
       </c>
       <c r="H37" t="n">
         <v>14.74197141452661</v>
       </c>
       <c r="I37" t="n">
-        <v>49.86343705445196</v>
+        <v>49.86343705445194</v>
       </c>
       <c r="J37" t="n">
         <v>117.2273125672529</v>
       </c>
       <c r="K37" t="n">
-        <v>192.6404853554703</v>
+        <v>192.6404853554702</v>
       </c>
       <c r="L37" t="n">
-        <v>246.5134974572271</v>
+        <v>246.513497457227</v>
       </c>
       <c r="M37" t="n">
-        <v>259.9139193258509</v>
+        <v>259.9139193258508</v>
       </c>
       <c r="N37" t="n">
         <v>253.7337472604565</v>
       </c>
       <c r="O37" t="n">
-        <v>234.3641835920856</v>
+        <v>234.3641835920855</v>
       </c>
       <c r="P37" t="n">
-        <v>200.5390467268526</v>
+        <v>200.5390467268525</v>
       </c>
       <c r="Q37" t="n">
         <v>138.8428412057306</v>
       </c>
       <c r="R37" t="n">
-        <v>74.55397813522347</v>
+        <v>74.55397813522346</v>
       </c>
       <c r="S37" t="n">
-        <v>28.89607280332054</v>
+        <v>28.89607280332053</v>
       </c>
       <c r="T37" t="n">
-        <v>7.084587489598672</v>
+        <v>7.08458748959867</v>
       </c>
       <c r="U37" t="n">
-        <v>0.09044154242040871</v>
+        <v>0.09044154242040868</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,49 +33885,49 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>3.696438249678339</v>
+        <v>3.696438249678338</v>
       </c>
       <c r="H38" t="n">
-        <v>37.8561482245183</v>
+        <v>37.85614822451829</v>
       </c>
       <c r="I38" t="n">
         <v>142.5069356207243</v>
       </c>
       <c r="J38" t="n">
-        <v>313.7305758936372</v>
+        <v>313.7305758936371</v>
       </c>
       <c r="K38" t="n">
-        <v>470.2008070025214</v>
+        <v>470.2008070025213</v>
       </c>
       <c r="L38" t="n">
-        <v>583.325679086115</v>
+        <v>583.3256790861149</v>
       </c>
       <c r="M38" t="n">
-        <v>649.0622128088321</v>
+        <v>649.062212808832</v>
       </c>
       <c r="N38" t="n">
-        <v>659.5647179857308</v>
+        <v>659.5647179857306</v>
       </c>
       <c r="O38" t="n">
-        <v>622.8082601404917</v>
+        <v>622.8082601404916</v>
       </c>
       <c r="P38" t="n">
-        <v>531.5524408515577</v>
+        <v>531.5524408515575</v>
       </c>
       <c r="Q38" t="n">
-        <v>399.173746034952</v>
+        <v>399.1737460349519</v>
       </c>
       <c r="R38" t="n">
-        <v>232.1963892013572</v>
+        <v>232.1963892013571</v>
       </c>
       <c r="S38" t="n">
-        <v>84.23258661454524</v>
+        <v>84.23258661454521</v>
       </c>
       <c r="T38" t="n">
-        <v>16.18115843796694</v>
+        <v>16.18115843796693</v>
       </c>
       <c r="U38" t="n">
-        <v>0.2957150599742671</v>
+        <v>0.295715059974267</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33967,31 +33967,31 @@
         <v>1.977768823872709</v>
       </c>
       <c r="H39" t="n">
-        <v>19.10108311477064</v>
+        <v>19.10108311477063</v>
       </c>
       <c r="I39" t="n">
-        <v>68.09423362895073</v>
+        <v>68.09423362895072</v>
       </c>
       <c r="J39" t="n">
         <v>186.8557817326405</v>
       </c>
       <c r="K39" t="n">
-        <v>319.366292932112</v>
+        <v>319.3662929321119</v>
       </c>
       <c r="L39" t="n">
         <v>429.427393095695</v>
       </c>
       <c r="M39" t="n">
-        <v>501.1215129610807</v>
+        <v>501.1215129610805</v>
       </c>
       <c r="N39" t="n">
-        <v>514.3847082755605</v>
+        <v>514.3847082755603</v>
       </c>
       <c r="O39" t="n">
-        <v>470.5615148623809</v>
+        <v>470.5615148623808</v>
       </c>
       <c r="P39" t="n">
-        <v>377.6671011130264</v>
+        <v>377.6671011130263</v>
       </c>
       <c r="Q39" t="n">
         <v>252.4604554824181</v>
@@ -34000,13 +34000,13 @@
         <v>122.7951555734302</v>
       </c>
       <c r="S39" t="n">
-        <v>36.73618846096894</v>
+        <v>36.73618846096893</v>
       </c>
       <c r="T39" t="n">
-        <v>7.971796268153592</v>
+        <v>7.97179626815359</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1301163699916257</v>
+        <v>0.1301163699916256</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34043,49 +34043,49 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>1.658094944374158</v>
+        <v>1.658094944374157</v>
       </c>
       <c r="H40" t="n">
         <v>14.74197141452661</v>
       </c>
       <c r="I40" t="n">
-        <v>49.86343705445196</v>
+        <v>49.86343705445194</v>
       </c>
       <c r="J40" t="n">
         <v>117.2273125672529</v>
       </c>
       <c r="K40" t="n">
-        <v>192.6404853554703</v>
+        <v>192.6404853554702</v>
       </c>
       <c r="L40" t="n">
-        <v>246.5134974572271</v>
+        <v>246.513497457227</v>
       </c>
       <c r="M40" t="n">
-        <v>259.9139193258509</v>
+        <v>259.9139193258508</v>
       </c>
       <c r="N40" t="n">
         <v>253.7337472604565</v>
       </c>
       <c r="O40" t="n">
-        <v>234.3641835920856</v>
+        <v>234.3641835920855</v>
       </c>
       <c r="P40" t="n">
-        <v>200.5390467268526</v>
+        <v>200.5390467268525</v>
       </c>
       <c r="Q40" t="n">
         <v>138.8428412057306</v>
       </c>
       <c r="R40" t="n">
-        <v>74.55397813522347</v>
+        <v>74.55397813522346</v>
       </c>
       <c r="S40" t="n">
-        <v>28.89607280332054</v>
+        <v>28.89607280332053</v>
       </c>
       <c r="T40" t="n">
-        <v>7.084587489598672</v>
+        <v>7.08458748959867</v>
       </c>
       <c r="U40" t="n">
-        <v>0.09044154242040871</v>
+        <v>0.09044154242040868</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,49 +34122,49 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>3.696438249678339</v>
+        <v>3.696438249678338</v>
       </c>
       <c r="H41" t="n">
-        <v>37.8561482245183</v>
+        <v>37.85614822451829</v>
       </c>
       <c r="I41" t="n">
         <v>142.5069356207243</v>
       </c>
       <c r="J41" t="n">
-        <v>313.7305758936372</v>
+        <v>313.7305758936371</v>
       </c>
       <c r="K41" t="n">
-        <v>470.2008070025214</v>
+        <v>470.2008070025213</v>
       </c>
       <c r="L41" t="n">
-        <v>583.325679086115</v>
+        <v>583.3256790861149</v>
       </c>
       <c r="M41" t="n">
-        <v>649.0622128088321</v>
+        <v>649.062212808832</v>
       </c>
       <c r="N41" t="n">
-        <v>659.5647179857308</v>
+        <v>659.5647179857306</v>
       </c>
       <c r="O41" t="n">
-        <v>622.8082601404917</v>
+        <v>622.8082601404916</v>
       </c>
       <c r="P41" t="n">
-        <v>531.5524408515577</v>
+        <v>531.5524408515575</v>
       </c>
       <c r="Q41" t="n">
-        <v>399.173746034952</v>
+        <v>399.1737460349519</v>
       </c>
       <c r="R41" t="n">
-        <v>232.1963892013572</v>
+        <v>232.1963892013571</v>
       </c>
       <c r="S41" t="n">
-        <v>84.23258661454524</v>
+        <v>84.23258661454521</v>
       </c>
       <c r="T41" t="n">
-        <v>16.18115843796694</v>
+        <v>16.18115843796693</v>
       </c>
       <c r="U41" t="n">
-        <v>0.2957150599742671</v>
+        <v>0.295715059974267</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34204,31 +34204,31 @@
         <v>1.977768823872709</v>
       </c>
       <c r="H42" t="n">
-        <v>19.10108311477064</v>
+        <v>19.10108311477063</v>
       </c>
       <c r="I42" t="n">
-        <v>68.09423362895073</v>
+        <v>68.09423362895072</v>
       </c>
       <c r="J42" t="n">
         <v>186.8557817326405</v>
       </c>
       <c r="K42" t="n">
-        <v>319.366292932112</v>
+        <v>319.3662929321119</v>
       </c>
       <c r="L42" t="n">
         <v>429.427393095695</v>
       </c>
       <c r="M42" t="n">
-        <v>501.1215129610807</v>
+        <v>501.1215129610805</v>
       </c>
       <c r="N42" t="n">
-        <v>514.3847082755605</v>
+        <v>514.3847082755603</v>
       </c>
       <c r="O42" t="n">
-        <v>470.5615148623809</v>
+        <v>470.5615148623808</v>
       </c>
       <c r="P42" t="n">
-        <v>377.6671011130264</v>
+        <v>377.6671011130263</v>
       </c>
       <c r="Q42" t="n">
         <v>252.4604554824181</v>
@@ -34237,13 +34237,13 @@
         <v>122.7951555734302</v>
       </c>
       <c r="S42" t="n">
-        <v>36.73618846096894</v>
+        <v>36.73618846096893</v>
       </c>
       <c r="T42" t="n">
-        <v>7.971796268153592</v>
+        <v>7.97179626815359</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1301163699916257</v>
+        <v>0.1301163699916256</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34280,49 +34280,49 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>1.658094944374158</v>
+        <v>1.658094944374157</v>
       </c>
       <c r="H43" t="n">
         <v>14.74197141452661</v>
       </c>
       <c r="I43" t="n">
-        <v>49.86343705445196</v>
+        <v>49.86343705445194</v>
       </c>
       <c r="J43" t="n">
         <v>117.2273125672529</v>
       </c>
       <c r="K43" t="n">
-        <v>192.6404853554703</v>
+        <v>192.6404853554702</v>
       </c>
       <c r="L43" t="n">
-        <v>246.5134974572271</v>
+        <v>246.513497457227</v>
       </c>
       <c r="M43" t="n">
-        <v>259.9139193258509</v>
+        <v>259.9139193258508</v>
       </c>
       <c r="N43" t="n">
         <v>253.7337472604565</v>
       </c>
       <c r="O43" t="n">
-        <v>234.3641835920856</v>
+        <v>234.3641835920855</v>
       </c>
       <c r="P43" t="n">
-        <v>200.5390467268526</v>
+        <v>200.5390467268525</v>
       </c>
       <c r="Q43" t="n">
         <v>138.8428412057306</v>
       </c>
       <c r="R43" t="n">
-        <v>74.55397813522347</v>
+        <v>74.55397813522346</v>
       </c>
       <c r="S43" t="n">
-        <v>28.89607280332054</v>
+        <v>28.89607280332053</v>
       </c>
       <c r="T43" t="n">
-        <v>7.084587489598672</v>
+        <v>7.08458748959867</v>
       </c>
       <c r="U43" t="n">
-        <v>0.09044154242040871</v>
+        <v>0.09044154242040868</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,49 +34359,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>3.696438249678339</v>
+        <v>3.696438249678338</v>
       </c>
       <c r="H44" t="n">
-        <v>37.8561482245183</v>
+        <v>37.85614822451829</v>
       </c>
       <c r="I44" t="n">
         <v>142.5069356207243</v>
       </c>
       <c r="J44" t="n">
-        <v>313.7305758936372</v>
+        <v>313.7305758936371</v>
       </c>
       <c r="K44" t="n">
-        <v>470.2008070025214</v>
+        <v>470.2008070025213</v>
       </c>
       <c r="L44" t="n">
-        <v>583.325679086115</v>
+        <v>583.3256790861149</v>
       </c>
       <c r="M44" t="n">
-        <v>649.0622128088321</v>
+        <v>649.062212808832</v>
       </c>
       <c r="N44" t="n">
-        <v>659.5647179857308</v>
+        <v>659.5647179857306</v>
       </c>
       <c r="O44" t="n">
-        <v>622.808260140491</v>
+        <v>622.8082601404916</v>
       </c>
       <c r="P44" t="n">
-        <v>531.5524408515577</v>
+        <v>531.5524408515575</v>
       </c>
       <c r="Q44" t="n">
-        <v>399.173746034952</v>
+        <v>399.1737460349519</v>
       </c>
       <c r="R44" t="n">
-        <v>232.1963892013572</v>
+        <v>232.1963892013571</v>
       </c>
       <c r="S44" t="n">
-        <v>84.23258661454524</v>
+        <v>84.23258661454521</v>
       </c>
       <c r="T44" t="n">
-        <v>16.18115843796694</v>
+        <v>16.18115843796693</v>
       </c>
       <c r="U44" t="n">
-        <v>0.2957150599742671</v>
+        <v>0.295715059974267</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34441,31 +34441,31 @@
         <v>1.977768823872709</v>
       </c>
       <c r="H45" t="n">
-        <v>19.10108311477064</v>
+        <v>19.10108311477063</v>
       </c>
       <c r="I45" t="n">
-        <v>68.09423362895073</v>
+        <v>68.09423362895072</v>
       </c>
       <c r="J45" t="n">
         <v>186.8557817326405</v>
       </c>
       <c r="K45" t="n">
-        <v>319.366292932112</v>
+        <v>319.3662929321119</v>
       </c>
       <c r="L45" t="n">
         <v>429.427393095695</v>
       </c>
       <c r="M45" t="n">
-        <v>501.1215129610807</v>
+        <v>501.1215129610805</v>
       </c>
       <c r="N45" t="n">
-        <v>514.3847082755605</v>
+        <v>514.3847082755603</v>
       </c>
       <c r="O45" t="n">
-        <v>470.5615148623809</v>
+        <v>470.5615148623808</v>
       </c>
       <c r="P45" t="n">
-        <v>377.6671011130264</v>
+        <v>377.6671011130263</v>
       </c>
       <c r="Q45" t="n">
         <v>252.4604554824181</v>
@@ -34474,13 +34474,13 @@
         <v>122.7951555734302</v>
       </c>
       <c r="S45" t="n">
-        <v>36.73618846096894</v>
+        <v>36.73618846096893</v>
       </c>
       <c r="T45" t="n">
-        <v>7.971796268153592</v>
+        <v>7.97179626815359</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1301163699916257</v>
+        <v>0.1301163699916256</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34517,49 +34517,49 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>1.658094944374158</v>
+        <v>1.658094944374157</v>
       </c>
       <c r="H46" t="n">
         <v>14.74197141452661</v>
       </c>
       <c r="I46" t="n">
-        <v>49.86343705445196</v>
+        <v>49.86343705445194</v>
       </c>
       <c r="J46" t="n">
         <v>117.2273125672529</v>
       </c>
       <c r="K46" t="n">
-        <v>192.6404853554703</v>
+        <v>192.6404853554702</v>
       </c>
       <c r="L46" t="n">
-        <v>246.5134974572271</v>
+        <v>246.513497457227</v>
       </c>
       <c r="M46" t="n">
-        <v>259.9139193258509</v>
+        <v>259.9139193258508</v>
       </c>
       <c r="N46" t="n">
         <v>253.7337472604565</v>
       </c>
       <c r="O46" t="n">
-        <v>234.3641835920856</v>
+        <v>234.3641835920855</v>
       </c>
       <c r="P46" t="n">
-        <v>200.5390467268526</v>
+        <v>200.5390467268525</v>
       </c>
       <c r="Q46" t="n">
         <v>138.8428412057306</v>
       </c>
       <c r="R46" t="n">
-        <v>74.55397813522347</v>
+        <v>74.55397813522346</v>
       </c>
       <c r="S46" t="n">
-        <v>28.89607280332054</v>
+        <v>28.89607280332053</v>
       </c>
       <c r="T46" t="n">
-        <v>7.084587489598672</v>
+        <v>7.08458748959867</v>
       </c>
       <c r="U46" t="n">
-        <v>0.09044154242040871</v>
+        <v>0.09044154242040868</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -35488,19 +35488,19 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>186.1091904063826</v>
+        <v>69.98609258703304</v>
       </c>
       <c r="K12" t="n">
-        <v>181.524853957753</v>
+        <v>445.9900909703316</v>
       </c>
       <c r="L12" t="n">
-        <v>409.6125748283507</v>
+        <v>290.8730133158208</v>
       </c>
       <c r="M12" t="n">
         <v>358.9874790390623</v>
       </c>
       <c r="N12" t="n">
-        <v>622.7228616087751</v>
+        <v>383.0429961922271</v>
       </c>
       <c r="O12" t="n">
         <v>327.9652704179364</v>
@@ -35509,7 +35509,7 @@
         <v>243.6926936986961</v>
       </c>
       <c r="Q12" t="n">
-        <v>112.4786813963966</v>
+        <v>322.5559691322457</v>
       </c>
       <c r="R12" t="n">
         <v>22.63732142078703</v>
@@ -35646,31 +35646,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>132.6846713669509</v>
+        <v>132.684671366951</v>
       </c>
       <c r="K14" t="n">
         <v>250.1109559575409</v>
       </c>
       <c r="L14" t="n">
-        <v>347.5592641161277</v>
+        <v>347.5592641161278</v>
       </c>
       <c r="M14" t="n">
-        <v>418.7159795815594</v>
+        <v>418.7159795815595</v>
       </c>
       <c r="N14" t="n">
-        <v>430.1516543891399</v>
+        <v>430.15165438914</v>
       </c>
       <c r="O14" t="n">
-        <v>392.710048718805</v>
+        <v>392.7100487188051</v>
       </c>
       <c r="P14" t="n">
-        <v>300.3194450962881</v>
+        <v>300.3194450962882</v>
       </c>
       <c r="Q14" t="n">
         <v>176.8680561605026</v>
       </c>
       <c r="R14" t="n">
-        <v>16.61085138722504</v>
+        <v>16.61085138722507</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35728,7 +35728,7 @@
         <v>60.01815506597381</v>
       </c>
       <c r="K15" t="n">
-        <v>181.524853957753</v>
+        <v>370.2098690080891</v>
       </c>
       <c r="L15" t="n">
         <v>290.8730133158209</v>
@@ -35740,10 +35740,10 @@
         <v>383.0429961922272</v>
       </c>
       <c r="O15" t="n">
-        <v>622.7228616087749</v>
+        <v>327.9652704179366</v>
       </c>
       <c r="P15" t="n">
-        <v>456.0828861981304</v>
+        <v>562.1554623386334</v>
       </c>
       <c r="Q15" t="n">
         <v>112.4786813963966</v>
@@ -35804,10 +35804,10 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>23.86813245058016</v>
+        <v>23.86813245058018</v>
       </c>
       <c r="K16" t="n">
-        <v>170.3709935295874</v>
+        <v>170.3709935295875</v>
       </c>
       <c r="L16" t="n">
         <v>274.1035227175432</v>
@@ -35886,7 +35886,7 @@
         <v>132.6846713669509</v>
       </c>
       <c r="K17" t="n">
-        <v>250.1109559575409</v>
+        <v>250.1109559575408</v>
       </c>
       <c r="L17" t="n">
         <v>347.5592641161277</v>
@@ -35895,19 +35895,19 @@
         <v>418.7159795815594</v>
       </c>
       <c r="N17" t="n">
-        <v>430.1516543891399</v>
+        <v>430.1516543891398</v>
       </c>
       <c r="O17" t="n">
         <v>392.710048718805</v>
       </c>
       <c r="P17" t="n">
-        <v>300.3194450962881</v>
+        <v>300.319445096288</v>
       </c>
       <c r="Q17" t="n">
-        <v>176.8680561605026</v>
+        <v>176.8680561605025</v>
       </c>
       <c r="R17" t="n">
-        <v>16.61085138722504</v>
+        <v>16.61085138722501</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35962,28 +35962,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>60.01815506597381</v>
+        <v>186.1091904063826</v>
       </c>
       <c r="K18" t="n">
-        <v>370.2098690080894</v>
+        <v>445.9900909703316</v>
       </c>
       <c r="L18" t="n">
-        <v>290.8730133158209</v>
+        <v>290.8730133158208</v>
       </c>
       <c r="M18" t="n">
-        <v>358.9874790390624</v>
+        <v>358.9874790390623</v>
       </c>
       <c r="N18" t="n">
-        <v>383.0429961922272</v>
+        <v>383.0429961922271</v>
       </c>
       <c r="O18" t="n">
-        <v>327.9652704179365</v>
+        <v>327.9652704179364</v>
       </c>
       <c r="P18" t="n">
-        <v>562.1554623386332</v>
+        <v>243.6926936986961</v>
       </c>
       <c r="Q18" t="n">
-        <v>112.4786813963966</v>
+        <v>229.0701927336829</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36041,7 +36041,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>23.86813245058016</v>
+        <v>23.86813245058015</v>
       </c>
       <c r="K19" t="n">
         <v>170.3709935295874</v>
@@ -36050,7 +36050,7 @@
         <v>274.1035227175432</v>
       </c>
       <c r="M19" t="n">
-        <v>299.4977962876915</v>
+        <v>299.4977962876914</v>
       </c>
       <c r="N19" t="n">
         <v>297.8659196396851</v>
@@ -36062,7 +36062,7 @@
         <v>197.8176059917461</v>
       </c>
       <c r="Q19" t="n">
-        <v>52.68079795403624</v>
+        <v>52.68079795403621</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36123,7 +36123,7 @@
         <v>132.6846713669509</v>
       </c>
       <c r="K20" t="n">
-        <v>250.1109559575409</v>
+        <v>250.1109559575408</v>
       </c>
       <c r="L20" t="n">
         <v>347.5592641161277</v>
@@ -36132,19 +36132,19 @@
         <v>418.7159795815594</v>
       </c>
       <c r="N20" t="n">
-        <v>430.1516543891399</v>
+        <v>430.1516543891398</v>
       </c>
       <c r="O20" t="n">
         <v>392.710048718805</v>
       </c>
       <c r="P20" t="n">
-        <v>300.3194450962881</v>
+        <v>300.319445096288</v>
       </c>
       <c r="Q20" t="n">
-        <v>176.8680561605026</v>
+        <v>176.8680561605025</v>
       </c>
       <c r="R20" t="n">
-        <v>16.61085138722504</v>
+        <v>16.61085138722501</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36199,28 +36199,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>186.1091904063827</v>
+        <v>186.1091904063826</v>
       </c>
       <c r="K21" t="n">
         <v>181.524853957753</v>
       </c>
       <c r="L21" t="n">
-        <v>290.8730133158209</v>
+        <v>290.8730133158208</v>
       </c>
       <c r="M21" t="n">
-        <v>622.7228616087749</v>
+        <v>529.9669396530784</v>
       </c>
       <c r="N21" t="n">
-        <v>383.0429961922272</v>
+        <v>383.0429961922271</v>
       </c>
       <c r="O21" t="n">
-        <v>445.2866361980876</v>
+        <v>327.9652704179364</v>
       </c>
       <c r="P21" t="n">
         <v>243.6926936986961</v>
       </c>
       <c r="Q21" t="n">
-        <v>112.4786813963966</v>
+        <v>322.5559691322457</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36278,7 +36278,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>23.86813245058016</v>
+        <v>23.86813245058015</v>
       </c>
       <c r="K22" t="n">
         <v>170.3709935295874</v>
@@ -36287,7 +36287,7 @@
         <v>274.1035227175432</v>
       </c>
       <c r="M22" t="n">
-        <v>299.4977962876915</v>
+        <v>299.4977962876914</v>
       </c>
       <c r="N22" t="n">
         <v>297.8659196396851</v>
@@ -36299,7 +36299,7 @@
         <v>197.8176059917461</v>
       </c>
       <c r="Q22" t="n">
-        <v>52.68079795403624</v>
+        <v>52.68079795403621</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36357,31 +36357,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>132.6846713669509</v>
+        <v>139.8619362969978</v>
       </c>
       <c r="K23" t="n">
-        <v>250.1109559575409</v>
+        <v>250.1109559575407</v>
       </c>
       <c r="L23" t="n">
-        <v>347.5592641161277</v>
+        <v>347.5592641161276</v>
       </c>
       <c r="M23" t="n">
-        <v>418.7159795815594</v>
+        <v>418.7159795815593</v>
       </c>
       <c r="N23" t="n">
-        <v>430.1516543891399</v>
+        <v>430.1516543891397</v>
       </c>
       <c r="O23" t="n">
-        <v>392.710048718805</v>
+        <v>392.7100487188048</v>
       </c>
       <c r="P23" t="n">
-        <v>307.4967100263336</v>
+        <v>300.319445096288</v>
       </c>
       <c r="Q23" t="n">
-        <v>176.8680561605026</v>
+        <v>176.8680561605024</v>
       </c>
       <c r="R23" t="n">
-        <v>82.32727126020748</v>
+        <v>82.32727126020743</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36436,31 +36436,31 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>60.01815506597381</v>
+        <v>186.1091904063826</v>
       </c>
       <c r="K24" t="n">
-        <v>445.9900909703316</v>
+        <v>181.524853957753</v>
       </c>
       <c r="L24" t="n">
-        <v>290.8730133158209</v>
+        <v>290.8730133158208</v>
       </c>
       <c r="M24" t="n">
-        <v>416.474470624921</v>
+        <v>358.9874790390622</v>
       </c>
       <c r="N24" t="n">
-        <v>641.1322360870907</v>
+        <v>383.0429961922271</v>
       </c>
       <c r="O24" t="n">
-        <v>327.9652704179365</v>
+        <v>327.9652704179364</v>
       </c>
       <c r="P24" t="n">
-        <v>243.6926936986961</v>
+        <v>464.9285176949535</v>
       </c>
       <c r="Q24" t="n">
-        <v>112.4786813963966</v>
+        <v>322.5559691322457</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>22.63732142078702</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36515,7 +36515,7 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>23.86813245058016</v>
+        <v>23.86813245058013</v>
       </c>
       <c r="K25" t="n">
         <v>170.3709935295874</v>
@@ -36524,19 +36524,19 @@
         <v>274.1035227175432</v>
       </c>
       <c r="M25" t="n">
-        <v>299.4977962876915</v>
+        <v>299.4977962876914</v>
       </c>
       <c r="N25" t="n">
-        <v>297.8659196396851</v>
+        <v>297.865919639685</v>
       </c>
       <c r="O25" t="n">
         <v>258.9493115061252</v>
       </c>
       <c r="P25" t="n">
-        <v>197.8176059917461</v>
+        <v>197.817605991746</v>
       </c>
       <c r="Q25" t="n">
-        <v>52.68079795403624</v>
+        <v>52.68079795403621</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36597,28 +36597,28 @@
         <v>132.6846713669509</v>
       </c>
       <c r="K26" t="n">
-        <v>250.1109559575409</v>
+        <v>250.1109559575407</v>
       </c>
       <c r="L26" t="n">
-        <v>347.5592641161277</v>
+        <v>347.5592641161276</v>
       </c>
       <c r="M26" t="n">
-        <v>418.7159795815594</v>
+        <v>418.7159795815593</v>
       </c>
       <c r="N26" t="n">
-        <v>430.1516543891399</v>
+        <v>437.3289193191866</v>
       </c>
       <c r="O26" t="n">
-        <v>465.6037335218332</v>
+        <v>392.7100487188048</v>
       </c>
       <c r="P26" t="n">
-        <v>300.3194450962881</v>
+        <v>300.319445096288</v>
       </c>
       <c r="Q26" t="n">
-        <v>176.8680561605026</v>
+        <v>176.8680561605024</v>
       </c>
       <c r="R26" t="n">
-        <v>16.61085138722504</v>
+        <v>82.32727126020743</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36673,22 +36673,22 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>79.72311305215585</v>
+        <v>186.1091904063826</v>
       </c>
       <c r="K27" t="n">
-        <v>181.524853957753</v>
+        <v>402.7606779540101</v>
       </c>
       <c r="L27" t="n">
-        <v>641.1322360870907</v>
+        <v>290.8730133158208</v>
       </c>
       <c r="M27" t="n">
-        <v>358.9874790390624</v>
+        <v>358.9874790390622</v>
       </c>
       <c r="N27" t="n">
-        <v>383.0429961922272</v>
+        <v>383.0429961922271</v>
       </c>
       <c r="O27" t="n">
-        <v>327.9652704179365</v>
+        <v>327.9652704179364</v>
       </c>
       <c r="P27" t="n">
         <v>243.6926936986961</v>
@@ -36697,7 +36697,7 @@
         <v>322.5559691322457</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>22.63732142078702</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36752,7 +36752,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>23.86813245058016</v>
+        <v>23.86813245058013</v>
       </c>
       <c r="K28" t="n">
         <v>170.3709935295874</v>
@@ -36761,19 +36761,19 @@
         <v>274.1035227175432</v>
       </c>
       <c r="M28" t="n">
-        <v>299.4977962876915</v>
+        <v>299.4977962876914</v>
       </c>
       <c r="N28" t="n">
-        <v>297.8659196396851</v>
+        <v>297.865919639685</v>
       </c>
       <c r="O28" t="n">
         <v>258.9493115061252</v>
       </c>
       <c r="P28" t="n">
-        <v>197.8176059917461</v>
+        <v>197.817605991746</v>
       </c>
       <c r="Q28" t="n">
-        <v>52.68079795403624</v>
+        <v>52.68079795403621</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36831,31 +36831,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>139.8619362969962</v>
+        <v>132.6846713669509</v>
       </c>
       <c r="K29" t="n">
-        <v>250.1109559575409</v>
+        <v>250.1109559575407</v>
       </c>
       <c r="L29" t="n">
-        <v>347.5592641161277</v>
+        <v>347.5592641161276</v>
       </c>
       <c r="M29" t="n">
-        <v>418.7159795815594</v>
+        <v>418.7159795815593</v>
       </c>
       <c r="N29" t="n">
-        <v>430.1516543891399</v>
+        <v>430.1516543891397</v>
       </c>
       <c r="O29" t="n">
-        <v>392.710048718805</v>
+        <v>392.7100487188048</v>
       </c>
       <c r="P29" t="n">
-        <v>300.3194450962881</v>
+        <v>300.319445096288</v>
       </c>
       <c r="Q29" t="n">
-        <v>176.8680561605026</v>
+        <v>184.0453210905491</v>
       </c>
       <c r="R29" t="n">
-        <v>82.32727126020748</v>
+        <v>82.32727126020743</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36910,28 +36910,28 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>60.01815506597381</v>
+        <v>186.1091904063826</v>
       </c>
       <c r="K30" t="n">
-        <v>445.9900909703316</v>
+        <v>425.3979993747971</v>
       </c>
       <c r="L30" t="n">
-        <v>324.3044877485148</v>
+        <v>290.8730133158208</v>
       </c>
       <c r="M30" t="n">
-        <v>641.1322360870907</v>
+        <v>358.9874790390622</v>
       </c>
       <c r="N30" t="n">
-        <v>383.0429961922272</v>
+        <v>383.0429961922271</v>
       </c>
       <c r="O30" t="n">
-        <v>327.9652704179365</v>
+        <v>327.9652704179364</v>
       </c>
       <c r="P30" t="n">
         <v>243.6926936986961</v>
       </c>
       <c r="Q30" t="n">
-        <v>112.4786813963966</v>
+        <v>322.5559691322457</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36989,7 +36989,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>23.86813245058016</v>
+        <v>23.86813245058013</v>
       </c>
       <c r="K31" t="n">
         <v>170.3709935295874</v>
@@ -36998,19 +36998,19 @@
         <v>274.1035227175432</v>
       </c>
       <c r="M31" t="n">
-        <v>299.4977962876915</v>
+        <v>299.4977962876914</v>
       </c>
       <c r="N31" t="n">
-        <v>297.8659196396851</v>
+        <v>297.865919639685</v>
       </c>
       <c r="O31" t="n">
         <v>258.9493115061252</v>
       </c>
       <c r="P31" t="n">
-        <v>197.8176059917461</v>
+        <v>197.817605991746</v>
       </c>
       <c r="Q31" t="n">
-        <v>52.68079795403624</v>
+        <v>52.68079795403621</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37068,31 +37068,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>205.5783561699792</v>
+        <v>132.6846713669509</v>
       </c>
       <c r="K32" t="n">
-        <v>250.1109559575409</v>
+        <v>250.1109559575407</v>
       </c>
       <c r="L32" t="n">
-        <v>347.5592641161277</v>
+        <v>347.5592641161276</v>
       </c>
       <c r="M32" t="n">
-        <v>418.7159795815594</v>
+        <v>418.7159795815593</v>
       </c>
       <c r="N32" t="n">
-        <v>430.1516543891399</v>
+        <v>430.1516543891397</v>
       </c>
       <c r="O32" t="n">
-        <v>392.710048718805</v>
+        <v>392.7100487188048</v>
       </c>
       <c r="P32" t="n">
-        <v>300.3194450962881</v>
+        <v>307.4967100263347</v>
       </c>
       <c r="Q32" t="n">
-        <v>176.8680561605026</v>
+        <v>176.8680561605024</v>
       </c>
       <c r="R32" t="n">
-        <v>16.61085138722504</v>
+        <v>82.32727126020743</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37147,28 +37147,28 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>60.01815506597381</v>
+        <v>186.1091904063826</v>
       </c>
       <c r="K33" t="n">
         <v>445.9900909703316</v>
       </c>
       <c r="L33" t="n">
-        <v>324.3044877485148</v>
+        <v>290.8730133158208</v>
       </c>
       <c r="M33" t="n">
-        <v>641.1322360870907</v>
+        <v>358.9874790390622</v>
       </c>
       <c r="N33" t="n">
-        <v>383.0429961922272</v>
+        <v>383.0429961922271</v>
       </c>
       <c r="O33" t="n">
-        <v>327.9652704179365</v>
+        <v>327.9652704179364</v>
       </c>
       <c r="P33" t="n">
         <v>243.6926936986961</v>
       </c>
       <c r="Q33" t="n">
-        <v>112.4786813963966</v>
+        <v>301.9638775367111</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37226,7 +37226,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>23.86813245058016</v>
+        <v>23.86813245058013</v>
       </c>
       <c r="K34" t="n">
         <v>170.3709935295874</v>
@@ -37235,19 +37235,19 @@
         <v>274.1035227175432</v>
       </c>
       <c r="M34" t="n">
-        <v>299.4977962876915</v>
+        <v>299.4977962876914</v>
       </c>
       <c r="N34" t="n">
-        <v>297.8659196396851</v>
+        <v>297.865919639685</v>
       </c>
       <c r="O34" t="n">
         <v>258.9493115061252</v>
       </c>
       <c r="P34" t="n">
-        <v>197.8176059917461</v>
+        <v>197.817605991746</v>
       </c>
       <c r="Q34" t="n">
-        <v>52.68079795403624</v>
+        <v>52.68079795403621</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37305,31 +37305,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>132.6846713669509</v>
+        <v>132.6846713669515</v>
       </c>
       <c r="K35" t="n">
-        <v>250.1109559575409</v>
+        <v>250.1109559575407</v>
       </c>
       <c r="L35" t="n">
-        <v>347.5592641161277</v>
+        <v>347.5592641161276</v>
       </c>
       <c r="M35" t="n">
-        <v>418.7159795815588</v>
+        <v>418.7159795815593</v>
       </c>
       <c r="N35" t="n">
-        <v>430.1516543891399</v>
+        <v>430.1516543891397</v>
       </c>
       <c r="O35" t="n">
-        <v>392.710048718805</v>
+        <v>392.7100487188048</v>
       </c>
       <c r="P35" t="n">
-        <v>300.3194450962881</v>
+        <v>300.319445096288</v>
       </c>
       <c r="Q35" t="n">
-        <v>176.8680561605026</v>
+        <v>176.8680561605024</v>
       </c>
       <c r="R35" t="n">
-        <v>16.61085138722504</v>
+        <v>16.61085138722498</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37384,22 +37384,22 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>186.1091904063827</v>
+        <v>186.1091904063826</v>
       </c>
       <c r="K36" t="n">
-        <v>322.9017368910688</v>
+        <v>230.7317540146633</v>
       </c>
       <c r="L36" t="n">
-        <v>290.8730133158209</v>
+        <v>622.7228616087749</v>
       </c>
       <c r="M36" t="n">
-        <v>358.9874790390624</v>
+        <v>358.9874790390622</v>
       </c>
       <c r="N36" t="n">
-        <v>622.7228616087749</v>
+        <v>383.0429961922271</v>
       </c>
       <c r="O36" t="n">
-        <v>327.9652704179365</v>
+        <v>327.9652704179364</v>
       </c>
       <c r="P36" t="n">
         <v>243.6926936986961</v>
@@ -37463,7 +37463,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>23.86813245058016</v>
+        <v>23.86813245058013</v>
       </c>
       <c r="K37" t="n">
         <v>170.3709935295874</v>
@@ -37472,19 +37472,19 @@
         <v>274.1035227175432</v>
       </c>
       <c r="M37" t="n">
-        <v>299.4977962876915</v>
+        <v>299.4977962876914</v>
       </c>
       <c r="N37" t="n">
-        <v>297.8659196396851</v>
+        <v>297.865919639685</v>
       </c>
       <c r="O37" t="n">
         <v>258.9493115061252</v>
       </c>
       <c r="P37" t="n">
-        <v>197.8176059917461</v>
+        <v>197.817605991746</v>
       </c>
       <c r="Q37" t="n">
-        <v>52.68079795403624</v>
+        <v>52.68079795403621</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37545,28 +37545,28 @@
         <v>132.6846713669509</v>
       </c>
       <c r="K38" t="n">
-        <v>250.1109559575409</v>
+        <v>250.1109559575407</v>
       </c>
       <c r="L38" t="n">
-        <v>347.5592641161277</v>
+        <v>347.5592641161276</v>
       </c>
       <c r="M38" t="n">
-        <v>418.7159795815594</v>
+        <v>418.7159795815593</v>
       </c>
       <c r="N38" t="n">
-        <v>430.1516543891399</v>
+        <v>430.1516543891397</v>
       </c>
       <c r="O38" t="n">
-        <v>392.710048718805</v>
+        <v>392.7100487188048</v>
       </c>
       <c r="P38" t="n">
-        <v>300.3194450962881</v>
+        <v>300.319445096288</v>
       </c>
       <c r="Q38" t="n">
-        <v>176.8680561605026</v>
+        <v>176.8680561605024</v>
       </c>
       <c r="R38" t="n">
-        <v>16.61085138722504</v>
+        <v>16.61085138722498</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37621,22 +37621,22 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>60.01815506597381</v>
+        <v>186.1091904063826</v>
       </c>
       <c r="K39" t="n">
-        <v>181.524853957753</v>
+        <v>445.9900909703316</v>
       </c>
       <c r="L39" t="n">
-        <v>290.8730133158209</v>
+        <v>407.4645246531067</v>
       </c>
       <c r="M39" t="n">
-        <v>622.7228616087749</v>
+        <v>358.9874790390622</v>
       </c>
       <c r="N39" t="n">
-        <v>622.7228616087749</v>
+        <v>383.0429961922271</v>
       </c>
       <c r="O39" t="n">
-        <v>331.6978061219486</v>
+        <v>327.9652704179364</v>
       </c>
       <c r="P39" t="n">
         <v>243.6926936986961</v>
@@ -37700,7 +37700,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>23.86813245058016</v>
+        <v>23.86813245058013</v>
       </c>
       <c r="K40" t="n">
         <v>170.3709935295874</v>
@@ -37709,19 +37709,19 @@
         <v>274.1035227175432</v>
       </c>
       <c r="M40" t="n">
-        <v>299.4977962876915</v>
+        <v>299.4977962876914</v>
       </c>
       <c r="N40" t="n">
-        <v>297.8659196396851</v>
+        <v>297.865919639685</v>
       </c>
       <c r="O40" t="n">
         <v>258.9493115061252</v>
       </c>
       <c r="P40" t="n">
-        <v>197.8176059917461</v>
+        <v>197.817605991746</v>
       </c>
       <c r="Q40" t="n">
-        <v>52.68079795403624</v>
+        <v>52.68079795403621</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37782,28 +37782,28 @@
         <v>132.6846713669509</v>
       </c>
       <c r="K41" t="n">
-        <v>250.1109559575409</v>
+        <v>250.1109559575407</v>
       </c>
       <c r="L41" t="n">
-        <v>347.5592641161277</v>
+        <v>347.5592641161276</v>
       </c>
       <c r="M41" t="n">
-        <v>418.7159795815594</v>
+        <v>418.7159795815593</v>
       </c>
       <c r="N41" t="n">
-        <v>430.1516543891399</v>
+        <v>430.1516543891397</v>
       </c>
       <c r="O41" t="n">
-        <v>392.710048718805</v>
+        <v>392.7100487188048</v>
       </c>
       <c r="P41" t="n">
-        <v>300.3194450962881</v>
+        <v>300.319445096288</v>
       </c>
       <c r="Q41" t="n">
-        <v>176.8680561605026</v>
+        <v>176.8680561605024</v>
       </c>
       <c r="R41" t="n">
-        <v>16.61085138722467</v>
+        <v>16.61085138722498</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37858,28 +37858,28 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>60.01815506597381</v>
+        <v>186.1091904063826</v>
       </c>
       <c r="K42" t="n">
-        <v>181.524853957753</v>
+        <v>352.5043145717682</v>
       </c>
       <c r="L42" t="n">
-        <v>290.8730133158209</v>
+        <v>290.8730133158208</v>
       </c>
       <c r="M42" t="n">
-        <v>358.9874790390624</v>
+        <v>358.9874790390622</v>
       </c>
       <c r="N42" t="n">
-        <v>595.4331886916614</v>
+        <v>383.0429961922271</v>
       </c>
       <c r="O42" t="n">
-        <v>622.7228616087749</v>
+        <v>327.9652704179364</v>
       </c>
       <c r="P42" t="n">
         <v>243.6926936986961</v>
       </c>
       <c r="Q42" t="n">
-        <v>112.4786813963966</v>
+        <v>322.5559691322457</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37937,7 +37937,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>23.86813245058016</v>
+        <v>23.86813245058013</v>
       </c>
       <c r="K43" t="n">
         <v>170.3709935295874</v>
@@ -37946,19 +37946,19 @@
         <v>274.1035227175432</v>
       </c>
       <c r="M43" t="n">
-        <v>299.4977962876915</v>
+        <v>299.4977962876914</v>
       </c>
       <c r="N43" t="n">
-        <v>297.8659196396851</v>
+        <v>297.865919639685</v>
       </c>
       <c r="O43" t="n">
         <v>258.9493115061252</v>
       </c>
       <c r="P43" t="n">
-        <v>197.8176059917461</v>
+        <v>197.817605991746</v>
       </c>
       <c r="Q43" t="n">
-        <v>52.68079795403624</v>
+        <v>52.68079795403621</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38019,28 +38019,28 @@
         <v>132.6846713669509</v>
       </c>
       <c r="K44" t="n">
-        <v>250.1109559575409</v>
+        <v>250.1109559575407</v>
       </c>
       <c r="L44" t="n">
-        <v>347.5592641161277</v>
+        <v>347.5592641161276</v>
       </c>
       <c r="M44" t="n">
-        <v>418.7159795815594</v>
+        <v>418.7159795815593</v>
       </c>
       <c r="N44" t="n">
-        <v>430.1516543891399</v>
+        <v>430.1516543891397</v>
       </c>
       <c r="O44" t="n">
-        <v>392.7100487188043</v>
+        <v>392.7100487188048</v>
       </c>
       <c r="P44" t="n">
-        <v>300.3194450962881</v>
+        <v>300.319445096288</v>
       </c>
       <c r="Q44" t="n">
-        <v>176.8680561605026</v>
+        <v>176.8680561605024</v>
       </c>
       <c r="R44" t="n">
-        <v>16.61085138722504</v>
+        <v>16.61085138722498</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38095,25 +38095,25 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>186.1091904063827</v>
+        <v>186.1091904063826</v>
       </c>
       <c r="K45" t="n">
-        <v>181.524853957753</v>
+        <v>244.1188336676794</v>
       </c>
       <c r="L45" t="n">
-        <v>290.8730133158209</v>
+        <v>290.8730133158208</v>
       </c>
       <c r="M45" t="n">
-        <v>500.3643619723782</v>
+        <v>358.9874790390622</v>
       </c>
       <c r="N45" t="n">
-        <v>622.7228616087749</v>
+        <v>383.0429961922271</v>
       </c>
       <c r="O45" t="n">
-        <v>327.9652704179365</v>
+        <v>327.9652704179364</v>
       </c>
       <c r="P45" t="n">
-        <v>243.6926936986961</v>
+        <v>562.1554623386332</v>
       </c>
       <c r="Q45" t="n">
         <v>112.4786813963966</v>
@@ -38174,7 +38174,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>23.86813245058016</v>
+        <v>23.86813245058013</v>
       </c>
       <c r="K46" t="n">
         <v>170.3709935295874</v>
@@ -38183,19 +38183,19 @@
         <v>274.1035227175432</v>
       </c>
       <c r="M46" t="n">
-        <v>299.4977962876915</v>
+        <v>299.4977962876914</v>
       </c>
       <c r="N46" t="n">
-        <v>297.8659196396851</v>
+        <v>297.865919639685</v>
       </c>
       <c r="O46" t="n">
         <v>258.9493115061252</v>
       </c>
       <c r="P46" t="n">
-        <v>197.8176059917461</v>
+        <v>197.817605991746</v>
       </c>
       <c r="Q46" t="n">
-        <v>52.68079795403624</v>
+        <v>52.68079795403621</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
